--- a/default-mappings-xlsx/visitreport/VisitReport_Mapping_Salesforce_DE.xlsx
+++ b/default-mappings-xlsx/visitreport/VisitReport_Mapping_Salesforce_DE.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MarcusKlapprodt\snapADDY GmbH\Sebastian Metzger - Mapping\2_Vorlagen CRM Mapping\VisitReport\2019\DE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="120" documentId="13_ncr:1_{D1FC447D-FCE2-455D-A99E-F748ABA21EF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{26C98BEF-767F-45CC-941F-E541B602E81B}"/>
+  <xr:revisionPtr revIDLastSave="157" documentId="13_ncr:1_{D1FC447D-FCE2-455D-A99E-F748ABA21EF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{29FD7FCA-714D-4BEB-A9C7-310C529C2139}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="csxn9cVURx3qmXoNDAhGCCtW5lDou+zjcdL+V0vvGz3MdfQlj2G9NUtYW6m2gFpQqfQI54JAu1yg0ZrvQ9lJVA==" workbookSaltValue="hUa66Cmn6iZ2RylzL3U9zg==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Specifications" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="checkbox">Specifications!$C$39:$D$48,Specifications!$C$28:$D$37,Specifications!$C$7:$D$24</definedName>
+    <definedName name="Field_type">Specifications!$I$7:$I$24,Specifications!$M$7:$M$24,Specifications!$Q$7:$Q$24,Specifications!$U$7:$U$24,Specifications!$Y$7:$Y$24,Specifications!$I$28:$I$37,Specifications!$M$28:$M$37,Specifications!$Q$28:$Q$37,Specifications!$U$28:$U$37,Specifications!$Y$28:$Y$37,Specifications!$I$39:$I$48,Specifications!$M$39:$M$48,Specifications!$Q$39:$Q$48,Specifications!$U$39:$U$48,Specifications!$Y$39:$Y$48,Specifications!$Y$51:$Y$61,Specifications!$U$51:$U$61,Specifications!$Q$51:$Q$61,Specifications!$M$51:$M$61,Specifications!$I$51:$I$61</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="95">
   <si>
     <t>Website</t>
   </si>
@@ -36,12 +47,6 @@
     <t>Fax</t>
   </si>
   <si>
-    <t>Text</t>
-  </si>
-  <si>
-    <t>Dropdown</t>
-  </si>
-  <si>
     <t>Salutation</t>
   </si>
   <si>
@@ -195,9 +200,6 @@
     <t>not used</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>"snapADDY"</t>
   </si>
   <si>
@@ -208,9 +210,6 @@
   </si>
   <si>
     <t>Default Value</t>
-  </si>
-  <si>
-    <t>string</t>
   </si>
   <si>
     <t>SF: Custom Entity (optional)</t>
@@ -351,13 +350,7 @@
     <t>Export-Art</t>
   </si>
   <si>
-    <t>nicht benötigt</t>
-  </si>
-  <si>
-    <t>muss ausgefüllt sein</t>
-  </si>
-  <si>
-    <t>andere Bemerkungen</t>
+    <t>das ist eine Notiz</t>
   </si>
 </sst>
 </file>
@@ -1402,7 +1395,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1533,54 +1525,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
@@ -1589,6 +1533,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1598,7 +1573,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1608,33 +1582,30 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkUp">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
+  <dxfs count="23">
     <dxf>
       <font>
         <b val="0"/>
@@ -1907,11 +1878,11 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="snapADDY" pivot="0" count="5" xr9:uid="{A8851A67-88BF-475D-B211-A3CFCBFE5DEE}">
-      <tableStyleElement type="wholeTable" dxfId="24"/>
-      <tableStyleElement type="headerRow" dxfId="23"/>
-      <tableStyleElement type="firstColumn" dxfId="22"/>
-      <tableStyleElement type="firstRowStripe" dxfId="21"/>
-      <tableStyleElement type="secondRowStripe" dxfId="20"/>
+      <tableStyleElement type="wholeTable" dxfId="22"/>
+      <tableStyleElement type="headerRow" dxfId="21"/>
+      <tableStyleElement type="firstColumn" dxfId="20"/>
+      <tableStyleElement type="firstRowStripe" dxfId="19"/>
+      <tableStyleElement type="secondRowStripe" dxfId="18"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2527,43 +2498,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5027446F-BBDF-4A57-AA45-BC7D0EB64201}">
   <dimension ref="A1:Y62"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.85546875" customWidth="1"/>
+    <col min="1" max="1" width="40.88671875" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="3.7109375" customWidth="1"/>
-    <col min="4" max="4" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="1.7109375" customWidth="1"/>
+    <col min="3" max="3" width="3.6640625" customWidth="1"/>
+    <col min="4" max="4" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="1.6640625" customWidth="1"/>
     <col min="7" max="9" width="15" customWidth="1"/>
-    <col min="10" max="10" width="1.7109375" customWidth="1"/>
+    <col min="10" max="10" width="1.6640625" customWidth="1"/>
     <col min="11" max="13" width="15" customWidth="1"/>
-    <col min="14" max="14" width="1.7109375" customWidth="1"/>
+    <col min="14" max="14" width="1.6640625" customWidth="1"/>
     <col min="15" max="17" width="15" customWidth="1"/>
-    <col min="18" max="18" width="1.7109375" customWidth="1"/>
+    <col min="18" max="18" width="1.6640625" customWidth="1"/>
     <col min="19" max="21" width="15" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="22" width="1.5703125" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="22" width="1.5546875" customWidth="1" outlineLevel="1"/>
     <col min="23" max="25" width="15" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="110" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
+    <row r="1" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="93" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:25" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="30" t="s">
-        <v>52</v>
+    <row r="2" spans="1:25" ht="21" x14ac:dyDescent="0.4">
+      <c r="A2" s="29" t="s">
+        <v>50</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -2572,244 +2543,240 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:25" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G3" s="70"/>
-      <c r="K3" s="70"/>
-    </row>
-    <row r="4" spans="1:25" ht="63" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
+    <row r="3" spans="1:25" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G3" s="69"/>
+      <c r="K3" s="69"/>
+    </row>
+    <row r="4" spans="1:25" ht="61.8" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="31"/>
+      <c r="C4" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="50"/>
+      <c r="G4" s="107" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="107"/>
+      <c r="I4" s="107"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="107" t="s">
+        <v>37</v>
+      </c>
+      <c r="L4" s="107"/>
+      <c r="M4" s="107"/>
+      <c r="O4" s="107" t="s">
+        <v>38</v>
+      </c>
+      <c r="P4" s="107"/>
+      <c r="Q4" s="107"/>
+      <c r="S4" s="101" t="s">
+        <v>58</v>
+      </c>
+      <c r="T4" s="102"/>
+      <c r="U4" s="103"/>
+      <c r="W4" s="101" t="s">
+        <v>39</v>
+      </c>
+      <c r="X4" s="102"/>
+      <c r="Y4" s="103"/>
+    </row>
+    <row r="5" spans="1:25" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="1:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="50" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="50" t="s">
-        <v>55</v>
-      </c>
-      <c r="E4" s="51"/>
-      <c r="G4" s="105" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" s="105"/>
-      <c r="I4" s="105"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="105" t="s">
-        <v>39</v>
-      </c>
-      <c r="L4" s="105"/>
-      <c r="M4" s="105"/>
-      <c r="O4" s="105" t="s">
-        <v>40</v>
-      </c>
-      <c r="P4" s="105"/>
-      <c r="Q4" s="105"/>
-      <c r="S4" s="99" t="s">
-        <v>62</v>
-      </c>
-      <c r="T4" s="100"/>
-      <c r="U4" s="101"/>
-      <c r="W4" s="99" t="s">
-        <v>41</v>
-      </c>
-      <c r="X4" s="100"/>
-      <c r="Y4" s="101"/>
-    </row>
-    <row r="5" spans="1:25" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="62" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="81"/>
-      <c r="C6" s="82"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="61" t="s">
+      <c r="B6" s="80"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="O6" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="P6" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="S6" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="T6" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="U6" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="W6" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="X6" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y6" s="25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="57"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="17"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="17"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="17"/>
+      <c r="W7" s="16"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="17"/>
+    </row>
+    <row r="8" spans="1:25" s="68" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="94" t="s">
         <v>60</v>
       </c>
-      <c r="G6" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="1"/>
-      <c r="K6" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="L6" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="M6" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="O6" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="P6" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q6" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="S6" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="T6" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="U6" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="W6" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="X6" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y6" s="26" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="83"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="58"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="18"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="18"/>
-      <c r="S7" s="17"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="18"/>
-      <c r="W7" s="17"/>
-      <c r="X7" s="5"/>
-      <c r="Y7" s="18"/>
-    </row>
-    <row r="8" spans="1:25" s="69" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="111" t="s">
-        <v>64</v>
-      </c>
-      <c r="B8" s="71" t="s">
-        <v>98</v>
-      </c>
-      <c r="C8" s="84"/>
-      <c r="D8" s="72" t="s">
-        <v>56</v>
-      </c>
-      <c r="E8" s="73"/>
-      <c r="G8" s="74" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="75"/>
-      <c r="I8" s="76" t="s">
+      <c r="B8" s="70" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="83"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="72"/>
+      <c r="G8" s="73" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="74" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="75" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8" s="76"/>
+      <c r="K8" s="73" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="74" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="75" t="s">
+        <v>45</v>
+      </c>
+      <c r="O8" s="73"/>
+      <c r="P8" s="74"/>
+      <c r="Q8" s="75"/>
+      <c r="S8" s="73" t="s">
+        <v>46</v>
+      </c>
+      <c r="T8" s="74" t="s">
+        <v>47</v>
+      </c>
+      <c r="U8" s="75"/>
+      <c r="W8" s="73"/>
+      <c r="X8" s="74"/>
+      <c r="Y8" s="75"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A9" s="95" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="33"/>
+      <c r="C9" s="84"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="58"/>
+      <c r="G9" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="J8" s="77"/>
-      <c r="K8" s="74" t="s">
-        <v>5</v>
-      </c>
-      <c r="L8" s="75"/>
-      <c r="M8" s="76" t="s">
+      <c r="H9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="O8" s="74"/>
-      <c r="P8" s="75"/>
-      <c r="Q8" s="76"/>
-      <c r="S8" s="74" t="s">
-        <v>48</v>
-      </c>
-      <c r="T8" s="75" t="s">
-        <v>49</v>
-      </c>
-      <c r="U8" s="76"/>
-      <c r="W8" s="74" t="s">
-        <v>5</v>
-      </c>
-      <c r="X8" s="75"/>
-      <c r="Y8" s="76" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" s="112" t="s">
-        <v>65</v>
-      </c>
-      <c r="B9" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="C9" s="85" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="39"/>
-      <c r="E9" s="59"/>
-      <c r="G9" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="10" t="s">
-        <v>3</v>
+      <c r="I9" s="123" t="s">
+        <v>43</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="L9" s="4"/>
-      <c r="M9" s="10" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="M9" s="123" t="s">
+        <v>43</v>
       </c>
       <c r="O9" s="9"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="10"/>
       <c r="S9" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="T9" s="15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="U9" s="10"/>
-      <c r="W9" s="9" t="s">
-        <v>6</v>
-      </c>
+      <c r="W9" s="9"/>
       <c r="X9" s="4"/>
-      <c r="Y9" s="10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10" s="112" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10" s="34"/>
-      <c r="C10" s="85" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="39"/>
-      <c r="E10" s="59"/>
+      <c r="Y9" s="10"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A10" s="95" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="33"/>
+      <c r="C10" s="84"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="58"/>
       <c r="G10" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="10" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="123" t="s">
+        <v>43</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="L10" s="4"/>
-      <c r="M10" s="10" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="123" t="s">
+        <v>43</v>
       </c>
       <c r="O10" s="9"/>
       <c r="P10" s="4"/>
@@ -2817,38 +2784,36 @@
       <c r="S10" s="9"/>
       <c r="T10" s="4"/>
       <c r="U10" s="10"/>
-      <c r="W10" s="9" t="s">
-        <v>7</v>
-      </c>
+      <c r="W10" s="9"/>
       <c r="X10" s="4"/>
-      <c r="Y10" s="10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A11" s="112" t="s">
-        <v>67</v>
-      </c>
-      <c r="B11" s="34"/>
-      <c r="C11" s="85" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="39"/>
-      <c r="E11" s="59"/>
+      <c r="Y10" s="10"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A11" s="95" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="33"/>
+      <c r="C11" s="84"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="58"/>
       <c r="G11" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="10" t="s">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" s="123" t="s">
+        <v>43</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="L11" s="4"/>
-      <c r="M11" s="10" t="s">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="M11" s="123" t="s">
+        <v>43</v>
       </c>
       <c r="O11" s="9"/>
       <c r="P11" s="4"/>
@@ -2856,323 +2821,331 @@
       <c r="S11" s="9"/>
       <c r="T11" s="4"/>
       <c r="U11" s="10"/>
-      <c r="W11" s="9" t="s">
-        <v>8</v>
-      </c>
+      <c r="W11" s="9"/>
       <c r="X11" s="4"/>
-      <c r="Y11" s="10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12" s="112" t="s">
-        <v>68</v>
-      </c>
-      <c r="B12" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="C12" s="85"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="59"/>
+      <c r="Y11" s="10"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A12" s="95" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="33"/>
+      <c r="C12" s="84"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="58"/>
       <c r="G12" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H12" s="4"/>
-      <c r="I12" s="10" t="s">
-        <v>3</v>
+        <v>7</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="123" t="s">
+        <v>43</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="9"/>
       <c r="L12" s="4"/>
       <c r="M12" s="10"/>
       <c r="O12" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="10" t="s">
-        <v>3</v>
+        <v>21</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q12" s="123" t="s">
+        <v>43</v>
       </c>
       <c r="S12" s="9"/>
       <c r="T12" s="4"/>
       <c r="U12" s="10"/>
-      <c r="W12" s="9" t="s">
-        <v>9</v>
-      </c>
+      <c r="W12" s="9"/>
       <c r="X12" s="4"/>
-      <c r="Y12" s="10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A13" s="113" t="s">
+      <c r="Y12" s="10"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A13" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="35"/>
-      <c r="C13" s="85"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="59"/>
-      <c r="G13" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="H13" s="5"/>
-      <c r="I13" s="18" t="s">
-        <v>3</v>
+      <c r="B13" s="34"/>
+      <c r="C13" s="84"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="58"/>
+      <c r="G13" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I13" s="123" t="s">
+        <v>43</v>
       </c>
       <c r="J13" s="1"/>
-      <c r="K13" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="L13" s="5"/>
-      <c r="M13" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="O13" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="18" t="s">
-        <v>3</v>
+      <c r="K13" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="M13" s="123" t="s">
+        <v>43</v>
+      </c>
+      <c r="O13" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="P13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q13" s="123" t="s">
+        <v>43</v>
       </c>
       <c r="S13" s="9"/>
       <c r="T13" s="4"/>
       <c r="U13" s="10"/>
-      <c r="W13" s="9" t="s">
+      <c r="W13" s="9"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="10"/>
+    </row>
+    <row r="14" spans="1:25" s="68" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="94" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="70"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="72"/>
+      <c r="G14" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="78" t="s">
+        <v>9</v>
+      </c>
+      <c r="I14" s="79" t="s">
+        <v>43</v>
+      </c>
+      <c r="J14" s="76"/>
+      <c r="K14" s="77" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" s="78" t="s">
+        <v>17</v>
+      </c>
+      <c r="M14" s="123" t="s">
+        <v>43</v>
+      </c>
+      <c r="O14" s="77" t="s">
+        <v>23</v>
+      </c>
+      <c r="P14" s="78" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q14" s="123" t="s">
+        <v>43</v>
+      </c>
+      <c r="S14" s="77"/>
+      <c r="T14" s="78"/>
+      <c r="U14" s="79"/>
+      <c r="W14" s="77"/>
+      <c r="X14" s="78"/>
+      <c r="Y14" s="79"/>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A15" s="97" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="35"/>
+      <c r="C15" s="84"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="58"/>
+      <c r="G15" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="X13" s="4"/>
-      <c r="Y13" s="10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" s="69" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="111" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" s="71"/>
-      <c r="C14" s="84"/>
-      <c r="D14" s="72" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" s="73"/>
-      <c r="G14" s="78" t="s">
-        <v>11</v>
-      </c>
-      <c r="H14" s="79"/>
-      <c r="I14" s="80" t="s">
-        <v>3</v>
-      </c>
-      <c r="J14" s="77"/>
-      <c r="K14" s="78" t="s">
-        <v>19</v>
-      </c>
-      <c r="L14" s="79"/>
-      <c r="M14" s="80" t="s">
-        <v>3</v>
-      </c>
-      <c r="O14" s="78" t="s">
-        <v>25</v>
-      </c>
-      <c r="P14" s="79"/>
-      <c r="Q14" s="80" t="s">
-        <v>3</v>
-      </c>
-      <c r="S14" s="78"/>
-      <c r="T14" s="79"/>
-      <c r="U14" s="80"/>
-      <c r="W14" s="78" t="s">
-        <v>11</v>
-      </c>
-      <c r="X14" s="79"/>
-      <c r="Y14" s="80" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A15" s="114" t="s">
-        <v>69</v>
-      </c>
-      <c r="B15" s="36"/>
-      <c r="C15" s="85"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="59"/>
-      <c r="G15" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" s="15"/>
-      <c r="I15" s="16" t="s">
-        <v>3</v>
+      <c r="H15" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="123" t="s">
+        <v>43</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="L15" s="15"/>
-      <c r="M15" s="16" t="s">
-        <v>3</v>
+        <v>18</v>
+      </c>
+      <c r="L15" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="M15" s="123" t="s">
+        <v>43</v>
       </c>
       <c r="O15" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="16" t="s">
-        <v>3</v>
+        <v>24</v>
+      </c>
+      <c r="P15" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q15" s="123" t="s">
+        <v>43</v>
       </c>
       <c r="S15" s="9"/>
       <c r="T15" s="4"/>
       <c r="U15" s="10"/>
-      <c r="W15" s="9" t="s">
-        <v>12</v>
-      </c>
+      <c r="W15" s="9"/>
       <c r="X15" s="4"/>
-      <c r="Y15" s="10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16" s="112" t="s">
-        <v>70</v>
-      </c>
-      <c r="B16" s="34"/>
-      <c r="C16" s="85"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="59"/>
+      <c r="Y15" s="10"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A16" s="95" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="33"/>
+      <c r="C16" s="84"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="58"/>
       <c r="G16" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="4"/>
-      <c r="I16" s="10" t="s">
-        <v>3</v>
+        <v>11</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16" s="123" t="s">
+        <v>43</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="L16" s="4"/>
-      <c r="M16" s="10" t="s">
-        <v>3</v>
+        <v>19</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M16" s="123" t="s">
+        <v>43</v>
       </c>
       <c r="O16" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="10" t="s">
-        <v>3</v>
+        <v>25</v>
+      </c>
+      <c r="P16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q16" s="123" t="s">
+        <v>43</v>
       </c>
       <c r="S16" s="9"/>
       <c r="T16" s="4"/>
       <c r="U16" s="10"/>
-      <c r="W16" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="W16" s="9"/>
       <c r="X16" s="4"/>
-      <c r="Y16" s="10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A17" s="112" t="s">
+      <c r="Y16" s="10"/>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A17" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="34"/>
-      <c r="C17" s="85"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="59"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="84"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="58"/>
       <c r="G17" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H17" s="4"/>
-      <c r="I17" s="10" t="s">
-        <v>3</v>
+        <v>12</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" s="123" t="s">
+        <v>43</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="L17" s="4"/>
-      <c r="M17" s="10" t="s">
-        <v>3</v>
+        <v>20</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M17" s="123" t="s">
+        <v>43</v>
       </c>
       <c r="O17" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="10" t="s">
-        <v>3</v>
+        <v>26</v>
+      </c>
+      <c r="P17" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q17" s="123" t="s">
+        <v>43</v>
       </c>
       <c r="S17" s="9"/>
       <c r="T17" s="4"/>
       <c r="U17" s="10"/>
-      <c r="W17" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="W17" s="9"/>
       <c r="X17" s="4"/>
-      <c r="Y17" s="10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A18" s="112" t="s">
-        <v>71</v>
-      </c>
-      <c r="B18" s="34"/>
-      <c r="C18" s="85"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="59"/>
+      <c r="Y17" s="10"/>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A18" s="95" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="33"/>
+      <c r="C18" s="84"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="58"/>
       <c r="G18" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H18" s="4"/>
-      <c r="I18" s="10" t="s">
-        <v>3</v>
+        <v>13</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18" s="123" t="s">
+        <v>43</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="L18" s="4"/>
-      <c r="M18" s="10" t="s">
-        <v>3</v>
+        <v>13</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M18" s="123" t="s">
+        <v>43</v>
       </c>
       <c r="O18" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="10" t="s">
-        <v>3</v>
+        <v>13</v>
+      </c>
+      <c r="P18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q18" s="123" t="s">
+        <v>43</v>
       </c>
       <c r="S18" s="9"/>
       <c r="T18" s="4"/>
       <c r="U18" s="10"/>
-      <c r="W18" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="W18" s="9"/>
       <c r="X18" s="4"/>
-      <c r="Y18" s="10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A19" s="112" t="s">
-        <v>72</v>
-      </c>
-      <c r="B19" s="34"/>
-      <c r="C19" s="85"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="59"/>
+      <c r="Y18" s="10"/>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A19" s="95" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="33"/>
+      <c r="C19" s="84"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="58"/>
       <c r="G19" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" s="4"/>
-      <c r="I19" s="10" t="s">
-        <v>3</v>
+        <v>14</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" s="123" t="s">
+        <v>43</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="L19" s="4"/>
-      <c r="M19" s="10" t="s">
-        <v>3</v>
+        <v>14</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="M19" s="123" t="s">
+        <v>43</v>
       </c>
       <c r="O19" s="9"/>
       <c r="P19" s="4"/>
@@ -3180,81 +3153,79 @@
       <c r="S19" s="9"/>
       <c r="T19" s="4"/>
       <c r="U19" s="10"/>
-      <c r="W19" s="9" t="s">
-        <v>16</v>
-      </c>
+      <c r="W19" s="9"/>
       <c r="X19" s="4"/>
-      <c r="Y19" s="10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25" s="69" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="111" t="s">
-        <v>73</v>
-      </c>
-      <c r="B20" s="71"/>
-      <c r="C20" s="84"/>
-      <c r="D20" s="72" t="s">
-        <v>56</v>
-      </c>
-      <c r="E20" s="73"/>
-      <c r="G20" s="78" t="s">
+      <c r="Y19" s="10"/>
+    </row>
+    <row r="20" spans="1:25" s="68" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="94" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="70"/>
+      <c r="C20" s="83"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="72"/>
+      <c r="G20" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="H20" s="79"/>
-      <c r="I20" s="80" t="s">
-        <v>3</v>
-      </c>
-      <c r="J20" s="77"/>
-      <c r="K20" s="78" t="s">
+      <c r="H20" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="L20" s="79"/>
-      <c r="M20" s="80" t="s">
-        <v>3</v>
-      </c>
-      <c r="O20" s="78" t="s">
+      <c r="I20" s="123" t="s">
+        <v>43</v>
+      </c>
+      <c r="J20" s="76"/>
+      <c r="K20" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="P20" s="79"/>
-      <c r="Q20" s="80" t="s">
-        <v>3</v>
-      </c>
-      <c r="S20" s="78"/>
-      <c r="T20" s="79"/>
-      <c r="U20" s="80"/>
-      <c r="W20" s="78" t="s">
+      <c r="L20" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="X20" s="79"/>
-      <c r="Y20" s="80" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A21" s="112" t="s">
-        <v>74</v>
-      </c>
-      <c r="B21" s="34"/>
-      <c r="C21" s="85" t="s">
-        <v>56</v>
-      </c>
-      <c r="D21" s="39"/>
-      <c r="E21" s="59"/>
+      <c r="M20" s="123" t="s">
+        <v>43</v>
+      </c>
+      <c r="O20" s="77" t="s">
+        <v>2</v>
+      </c>
+      <c r="P20" s="78" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q20" s="123" t="s">
+        <v>43</v>
+      </c>
+      <c r="S20" s="77"/>
+      <c r="T20" s="78"/>
+      <c r="U20" s="79"/>
+      <c r="W20" s="77"/>
+      <c r="X20" s="78"/>
+      <c r="Y20" s="79"/>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A21" s="95" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="33"/>
+      <c r="C21" s="84"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="58"/>
       <c r="G21" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H21" s="4"/>
-      <c r="I21" s="10" t="s">
-        <v>3</v>
+        <v>15</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21" s="123" t="s">
+        <v>43</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L21" s="4"/>
-      <c r="M21" s="10" t="s">
-        <v>3</v>
+        <v>15</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M21" s="123" t="s">
+        <v>43</v>
       </c>
       <c r="O21" s="9"/>
       <c r="P21" s="4"/>
@@ -3262,82 +3233,78 @@
       <c r="S21" s="9"/>
       <c r="T21" s="4"/>
       <c r="U21" s="10"/>
-      <c r="W21" s="9" t="s">
-        <v>17</v>
-      </c>
+      <c r="W21" s="9"/>
       <c r="X21" s="4"/>
-      <c r="Y21" s="10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A22" s="113" t="s">
-        <v>75</v>
-      </c>
-      <c r="B22" s="34"/>
-      <c r="C22" s="85"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="59"/>
-      <c r="G22" s="17" t="s">
+      <c r="Y21" s="10"/>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A22" s="96" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="33"/>
+      <c r="C22" s="84"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="58"/>
+      <c r="G22" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="H22" s="5"/>
-      <c r="I22" s="18" t="s">
-        <v>3</v>
+      <c r="H22" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I22" s="123" t="s">
+        <v>43</v>
       </c>
       <c r="J22" s="1"/>
-      <c r="K22" s="17"/>
+      <c r="K22" s="16"/>
       <c r="L22" s="5"/>
-      <c r="M22" s="18"/>
-      <c r="O22" s="17" t="s">
+      <c r="M22" s="17"/>
+      <c r="O22" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="S22" s="17"/>
+      <c r="P22" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="123" t="s">
+        <v>43</v>
+      </c>
+      <c r="S22" s="16"/>
       <c r="T22" s="5"/>
-      <c r="U22" s="18"/>
-      <c r="W22" s="17" t="s">
-        <v>0</v>
-      </c>
+      <c r="U22" s="17"/>
+      <c r="W22" s="16"/>
       <c r="X22" s="5"/>
-      <c r="Y22" s="18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A23" s="113" t="s">
-        <v>76</v>
-      </c>
-      <c r="B23" s="34"/>
-      <c r="C23" s="85"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="59"/>
-      <c r="G23" s="17"/>
+      <c r="Y22" s="17"/>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A23" s="96" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="33"/>
+      <c r="C23" s="84"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="58"/>
+      <c r="G23" s="16"/>
       <c r="H23" s="5"/>
-      <c r="I23" s="18"/>
+      <c r="I23" s="17"/>
       <c r="J23" s="1"/>
-      <c r="K23" s="17"/>
+      <c r="K23" s="16"/>
       <c r="L23" s="5"/>
-      <c r="M23" s="18"/>
-      <c r="O23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="O23" s="16"/>
       <c r="P23" s="5"/>
-      <c r="Q23" s="18"/>
-      <c r="S23" s="17"/>
+      <c r="Q23" s="17"/>
+      <c r="S23" s="16"/>
       <c r="T23" s="5"/>
-      <c r="U23" s="18"/>
-      <c r="W23" s="17"/>
+      <c r="U23" s="17"/>
+      <c r="W23" s="16"/>
       <c r="X23" s="5"/>
-      <c r="Y23" s="18"/>
-    </row>
-    <row r="24" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="29"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="86"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="60"/>
+      <c r="Y23" s="17"/>
+    </row>
+    <row r="24" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="28"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="85"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="59"/>
       <c r="G24" s="11"/>
       <c r="H24" s="12"/>
       <c r="I24" s="13"/>
@@ -3355,7 +3322,7 @@
       <c r="X24" s="12"/>
       <c r="Y24" s="13"/>
     </row>
-    <row r="25" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G25" s="7"/>
       <c r="H25" s="1"/>
       <c r="I25" s="8"/>
@@ -3366,124 +3333,124 @@
       <c r="O25" s="7"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="8"/>
-      <c r="S25" s="87"/>
+      <c r="S25" s="86"/>
       <c r="T25" s="2"/>
-      <c r="U25" s="88"/>
-      <c r="V25" s="89"/>
-      <c r="W25" s="87"/>
+      <c r="U25" s="87"/>
+      <c r="V25" s="88"/>
+      <c r="W25" s="86"/>
       <c r="X25" s="1"/>
       <c r="Y25" s="8"/>
     </row>
-    <row r="26" spans="1:25" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="63" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="G26" s="106" t="s">
+    <row r="26" spans="1:25" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="62" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="G26" s="108" t="s">
+        <v>32</v>
+      </c>
+      <c r="H26" s="109"/>
+      <c r="I26" s="110"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="108" t="s">
+        <v>37</v>
+      </c>
+      <c r="L26" s="109"/>
+      <c r="M26" s="110"/>
+      <c r="N26" s="30"/>
+      <c r="O26" s="108" t="s">
+        <v>38</v>
+      </c>
+      <c r="P26" s="109"/>
+      <c r="Q26" s="110"/>
+      <c r="R26" s="30"/>
+      <c r="S26" s="104" t="s">
+        <v>39</v>
+      </c>
+      <c r="T26" s="105"/>
+      <c r="U26" s="106"/>
+      <c r="V26" s="30"/>
+      <c r="W26" s="104" t="s">
+        <v>39</v>
+      </c>
+      <c r="X26" s="105"/>
+      <c r="Y26" s="106"/>
+    </row>
+    <row r="27" spans="1:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="H26" s="107"/>
-      <c r="I26" s="108"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="106" t="s">
-        <v>39</v>
-      </c>
-      <c r="L26" s="107"/>
-      <c r="M26" s="108"/>
-      <c r="N26" s="31"/>
-      <c r="O26" s="106" t="s">
+      <c r="B27" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="P26" s="107"/>
-      <c r="Q26" s="108"/>
-      <c r="R26" s="31"/>
-      <c r="S26" s="102" t="s">
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H27" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="I27" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="K27" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="L27" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="O27" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="P27" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="S27" s="89" t="s">
+        <v>27</v>
+      </c>
+      <c r="T27" s="90" t="s">
+        <v>30</v>
+      </c>
+      <c r="U27" s="91" t="s">
+        <v>28</v>
+      </c>
+      <c r="W27" s="89" t="s">
+        <v>27</v>
+      </c>
+      <c r="X27" s="90" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y27" s="91" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="98" t="s">
+        <v>73</v>
+      </c>
+      <c r="B28" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="T26" s="103"/>
-      <c r="U26" s="104"/>
-      <c r="V26" s="31"/>
-      <c r="W26" s="102" t="s">
-        <v>41</v>
-      </c>
-      <c r="X26" s="103"/>
-      <c r="Y26" s="104"/>
-    </row>
-    <row r="27" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="64" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27" s="65" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="65" t="s">
-        <v>60</v>
-      </c>
-      <c r="G27" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="H27" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="I27" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="K27" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="L27" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="M27" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="O27" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="P27" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q27" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="S27" s="90" t="s">
-        <v>29</v>
-      </c>
-      <c r="T27" s="91" t="s">
-        <v>32</v>
-      </c>
-      <c r="U27" s="92" t="s">
-        <v>30</v>
-      </c>
-      <c r="W27" s="90" t="s">
-        <v>29</v>
-      </c>
-      <c r="X27" s="91" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y27" s="92" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="115" t="s">
-        <v>77</v>
-      </c>
-      <c r="B28" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" s="47"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="55"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="54"/>
       <c r="G28" s="9"/>
       <c r="H28" s="4"/>
       <c r="I28" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K28" s="9"/>
       <c r="L28" s="4"/>
@@ -3498,20 +3465,20 @@
       <c r="X28" s="4"/>
       <c r="Y28" s="10"/>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A29" s="112" t="s">
-        <v>78</v>
-      </c>
-      <c r="B29" s="43" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" s="48"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="56"/>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A29" s="95" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="47"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="55"/>
       <c r="G29" s="9"/>
       <c r="H29" s="4"/>
       <c r="I29" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K29" s="9"/>
       <c r="L29" s="4"/>
@@ -3526,16 +3493,16 @@
       <c r="X29" s="4"/>
       <c r="Y29" s="10"/>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A30" s="112" t="s">
-        <v>79</v>
-      </c>
-      <c r="B30" s="43" t="s">
-        <v>45</v>
-      </c>
-      <c r="C30" s="48"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="56"/>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A30" s="95" t="s">
+        <v>75</v>
+      </c>
+      <c r="B30" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="47"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="55"/>
       <c r="G30" s="9"/>
       <c r="H30" s="4"/>
       <c r="I30" s="10"/>
@@ -3552,16 +3519,16 @@
       <c r="X30" s="4"/>
       <c r="Y30" s="10"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A31" s="112" t="s">
-        <v>80</v>
-      </c>
-      <c r="B31" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="C31" s="48"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="56"/>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A31" s="95" t="s">
+        <v>76</v>
+      </c>
+      <c r="B31" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="47"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="55"/>
       <c r="G31" s="9"/>
       <c r="H31" s="4"/>
       <c r="I31" s="10"/>
@@ -3578,14 +3545,14 @@
       <c r="X31" s="4"/>
       <c r="Y31" s="10"/>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A32" s="112" t="s">
-        <v>81</v>
-      </c>
-      <c r="B32" s="43"/>
-      <c r="C32" s="48"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="56"/>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A32" s="95" t="s">
+        <v>77</v>
+      </c>
+      <c r="B32" s="42"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="55"/>
       <c r="G32" s="9"/>
       <c r="H32" s="4"/>
       <c r="I32" s="10"/>
@@ -3602,14 +3569,14 @@
       <c r="X32" s="4"/>
       <c r="Y32" s="10"/>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A33" s="112" t="s">
-        <v>82</v>
-      </c>
-      <c r="B33" s="43"/>
-      <c r="C33" s="48"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="56"/>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A33" s="95" t="s">
+        <v>78</v>
+      </c>
+      <c r="B33" s="42"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="55"/>
       <c r="G33" s="9"/>
       <c r="H33" s="4"/>
       <c r="I33" s="10"/>
@@ -3626,14 +3593,14 @@
       <c r="X33" s="4"/>
       <c r="Y33" s="10"/>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A34" s="112" t="s">
-        <v>83</v>
-      </c>
-      <c r="B34" s="43"/>
-      <c r="C34" s="48"/>
-      <c r="D34" s="43"/>
-      <c r="E34" s="56"/>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A34" s="95" t="s">
+        <v>79</v>
+      </c>
+      <c r="B34" s="42"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="55"/>
       <c r="G34" s="9"/>
       <c r="H34" s="4"/>
       <c r="I34" s="10"/>
@@ -3650,14 +3617,14 @@
       <c r="X34" s="4"/>
       <c r="Y34" s="10"/>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A35" s="112" t="s">
-        <v>84</v>
-      </c>
-      <c r="B35" s="43"/>
-      <c r="C35" s="48"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="56"/>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A35" s="95" t="s">
+        <v>80</v>
+      </c>
+      <c r="B35" s="42"/>
+      <c r="C35" s="47"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="55"/>
       <c r="G35" s="9"/>
       <c r="H35" s="4"/>
       <c r="I35" s="10"/>
@@ -3674,14 +3641,14 @@
       <c r="X35" s="4"/>
       <c r="Y35" s="10"/>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A36" s="112" t="s">
-        <v>85</v>
-      </c>
-      <c r="B36" s="43"/>
-      <c r="C36" s="48"/>
-      <c r="D36" s="43"/>
-      <c r="E36" s="56"/>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A36" s="95" t="s">
+        <v>81</v>
+      </c>
+      <c r="B36" s="42"/>
+      <c r="C36" s="47"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="55"/>
       <c r="G36" s="9"/>
       <c r="H36" s="4"/>
       <c r="I36" s="10"/>
@@ -3698,14 +3665,14 @@
       <c r="X36" s="4"/>
       <c r="Y36" s="10"/>
     </row>
-    <row r="37" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="112" t="s">
-        <v>86</v>
-      </c>
-      <c r="B37" s="44"/>
-      <c r="C37" s="49"/>
-      <c r="D37" s="44"/>
-      <c r="E37" s="57"/>
+    <row r="37" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="95" t="s">
+        <v>82</v>
+      </c>
+      <c r="B37" s="43"/>
+      <c r="C37" s="48"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="56"/>
       <c r="G37" s="11"/>
       <c r="H37" s="12"/>
       <c r="I37" s="13"/>
@@ -3722,72 +3689,72 @@
       <c r="X37" s="12"/>
       <c r="Y37" s="13"/>
     </row>
-    <row r="38" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="G38" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="H38" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="I38" s="21" t="s">
+    <row r="38" spans="1:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="G38" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H38" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="K38" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="L38" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="M38" s="21" t="s">
+      <c r="I38" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="K38" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="L38" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="O38" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="P38" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q38" s="21" t="s">
+      <c r="M38" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="O38" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="P38" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="S38" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="T38" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="U38" s="21" t="s">
+      <c r="Q38" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="S38" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="T38" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="W38" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="X38" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y38" s="21" t="s">
+      <c r="U38" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="W38" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="X38" s="19" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="39" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="115" t="s">
-        <v>87</v>
-      </c>
-      <c r="B39" s="42"/>
-      <c r="C39" s="47"/>
-      <c r="D39" s="42"/>
-      <c r="E39" s="55"/>
+      <c r="Y38" s="20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="98" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39" s="41"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="54"/>
       <c r="G39" s="9"/>
       <c r="H39" s="4"/>
       <c r="I39" s="10"/>
@@ -3804,14 +3771,14 @@
       <c r="X39" s="4"/>
       <c r="Y39" s="10"/>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A40" s="112" t="s">
-        <v>88</v>
-      </c>
-      <c r="B40" s="43"/>
-      <c r="C40" s="48"/>
-      <c r="D40" s="43"/>
-      <c r="E40" s="56"/>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A40" s="95" t="s">
+        <v>84</v>
+      </c>
+      <c r="B40" s="42"/>
+      <c r="C40" s="47"/>
+      <c r="D40" s="42"/>
+      <c r="E40" s="55"/>
       <c r="G40" s="9"/>
       <c r="H40" s="4"/>
       <c r="I40" s="10"/>
@@ -3828,14 +3795,14 @@
       <c r="X40" s="4"/>
       <c r="Y40" s="10"/>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A41" s="112" t="s">
-        <v>79</v>
-      </c>
-      <c r="B41" s="43"/>
-      <c r="C41" s="48"/>
-      <c r="D41" s="43"/>
-      <c r="E41" s="56"/>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A41" s="95" t="s">
+        <v>75</v>
+      </c>
+      <c r="B41" s="42"/>
+      <c r="C41" s="47"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="55"/>
       <c r="G41" s="9"/>
       <c r="H41" s="4"/>
       <c r="I41" s="10"/>
@@ -3852,14 +3819,14 @@
       <c r="X41" s="4"/>
       <c r="Y41" s="10"/>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A42" s="112" t="s">
-        <v>80</v>
-      </c>
-      <c r="B42" s="43"/>
-      <c r="C42" s="48"/>
-      <c r="D42" s="43"/>
-      <c r="E42" s="56"/>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A42" s="95" t="s">
+        <v>76</v>
+      </c>
+      <c r="B42" s="42"/>
+      <c r="C42" s="47"/>
+      <c r="D42" s="42"/>
+      <c r="E42" s="55"/>
       <c r="G42" s="9"/>
       <c r="H42" s="4"/>
       <c r="I42" s="10"/>
@@ -3876,14 +3843,14 @@
       <c r="X42" s="4"/>
       <c r="Y42" s="10"/>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A43" s="112" t="s">
-        <v>81</v>
-      </c>
-      <c r="B43" s="43"/>
-      <c r="C43" s="48"/>
-      <c r="D43" s="43"/>
-      <c r="E43" s="56"/>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A43" s="95" t="s">
+        <v>77</v>
+      </c>
+      <c r="B43" s="42"/>
+      <c r="C43" s="47"/>
+      <c r="D43" s="42"/>
+      <c r="E43" s="55"/>
       <c r="G43" s="9"/>
       <c r="H43" s="4"/>
       <c r="I43" s="10"/>
@@ -3900,14 +3867,14 @@
       <c r="X43" s="4"/>
       <c r="Y43" s="10"/>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A44" s="112" t="s">
-        <v>82</v>
-      </c>
-      <c r="B44" s="43"/>
-      <c r="C44" s="48"/>
-      <c r="D44" s="43"/>
-      <c r="E44" s="56"/>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A44" s="95" t="s">
+        <v>78</v>
+      </c>
+      <c r="B44" s="42"/>
+      <c r="C44" s="47"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="55"/>
       <c r="G44" s="9"/>
       <c r="H44" s="4"/>
       <c r="I44" s="10"/>
@@ -3924,14 +3891,14 @@
       <c r="X44" s="4"/>
       <c r="Y44" s="10"/>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A45" s="112" t="s">
-        <v>83</v>
-      </c>
-      <c r="B45" s="43"/>
-      <c r="C45" s="48"/>
-      <c r="D45" s="43"/>
-      <c r="E45" s="56"/>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A45" s="95" t="s">
+        <v>79</v>
+      </c>
+      <c r="B45" s="42"/>
+      <c r="C45" s="47"/>
+      <c r="D45" s="42"/>
+      <c r="E45" s="55"/>
       <c r="G45" s="9"/>
       <c r="H45" s="4"/>
       <c r="I45" s="10"/>
@@ -3948,14 +3915,14 @@
       <c r="X45" s="4"/>
       <c r="Y45" s="10"/>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A46" s="112" t="s">
-        <v>84</v>
-      </c>
-      <c r="B46" s="43"/>
-      <c r="C46" s="48"/>
-      <c r="D46" s="43"/>
-      <c r="E46" s="56"/>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A46" s="95" t="s">
+        <v>80</v>
+      </c>
+      <c r="B46" s="42"/>
+      <c r="C46" s="47"/>
+      <c r="D46" s="42"/>
+      <c r="E46" s="55"/>
       <c r="G46" s="9"/>
       <c r="H46" s="4"/>
       <c r="I46" s="10"/>
@@ -3972,14 +3939,14 @@
       <c r="X46" s="4"/>
       <c r="Y46" s="10"/>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A47" s="112" t="s">
-        <v>85</v>
-      </c>
-      <c r="B47" s="43"/>
-      <c r="C47" s="48"/>
-      <c r="D47" s="43"/>
-      <c r="E47" s="56"/>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A47" s="95" t="s">
+        <v>81</v>
+      </c>
+      <c r="B47" s="42"/>
+      <c r="C47" s="47"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="55"/>
       <c r="G47" s="9"/>
       <c r="H47" s="4"/>
       <c r="I47" s="10"/>
@@ -3996,14 +3963,14 @@
       <c r="X47" s="4"/>
       <c r="Y47" s="10"/>
     </row>
-    <row r="48" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="112" t="s">
-        <v>86</v>
-      </c>
-      <c r="B48" s="44"/>
-      <c r="C48" s="49"/>
-      <c r="D48" s="44"/>
-      <c r="E48" s="57"/>
+    <row r="48" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="95" t="s">
+        <v>82</v>
+      </c>
+      <c r="B48" s="43"/>
+      <c r="C48" s="48"/>
+      <c r="D48" s="43"/>
+      <c r="E48" s="56"/>
       <c r="G48" s="11"/>
       <c r="H48" s="12"/>
       <c r="I48" s="13"/>
@@ -4020,81 +3987,81 @@
       <c r="X48" s="12"/>
       <c r="Y48" s="13"/>
     </row>
-    <row r="49" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
     </row>
-    <row r="50" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="B50" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="C50" s="28"/>
-      <c r="D50" s="28"/>
-      <c r="E50" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="G50" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="H50" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="I50" s="21" t="s">
+    <row r="50" spans="1:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B50" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C50" s="27"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="G50" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H50" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="K50" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="L50" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="M50" s="21" t="s">
+      <c r="I50" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="K50" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="L50" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="O50" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="P50" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q50" s="21" t="s">
+      <c r="M50" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="O50" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="P50" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="S50" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="T50" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="U50" s="21" t="s">
+      <c r="Q50" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="S50" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="T50" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="W50" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="X50" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y50" s="21" t="s">
+      <c r="U50" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="W50" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="X50" s="19" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="51" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="116" t="s">
-        <v>89</v>
-      </c>
-      <c r="B51" s="117" t="s">
-        <v>90</v>
-      </c>
-      <c r="C51" s="118"/>
-      <c r="D51" s="119"/>
-      <c r="E51" s="52"/>
+      <c r="Y50" s="20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="99" t="s">
+        <v>85</v>
+      </c>
+      <c r="B51" s="111" t="s">
+        <v>86</v>
+      </c>
+      <c r="C51" s="112"/>
+      <c r="D51" s="113"/>
+      <c r="E51" s="51"/>
       <c r="G51" s="9"/>
       <c r="H51" s="4"/>
       <c r="I51" s="10"/>
@@ -4111,16 +4078,16 @@
       <c r="X51" s="4"/>
       <c r="Y51" s="10"/>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A52" s="120" t="s">
-        <v>91</v>
-      </c>
-      <c r="B52" s="121" t="s">
-        <v>92</v>
-      </c>
-      <c r="C52" s="122"/>
-      <c r="D52" s="123"/>
-      <c r="E52" s="53"/>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A52" s="100" t="s">
+        <v>87</v>
+      </c>
+      <c r="B52" s="114" t="s">
+        <v>88</v>
+      </c>
+      <c r="C52" s="115"/>
+      <c r="D52" s="116"/>
+      <c r="E52" s="52"/>
       <c r="G52" s="9"/>
       <c r="H52" s="4"/>
       <c r="I52" s="10"/>
@@ -4137,16 +4104,16 @@
       <c r="X52" s="4"/>
       <c r="Y52" s="10"/>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A53" s="120" t="s">
-        <v>93</v>
-      </c>
-      <c r="B53" s="121" t="s">
-        <v>94</v>
-      </c>
-      <c r="C53" s="122"/>
-      <c r="D53" s="123"/>
-      <c r="E53" s="53"/>
+    <row r="53" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A53" s="100" t="s">
+        <v>89</v>
+      </c>
+      <c r="B53" s="114" t="s">
+        <v>90</v>
+      </c>
+      <c r="C53" s="115"/>
+      <c r="D53" s="116"/>
+      <c r="E53" s="52"/>
       <c r="G53" s="9"/>
       <c r="H53" s="4"/>
       <c r="I53" s="10"/>
@@ -4163,16 +4130,16 @@
       <c r="X53" s="4"/>
       <c r="Y53" s="10"/>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A54" s="120" t="s">
-        <v>95</v>
-      </c>
-      <c r="B54" s="121" t="s">
-        <v>96</v>
-      </c>
-      <c r="C54" s="122"/>
-      <c r="D54" s="123"/>
-      <c r="E54" s="53"/>
+    <row r="54" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A54" s="100" t="s">
+        <v>91</v>
+      </c>
+      <c r="B54" s="114" t="s">
+        <v>92</v>
+      </c>
+      <c r="C54" s="115"/>
+      <c r="D54" s="116"/>
+      <c r="E54" s="52"/>
       <c r="G54" s="9"/>
       <c r="H54" s="4"/>
       <c r="I54" s="10"/>
@@ -4189,26 +4156,26 @@
       <c r="X54" s="4"/>
       <c r="Y54" s="10"/>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A55" s="120" t="s">
-        <v>97</v>
-      </c>
-      <c r="B55" s="121" t="s">
-        <v>57</v>
-      </c>
-      <c r="C55" s="122"/>
-      <c r="D55" s="123"/>
-      <c r="E55" s="53" t="s">
-        <v>57</v>
+    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A55" s="100" t="s">
+        <v>93</v>
+      </c>
+      <c r="B55" s="114" t="s">
+        <v>54</v>
+      </c>
+      <c r="C55" s="115"/>
+      <c r="D55" s="116"/>
+      <c r="E55" s="52" t="s">
+        <v>54</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I55" s="10" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="K55" s="9"/>
       <c r="L55" s="4"/>
@@ -4223,12 +4190,12 @@
       <c r="X55" s="4"/>
       <c r="Y55" s="10"/>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A56" s="45"/>
-      <c r="B56" s="66"/>
-      <c r="C56" s="67"/>
-      <c r="D56" s="68"/>
-      <c r="E56" s="53"/>
+    <row r="56" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A56" s="44"/>
+      <c r="B56" s="65"/>
+      <c r="C56" s="66"/>
+      <c r="D56" s="67"/>
+      <c r="E56" s="52"/>
       <c r="G56" s="9"/>
       <c r="H56" s="4"/>
       <c r="I56" s="10"/>
@@ -4245,12 +4212,12 @@
       <c r="X56" s="4"/>
       <c r="Y56" s="10"/>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A57" s="45"/>
-      <c r="B57" s="93"/>
-      <c r="C57" s="94"/>
-      <c r="D57" s="95"/>
-      <c r="E57" s="53"/>
+    <row r="57" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A57" s="44"/>
+      <c r="B57" s="117"/>
+      <c r="C57" s="118"/>
+      <c r="D57" s="119"/>
+      <c r="E57" s="52"/>
       <c r="G57" s="9"/>
       <c r="H57" s="4"/>
       <c r="I57" s="10"/>
@@ -4267,12 +4234,12 @@
       <c r="X57" s="4"/>
       <c r="Y57" s="10"/>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A58" s="45"/>
-      <c r="B58" s="93"/>
-      <c r="C58" s="94"/>
-      <c r="D58" s="95"/>
-      <c r="E58" s="53"/>
+    <row r="58" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A58" s="44"/>
+      <c r="B58" s="117"/>
+      <c r="C58" s="118"/>
+      <c r="D58" s="119"/>
+      <c r="E58" s="52"/>
       <c r="G58" s="9"/>
       <c r="H58" s="4"/>
       <c r="I58" s="10"/>
@@ -4289,12 +4256,12 @@
       <c r="X58" s="4"/>
       <c r="Y58" s="10"/>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A59" s="45"/>
-      <c r="B59" s="93"/>
-      <c r="C59" s="94"/>
-      <c r="D59" s="95"/>
-      <c r="E59" s="53"/>
+    <row r="59" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A59" s="44"/>
+      <c r="B59" s="117"/>
+      <c r="C59" s="118"/>
+      <c r="D59" s="119"/>
+      <c r="E59" s="52"/>
       <c r="G59" s="9"/>
       <c r="H59" s="4"/>
       <c r="I59" s="10"/>
@@ -4311,12 +4278,12 @@
       <c r="X59" s="4"/>
       <c r="Y59" s="10"/>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A60" s="45"/>
-      <c r="B60" s="93"/>
-      <c r="C60" s="94"/>
-      <c r="D60" s="95"/>
-      <c r="E60" s="53"/>
+    <row r="60" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A60" s="44"/>
+      <c r="B60" s="117"/>
+      <c r="C60" s="118"/>
+      <c r="D60" s="119"/>
+      <c r="E60" s="52"/>
       <c r="G60" s="9"/>
       <c r="H60" s="4"/>
       <c r="I60" s="10"/>
@@ -4333,12 +4300,12 @@
       <c r="X60" s="4"/>
       <c r="Y60" s="10"/>
     </row>
-    <row r="61" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="46"/>
-      <c r="B61" s="96"/>
-      <c r="C61" s="97"/>
-      <c r="D61" s="98"/>
-      <c r="E61" s="54"/>
+    <row r="61" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="45"/>
+      <c r="B61" s="120"/>
+      <c r="C61" s="121"/>
+      <c r="D61" s="122"/>
+      <c r="E61" s="53"/>
       <c r="G61" s="11"/>
       <c r="H61" s="12"/>
       <c r="I61" s="13"/>
@@ -4355,15 +4322,26 @@
       <c r="X61" s="12"/>
       <c r="Y61" s="13"/>
     </row>
-    <row r="62" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="1:25" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="5FectcAfdZ1ArXANrSVDsZB0d3aAkPAN1fLL5/Eo+c3bVCo2h9HFtnan/OUni1T3+nG98l6W8OgveUetKndYpQ==" saltValue="MAN9mp9sdzl1vD2b8EYDAQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertColumns="0" insertRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="P8py4ATmtEJnQStSICibCNQ0eBprwLYCmxGgIwOmQ2yWzMnTPv9qYmo97iBbaVr4riTD84uvGlN1smdbzWD8vA==" saltValue="ALnRmcRs5NkjyprngcUKRw==" spinCount="100000" sheet="1" insertColumns="0" insertRows="0"/>
   <protectedRanges>
+    <protectedRange sqref="S4:Y61" name="customEntities"/>
+    <protectedRange sqref="A1" name="Titel"/>
+    <protectedRange sqref="A28:Y37 A39:Y48 A51:Y61" name="Questionnaire"/>
     <protectedRange sqref="A7:X24" name="Contact Fields"/>
-    <protectedRange sqref="A28:Y37 A39:Y48 A51:Y61" name="Questionnaire"/>
-    <protectedRange sqref="A1" name="Titel"/>
   </protectedRanges>
   <mergeCells count="20">
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B55:D55"/>
     <mergeCell ref="S4:U4"/>
     <mergeCell ref="S26:U26"/>
     <mergeCell ref="W4:Y4"/>
@@ -4374,90 +4352,88 @@
     <mergeCell ref="K26:M26"/>
     <mergeCell ref="O4:Q4"/>
     <mergeCell ref="O26:Q26"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A24:AG27 B8:AG23 A38:AG38 B28:AG37 B39:AG48">
-    <cfRule type="expression" dxfId="19" priority="17">
+  <conditionalFormatting sqref="A24:AG27 A38:AG38 B28:AG37 B39:AG48 B8:AG23">
+    <cfRule type="expression" dxfId="17" priority="17">
       <formula>$C8="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="18">
+    <cfRule type="expression" dxfId="16" priority="18">
       <formula>$D8="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W51:Y61">
-    <cfRule type="expression" dxfId="17" priority="15">
+    <cfRule type="expression" dxfId="15" priority="15">
       <formula>$C51="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="16">
+    <cfRule type="expression" dxfId="14" priority="16">
       <formula>$D51="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S51:U61">
-    <cfRule type="expression" dxfId="15" priority="13">
+    <cfRule type="expression" dxfId="13" priority="13">
       <formula>$C51="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="14">
+    <cfRule type="expression" dxfId="12" priority="14">
       <formula>$D51="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O51:Q61">
-    <cfRule type="expression" dxfId="13" priority="11">
+    <cfRule type="expression" dxfId="11" priority="11">
       <formula>$C51="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="12">
+    <cfRule type="expression" dxfId="10" priority="12">
       <formula>$D51="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K51:M61">
-    <cfRule type="expression" dxfId="11" priority="9">
+    <cfRule type="expression" dxfId="9" priority="9">
       <formula>$C51="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="10">
+    <cfRule type="expression" dxfId="8" priority="10">
       <formula>$D51="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G51:I61">
-    <cfRule type="expression" dxfId="9" priority="7">
+    <cfRule type="expression" dxfId="7" priority="7">
       <formula>$C51="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="8">
+    <cfRule type="expression" dxfId="6" priority="8">
       <formula>$D51="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:A23">
-    <cfRule type="expression" dxfId="7" priority="5">
+    <cfRule type="expression" dxfId="5" priority="5">
       <formula>$C8="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="6">
+    <cfRule type="expression" dxfId="4" priority="6">
       <formula>$D8="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:A37">
-    <cfRule type="expression" dxfId="5" priority="3">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>$C28="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="4">
+    <cfRule type="expression" dxfId="2" priority="4">
       <formula>$D28="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39:A48">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>$C39="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>$D39="x"</formula>
     </cfRule>
   </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C28:D37 C7:D24 C39:D48" xr:uid="{1C0B8259-3F2D-4AED-BC24-BB2C23413775}">
+      <formula1>"x"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I24 M7:M24 Q7:Q24 U7:U24 Y7:Y24 I28:I37 M28:M37 Q28:Q37 U28:U37 Y28:Y37 I39:I48 M39:M48 Q39:Q48 U39:U48 Y39:Y48 Y51:Y61 U51:U61 Q51:Q61 M51:M61 I51:I61" xr:uid="{80D0EC53-2850-4FBF-9411-197D19B571E7}">
+      <formula1>"text, number, picklist, mulitpicklist, date, lookup"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -4465,6 +4441,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010060A44420B6B801499790497461B7617A" ma:contentTypeVersion="11" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="fabbcee23a04d27af1ae9e54f4461bef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8f774076-1ef3-4740-8929-5969f04599b3" xmlns:ns4="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c03e0335abb4116b770311e5abaeb524" ns3:_="" ns4:_="">
     <xsd:import namespace="8f774076-1ef3-4740-8929-5969f04599b3"/>
@@ -4673,36 +4664,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4CDBC7-0A6E-420D-A4CD-91BDFDE80302}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="8f774076-1ef3-4740-8929-5969f04599b3"/>
-    <ds:schemaRef ds:uri="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4725,9 +4690,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4CDBC7-0A6E-420D-A4CD-91BDFDE80302}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8f774076-1ef3-4740-8929-5969f04599b3"/>
+    <ds:schemaRef ds:uri="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/default-mappings-xlsx/visitreport/VisitReport_Mapping_Salesforce_DE.xlsx
+++ b/default-mappings-xlsx/visitreport/VisitReport_Mapping_Salesforce_DE.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MarcusKlapprodt\snapADDY GmbH\Sebastian Metzger - Mapping\2_Vorlagen CRM Mapping\VisitReport\2019\DE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="157" documentId="13_ncr:1_{D1FC447D-FCE2-455D-A99E-F748ABA21EF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{29FD7FCA-714D-4BEB-A9C7-310C529C2139}"/>
+  <xr:revisionPtr revIDLastSave="163" documentId="13_ncr:1_{D1FC447D-FCE2-455D-A99E-F748ABA21EF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{27B2C6F4-7585-4DD5-A43A-912EF2064F2C}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="csxn9cVURx3qmXoNDAhGCCtW5lDou+zjcdL+V0vvGz3MdfQlj2G9NUtYW6m2gFpQqfQI54JAu1yg0ZrvQ9lJVA==" workbookSaltValue="hUa66Cmn6iZ2RylzL3U9zg==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Specifications" sheetId="2" r:id="rId1"/>
@@ -194,12 +194,6 @@
     <t>Field Value</t>
   </si>
   <si>
-    <t>mandatory</t>
-  </si>
-  <si>
-    <t>not used</t>
-  </si>
-  <si>
     <t>"snapADDY"</t>
   </si>
   <si>
@@ -351,6 +345,12 @@
   </si>
   <si>
     <t>das ist eine Notiz</t>
+  </si>
+  <si>
+    <t>Pflichtfeld</t>
+  </si>
+  <si>
+    <t>Nicht benötigt</t>
   </si>
 </sst>
 </file>
@@ -1534,6 +1534,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -1600,7 +1601,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -2499,31 +2499,31 @@
   <dimension ref="A1:Y62"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.88671875" customWidth="1"/>
+    <col min="1" max="1" width="40.85546875" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="3.6640625" customWidth="1"/>
-    <col min="4" max="4" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1"/>
-    <col min="6" max="6" width="1.6640625" customWidth="1"/>
+    <col min="3" max="3" width="3.7109375" customWidth="1"/>
+    <col min="4" max="4" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="1.7109375" customWidth="1"/>
     <col min="7" max="9" width="15" customWidth="1"/>
-    <col min="10" max="10" width="1.6640625" customWidth="1"/>
+    <col min="10" max="10" width="1.7109375" customWidth="1"/>
     <col min="11" max="13" width="15" customWidth="1"/>
-    <col min="14" max="14" width="1.6640625" customWidth="1"/>
+    <col min="14" max="14" width="1.7109375" customWidth="1"/>
     <col min="15" max="17" width="15" customWidth="1"/>
-    <col min="18" max="18" width="1.6640625" customWidth="1"/>
-    <col min="19" max="21" width="15" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="22" width="1.5546875" customWidth="1" outlineLevel="1"/>
-    <col min="23" max="25" width="15" customWidth="1" outlineLevel="1"/>
+    <col min="18" max="18" width="1.7109375" customWidth="1"/>
+    <col min="19" max="21" width="15" customWidth="1"/>
+    <col min="22" max="22" width="1.5703125" customWidth="1"/>
+    <col min="23" max="25" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="93" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B1" s="92"/>
       <c r="C1" s="92"/>
@@ -2532,7 +2532,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:25" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:25" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="29" t="s">
         <v>50</v>
       </c>
@@ -2543,51 +2543,51 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:25" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:25" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G3" s="69"/>
       <c r="K3" s="69"/>
     </row>
-    <row r="4" spans="1:25" ht="61.8" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" ht="81" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>29</v>
       </c>
       <c r="B4" s="31"/>
       <c r="C4" s="49" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="D4" s="49" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="E4" s="50"/>
-      <c r="G4" s="107" t="s">
+      <c r="G4" s="108" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="107"/>
-      <c r="I4" s="107"/>
+      <c r="H4" s="108"/>
+      <c r="I4" s="108"/>
       <c r="J4" s="6"/>
-      <c r="K4" s="107" t="s">
+      <c r="K4" s="108" t="s">
         <v>37</v>
       </c>
-      <c r="L4" s="107"/>
-      <c r="M4" s="107"/>
-      <c r="O4" s="107" t="s">
+      <c r="L4" s="108"/>
+      <c r="M4" s="108"/>
+      <c r="O4" s="108" t="s">
         <v>38</v>
       </c>
-      <c r="P4" s="107"/>
-      <c r="Q4" s="107"/>
-      <c r="S4" s="101" t="s">
-        <v>58</v>
-      </c>
-      <c r="T4" s="102"/>
-      <c r="U4" s="103"/>
-      <c r="W4" s="101" t="s">
+      <c r="P4" s="108"/>
+      <c r="Q4" s="108"/>
+      <c r="S4" s="102" t="s">
+        <v>56</v>
+      </c>
+      <c r="T4" s="103"/>
+      <c r="U4" s="104"/>
+      <c r="W4" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="X4" s="102"/>
-      <c r="Y4" s="103"/>
-    </row>
-    <row r="5" spans="1:25" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="1:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="X4" s="103"/>
+      <c r="Y4" s="104"/>
+    </row>
+    <row r="5" spans="1:25" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="61" t="s">
         <v>31</v>
       </c>
@@ -2595,7 +2595,7 @@
       <c r="C6" s="81"/>
       <c r="D6" s="81"/>
       <c r="E6" s="60" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G6" s="18" t="s">
         <v>27</v>
@@ -2644,7 +2644,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="32"/>
       <c r="C7" s="82"/>
@@ -2667,12 +2667,12 @@
       <c r="X7" s="5"/>
       <c r="Y7" s="17"/>
     </row>
-    <row r="8" spans="1:25" s="68" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="94" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B8" s="70" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C8" s="83"/>
       <c r="D8" s="71"/>
@@ -2710,9 +2710,9 @@
       <c r="X8" s="74"/>
       <c r="Y8" s="75"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="95" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B9" s="33"/>
       <c r="C9" s="84"/>
@@ -2724,7 +2724,7 @@
       <c r="H9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="123" t="s">
+      <c r="I9" s="101" t="s">
         <v>43</v>
       </c>
       <c r="J9" s="1"/>
@@ -2734,7 +2734,7 @@
       <c r="L9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="M9" s="123" t="s">
+      <c r="M9" s="101" t="s">
         <v>43</v>
       </c>
       <c r="O9" s="9"/>
@@ -2751,9 +2751,9 @@
       <c r="X9" s="4"/>
       <c r="Y9" s="10"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="95" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B10" s="33"/>
       <c r="C10" s="84"/>
@@ -2765,7 +2765,7 @@
       <c r="H10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I10" s="123" t="s">
+      <c r="I10" s="101" t="s">
         <v>43</v>
       </c>
       <c r="J10" s="1"/>
@@ -2775,7 +2775,7 @@
       <c r="L10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="M10" s="123" t="s">
+      <c r="M10" s="101" t="s">
         <v>43</v>
       </c>
       <c r="O10" s="9"/>
@@ -2788,9 +2788,9 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="10"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="95" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B11" s="33"/>
       <c r="C11" s="84"/>
@@ -2802,7 +2802,7 @@
       <c r="H11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I11" s="123" t="s">
+      <c r="I11" s="101" t="s">
         <v>43</v>
       </c>
       <c r="J11" s="1"/>
@@ -2812,7 +2812,7 @@
       <c r="L11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="M11" s="123" t="s">
+      <c r="M11" s="101" t="s">
         <v>43</v>
       </c>
       <c r="O11" s="9"/>
@@ -2825,9 +2825,9 @@
       <c r="X11" s="4"/>
       <c r="Y11" s="10"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="95" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B12" s="33"/>
       <c r="C12" s="84"/>
@@ -2839,7 +2839,7 @@
       <c r="H12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I12" s="123" t="s">
+      <c r="I12" s="101" t="s">
         <v>43</v>
       </c>
       <c r="J12" s="1"/>
@@ -2852,7 +2852,7 @@
       <c r="P12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="Q12" s="123" t="s">
+      <c r="Q12" s="101" t="s">
         <v>43</v>
       </c>
       <c r="S12" s="9"/>
@@ -2862,7 +2862,7 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="10"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="96" t="s">
         <v>0</v>
       </c>
@@ -2876,26 +2876,26 @@
       <c r="H13" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I13" s="123" t="s">
+      <c r="I13" s="101" t="s">
         <v>43</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="16" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="L13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M13" s="123" t="s">
+      <c r="M13" s="101" t="s">
         <v>43</v>
       </c>
       <c r="O13" s="16" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="P13" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="Q13" s="123" t="s">
+      <c r="Q13" s="101" t="s">
         <v>43</v>
       </c>
       <c r="S13" s="9"/>
@@ -2905,7 +2905,7 @@
       <c r="X13" s="4"/>
       <c r="Y13" s="10"/>
     </row>
-    <row r="14" spans="1:25" s="68" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="94" t="s">
         <v>1</v>
       </c>
@@ -2924,21 +2924,21 @@
       </c>
       <c r="J14" s="76"/>
       <c r="K14" s="77" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="L14" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="M14" s="123" t="s">
+      <c r="M14" s="101" t="s">
         <v>43</v>
       </c>
       <c r="O14" s="77" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="P14" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="Q14" s="123" t="s">
+      <c r="Q14" s="101" t="s">
         <v>43</v>
       </c>
       <c r="S14" s="77"/>
@@ -2948,9 +2948,9 @@
       <c r="X14" s="78"/>
       <c r="Y14" s="79"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="97" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B15" s="35"/>
       <c r="C15" s="84"/>
@@ -2962,26 +2962,26 @@
       <c r="H15" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="I15" s="123" t="s">
+      <c r="I15" s="101" t="s">
         <v>43</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="14" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="L15" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="M15" s="123" t="s">
+      <c r="M15" s="101" t="s">
         <v>43</v>
       </c>
       <c r="O15" s="14" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="P15" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="Q15" s="123" t="s">
+      <c r="Q15" s="101" t="s">
         <v>43</v>
       </c>
       <c r="S15" s="9"/>
@@ -2991,9 +2991,9 @@
       <c r="X15" s="4"/>
       <c r="Y15" s="10"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="95" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B16" s="33"/>
       <c r="C16" s="84"/>
@@ -3005,26 +3005,26 @@
       <c r="H16" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I16" s="123" t="s">
+      <c r="I16" s="101" t="s">
         <v>43</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="9" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="L16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="M16" s="123" t="s">
+      <c r="M16" s="101" t="s">
         <v>43</v>
       </c>
       <c r="O16" s="9" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="P16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q16" s="123" t="s">
+      <c r="Q16" s="101" t="s">
         <v>43</v>
       </c>
       <c r="S16" s="9"/>
@@ -3034,7 +3034,7 @@
       <c r="X16" s="4"/>
       <c r="Y16" s="10"/>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="95" t="s">
         <v>2</v>
       </c>
@@ -3048,26 +3048,26 @@
       <c r="H17" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I17" s="123" t="s">
+      <c r="I17" s="101" t="s">
         <v>43</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="9" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="L17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="M17" s="123" t="s">
+      <c r="M17" s="101" t="s">
         <v>43</v>
       </c>
       <c r="O17" s="9" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="P17" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="Q17" s="123" t="s">
+      <c r="Q17" s="101" t="s">
         <v>43</v>
       </c>
       <c r="S17" s="9"/>
@@ -3077,9 +3077,9 @@
       <c r="X17" s="4"/>
       <c r="Y17" s="10"/>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="95" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B18" s="33"/>
       <c r="C18" s="84"/>
@@ -3091,7 +3091,7 @@
       <c r="H18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I18" s="123" t="s">
+      <c r="I18" s="101" t="s">
         <v>43</v>
       </c>
       <c r="J18" s="1"/>
@@ -3101,7 +3101,7 @@
       <c r="L18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M18" s="123" t="s">
+      <c r="M18" s="101" t="s">
         <v>43</v>
       </c>
       <c r="O18" s="9" t="s">
@@ -3110,7 +3110,7 @@
       <c r="P18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="Q18" s="123" t="s">
+      <c r="Q18" s="101" t="s">
         <v>43</v>
       </c>
       <c r="S18" s="9"/>
@@ -3120,9 +3120,9 @@
       <c r="X18" s="4"/>
       <c r="Y18" s="10"/>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="95" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B19" s="33"/>
       <c r="C19" s="84"/>
@@ -3134,7 +3134,7 @@
       <c r="H19" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I19" s="123" t="s">
+      <c r="I19" s="101" t="s">
         <v>43</v>
       </c>
       <c r="J19" s="1"/>
@@ -3144,7 +3144,7 @@
       <c r="L19" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="M19" s="123" t="s">
+      <c r="M19" s="101" t="s">
         <v>43</v>
       </c>
       <c r="O19" s="9"/>
@@ -3157,9 +3157,9 @@
       <c r="X19" s="4"/>
       <c r="Y19" s="10"/>
     </row>
-    <row r="20" spans="1:25" s="68" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="94" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B20" s="70"/>
       <c r="C20" s="83"/>
@@ -3171,7 +3171,7 @@
       <c r="H20" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="I20" s="123" t="s">
+      <c r="I20" s="101" t="s">
         <v>43</v>
       </c>
       <c r="J20" s="76"/>
@@ -3181,7 +3181,7 @@
       <c r="L20" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="M20" s="123" t="s">
+      <c r="M20" s="101" t="s">
         <v>43</v>
       </c>
       <c r="O20" s="77" t="s">
@@ -3190,7 +3190,7 @@
       <c r="P20" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="Q20" s="123" t="s">
+      <c r="Q20" s="101" t="s">
         <v>43</v>
       </c>
       <c r="S20" s="77"/>
@@ -3200,9 +3200,9 @@
       <c r="X20" s="78"/>
       <c r="Y20" s="79"/>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="95" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B21" s="33"/>
       <c r="C21" s="84"/>
@@ -3214,7 +3214,7 @@
       <c r="H21" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I21" s="123" t="s">
+      <c r="I21" s="101" t="s">
         <v>43</v>
       </c>
       <c r="J21" s="1"/>
@@ -3224,7 +3224,7 @@
       <c r="L21" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M21" s="123" t="s">
+      <c r="M21" s="101" t="s">
         <v>43</v>
       </c>
       <c r="O21" s="9"/>
@@ -3237,9 +3237,9 @@
       <c r="X21" s="4"/>
       <c r="Y21" s="10"/>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="96" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B22" s="33"/>
       <c r="C22" s="84"/>
@@ -3251,7 +3251,7 @@
       <c r="H22" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="I22" s="123" t="s">
+      <c r="I22" s="101" t="s">
         <v>43</v>
       </c>
       <c r="J22" s="1"/>
@@ -3264,7 +3264,7 @@
       <c r="P22" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="Q22" s="123" t="s">
+      <c r="Q22" s="101" t="s">
         <v>43</v>
       </c>
       <c r="S22" s="16"/>
@@ -3274,9 +3274,9 @@
       <c r="X22" s="5"/>
       <c r="Y22" s="17"/>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="96" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B23" s="33"/>
       <c r="C23" s="84"/>
@@ -3299,7 +3299,7 @@
       <c r="X23" s="5"/>
       <c r="Y23" s="17"/>
     </row>
-    <row r="24" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="28"/>
       <c r="B24" s="36"/>
       <c r="C24" s="85"/>
@@ -3322,7 +3322,7 @@
       <c r="X24" s="12"/>
       <c r="Y24" s="13"/>
     </row>
-    <row r="25" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G25" s="7"/>
       <c r="H25" s="1"/>
       <c r="I25" s="8"/>
@@ -3341,7 +3341,7 @@
       <c r="X25" s="1"/>
       <c r="Y25" s="8"/>
     </row>
-    <row r="26" spans="1:25" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:25" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="62" t="s">
         <v>33</v>
       </c>
@@ -3349,37 +3349,37 @@
       <c r="C26" s="26"/>
       <c r="D26" s="26"/>
       <c r="E26" s="26"/>
-      <c r="G26" s="108" t="s">
+      <c r="G26" s="109" t="s">
         <v>32</v>
       </c>
-      <c r="H26" s="109"/>
-      <c r="I26" s="110"/>
+      <c r="H26" s="110"/>
+      <c r="I26" s="111"/>
       <c r="J26" s="30"/>
-      <c r="K26" s="108" t="s">
+      <c r="K26" s="109" t="s">
         <v>37</v>
       </c>
-      <c r="L26" s="109"/>
-      <c r="M26" s="110"/>
+      <c r="L26" s="110"/>
+      <c r="M26" s="111"/>
       <c r="N26" s="30"/>
-      <c r="O26" s="108" t="s">
+      <c r="O26" s="109" t="s">
         <v>38</v>
       </c>
-      <c r="P26" s="109"/>
-      <c r="Q26" s="110"/>
+      <c r="P26" s="110"/>
+      <c r="Q26" s="111"/>
       <c r="R26" s="30"/>
-      <c r="S26" s="104" t="s">
+      <c r="S26" s="105" t="s">
         <v>39</v>
       </c>
-      <c r="T26" s="105"/>
-      <c r="U26" s="106"/>
+      <c r="T26" s="106"/>
+      <c r="U26" s="107"/>
       <c r="V26" s="30"/>
-      <c r="W26" s="104" t="s">
+      <c r="W26" s="105" t="s">
         <v>39</v>
       </c>
-      <c r="X26" s="105"/>
-      <c r="Y26" s="106"/>
-    </row>
-    <row r="27" spans="1:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="X26" s="106"/>
+      <c r="Y26" s="107"/>
+    </row>
+    <row r="27" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="63" t="s">
         <v>34</v>
       </c>
@@ -3389,7 +3389,7 @@
       <c r="C27" s="21"/>
       <c r="D27" s="21"/>
       <c r="E27" s="64" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G27" s="18" t="s">
         <v>27</v>
@@ -3437,9 +3437,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:25" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28" s="98" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B28" s="41" t="s">
         <v>41</v>
@@ -3465,9 +3465,9 @@
       <c r="X28" s="4"/>
       <c r="Y28" s="10"/>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="95" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B29" s="42" t="s">
         <v>42</v>
@@ -3493,9 +3493,9 @@
       <c r="X29" s="4"/>
       <c r="Y29" s="10"/>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="95" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B30" s="42" t="s">
         <v>43</v>
@@ -3519,9 +3519,9 @@
       <c r="X30" s="4"/>
       <c r="Y30" s="10"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="95" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B31" s="42" t="s">
         <v>44</v>
@@ -3545,9 +3545,9 @@
       <c r="X31" s="4"/>
       <c r="Y31" s="10"/>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="95" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B32" s="42"/>
       <c r="C32" s="47"/>
@@ -3569,9 +3569,9 @@
       <c r="X32" s="4"/>
       <c r="Y32" s="10"/>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="95" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B33" s="42"/>
       <c r="C33" s="47"/>
@@ -3593,9 +3593,9 @@
       <c r="X33" s="4"/>
       <c r="Y33" s="10"/>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="95" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B34" s="42"/>
       <c r="C34" s="47"/>
@@ -3617,9 +3617,9 @@
       <c r="X34" s="4"/>
       <c r="Y34" s="10"/>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="95" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B35" s="42"/>
       <c r="C35" s="47"/>
@@ -3641,9 +3641,9 @@
       <c r="X35" s="4"/>
       <c r="Y35" s="10"/>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="95" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B36" s="42"/>
       <c r="C36" s="47"/>
@@ -3665,9 +3665,9 @@
       <c r="X36" s="4"/>
       <c r="Y36" s="10"/>
     </row>
-    <row r="37" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="95" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B37" s="43"/>
       <c r="C37" s="48"/>
@@ -3689,7 +3689,7 @@
       <c r="X37" s="12"/>
       <c r="Y37" s="13"/>
     </row>
-    <row r="38" spans="1:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="40" t="s">
         <v>35</v>
       </c>
@@ -3699,7 +3699,7 @@
       <c r="C38" s="21"/>
       <c r="D38" s="21"/>
       <c r="E38" s="21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G38" s="18" t="s">
         <v>27</v>
@@ -3747,9 +3747,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:25" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A39" s="98" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B39" s="41"/>
       <c r="C39" s="46"/>
@@ -3771,9 +3771,9 @@
       <c r="X39" s="4"/>
       <c r="Y39" s="10"/>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="95" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B40" s="42"/>
       <c r="C40" s="47"/>
@@ -3795,9 +3795,9 @@
       <c r="X40" s="4"/>
       <c r="Y40" s="10"/>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" s="95" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B41" s="42"/>
       <c r="C41" s="47"/>
@@ -3819,9 +3819,9 @@
       <c r="X41" s="4"/>
       <c r="Y41" s="10"/>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" s="95" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B42" s="42"/>
       <c r="C42" s="47"/>
@@ -3843,9 +3843,9 @@
       <c r="X42" s="4"/>
       <c r="Y42" s="10"/>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="95" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B43" s="42"/>
       <c r="C43" s="47"/>
@@ -3867,9 +3867,9 @@
       <c r="X43" s="4"/>
       <c r="Y43" s="10"/>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="95" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B44" s="42"/>
       <c r="C44" s="47"/>
@@ -3891,9 +3891,9 @@
       <c r="X44" s="4"/>
       <c r="Y44" s="10"/>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="95" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B45" s="42"/>
       <c r="C45" s="47"/>
@@ -3915,9 +3915,9 @@
       <c r="X45" s="4"/>
       <c r="Y45" s="10"/>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="95" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B46" s="42"/>
       <c r="C46" s="47"/>
@@ -3939,9 +3939,9 @@
       <c r="X46" s="4"/>
       <c r="Y46" s="10"/>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" s="95" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B47" s="42"/>
       <c r="C47" s="47"/>
@@ -3963,9 +3963,9 @@
       <c r="X47" s="4"/>
       <c r="Y47" s="10"/>
     </row>
-    <row r="48" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="95" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B48" s="43"/>
       <c r="C48" s="48"/>
@@ -3987,14 +3987,14 @@
       <c r="X48" s="12"/>
       <c r="Y48" s="13"/>
     </row>
-    <row r="49" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
     </row>
-    <row r="50" spans="1:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="22" t="s">
         <v>36</v>
       </c>
@@ -4004,7 +4004,7 @@
       <c r="C50" s="27"/>
       <c r="D50" s="27"/>
       <c r="E50" s="27" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G50" s="18" t="s">
         <v>27</v>
@@ -4052,15 +4052,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="1:25" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A51" s="99" t="s">
-        <v>85</v>
-      </c>
-      <c r="B51" s="111" t="s">
-        <v>86</v>
-      </c>
-      <c r="C51" s="112"/>
-      <c r="D51" s="113"/>
+        <v>83</v>
+      </c>
+      <c r="B51" s="112" t="s">
+        <v>84</v>
+      </c>
+      <c r="C51" s="113"/>
+      <c r="D51" s="114"/>
       <c r="E51" s="51"/>
       <c r="G51" s="9"/>
       <c r="H51" s="4"/>
@@ -4078,15 +4078,15 @@
       <c r="X51" s="4"/>
       <c r="Y51" s="10"/>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" s="100" t="s">
-        <v>87</v>
-      </c>
-      <c r="B52" s="114" t="s">
-        <v>88</v>
-      </c>
-      <c r="C52" s="115"/>
-      <c r="D52" s="116"/>
+        <v>85</v>
+      </c>
+      <c r="B52" s="115" t="s">
+        <v>86</v>
+      </c>
+      <c r="C52" s="116"/>
+      <c r="D52" s="117"/>
       <c r="E52" s="52"/>
       <c r="G52" s="9"/>
       <c r="H52" s="4"/>
@@ -4104,15 +4104,15 @@
       <c r="X52" s="4"/>
       <c r="Y52" s="10"/>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53" s="100" t="s">
-        <v>89</v>
-      </c>
-      <c r="B53" s="114" t="s">
-        <v>90</v>
-      </c>
-      <c r="C53" s="115"/>
-      <c r="D53" s="116"/>
+        <v>87</v>
+      </c>
+      <c r="B53" s="115" t="s">
+        <v>88</v>
+      </c>
+      <c r="C53" s="116"/>
+      <c r="D53" s="117"/>
       <c r="E53" s="52"/>
       <c r="G53" s="9"/>
       <c r="H53" s="4"/>
@@ -4130,15 +4130,15 @@
       <c r="X53" s="4"/>
       <c r="Y53" s="10"/>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54" s="100" t="s">
-        <v>91</v>
-      </c>
-      <c r="B54" s="114" t="s">
-        <v>92</v>
-      </c>
-      <c r="C54" s="115"/>
-      <c r="D54" s="116"/>
+        <v>89</v>
+      </c>
+      <c r="B54" s="115" t="s">
+        <v>90</v>
+      </c>
+      <c r="C54" s="116"/>
+      <c r="D54" s="117"/>
       <c r="E54" s="52"/>
       <c r="G54" s="9"/>
       <c r="H54" s="4"/>
@@ -4156,23 +4156,23 @@
       <c r="X54" s="4"/>
       <c r="Y54" s="10"/>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55" s="100" t="s">
-        <v>93</v>
-      </c>
-      <c r="B55" s="114" t="s">
+        <v>91</v>
+      </c>
+      <c r="B55" s="115" t="s">
+        <v>52</v>
+      </c>
+      <c r="C55" s="116"/>
+      <c r="D55" s="117"/>
+      <c r="E55" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="G55" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="H55" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="C55" s="115"/>
-      <c r="D55" s="116"/>
-      <c r="E55" s="52" t="s">
-        <v>54</v>
-      </c>
-      <c r="G55" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="H55" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="I55" s="10" t="s">
         <v>43</v>
@@ -4190,7 +4190,7 @@
       <c r="X55" s="4"/>
       <c r="Y55" s="10"/>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56" s="44"/>
       <c r="B56" s="65"/>
       <c r="C56" s="66"/>
@@ -4212,11 +4212,11 @@
       <c r="X56" s="4"/>
       <c r="Y56" s="10"/>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" s="44"/>
-      <c r="B57" s="117"/>
-      <c r="C57" s="118"/>
-      <c r="D57" s="119"/>
+      <c r="B57" s="118"/>
+      <c r="C57" s="119"/>
+      <c r="D57" s="120"/>
       <c r="E57" s="52"/>
       <c r="G57" s="9"/>
       <c r="H57" s="4"/>
@@ -4234,11 +4234,11 @@
       <c r="X57" s="4"/>
       <c r="Y57" s="10"/>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58" s="44"/>
-      <c r="B58" s="117"/>
-      <c r="C58" s="118"/>
-      <c r="D58" s="119"/>
+      <c r="B58" s="118"/>
+      <c r="C58" s="119"/>
+      <c r="D58" s="120"/>
       <c r="E58" s="52"/>
       <c r="G58" s="9"/>
       <c r="H58" s="4"/>
@@ -4256,11 +4256,11 @@
       <c r="X58" s="4"/>
       <c r="Y58" s="10"/>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59" s="44"/>
-      <c r="B59" s="117"/>
-      <c r="C59" s="118"/>
-      <c r="D59" s="119"/>
+      <c r="B59" s="118"/>
+      <c r="C59" s="119"/>
+      <c r="D59" s="120"/>
       <c r="E59" s="52"/>
       <c r="G59" s="9"/>
       <c r="H59" s="4"/>
@@ -4278,11 +4278,11 @@
       <c r="X59" s="4"/>
       <c r="Y59" s="10"/>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60" s="44"/>
-      <c r="B60" s="117"/>
-      <c r="C60" s="118"/>
-      <c r="D60" s="119"/>
+      <c r="B60" s="118"/>
+      <c r="C60" s="119"/>
+      <c r="D60" s="120"/>
       <c r="E60" s="52"/>
       <c r="G60" s="9"/>
       <c r="H60" s="4"/>
@@ -4300,11 +4300,11 @@
       <c r="X60" s="4"/>
       <c r="Y60" s="10"/>
     </row>
-    <row r="61" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="45"/>
-      <c r="B61" s="120"/>
-      <c r="C61" s="121"/>
-      <c r="D61" s="122"/>
+      <c r="B61" s="121"/>
+      <c r="C61" s="122"/>
+      <c r="D61" s="123"/>
       <c r="E61" s="53"/>
       <c r="G61" s="11"/>
       <c r="H61" s="12"/>
@@ -4322,9 +4322,9 @@
       <c r="X61" s="12"/>
       <c r="Y61" s="13"/>
     </row>
-    <row r="62" spans="1:25" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="62" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="P8py4ATmtEJnQStSICibCNQ0eBprwLYCmxGgIwOmQ2yWzMnTPv9qYmo97iBbaVr4riTD84uvGlN1smdbzWD8vA==" saltValue="ALnRmcRs5NkjyprngcUKRw==" spinCount="100000" sheet="1" insertColumns="0" insertRows="0"/>
+  <sheetProtection insertColumns="0" insertRows="0"/>
   <protectedRanges>
     <protectedRange sqref="S4:Y61" name="customEntities"/>
     <protectedRange sqref="A1" name="Titel"/>

--- a/default-mappings-xlsx/visitreport/VisitReport_Mapping_Salesforce_DE.xlsx
+++ b/default-mappings-xlsx/visitreport/VisitReport_Mapping_Salesforce_DE.xlsx
@@ -1,15 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MarcusKlapprodt\snapADDY GmbH\Sebastian Metzger - Mapping\2_Vorlagen CRM Mapping\VisitReport\2019\DE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\Neue Vorlagen\VisitReport\Salesforce\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="163" documentId="13_ncr:1_{D1FC447D-FCE2-455D-A99E-F748ABA21EF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{27B2C6F4-7585-4DD5-A43A-912EF2064F2C}"/>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="csxn9cVURx3qmXoNDAhGCCtW5lDou+zjcdL+V0vvGz3MdfQlj2G9NUtYW6m2gFpQqfQI54JAu1yg0ZrvQ9lJVA==" workbookSaltValue="hUa66Cmn6iZ2RylzL3U9zg==" workbookSpinCount="100000" lockStructure="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7E467D3-8C05-4224-B3E3-94D60CF86C16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,26 +16,19 @@
     <sheet name="Specifications" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="checkbox">Specifications!$C$39:$D$48,Specifications!$C$28:$D$37,Specifications!$C$7:$D$24</definedName>
-    <definedName name="Field_type">Specifications!$I$7:$I$24,Specifications!$M$7:$M$24,Specifications!$Q$7:$Q$24,Specifications!$U$7:$U$24,Specifications!$Y$7:$Y$24,Specifications!$I$28:$I$37,Specifications!$M$28:$M$37,Specifications!$Q$28:$Q$37,Specifications!$U$28:$U$37,Specifications!$Y$28:$Y$37,Specifications!$I$39:$I$48,Specifications!$M$39:$M$48,Specifications!$Q$39:$Q$48,Specifications!$U$39:$U$48,Specifications!$Y$39:$Y$48,Specifications!$Y$51:$Y$61,Specifications!$U$51:$U$61,Specifications!$Q$51:$Q$61,Specifications!$M$51:$M$61,Specifications!$I$51:$I$61</definedName>
+    <definedName name="field_type">Specifications!$I$8:$I$26,Specifications!$M$8:$M$26,Specifications!$Q$8:$Q$26,Specifications!$Y$8:$Y$26,Specifications!$U$8:$U$26,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="97">
   <si>
     <t>Website</t>
   </si>
@@ -104,21 +96,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>BillingStreet</t>
-  </si>
-  <si>
-    <t>BillingCity</t>
-  </si>
-  <si>
-    <t>BillingState</t>
-  </si>
-  <si>
-    <t>BillingPostalCode</t>
-  </si>
-  <si>
-    <t>BillingCountry</t>
-  </si>
-  <si>
     <t>Field name</t>
   </si>
   <si>
@@ -137,15 +114,6 @@
     <t>Salesforce: Lead</t>
   </si>
   <si>
-    <t>snapADDY - Trade Fair Questions</t>
-  </si>
-  <si>
-    <t>Group 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Group 2 </t>
-  </si>
-  <si>
     <t>Automatic Fields</t>
   </si>
   <si>
@@ -155,27 +123,6 @@
     <t>Salesforce: Account</t>
   </si>
   <si>
-    <t>Salesforce: Custom Entity</t>
-  </si>
-  <si>
-    <t>Question Type</t>
-  </si>
-  <si>
-    <t>dropdown</t>
-  </si>
-  <si>
-    <t>multiselect</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>signature</t>
-  </si>
-  <si>
-    <t>picklist</t>
-  </si>
-  <si>
     <t>custom 1</t>
   </si>
   <si>
@@ -192,15 +139,6 @@
   </si>
   <si>
     <t>Field Value</t>
-  </si>
-  <si>
-    <t>"snapADDY"</t>
-  </si>
-  <si>
-    <t>exportType</t>
-  </si>
-  <si>
-    <t>exportType__c</t>
   </si>
   <si>
     <t>Default Value</t>
@@ -278,45 +216,6 @@
     <t>Bundesland</t>
   </si>
   <si>
-    <t>Geschlecht</t>
-  </si>
-  <si>
-    <t>Frage 1 : z.B. Branche</t>
-  </si>
-  <si>
-    <t>Frage 2: z.B. Produktinteresse</t>
-  </si>
-  <si>
-    <t>Frage 3</t>
-  </si>
-  <si>
-    <t>Frage 4</t>
-  </si>
-  <si>
-    <t>Frage 5</t>
-  </si>
-  <si>
-    <t>Frage 6</t>
-  </si>
-  <si>
-    <t>Frage 7</t>
-  </si>
-  <si>
-    <t>Frage 8</t>
-  </si>
-  <si>
-    <t>Frage 9</t>
-  </si>
-  <si>
-    <t>Frage 10</t>
-  </si>
-  <si>
-    <t>Frage 1</t>
-  </si>
-  <si>
-    <t>Frage 2</t>
-  </si>
-  <si>
     <t>Kampagnen-ID</t>
   </si>
   <si>
@@ -341,23 +240,122 @@
     <t>Username</t>
   </si>
   <si>
-    <t>Export-Art</t>
-  </si>
-  <si>
-    <t>das ist eine Notiz</t>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Lead-Quelle</t>
+  </si>
+  <si>
+    <t>Datensatztyp</t>
+  </si>
+  <si>
+    <t>Account Name</t>
+  </si>
+  <si>
+    <t>BillingStreet</t>
+  </si>
+  <si>
+    <t>BillingCity</t>
+  </si>
+  <si>
+    <t>BillingState</t>
+  </si>
+  <si>
+    <t>BillingPostalCode</t>
+  </si>
+  <si>
+    <t>BillingCountry</t>
+  </si>
+  <si>
+    <t>Das ist eine Notiz</t>
   </si>
   <si>
     <t>Pflichtfeld</t>
   </si>
   <si>
-    <t>Nicht benötigt</t>
+    <t>SF: Custom Entity</t>
+  </si>
+  <si>
+    <t>nicht benötigt</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>lookup</t>
+  </si>
+  <si>
+    <t>picklist</t>
+  </si>
+  <si>
+    <t>Datentypsatz</t>
+  </si>
+  <si>
+    <t>LeadSource</t>
+  </si>
+  <si>
+    <t>RecordTypeId</t>
+  </si>
+  <si>
+    <t>snapADDY - Vorlage MESSE Besuchbericht</t>
+  </si>
+  <si>
+    <t>Salesforce: Custom Entity</t>
+  </si>
+  <si>
+    <t>multiselect</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group 2 </t>
+  </si>
+  <si>
+    <t>Beispiel: "Welche Produkte benutzen sie bereits?"</t>
+  </si>
+  <si>
+    <t>Frage 1:</t>
+  </si>
+  <si>
+    <t>Frage 2:</t>
+  </si>
+  <si>
+    <t>Frage 3:</t>
+  </si>
+  <si>
+    <t>Frage 4:</t>
+  </si>
+  <si>
+    <t>Frage 5:</t>
+  </si>
+  <si>
+    <t>Frage 6:</t>
+  </si>
+  <si>
+    <t>Frage 7:</t>
+  </si>
+  <si>
+    <t>Frage 8:</t>
+  </si>
+  <si>
+    <t>Frage 9:</t>
+  </si>
+  <si>
+    <t>Frage 10:</t>
+  </si>
+  <si>
+    <t>Group 1</t>
+  </si>
+  <si>
+    <t>Frage Typ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -439,6 +437,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -478,7 +483,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="71">
+  <borders count="101">
     <border>
       <left/>
       <right/>
@@ -526,37 +531,6 @@
       <right/>
       <top style="thin">
         <color rgb="FF0070C0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="0"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color theme="0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thick">
-        <color theme="0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color theme="0"/>
-      </right>
-      <top style="thick">
-        <color theme="0"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -744,47 +718,6 @@
       <left style="thick">
         <color rgb="FF9DA600"/>
       </left>
-      <right style="thick">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFFE6C36"/>
-      </left>
-      <right style="thick">
-        <color rgb="FFFE6C36"/>
-      </right>
-      <top style="thick">
-        <color rgb="FFFE6C36"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
       <right/>
       <top style="thin">
         <color rgb="FF9DA600"/>
@@ -851,43 +784,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thick">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FF0070C0"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF9DA600"/>
       </left>
@@ -946,17 +842,6 @@
       <bottom style="thick">
         <color rgb="FF9DA600"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1279,15 +1164,52 @@
     </border>
     <border>
       <left style="thick">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF9DA600"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF9DA600"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF9DA600"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF9DA600"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF9DA600"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF9DA600"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
         <color rgb="FF0070C0"/>
       </left>
       <right/>
       <top style="thick">
         <color rgb="FF0070C0"/>
       </top>
-      <bottom style="thick">
-        <color rgb="FF0070C0"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1296,9 +1218,7 @@
       <top style="thick">
         <color rgb="FF0070C0"/>
       </top>
-      <bottom style="thick">
-        <color rgb="FF0070C0"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1309,9 +1229,7 @@
       <top style="thick">
         <color rgb="FF0070C0"/>
       </top>
-      <bottom style="thick">
-        <color rgb="FF0070C0"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1322,9 +1240,70 @@
       <top style="thick">
         <color rgb="FF0070C0"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
+      <bottom style="thick">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF0070C0"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color theme="4" tint="0.59996337778862885"/>
+      </top>
+      <bottom style="thick">
+        <color theme="4" tint="0.59996337778862885"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="4" tint="0.59996337778862885"/>
+      </right>
+      <top style="thick">
+        <color theme="4" tint="0.59996337778862885"/>
+      </top>
+      <bottom style="thick">
+        <color theme="4" tint="0.59996337778862885"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF9DA600"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF9DA600"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1334,9 +1313,7 @@
       <right style="thin">
         <color theme="0"/>
       </right>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color rgb="FF0070C0"/>
       </bottom>
@@ -1349,9 +1326,7 @@
       <right style="thin">
         <color theme="0"/>
       </right>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color rgb="FF0070C0"/>
       </bottom>
@@ -1364,11 +1339,411 @@
       <right style="thick">
         <color rgb="FF0070C0"/>
       </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="4" tint="0.59996337778862885"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thick">
+        <color theme="4" tint="0.59996337778862885"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FF9DA600"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="4" tint="0.59996337778862885"/>
+      </left>
+      <right/>
       <top style="thin">
         <color rgb="FF0070C0"/>
       </top>
       <bottom style="thin">
         <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="4" tint="0.59996337778862885"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF9DA600"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF9DA600"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="4" tint="0.59996337778862885"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="4" tint="0.59996337778862885"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="4" tint="0.59996337778862885"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="thick">
+        <color theme="4" tint="0.59996337778862885"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="thick">
+        <color theme="4" tint="0.59996337778862885"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="4" tint="0.59996337778862885"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="thick">
+        <color theme="4" tint="0.59996337778862885"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF9DA600"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF0070C0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF0070C0"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="4" tint="0.59996337778862885"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thick">
+        <color theme="4" tint="0.59996337778862885"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="4" tint="0.59996337778862885"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color theme="4" tint="0.59996337778862885"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color theme="4" tint="0.59996337778862885"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="4" tint="0.59996337778862885"/>
+      </right>
+      <top style="thick">
+        <color theme="4" tint="0.59996337778862885"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="4" tint="0.59996337778862885"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thick">
+        <color theme="4" tint="0.59996337778862885"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thick">
+        <color theme="4" tint="0.59996337778862885"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thick">
+        <color theme="4" tint="0.59996337778862885"/>
+      </right>
+      <top style="thick">
+        <color theme="4" tint="0.59996337778862885"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="4" tint="0.59996337778862885"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="4" tint="0.59996337778862885"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF9DA600"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFE6C36"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFE6C36"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFFE6C36"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="4" tint="0.59996337778862885"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color theme="4" tint="0.59996337778862885"/>
+      </top>
+      <bottom style="thick">
+        <color theme="4" tint="0.59996337778862885"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF9DA600"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF9DA600"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF9DA600"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1376,7 +1751,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="163">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1386,226 +1761,279 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="78" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="80" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="89" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="90" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="94" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="94" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="95" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="72" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="73" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="83">
     <dxf>
       <font>
         <b val="0"/>
@@ -1658,6 +2086,402 @@
         <color rgb="FFFE6C36"/>
       </font>
       <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkUp">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
         <patternFill patternType="darkUp">
           <fgColor theme="0" tint="-0.14993743705557422"/>
           <bgColor auto="1"/>
@@ -1770,6 +2594,270 @@
       <fill>
         <patternFill patternType="lightHorizontal">
           <fgColor theme="0" tint="-0.14996795556505021"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightHorizontal">
+          <fgColor theme="0" tint="-0.14996795556505021"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkUp">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
           <bgColor auto="1"/>
         </patternFill>
       </fill>
@@ -1878,11 +2966,11 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="snapADDY" pivot="0" count="5" xr9:uid="{A8851A67-88BF-475D-B211-A3CFCBFE5DEE}">
-      <tableStyleElement type="wholeTable" dxfId="22"/>
-      <tableStyleElement type="headerRow" dxfId="21"/>
-      <tableStyleElement type="firstColumn" dxfId="20"/>
-      <tableStyleElement type="firstRowStripe" dxfId="19"/>
-      <tableStyleElement type="secondRowStripe" dxfId="18"/>
+      <tableStyleElement type="wholeTable" dxfId="82"/>
+      <tableStyleElement type="headerRow" dxfId="81"/>
+      <tableStyleElement type="firstColumn" dxfId="80"/>
+      <tableStyleElement type="firstRowStripe" dxfId="79"/>
+      <tableStyleElement type="secondRowStripe" dxfId="78"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1905,77 +2993,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>949569</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>14255</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>153866</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>6928</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Pfeil: nach rechts 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72EC3821-329B-401E-9D77-590903C397BF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5709138" y="5401009"/>
-          <a:ext cx="394190" cy="203688"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 64615"/>
-            <a:gd name="adj2" fmla="val 96695"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="9DA600"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="de-DE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -2058,21 +3075,21 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>973015</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>187569</xdr:rowOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>105510</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>197826</xdr:rowOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>4396</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="Pfeil: nach rechts 28">
+        <xdr:cNvPr id="10" name="Pfeil: nach rechts 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0843272-B443-4557-BFCA-60944E4CA898}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA74FB86-7A91-424D-949F-CC57096F3873}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2080,13 +3097,84 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5732584" y="7631723"/>
-          <a:ext cx="205157" cy="203688"/>
+          <a:off x="5609785" y="11140440"/>
+          <a:ext cx="182150" cy="217756"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
             <a:gd name="adj1" fmla="val 64615"/>
             <a:gd name="adj2" fmla="val 79428"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FE6C36"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>949569</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>10445</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>153866</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>3118</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Pfeil: nach rechts 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6952E0D9-D093-41A6-A6E5-8553DC662231}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5579078" y="6243030"/>
+          <a:ext cx="368863" cy="215522"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 64615"/>
+            <a:gd name="adj2" fmla="val 96695"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
@@ -2129,21 +3217,21 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>973015</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>187569</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>105510</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>4396</xdr:rowOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>197826</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="Pfeil: nach rechts 29">
+        <xdr:cNvPr id="12" name="Pfeil: nach rechts 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{564DA0CA-33A0-435E-935A-029DEA885B5C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E51AA1AF-CD2D-4250-9990-D1C2EBCDD499}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2151,8 +3239,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5732584" y="9771185"/>
-          <a:ext cx="205157" cy="203688"/>
+          <a:off x="5609785" y="8683869"/>
+          <a:ext cx="182150" cy="206472"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -2165,7 +3253,7 @@
         </a:solidFill>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="FE6C36"/>
+            <a:srgbClr val="9DA600"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -2496,13 +3584,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5027446F-BBDF-4A57-AA45-BC7D0EB64201}">
-  <dimension ref="A1:Y62"/>
+  <dimension ref="A1:Y67"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.85546875" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
@@ -2516,25 +3604,25 @@
     <col min="14" max="14" width="1.7109375" customWidth="1"/>
     <col min="15" max="17" width="15" customWidth="1"/>
     <col min="18" max="18" width="1.7109375" customWidth="1"/>
-    <col min="19" max="21" width="15" customWidth="1"/>
-    <col min="22" max="22" width="1.5703125" customWidth="1"/>
-    <col min="23" max="25" width="15" customWidth="1"/>
+    <col min="19" max="21" width="15" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="22" width="1.5703125" customWidth="1" outlineLevel="1"/>
+    <col min="23" max="25" width="15" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="93" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
+      <c r="A1" s="60" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:25" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="29" t="s">
-        <v>50</v>
+      <c r="A2" s="22" t="s">
+        <v>35</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -2544,715 +3632,715 @@
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:25" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G3" s="69"/>
-      <c r="K3" s="69"/>
-    </row>
-    <row r="4" spans="1:25" ht="81" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="31" t="s">
+      <c r="G3" s="39"/>
+      <c r="K3" s="39"/>
+    </row>
+    <row r="4" spans="1:25" ht="80.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="23"/>
+      <c r="C4" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="33"/>
+      <c r="G4" s="141" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="141"/>
+      <c r="I4" s="141"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="141" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="49" t="s">
-        <v>93</v>
-      </c>
-      <c r="D4" s="49" t="s">
-        <v>94</v>
-      </c>
-      <c r="E4" s="50"/>
-      <c r="G4" s="108" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" s="108"/>
-      <c r="I4" s="108"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="108" t="s">
+      <c r="L4" s="141"/>
+      <c r="M4" s="141"/>
+      <c r="O4" s="141" t="s">
+        <v>30</v>
+      </c>
+      <c r="P4" s="141"/>
+      <c r="Q4" s="141"/>
+      <c r="S4" s="138" t="s">
+        <v>38</v>
+      </c>
+      <c r="T4" s="139"/>
+      <c r="U4" s="140"/>
+      <c r="W4" s="138" t="s">
+        <v>71</v>
+      </c>
+      <c r="X4" s="139"/>
+      <c r="Y4" s="140"/>
+    </row>
+    <row r="5" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="137" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="50"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="L4" s="108"/>
-      <c r="M4" s="108"/>
-      <c r="O4" s="108" t="s">
-        <v>38</v>
-      </c>
-      <c r="P4" s="108"/>
-      <c r="Q4" s="108"/>
-      <c r="S4" s="102" t="s">
-        <v>56</v>
-      </c>
-      <c r="T4" s="103"/>
-      <c r="U4" s="104"/>
-      <c r="W4" s="102" t="s">
-        <v>39</v>
-      </c>
-      <c r="X4" s="103"/>
-      <c r="Y4" s="104"/>
-    </row>
-    <row r="5" spans="1:25" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="80"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="60" t="s">
-        <v>55</v>
-      </c>
       <c r="G6" s="18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="H6" s="19" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I6" s="20" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="L6" s="19" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="M6" s="20" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="O6" s="18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="P6" s="19" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="Q6" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="S6" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="T6" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="U6" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="W6" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="X6" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y6" s="25" t="s">
-        <v>28</v>
+        <v>23</v>
+      </c>
+      <c r="S6" s="126" t="s">
+        <v>22</v>
+      </c>
+      <c r="T6" s="127" t="s">
+        <v>25</v>
+      </c>
+      <c r="U6" s="128" t="s">
+        <v>23</v>
+      </c>
+      <c r="W6" s="126" t="s">
+        <v>22</v>
+      </c>
+      <c r="X6" s="127" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y6" s="128" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="82"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="57"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="17"/>
+      <c r="A7" s="86"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="34"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="10"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="17"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="10"/>
       <c r="O7" s="16"/>
       <c r="P7" s="5"/>
       <c r="Q7" s="17"/>
-      <c r="S7" s="16"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="17"/>
-      <c r="W7" s="16"/>
+      <c r="S7" s="129" t="s">
+        <v>31</v>
+      </c>
+      <c r="T7" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="U7" s="85"/>
+      <c r="W7" s="95"/>
       <c r="X7" s="5"/>
-      <c r="Y7" s="17"/>
-    </row>
-    <row r="8" spans="1:25" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="94" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" s="70" t="s">
-        <v>92</v>
-      </c>
-      <c r="C8" s="83"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="72"/>
-      <c r="G8" s="73" t="s">
+      <c r="Y7" s="96"/>
+    </row>
+    <row r="8" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="61" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="53"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="42"/>
+      <c r="G8" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="74" t="s">
+      <c r="I8" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="J8" s="46"/>
+      <c r="K8" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="L8" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="I8" s="75" t="s">
-        <v>45</v>
-      </c>
-      <c r="J8" s="76"/>
-      <c r="K8" s="73" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="74" t="s">
-        <v>3</v>
-      </c>
-      <c r="M8" s="75" t="s">
-        <v>45</v>
-      </c>
-      <c r="O8" s="73"/>
-      <c r="P8" s="74"/>
-      <c r="Q8" s="75"/>
-      <c r="S8" s="73" t="s">
-        <v>46</v>
-      </c>
-      <c r="T8" s="74" t="s">
-        <v>47</v>
-      </c>
-      <c r="U8" s="75"/>
-      <c r="W8" s="73"/>
-      <c r="X8" s="74"/>
-      <c r="Y8" s="75"/>
+      <c r="M8" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="O8" s="47"/>
+      <c r="P8" s="48"/>
+      <c r="Q8" s="49"/>
+      <c r="S8" s="130" t="s">
+        <v>33</v>
+      </c>
+      <c r="T8" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="U8" s="85"/>
+      <c r="W8" s="84"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="85"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" s="95" t="s">
-        <v>59</v>
-      </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="84"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="58"/>
+      <c r="A9" s="62" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="25"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="35"/>
       <c r="G9" s="9" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="101" t="s">
-        <v>43</v>
+      <c r="I9" s="45" t="s">
+        <v>73</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="9" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="L9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="M9" s="101" t="s">
-        <v>43</v>
+      <c r="M9" s="10" t="s">
+        <v>73</v>
       </c>
       <c r="O9" s="9"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="10"/>
-      <c r="S9" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="T9" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="U9" s="10"/>
-      <c r="W9" s="9"/>
+      <c r="S9" s="84"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="85"/>
+      <c r="W9" s="84"/>
       <c r="X9" s="4"/>
-      <c r="Y9" s="10"/>
+      <c r="Y9" s="85"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10" s="95" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="84"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="58"/>
+      <c r="A10" s="62" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="25"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="35"/>
       <c r="G10" s="9" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I10" s="101" t="s">
-        <v>43</v>
+      <c r="I10" s="10" t="s">
+        <v>73</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="9" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="L10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="M10" s="101" t="s">
-        <v>43</v>
+      <c r="M10" s="10" t="s">
+        <v>73</v>
       </c>
       <c r="O10" s="9"/>
       <c r="P10" s="4"/>
       <c r="Q10" s="10"/>
-      <c r="S10" s="9"/>
+      <c r="S10" s="84"/>
       <c r="T10" s="4"/>
-      <c r="U10" s="10"/>
-      <c r="W10" s="9"/>
+      <c r="U10" s="85"/>
+      <c r="W10" s="84"/>
       <c r="X10" s="4"/>
-      <c r="Y10" s="10"/>
+      <c r="Y10" s="85"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A11" s="95" t="s">
-        <v>61</v>
-      </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="84"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="58"/>
+      <c r="A11" s="62" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="25"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="35"/>
       <c r="G11" s="9" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I11" s="101" t="s">
-        <v>43</v>
+      <c r="I11" s="10" t="s">
+        <v>73</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="9" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="L11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="M11" s="101" t="s">
-        <v>43</v>
+      <c r="M11" s="10" t="s">
+        <v>73</v>
       </c>
       <c r="O11" s="9"/>
       <c r="P11" s="4"/>
       <c r="Q11" s="10"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="10"/>
-      <c r="W11" s="9"/>
+      <c r="S11" s="129"/>
+      <c r="T11" s="44"/>
+      <c r="U11" s="131"/>
+      <c r="W11" s="84"/>
       <c r="X11" s="4"/>
-      <c r="Y11" s="10"/>
+      <c r="Y11" s="85"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12" s="95" t="s">
-        <v>62</v>
-      </c>
-      <c r="B12" s="33"/>
-      <c r="C12" s="84"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="58"/>
+      <c r="A12" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="25"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="35"/>
       <c r="G12" s="9" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I12" s="101" t="s">
-        <v>43</v>
+      <c r="I12" s="10" t="s">
+        <v>73</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="9"/>
       <c r="L12" s="4"/>
       <c r="M12" s="10"/>
       <c r="O12" s="9" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="P12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="Q12" s="101" t="s">
-        <v>43</v>
-      </c>
-      <c r="S12" s="9"/>
+      <c r="Q12" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="S12" s="84"/>
       <c r="T12" s="4"/>
-      <c r="U12" s="10"/>
-      <c r="W12" s="9"/>
+      <c r="U12" s="85"/>
+      <c r="W12" s="84"/>
       <c r="X12" s="4"/>
-      <c r="Y12" s="10"/>
+      <c r="Y12" s="85"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A13" s="96" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="34"/>
-      <c r="C13" s="84"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="58"/>
+      <c r="A13" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="26"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="35"/>
       <c r="G13" s="16" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I13" s="101" t="s">
-        <v>43</v>
+      <c r="I13" s="10" t="s">
+        <v>73</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="16" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="L13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M13" s="101" t="s">
-        <v>43</v>
+      <c r="M13" s="17" t="s">
+        <v>73</v>
       </c>
       <c r="O13" s="16" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q13" s="101" t="s">
-        <v>43</v>
-      </c>
-      <c r="S13" s="9"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="10"/>
-      <c r="W13" s="9"/>
+        <v>64</v>
+      </c>
+      <c r="Q13" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="S13" s="132"/>
+      <c r="T13" s="48"/>
+      <c r="U13" s="133"/>
+      <c r="W13" s="84"/>
       <c r="X13" s="4"/>
-      <c r="Y13" s="10"/>
-    </row>
-    <row r="14" spans="1:25" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="94" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" s="70"/>
-      <c r="C14" s="83"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="72"/>
-      <c r="G14" s="77" t="s">
+      <c r="Y13" s="85"/>
+    </row>
+    <row r="14" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="40"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="42"/>
+      <c r="G14" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H14" s="78" t="s">
-        <v>9</v>
-      </c>
-      <c r="I14" s="79" t="s">
-        <v>43</v>
-      </c>
-      <c r="J14" s="76"/>
-      <c r="K14" s="77" t="s">
-        <v>9</v>
-      </c>
-      <c r="L14" s="78" t="s">
+      <c r="I14" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="J14" s="46"/>
+      <c r="K14" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="L14" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="M14" s="101" t="s">
-        <v>43</v>
-      </c>
-      <c r="O14" s="77" t="s">
-        <v>9</v>
-      </c>
-      <c r="P14" s="78" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q14" s="101" t="s">
-        <v>43</v>
-      </c>
-      <c r="S14" s="77"/>
-      <c r="T14" s="78"/>
-      <c r="U14" s="79"/>
-      <c r="W14" s="77"/>
-      <c r="X14" s="78"/>
-      <c r="Y14" s="79"/>
+      <c r="M14" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="O14" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="P14" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q14" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="S14" s="129"/>
+      <c r="T14" s="44"/>
+      <c r="U14" s="131"/>
+      <c r="W14" s="132"/>
+      <c r="X14" s="48"/>
+      <c r="Y14" s="133"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A15" s="97" t="s">
-        <v>63</v>
-      </c>
-      <c r="B15" s="35"/>
-      <c r="C15" s="84"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="58"/>
+      <c r="A15" s="64" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="27"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="35"/>
       <c r="G15" s="14" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="H15" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="I15" s="101" t="s">
-        <v>43</v>
+      <c r="I15" s="10" t="s">
+        <v>73</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="14" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="L15" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="M15" s="101" t="s">
-        <v>43</v>
+      <c r="M15" s="17" t="s">
+        <v>73</v>
       </c>
       <c r="O15" s="14" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="P15" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q15" s="101" t="s">
-        <v>43</v>
-      </c>
-      <c r="S15" s="9"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="10"/>
-      <c r="W15" s="9"/>
+        <v>66</v>
+      </c>
+      <c r="Q15" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="S15" s="130"/>
+      <c r="T15" s="15"/>
+      <c r="U15" s="85"/>
+      <c r="W15" s="84"/>
       <c r="X15" s="4"/>
-      <c r="Y15" s="10"/>
+      <c r="Y15" s="85"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16" s="95" t="s">
-        <v>64</v>
-      </c>
-      <c r="B16" s="33"/>
-      <c r="C16" s="84"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="58"/>
+      <c r="A16" s="62" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="25"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="35"/>
       <c r="G16" s="9" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I16" s="101" t="s">
-        <v>43</v>
+      <c r="I16" s="10" t="s">
+        <v>73</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="9" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="L16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="M16" s="101" t="s">
-        <v>43</v>
+      <c r="M16" s="17" t="s">
+        <v>73</v>
       </c>
       <c r="O16" s="9" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="P16" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q16" s="101" t="s">
-        <v>43</v>
-      </c>
-      <c r="S16" s="9"/>
+        <v>67</v>
+      </c>
+      <c r="Q16" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="S16" s="84"/>
       <c r="T16" s="4"/>
-      <c r="U16" s="10"/>
-      <c r="W16" s="9"/>
+      <c r="U16" s="85"/>
+      <c r="W16" s="84"/>
       <c r="X16" s="4"/>
-      <c r="Y16" s="10"/>
+      <c r="Y16" s="85"/>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A17" s="95" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" s="33"/>
-      <c r="C17" s="84"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="58"/>
+      <c r="A17" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="25"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="35"/>
       <c r="G17" s="9" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I17" s="101" t="s">
-        <v>43</v>
+      <c r="I17" s="10" t="s">
+        <v>73</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="9" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="L17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="M17" s="101" t="s">
-        <v>43</v>
+      <c r="M17" s="17" t="s">
+        <v>73</v>
       </c>
       <c r="O17" s="9" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="P17" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q17" s="101" t="s">
-        <v>43</v>
-      </c>
-      <c r="S17" s="9"/>
+        <v>68</v>
+      </c>
+      <c r="Q17" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="S17" s="84"/>
       <c r="T17" s="4"/>
-      <c r="U17" s="10"/>
-      <c r="W17" s="9"/>
+      <c r="U17" s="85"/>
+      <c r="W17" s="84"/>
       <c r="X17" s="4"/>
-      <c r="Y17" s="10"/>
+      <c r="Y17" s="85"/>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A18" s="95" t="s">
-        <v>65</v>
-      </c>
-      <c r="B18" s="33"/>
-      <c r="C18" s="84"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="58"/>
+      <c r="A18" s="62" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="25"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="35"/>
       <c r="G18" s="9" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I18" s="101" t="s">
-        <v>43</v>
+      <c r="I18" s="10" t="s">
+        <v>73</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="9" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="L18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M18" s="101" t="s">
-        <v>43</v>
+      <c r="M18" s="17" t="s">
+        <v>73</v>
       </c>
       <c r="O18" s="9" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="P18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="Q18" s="101" t="s">
-        <v>43</v>
-      </c>
-      <c r="S18" s="9"/>
+      <c r="Q18" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="S18" s="84"/>
       <c r="T18" s="4"/>
-      <c r="U18" s="10"/>
-      <c r="W18" s="9"/>
+      <c r="U18" s="85"/>
+      <c r="W18" s="84"/>
       <c r="X18" s="4"/>
-      <c r="Y18" s="10"/>
+      <c r="Y18" s="85"/>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A19" s="95" t="s">
-        <v>66</v>
-      </c>
-      <c r="B19" s="33"/>
-      <c r="C19" s="84"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="58"/>
+      <c r="A19" s="62" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="25"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="35"/>
       <c r="G19" s="9" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I19" s="101" t="s">
-        <v>43</v>
+      <c r="I19" s="10" t="s">
+        <v>73</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="9" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="L19" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="M19" s="101" t="s">
-        <v>43</v>
+      <c r="M19" s="17" t="s">
+        <v>73</v>
       </c>
       <c r="O19" s="9"/>
       <c r="P19" s="4"/>
       <c r="Q19" s="10"/>
-      <c r="S19" s="9"/>
+      <c r="S19" s="84"/>
       <c r="T19" s="4"/>
-      <c r="U19" s="10"/>
-      <c r="W19" s="9"/>
+      <c r="U19" s="85"/>
+      <c r="W19" s="84"/>
       <c r="X19" s="4"/>
-      <c r="Y19" s="10"/>
-    </row>
-    <row r="20" spans="1:25" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="94" t="s">
-        <v>67</v>
-      </c>
-      <c r="B20" s="70"/>
-      <c r="C20" s="83"/>
-      <c r="D20" s="71"/>
-      <c r="E20" s="72"/>
-      <c r="G20" s="77" t="s">
+      <c r="Y19" s="85"/>
+    </row>
+    <row r="20" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="H20" s="78" t="s">
+      <c r="B20" s="40"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="42"/>
+      <c r="G20" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="I20" s="101" t="s">
-        <v>43</v>
-      </c>
-      <c r="J20" s="76"/>
-      <c r="K20" s="77" t="s">
+      <c r="H20" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="L20" s="78" t="s">
+      <c r="I20" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="J20" s="46"/>
+      <c r="K20" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="M20" s="101" t="s">
-        <v>43</v>
-      </c>
-      <c r="O20" s="77" t="s">
+      <c r="L20" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="P20" s="78" t="s">
+      <c r="M20" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="O20" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="Q20" s="101" t="s">
-        <v>43</v>
-      </c>
-      <c r="S20" s="77"/>
-      <c r="T20" s="78"/>
-      <c r="U20" s="79"/>
-      <c r="W20" s="77"/>
-      <c r="X20" s="78"/>
-      <c r="Y20" s="79"/>
+      <c r="P20" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q20" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="S20" s="132"/>
+      <c r="T20" s="48"/>
+      <c r="U20" s="133"/>
+      <c r="W20" s="132"/>
+      <c r="X20" s="48"/>
+      <c r="Y20" s="133"/>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A21" s="95" t="s">
-        <v>68</v>
-      </c>
-      <c r="B21" s="33"/>
-      <c r="C21" s="84"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="58"/>
+      <c r="A21" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="25"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="35"/>
       <c r="G21" s="9" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I21" s="101" t="s">
-        <v>43</v>
+      <c r="I21" s="10" t="s">
+        <v>73</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="9" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="L21" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M21" s="101" t="s">
-        <v>43</v>
+      <c r="M21" s="17" t="s">
+        <v>73</v>
       </c>
       <c r="O21" s="9"/>
       <c r="P21" s="4"/>
       <c r="Q21" s="10"/>
-      <c r="S21" s="9"/>
+      <c r="S21" s="84"/>
       <c r="T21" s="4"/>
-      <c r="U21" s="10"/>
-      <c r="W21" s="9"/>
+      <c r="U21" s="85"/>
+      <c r="W21" s="84"/>
       <c r="X21" s="4"/>
-      <c r="Y21" s="10"/>
+      <c r="Y21" s="85"/>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A22" s="96" t="s">
-        <v>69</v>
-      </c>
-      <c r="B22" s="33"/>
-      <c r="C22" s="84"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="58"/>
+      <c r="A22" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="25"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="35"/>
       <c r="G22" s="16" t="s">
         <v>0</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="I22" s="101" t="s">
-        <v>43</v>
+      <c r="I22" s="10" t="s">
+        <v>73</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="16"/>
@@ -3264,617 +4352,639 @@
       <c r="P22" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="Q22" s="101" t="s">
-        <v>43</v>
-      </c>
-      <c r="S22" s="16"/>
+      <c r="Q22" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="S22" s="95"/>
       <c r="T22" s="5"/>
-      <c r="U22" s="17"/>
-      <c r="W22" s="16"/>
+      <c r="U22" s="96"/>
+      <c r="W22" s="95"/>
       <c r="X22" s="5"/>
-      <c r="Y22" s="17"/>
+      <c r="Y22" s="96"/>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A23" s="96" t="s">
-        <v>70</v>
-      </c>
-      <c r="B23" s="33"/>
-      <c r="C23" s="84"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="58"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="17"/>
+      <c r="A23" s="63" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="25"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="35"/>
+      <c r="G23" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>73</v>
+      </c>
       <c r="J23" s="1"/>
       <c r="K23" s="16"/>
       <c r="L23" s="5"/>
       <c r="M23" s="17"/>
       <c r="O23" s="16"/>
       <c r="P23" s="5"/>
-      <c r="Q23" s="17"/>
-      <c r="S23" s="16"/>
+      <c r="Q23" s="10"/>
+      <c r="S23" s="95"/>
       <c r="T23" s="5"/>
-      <c r="U23" s="17"/>
-      <c r="W23" s="16"/>
+      <c r="U23" s="96"/>
+      <c r="W23" s="95"/>
       <c r="X23" s="5"/>
-      <c r="Y23" s="17"/>
-    </row>
-    <row r="24" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="28"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="85"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="59"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="13"/>
+      <c r="Y23" s="96"/>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A24" s="63" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="26"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="67"/>
+      <c r="G24" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>73</v>
+      </c>
       <c r="J24" s="1"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="13"/>
-      <c r="O24" s="11"/>
-      <c r="P24" s="12"/>
-      <c r="Q24" s="13"/>
-      <c r="S24" s="11"/>
-      <c r="T24" s="12"/>
-      <c r="U24" s="13"/>
-      <c r="W24" s="11"/>
-      <c r="X24" s="12"/>
-      <c r="Y24" s="13"/>
-    </row>
-    <row r="25" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G25" s="7"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="8"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="17"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="10"/>
+      <c r="S24" s="95"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="96"/>
+      <c r="W24" s="95"/>
+      <c r="X24" s="5"/>
+      <c r="Y24" s="96"/>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A25" s="63" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="26"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="67"/>
+      <c r="G25" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="I25" s="17" t="s">
+        <v>74</v>
+      </c>
       <c r="J25" s="1"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="8"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="8"/>
-      <c r="S25" s="86"/>
-      <c r="T25" s="2"/>
-      <c r="U25" s="87"/>
-      <c r="V25" s="88"/>
-      <c r="W25" s="86"/>
-      <c r="X25" s="1"/>
-      <c r="Y25" s="8"/>
-    </row>
-    <row r="26" spans="1:25" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="62" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="G26" s="109" t="s">
-        <v>32</v>
-      </c>
-      <c r="H26" s="110"/>
-      <c r="I26" s="111"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="109" t="s">
+      <c r="K25" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="M25" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="O25" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="P25" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q25" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="S25" s="95"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="96"/>
+      <c r="W25" s="95"/>
+      <c r="X25" s="5"/>
+      <c r="Y25" s="96"/>
+    </row>
+    <row r="26" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="21"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="36"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="13"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="13"/>
+      <c r="S26" s="100"/>
+      <c r="T26" s="101"/>
+      <c r="U26" s="102"/>
+      <c r="W26" s="100"/>
+      <c r="X26" s="101"/>
+      <c r="Y26" s="102"/>
+    </row>
+    <row r="27" spans="1:25" ht="7.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G27" s="7"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="8"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="8"/>
+      <c r="S27" s="56"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="57"/>
+      <c r="V27" s="58"/>
+      <c r="W27" s="56"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="8"/>
+    </row>
+    <row r="28" spans="1:25" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="134" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" s="68"/>
+      <c r="C28" s="68"/>
+      <c r="D28" s="68"/>
+      <c r="E28" s="68"/>
+      <c r="G28" s="154" t="s">
+        <v>27</v>
+      </c>
+      <c r="H28" s="155"/>
+      <c r="I28" s="156"/>
+      <c r="J28" s="69"/>
+      <c r="K28" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="L28" s="155"/>
+      <c r="M28" s="156"/>
+      <c r="N28" s="69"/>
+      <c r="O28" s="157" t="s">
+        <v>30</v>
+      </c>
+      <c r="P28" s="158"/>
+      <c r="Q28" s="159"/>
+      <c r="R28" s="70"/>
+      <c r="S28" s="142" t="s">
+        <v>80</v>
+      </c>
+      <c r="T28" s="143"/>
+      <c r="U28" s="144"/>
+      <c r="V28" s="70"/>
+      <c r="W28" s="142" t="s">
+        <v>80</v>
+      </c>
+      <c r="X28" s="143"/>
+      <c r="Y28" s="144"/>
+    </row>
+    <row r="29" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="71" t="s">
+        <v>95</v>
+      </c>
+      <c r="B29" s="72" t="s">
+        <v>96</v>
+      </c>
+      <c r="C29" s="73"/>
+      <c r="D29" s="73"/>
+      <c r="E29" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="L26" s="110"/>
-      <c r="M26" s="111"/>
-      <c r="N26" s="30"/>
-      <c r="O26" s="109" t="s">
-        <v>38</v>
-      </c>
-      <c r="P26" s="110"/>
-      <c r="Q26" s="111"/>
-      <c r="R26" s="30"/>
-      <c r="S26" s="105" t="s">
-        <v>39</v>
-      </c>
-      <c r="T26" s="106"/>
-      <c r="U26" s="107"/>
-      <c r="V26" s="30"/>
-      <c r="W26" s="105" t="s">
-        <v>39</v>
-      </c>
-      <c r="X26" s="106"/>
-      <c r="Y26" s="107"/>
-    </row>
-    <row r="27" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="63" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27" s="64" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="64" t="s">
-        <v>55</v>
-      </c>
-      <c r="G27" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="H27" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="I27" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="K27" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="L27" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="M27" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="O27" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="P27" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q27" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="S27" s="89" t="s">
-        <v>27</v>
-      </c>
-      <c r="T27" s="90" t="s">
-        <v>30</v>
-      </c>
-      <c r="U27" s="91" t="s">
-        <v>28</v>
-      </c>
-      <c r="W27" s="89" t="s">
-        <v>27</v>
-      </c>
-      <c r="X27" s="90" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y27" s="91" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="98" t="s">
-        <v>71</v>
-      </c>
-      <c r="B28" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="C28" s="46"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="54"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="K28" s="9"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="10"/>
-      <c r="O28" s="9"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="10"/>
-      <c r="S28" s="9"/>
-      <c r="T28" s="4"/>
-      <c r="U28" s="10"/>
-      <c r="W28" s="9"/>
-      <c r="X28" s="4"/>
-      <c r="Y28" s="10"/>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A29" s="95" t="s">
-        <v>72</v>
-      </c>
-      <c r="B29" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="C29" s="47"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="55"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="K29" s="9"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="10"/>
-      <c r="O29" s="9"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="10"/>
-      <c r="S29" s="9"/>
-      <c r="T29" s="4"/>
-      <c r="U29" s="10"/>
-      <c r="W29" s="9"/>
-      <c r="X29" s="4"/>
-      <c r="Y29" s="10"/>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A30" s="95" t="s">
-        <v>73</v>
-      </c>
-      <c r="B30" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="C30" s="47"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="55"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="4"/>
+      <c r="G29" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="H29" s="75" t="s">
+        <v>25</v>
+      </c>
+      <c r="I29" s="76" t="s">
+        <v>23</v>
+      </c>
+      <c r="K29" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="L29" s="75" t="s">
+        <v>25</v>
+      </c>
+      <c r="M29" s="76" t="s">
+        <v>23</v>
+      </c>
+      <c r="O29" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="P29" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q29" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="S29" s="77" t="s">
+        <v>22</v>
+      </c>
+      <c r="T29" s="78" t="s">
+        <v>25</v>
+      </c>
+      <c r="U29" s="79" t="s">
+        <v>23</v>
+      </c>
+      <c r="W29" s="77" t="s">
+        <v>22</v>
+      </c>
+      <c r="X29" s="78" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y29" s="79" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="80" t="s">
+        <v>84</v>
+      </c>
+      <c r="B30" s="81" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30" s="82"/>
+      <c r="D30" s="81"/>
+      <c r="E30" s="83" t="s">
+        <v>82</v>
+      </c>
+      <c r="G30" s="16"/>
+      <c r="H30" s="5"/>
       <c r="I30" s="10"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="4"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="5"/>
       <c r="M30" s="10"/>
-      <c r="O30" s="9"/>
-      <c r="P30" s="4"/>
+      <c r="O30" s="16"/>
+      <c r="P30" s="5"/>
       <c r="Q30" s="10"/>
-      <c r="S30" s="9"/>
+      <c r="S30" s="84"/>
       <c r="T30" s="4"/>
-      <c r="U30" s="10"/>
-      <c r="W30" s="9"/>
+      <c r="U30" s="85"/>
+      <c r="W30" s="84"/>
       <c r="X30" s="4"/>
-      <c r="Y30" s="10"/>
+      <c r="Y30" s="85"/>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A31" s="95" t="s">
-        <v>74</v>
-      </c>
-      <c r="B31" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="C31" s="47"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="55"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="4"/>
+      <c r="A31" s="86" t="s">
+        <v>85</v>
+      </c>
+      <c r="B31" s="87"/>
+      <c r="C31" s="88"/>
+      <c r="D31" s="87"/>
+      <c r="E31" s="83"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="5"/>
       <c r="I31" s="10"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="4"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="5"/>
       <c r="M31" s="10"/>
-      <c r="O31" s="9"/>
-      <c r="P31" s="4"/>
+      <c r="O31" s="16"/>
+      <c r="P31" s="5"/>
       <c r="Q31" s="10"/>
-      <c r="S31" s="9"/>
+      <c r="S31" s="84"/>
       <c r="T31" s="4"/>
-      <c r="U31" s="10"/>
-      <c r="W31" s="9"/>
+      <c r="U31" s="85"/>
+      <c r="W31" s="84"/>
       <c r="X31" s="4"/>
-      <c r="Y31" s="10"/>
+      <c r="Y31" s="85"/>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A32" s="95" t="s">
-        <v>75</v>
-      </c>
-      <c r="B32" s="42"/>
-      <c r="C32" s="47"/>
-      <c r="D32" s="42"/>
-      <c r="E32" s="55"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="4"/>
+      <c r="A32" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B32" s="89"/>
+      <c r="C32" s="90"/>
+      <c r="D32" s="89"/>
+      <c r="E32" s="91"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="5"/>
       <c r="I32" s="10"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="4"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="5"/>
       <c r="M32" s="10"/>
-      <c r="O32" s="9"/>
-      <c r="P32" s="4"/>
+      <c r="O32" s="16"/>
+      <c r="P32" s="5"/>
       <c r="Q32" s="10"/>
-      <c r="S32" s="9"/>
+      <c r="S32" s="84"/>
       <c r="T32" s="4"/>
-      <c r="U32" s="10"/>
-      <c r="W32" s="9"/>
+      <c r="U32" s="85"/>
+      <c r="W32" s="84"/>
       <c r="X32" s="4"/>
-      <c r="Y32" s="10"/>
+      <c r="Y32" s="85"/>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A33" s="95" t="s">
-        <v>76</v>
-      </c>
-      <c r="B33" s="42"/>
-      <c r="C33" s="47"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="55"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="4"/>
+      <c r="A33" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B33" s="89"/>
+      <c r="C33" s="90"/>
+      <c r="D33" s="89"/>
+      <c r="E33" s="91"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="5"/>
       <c r="I33" s="10"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="4"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="5"/>
       <c r="M33" s="10"/>
-      <c r="O33" s="9"/>
-      <c r="P33" s="4"/>
+      <c r="O33" s="16"/>
+      <c r="P33" s="5"/>
       <c r="Q33" s="10"/>
-      <c r="S33" s="9"/>
+      <c r="S33" s="84"/>
       <c r="T33" s="4"/>
-      <c r="U33" s="10"/>
-      <c r="W33" s="9"/>
+      <c r="U33" s="85"/>
+      <c r="W33" s="84"/>
       <c r="X33" s="4"/>
-      <c r="Y33" s="10"/>
+      <c r="Y33" s="85"/>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A34" s="95" t="s">
-        <v>77</v>
-      </c>
-      <c r="B34" s="42"/>
-      <c r="C34" s="47"/>
-      <c r="D34" s="42"/>
-      <c r="E34" s="55"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="4"/>
+      <c r="A34" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B34" s="89"/>
+      <c r="C34" s="90"/>
+      <c r="D34" s="89"/>
+      <c r="E34" s="91"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="5"/>
       <c r="I34" s="10"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="4"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="5"/>
       <c r="M34" s="10"/>
-      <c r="O34" s="9"/>
-      <c r="P34" s="4"/>
+      <c r="O34" s="16"/>
+      <c r="P34" s="5"/>
       <c r="Q34" s="10"/>
-      <c r="S34" s="9"/>
+      <c r="S34" s="84"/>
       <c r="T34" s="4"/>
-      <c r="U34" s="10"/>
-      <c r="W34" s="9"/>
+      <c r="U34" s="85"/>
+      <c r="W34" s="84"/>
       <c r="X34" s="4"/>
-      <c r="Y34" s="10"/>
+      <c r="Y34" s="85"/>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A35" s="95" t="s">
-        <v>78</v>
-      </c>
-      <c r="B35" s="42"/>
-      <c r="C35" s="47"/>
-      <c r="D35" s="42"/>
-      <c r="E35" s="55"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="4"/>
+      <c r="A35" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B35" s="89"/>
+      <c r="C35" s="90"/>
+      <c r="D35" s="89"/>
+      <c r="E35" s="91"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="5"/>
       <c r="I35" s="10"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="4"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="5"/>
       <c r="M35" s="10"/>
-      <c r="O35" s="9"/>
-      <c r="P35" s="4"/>
+      <c r="O35" s="16"/>
+      <c r="P35" s="5"/>
       <c r="Q35" s="10"/>
-      <c r="S35" s="9"/>
+      <c r="S35" s="84"/>
       <c r="T35" s="4"/>
-      <c r="U35" s="10"/>
-      <c r="W35" s="9"/>
+      <c r="U35" s="85"/>
+      <c r="W35" s="84"/>
       <c r="X35" s="4"/>
-      <c r="Y35" s="10"/>
+      <c r="Y35" s="85"/>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A36" s="95" t="s">
-        <v>79</v>
-      </c>
-      <c r="B36" s="42"/>
-      <c r="C36" s="47"/>
-      <c r="D36" s="42"/>
-      <c r="E36" s="55"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="4"/>
+      <c r="A36" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B36" s="89"/>
+      <c r="C36" s="90"/>
+      <c r="D36" s="89"/>
+      <c r="E36" s="91"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="5"/>
       <c r="I36" s="10"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="4"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="5"/>
       <c r="M36" s="10"/>
-      <c r="O36" s="9"/>
-      <c r="P36" s="4"/>
+      <c r="O36" s="16"/>
+      <c r="P36" s="5"/>
       <c r="Q36" s="10"/>
-      <c r="S36" s="9"/>
+      <c r="S36" s="84"/>
       <c r="T36" s="4"/>
-      <c r="U36" s="10"/>
-      <c r="W36" s="9"/>
+      <c r="U36" s="85"/>
+      <c r="W36" s="84"/>
       <c r="X36" s="4"/>
-      <c r="Y36" s="10"/>
-    </row>
-    <row r="37" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="95" t="s">
-        <v>80</v>
-      </c>
-      <c r="B37" s="43"/>
-      <c r="C37" s="48"/>
-      <c r="D37" s="43"/>
-      <c r="E37" s="56"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="13"/>
-      <c r="K37" s="11"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="13"/>
-      <c r="O37" s="11"/>
-      <c r="P37" s="12"/>
-      <c r="Q37" s="13"/>
-      <c r="S37" s="11"/>
-      <c r="T37" s="12"/>
-      <c r="U37" s="13"/>
-      <c r="W37" s="11"/>
-      <c r="X37" s="12"/>
-      <c r="Y37" s="13"/>
-    </row>
-    <row r="38" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="B38" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="G38" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="H38" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="I38" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="K38" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="L38" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="M38" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="O38" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="P38" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q38" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="S38" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="T38" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="U38" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="W38" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="X38" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y38" s="20" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="39" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="98" t="s">
-        <v>81</v>
-      </c>
-      <c r="B39" s="41"/>
-      <c r="C39" s="46"/>
-      <c r="D39" s="41"/>
-      <c r="E39" s="54"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="4"/>
+      <c r="Y36" s="85"/>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B37" s="89"/>
+      <c r="C37" s="90"/>
+      <c r="D37" s="89"/>
+      <c r="E37" s="91"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="10"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="10"/>
+      <c r="O37" s="16"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="10"/>
+      <c r="S37" s="84"/>
+      <c r="T37" s="4"/>
+      <c r="U37" s="85"/>
+      <c r="W37" s="84"/>
+      <c r="X37" s="4"/>
+      <c r="Y37" s="85"/>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B38" s="89"/>
+      <c r="C38" s="90"/>
+      <c r="D38" s="89"/>
+      <c r="E38" s="91"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="10"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="10"/>
+      <c r="O38" s="16"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="10"/>
+      <c r="S38" s="84"/>
+      <c r="T38" s="4"/>
+      <c r="U38" s="85"/>
+      <c r="W38" s="84"/>
+      <c r="X38" s="4"/>
+      <c r="Y38" s="85"/>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B39" s="89"/>
+      <c r="C39" s="90"/>
+      <c r="D39" s="89"/>
+      <c r="E39" s="91"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="5"/>
       <c r="I39" s="10"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="4"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="5"/>
       <c r="M39" s="10"/>
-      <c r="O39" s="9"/>
-      <c r="P39" s="4"/>
+      <c r="O39" s="16"/>
+      <c r="P39" s="5"/>
       <c r="Q39" s="10"/>
-      <c r="S39" s="9"/>
+      <c r="S39" s="84"/>
       <c r="T39" s="4"/>
-      <c r="U39" s="10"/>
-      <c r="W39" s="9"/>
+      <c r="U39" s="85"/>
+      <c r="W39" s="84"/>
       <c r="X39" s="4"/>
-      <c r="Y39" s="10"/>
+      <c r="Y39" s="85"/>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A40" s="95" t="s">
-        <v>82</v>
-      </c>
-      <c r="B40" s="42"/>
-      <c r="C40" s="47"/>
-      <c r="D40" s="42"/>
-      <c r="E40" s="55"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="10"/>
-      <c r="K40" s="9"/>
-      <c r="L40" s="4"/>
-      <c r="M40" s="10"/>
-      <c r="O40" s="9"/>
-      <c r="P40" s="4"/>
-      <c r="Q40" s="10"/>
-      <c r="S40" s="9"/>
-      <c r="T40" s="4"/>
-      <c r="U40" s="10"/>
-      <c r="W40" s="9"/>
-      <c r="X40" s="4"/>
-      <c r="Y40" s="10"/>
-    </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A41" s="95" t="s">
-        <v>73</v>
-      </c>
-      <c r="B41" s="42"/>
-      <c r="C41" s="47"/>
-      <c r="D41" s="42"/>
-      <c r="E41" s="55"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="10"/>
-      <c r="K41" s="9"/>
-      <c r="L41" s="4"/>
-      <c r="M41" s="10"/>
-      <c r="O41" s="9"/>
-      <c r="P41" s="4"/>
-      <c r="Q41" s="10"/>
-      <c r="S41" s="9"/>
-      <c r="T41" s="4"/>
-      <c r="U41" s="10"/>
-      <c r="W41" s="9"/>
-      <c r="X41" s="4"/>
-      <c r="Y41" s="10"/>
-    </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A42" s="95" t="s">
-        <v>74</v>
-      </c>
-      <c r="B42" s="42"/>
-      <c r="C42" s="47"/>
-      <c r="D42" s="42"/>
-      <c r="E42" s="55"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="10"/>
-      <c r="K42" s="9"/>
-      <c r="L42" s="4"/>
-      <c r="M42" s="10"/>
-      <c r="O42" s="9"/>
-      <c r="P42" s="4"/>
-      <c r="Q42" s="10"/>
-      <c r="S42" s="9"/>
-      <c r="T42" s="4"/>
-      <c r="U42" s="10"/>
-      <c r="W42" s="9"/>
-      <c r="X42" s="4"/>
-      <c r="Y42" s="10"/>
-    </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A43" s="95" t="s">
-        <v>75</v>
-      </c>
-      <c r="B43" s="42"/>
-      <c r="C43" s="47"/>
-      <c r="D43" s="42"/>
-      <c r="E43" s="55"/>
+      <c r="A40" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B40" s="92"/>
+      <c r="C40" s="93"/>
+      <c r="D40" s="92"/>
+      <c r="E40" s="94"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="17"/>
+      <c r="K40" s="16"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="17"/>
+      <c r="O40" s="16"/>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="17"/>
+      <c r="S40" s="95"/>
+      <c r="T40" s="5"/>
+      <c r="U40" s="96"/>
+      <c r="W40" s="95"/>
+      <c r="X40" s="5"/>
+      <c r="Y40" s="96"/>
+    </row>
+    <row r="41" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="3"/>
+      <c r="B41" s="92"/>
+      <c r="C41" s="98"/>
+      <c r="D41" s="97"/>
+      <c r="E41" s="99"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="17"/>
+      <c r="K41" s="16"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="17"/>
+      <c r="O41" s="16"/>
+      <c r="P41" s="5"/>
+      <c r="Q41" s="17"/>
+      <c r="S41" s="100"/>
+      <c r="T41" s="101"/>
+      <c r="U41" s="102"/>
+      <c r="W41" s="100"/>
+      <c r="X41" s="101"/>
+      <c r="Y41" s="102"/>
+    </row>
+    <row r="42" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="103" t="s">
+        <v>83</v>
+      </c>
+      <c r="B42" s="135" t="s">
+        <v>96</v>
+      </c>
+      <c r="C42" s="73"/>
+      <c r="D42" s="73"/>
+      <c r="E42" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="G42" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="H42" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="I42" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="K42" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="L42" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="M42" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="O42" s="104" t="s">
+        <v>22</v>
+      </c>
+      <c r="P42" s="105" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q42" s="106" t="s">
+        <v>23</v>
+      </c>
+      <c r="S42" s="107" t="s">
+        <v>22</v>
+      </c>
+      <c r="T42" s="108" t="s">
+        <v>25</v>
+      </c>
+      <c r="U42" s="109" t="s">
+        <v>23</v>
+      </c>
+      <c r="W42" s="107" t="s">
+        <v>22</v>
+      </c>
+      <c r="X42" s="108" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y42" s="109" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="80" t="s">
+        <v>85</v>
+      </c>
+      <c r="B43" s="81"/>
+      <c r="C43" s="82"/>
+      <c r="D43" s="81"/>
+      <c r="E43" s="83"/>
       <c r="G43" s="9"/>
       <c r="H43" s="4"/>
       <c r="I43" s="10"/>
       <c r="K43" s="9"/>
       <c r="L43" s="4"/>
       <c r="M43" s="10"/>
-      <c r="O43" s="9"/>
-      <c r="P43" s="4"/>
-      <c r="Q43" s="10"/>
-      <c r="S43" s="9"/>
-      <c r="T43" s="4"/>
-      <c r="U43" s="10"/>
-      <c r="W43" s="9"/>
-      <c r="X43" s="4"/>
-      <c r="Y43" s="10"/>
+      <c r="O43" s="14"/>
+      <c r="P43" s="15"/>
+      <c r="Q43" s="110"/>
+      <c r="S43" s="111"/>
+      <c r="T43" s="112"/>
+      <c r="U43" s="113"/>
+      <c r="W43" s="111"/>
+      <c r="X43" s="112"/>
+      <c r="Y43" s="113"/>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A44" s="95" t="s">
-        <v>76</v>
-      </c>
-      <c r="B44" s="42"/>
-      <c r="C44" s="47"/>
-      <c r="D44" s="42"/>
-      <c r="E44" s="55"/>
+      <c r="A44" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" s="89"/>
+      <c r="C44" s="90"/>
+      <c r="D44" s="89"/>
+      <c r="E44" s="91"/>
       <c r="G44" s="9"/>
       <c r="H44" s="4"/>
       <c r="I44" s="10"/>
@@ -3884,21 +4994,21 @@
       <c r="O44" s="9"/>
       <c r="P44" s="4"/>
       <c r="Q44" s="10"/>
-      <c r="S44" s="9"/>
+      <c r="S44" s="84"/>
       <c r="T44" s="4"/>
-      <c r="U44" s="10"/>
-      <c r="W44" s="9"/>
+      <c r="U44" s="85"/>
+      <c r="W44" s="84"/>
       <c r="X44" s="4"/>
-      <c r="Y44" s="10"/>
+      <c r="Y44" s="85"/>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A45" s="95" t="s">
-        <v>77</v>
-      </c>
-      <c r="B45" s="42"/>
-      <c r="C45" s="47"/>
-      <c r="D45" s="42"/>
-      <c r="E45" s="55"/>
+      <c r="A45" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B45" s="89"/>
+      <c r="C45" s="90"/>
+      <c r="D45" s="89"/>
+      <c r="E45" s="91"/>
       <c r="G45" s="9"/>
       <c r="H45" s="4"/>
       <c r="I45" s="10"/>
@@ -3908,21 +5018,21 @@
       <c r="O45" s="9"/>
       <c r="P45" s="4"/>
       <c r="Q45" s="10"/>
-      <c r="S45" s="9"/>
+      <c r="S45" s="84"/>
       <c r="T45" s="4"/>
-      <c r="U45" s="10"/>
-      <c r="W45" s="9"/>
+      <c r="U45" s="85"/>
+      <c r="W45" s="84"/>
       <c r="X45" s="4"/>
-      <c r="Y45" s="10"/>
+      <c r="Y45" s="85"/>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A46" s="95" t="s">
-        <v>78</v>
-      </c>
-      <c r="B46" s="42"/>
-      <c r="C46" s="47"/>
-      <c r="D46" s="42"/>
-      <c r="E46" s="55"/>
+      <c r="A46" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B46" s="89"/>
+      <c r="C46" s="90"/>
+      <c r="D46" s="89"/>
+      <c r="E46" s="91"/>
       <c r="G46" s="9"/>
       <c r="H46" s="4"/>
       <c r="I46" s="10"/>
@@ -3932,21 +5042,21 @@
       <c r="O46" s="9"/>
       <c r="P46" s="4"/>
       <c r="Q46" s="10"/>
-      <c r="S46" s="9"/>
+      <c r="S46" s="84"/>
       <c r="T46" s="4"/>
-      <c r="U46" s="10"/>
-      <c r="W46" s="9"/>
+      <c r="U46" s="85"/>
+      <c r="W46" s="84"/>
       <c r="X46" s="4"/>
-      <c r="Y46" s="10"/>
+      <c r="Y46" s="85"/>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A47" s="95" t="s">
-        <v>79</v>
-      </c>
-      <c r="B47" s="42"/>
-      <c r="C47" s="47"/>
-      <c r="D47" s="42"/>
-      <c r="E47" s="55"/>
+      <c r="A47" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B47" s="89"/>
+      <c r="C47" s="90"/>
+      <c r="D47" s="89"/>
+      <c r="E47" s="91"/>
       <c r="G47" s="9"/>
       <c r="H47" s="4"/>
       <c r="I47" s="10"/>
@@ -3956,112 +5066,93 @@
       <c r="O47" s="9"/>
       <c r="P47" s="4"/>
       <c r="Q47" s="10"/>
-      <c r="S47" s="9"/>
+      <c r="S47" s="84"/>
       <c r="T47" s="4"/>
-      <c r="U47" s="10"/>
-      <c r="W47" s="9"/>
+      <c r="U47" s="85"/>
+      <c r="W47" s="84"/>
       <c r="X47" s="4"/>
-      <c r="Y47" s="10"/>
-    </row>
-    <row r="48" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="95" t="s">
-        <v>80</v>
-      </c>
-      <c r="B48" s="43"/>
-      <c r="C48" s="48"/>
-      <c r="D48" s="43"/>
-      <c r="E48" s="56"/>
-      <c r="G48" s="11"/>
-      <c r="H48" s="12"/>
-      <c r="I48" s="13"/>
-      <c r="K48" s="11"/>
-      <c r="L48" s="12"/>
-      <c r="M48" s="13"/>
-      <c r="O48" s="11"/>
-      <c r="P48" s="12"/>
-      <c r="Q48" s="13"/>
-      <c r="S48" s="11"/>
-      <c r="T48" s="12"/>
-      <c r="U48" s="13"/>
-      <c r="W48" s="11"/>
-      <c r="X48" s="12"/>
-      <c r="Y48" s="13"/>
-    </row>
-    <row r="49" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-    </row>
-    <row r="50" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="B50" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="C50" s="27"/>
-      <c r="D50" s="27"/>
-      <c r="E50" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="G50" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="H50" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="I50" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="K50" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="L50" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="M50" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="O50" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="P50" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q50" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="S50" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="T50" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="U50" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="W50" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="X50" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y50" s="20" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="51" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="99" t="s">
-        <v>83</v>
-      </c>
-      <c r="B51" s="112" t="s">
-        <v>84</v>
-      </c>
-      <c r="C51" s="113"/>
-      <c r="D51" s="114"/>
-      <c r="E51" s="51"/>
+      <c r="Y47" s="85"/>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B48" s="89"/>
+      <c r="C48" s="90"/>
+      <c r="D48" s="89"/>
+      <c r="E48" s="91"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="10"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="10"/>
+      <c r="O48" s="9"/>
+      <c r="P48" s="4"/>
+      <c r="Q48" s="10"/>
+      <c r="S48" s="84"/>
+      <c r="T48" s="4"/>
+      <c r="U48" s="85"/>
+      <c r="W48" s="84"/>
+      <c r="X48" s="4"/>
+      <c r="Y48" s="85"/>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B49" s="89"/>
+      <c r="C49" s="90"/>
+      <c r="D49" s="89"/>
+      <c r="E49" s="91"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="10"/>
+      <c r="K49" s="9"/>
+      <c r="L49" s="4"/>
+      <c r="M49" s="10"/>
+      <c r="O49" s="9"/>
+      <c r="P49" s="4"/>
+      <c r="Q49" s="10"/>
+      <c r="S49" s="84"/>
+      <c r="T49" s="4"/>
+      <c r="U49" s="85"/>
+      <c r="W49" s="84"/>
+      <c r="X49" s="4"/>
+      <c r="Y49" s="85"/>
+    </row>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B50" s="89"/>
+      <c r="C50" s="90"/>
+      <c r="D50" s="89"/>
+      <c r="E50" s="91"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="10"/>
+      <c r="K50" s="9"/>
+      <c r="L50" s="4"/>
+      <c r="M50" s="10"/>
+      <c r="O50" s="9"/>
+      <c r="P50" s="4"/>
+      <c r="Q50" s="10"/>
+      <c r="S50" s="84"/>
+      <c r="T50" s="4"/>
+      <c r="U50" s="85"/>
+      <c r="W50" s="84"/>
+      <c r="X50" s="4"/>
+      <c r="Y50" s="85"/>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B51" s="89"/>
+      <c r="C51" s="90"/>
+      <c r="D51" s="89"/>
+      <c r="E51" s="91"/>
       <c r="G51" s="9"/>
       <c r="H51" s="4"/>
       <c r="I51" s="10"/>
@@ -4071,131 +5162,139 @@
       <c r="O51" s="9"/>
       <c r="P51" s="4"/>
       <c r="Q51" s="10"/>
-      <c r="S51" s="9"/>
+      <c r="S51" s="84"/>
       <c r="T51" s="4"/>
-      <c r="U51" s="10"/>
-      <c r="W51" s="9"/>
+      <c r="U51" s="85"/>
+      <c r="W51" s="84"/>
       <c r="X51" s="4"/>
-      <c r="Y51" s="10"/>
+      <c r="Y51" s="85"/>
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A52" s="100" t="s">
-        <v>85</v>
-      </c>
-      <c r="B52" s="115" t="s">
-        <v>86</v>
-      </c>
-      <c r="C52" s="116"/>
-      <c r="D52" s="117"/>
-      <c r="E52" s="52"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="4"/>
-      <c r="I52" s="10"/>
-      <c r="K52" s="9"/>
-      <c r="L52" s="4"/>
-      <c r="M52" s="10"/>
-      <c r="O52" s="9"/>
-      <c r="P52" s="4"/>
-      <c r="Q52" s="10"/>
-      <c r="S52" s="9"/>
-      <c r="T52" s="4"/>
-      <c r="U52" s="10"/>
-      <c r="W52" s="9"/>
-      <c r="X52" s="4"/>
-      <c r="Y52" s="10"/>
-    </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A53" s="100" t="s">
-        <v>87</v>
-      </c>
-      <c r="B53" s="115" t="s">
-        <v>88</v>
-      </c>
-      <c r="C53" s="116"/>
-      <c r="D53" s="117"/>
-      <c r="E53" s="52"/>
-      <c r="G53" s="9"/>
-      <c r="H53" s="4"/>
-      <c r="I53" s="10"/>
-      <c r="K53" s="9"/>
-      <c r="L53" s="4"/>
-      <c r="M53" s="10"/>
-      <c r="O53" s="9"/>
-      <c r="P53" s="4"/>
-      <c r="Q53" s="10"/>
-      <c r="S53" s="9"/>
-      <c r="T53" s="4"/>
-      <c r="U53" s="10"/>
-      <c r="W53" s="9"/>
-      <c r="X53" s="4"/>
-      <c r="Y53" s="10"/>
-    </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A54" s="100" t="s">
-        <v>89</v>
-      </c>
-      <c r="B54" s="115" t="s">
-        <v>90</v>
-      </c>
-      <c r="C54" s="116"/>
-      <c r="D54" s="117"/>
-      <c r="E54" s="52"/>
-      <c r="G54" s="9"/>
-      <c r="H54" s="4"/>
-      <c r="I54" s="10"/>
-      <c r="K54" s="9"/>
-      <c r="L54" s="4"/>
-      <c r="M54" s="10"/>
-      <c r="O54" s="9"/>
-      <c r="P54" s="4"/>
-      <c r="Q54" s="10"/>
-      <c r="S54" s="9"/>
-      <c r="T54" s="4"/>
-      <c r="U54" s="10"/>
-      <c r="W54" s="9"/>
-      <c r="X54" s="4"/>
-      <c r="Y54" s="10"/>
-    </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A55" s="100" t="s">
-        <v>91</v>
+      <c r="A52" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B52" s="92"/>
+      <c r="C52" s="93"/>
+      <c r="D52" s="92"/>
+      <c r="E52" s="94"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="17"/>
+      <c r="K52" s="16"/>
+      <c r="L52" s="5"/>
+      <c r="M52" s="17"/>
+      <c r="O52" s="16"/>
+      <c r="P52" s="5"/>
+      <c r="Q52" s="17"/>
+      <c r="S52" s="95"/>
+      <c r="T52" s="5"/>
+      <c r="U52" s="96"/>
+      <c r="W52" s="95"/>
+      <c r="X52" s="5"/>
+      <c r="Y52" s="96"/>
+    </row>
+    <row r="53" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="114"/>
+      <c r="B53" s="97"/>
+      <c r="C53" s="98"/>
+      <c r="D53" s="97"/>
+      <c r="E53" s="99"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="13"/>
+      <c r="K53" s="11"/>
+      <c r="L53" s="12"/>
+      <c r="M53" s="13"/>
+      <c r="O53" s="11"/>
+      <c r="P53" s="12"/>
+      <c r="Q53" s="13"/>
+      <c r="S53" s="100"/>
+      <c r="T53" s="101"/>
+      <c r="U53" s="102"/>
+      <c r="W53" s="100"/>
+      <c r="X53" s="101"/>
+      <c r="Y53" s="102"/>
+    </row>
+    <row r="54" spans="1:25" ht="9.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G54" s="7"/>
+      <c r="I54" s="8"/>
+      <c r="K54" s="7"/>
+      <c r="M54" s="8"/>
+      <c r="O54" s="7"/>
+      <c r="Q54" s="8"/>
+      <c r="S54" s="7"/>
+      <c r="U54" s="8"/>
+      <c r="W54" s="7"/>
+      <c r="Y54" s="8"/>
+    </row>
+    <row r="55" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="136" t="s">
+        <v>28</v>
       </c>
       <c r="B55" s="115" t="s">
+        <v>36</v>
+      </c>
+      <c r="C55" s="115"/>
+      <c r="D55" s="115"/>
+      <c r="E55" s="115" t="s">
+        <v>37</v>
+      </c>
+      <c r="G55" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="H55" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="I55" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="K55" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="L55" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="M55" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="O55" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="P55" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q55" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="S55" s="126" t="s">
+        <v>22</v>
+      </c>
+      <c r="T55" s="127" t="s">
+        <v>25</v>
+      </c>
+      <c r="U55" s="128" t="s">
+        <v>23</v>
+      </c>
+      <c r="W55" s="126" t="s">
+        <v>22</v>
+      </c>
+      <c r="X55" s="127" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y55" s="128" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="124" t="s">
         <v>52</v>
       </c>
-      <c r="C55" s="116"/>
-      <c r="D55" s="117"/>
-      <c r="E55" s="52" t="s">
-        <v>52</v>
-      </c>
-      <c r="G55" s="9" t="s">
+      <c r="B56" s="145" t="s">
         <v>53</v>
       </c>
-      <c r="H55" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="I55" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="K55" s="9"/>
-      <c r="L55" s="4"/>
-      <c r="M55" s="10"/>
-      <c r="O55" s="9"/>
-      <c r="P55" s="4"/>
-      <c r="Q55" s="10"/>
-      <c r="S55" s="9"/>
-      <c r="T55" s="4"/>
-      <c r="U55" s="10"/>
-      <c r="W55" s="9"/>
-      <c r="X55" s="4"/>
-      <c r="Y55" s="10"/>
-    </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A56" s="44"/>
-      <c r="B56" s="65"/>
-      <c r="C56" s="66"/>
-      <c r="D56" s="67"/>
-      <c r="E56" s="52"/>
+      <c r="C56" s="146"/>
+      <c r="D56" s="147"/>
+      <c r="E56" s="118"/>
       <c r="G56" s="9"/>
       <c r="H56" s="4"/>
       <c r="I56" s="10"/>
@@ -4205,19 +5304,23 @@
       <c r="O56" s="9"/>
       <c r="P56" s="4"/>
       <c r="Q56" s="10"/>
-      <c r="S56" s="9"/>
+      <c r="S56" s="84"/>
       <c r="T56" s="4"/>
-      <c r="U56" s="10"/>
-      <c r="W56" s="9"/>
+      <c r="U56" s="85"/>
+      <c r="W56" s="84"/>
       <c r="X56" s="4"/>
-      <c r="Y56" s="10"/>
+      <c r="Y56" s="85"/>
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A57" s="44"/>
-      <c r="B57" s="118"/>
-      <c r="C57" s="119"/>
-      <c r="D57" s="120"/>
-      <c r="E57" s="52"/>
+      <c r="A57" s="125" t="s">
+        <v>54</v>
+      </c>
+      <c r="B57" s="148" t="s">
+        <v>55</v>
+      </c>
+      <c r="C57" s="149"/>
+      <c r="D57" s="150"/>
+      <c r="E57" s="119"/>
       <c r="G57" s="9"/>
       <c r="H57" s="4"/>
       <c r="I57" s="10"/>
@@ -4227,19 +5330,23 @@
       <c r="O57" s="9"/>
       <c r="P57" s="4"/>
       <c r="Q57" s="10"/>
-      <c r="S57" s="9"/>
+      <c r="S57" s="84"/>
       <c r="T57" s="4"/>
-      <c r="U57" s="10"/>
-      <c r="W57" s="9"/>
+      <c r="U57" s="85"/>
+      <c r="W57" s="84"/>
       <c r="X57" s="4"/>
-      <c r="Y57" s="10"/>
+      <c r="Y57" s="85"/>
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A58" s="44"/>
-      <c r="B58" s="118"/>
-      <c r="C58" s="119"/>
-      <c r="D58" s="120"/>
-      <c r="E58" s="52"/>
+      <c r="A58" s="125" t="s">
+        <v>56</v>
+      </c>
+      <c r="B58" s="148" t="s">
+        <v>57</v>
+      </c>
+      <c r="C58" s="149"/>
+      <c r="D58" s="150"/>
+      <c r="E58" s="119"/>
       <c r="G58" s="9"/>
       <c r="H58" s="4"/>
       <c r="I58" s="10"/>
@@ -4249,19 +5356,23 @@
       <c r="O58" s="9"/>
       <c r="P58" s="4"/>
       <c r="Q58" s="10"/>
-      <c r="S58" s="9"/>
+      <c r="S58" s="84"/>
       <c r="T58" s="4"/>
-      <c r="U58" s="10"/>
-      <c r="W58" s="9"/>
+      <c r="U58" s="85"/>
+      <c r="W58" s="84"/>
       <c r="X58" s="4"/>
-      <c r="Y58" s="10"/>
+      <c r="Y58" s="85"/>
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A59" s="44"/>
-      <c r="B59" s="118"/>
-      <c r="C59" s="119"/>
-      <c r="D59" s="120"/>
-      <c r="E59" s="52"/>
+      <c r="A59" s="125" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59" s="148" t="s">
+        <v>59</v>
+      </c>
+      <c r="C59" s="149"/>
+      <c r="D59" s="150"/>
+      <c r="E59" s="119"/>
       <c r="G59" s="9"/>
       <c r="H59" s="4"/>
       <c r="I59" s="10"/>
@@ -4271,19 +5382,19 @@
       <c r="O59" s="9"/>
       <c r="P59" s="4"/>
       <c r="Q59" s="10"/>
-      <c r="S59" s="9"/>
+      <c r="S59" s="84"/>
       <c r="T59" s="4"/>
-      <c r="U59" s="10"/>
-      <c r="W59" s="9"/>
+      <c r="U59" s="85"/>
+      <c r="W59" s="84"/>
       <c r="X59" s="4"/>
-      <c r="Y59" s="10"/>
+      <c r="Y59" s="85"/>
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A60" s="44"/>
-      <c r="B60" s="118"/>
-      <c r="C60" s="119"/>
-      <c r="D60" s="120"/>
-      <c r="E60" s="52"/>
+      <c r="A60" s="125"/>
+      <c r="B60" s="148"/>
+      <c r="C60" s="149"/>
+      <c r="D60" s="150"/>
+      <c r="E60" s="119"/>
       <c r="G60" s="9"/>
       <c r="H60" s="4"/>
       <c r="I60" s="10"/>
@@ -4293,145 +5404,503 @@
       <c r="O60" s="9"/>
       <c r="P60" s="4"/>
       <c r="Q60" s="10"/>
-      <c r="S60" s="9"/>
+      <c r="S60" s="84"/>
       <c r="T60" s="4"/>
-      <c r="U60" s="10"/>
-      <c r="W60" s="9"/>
+      <c r="U60" s="85"/>
+      <c r="W60" s="84"/>
       <c r="X60" s="4"/>
-      <c r="Y60" s="10"/>
-    </row>
-    <row r="61" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="45"/>
+      <c r="Y60" s="85"/>
+    </row>
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A61" s="116"/>
       <c r="B61" s="121"/>
       <c r="C61" s="122"/>
       <c r="D61" s="123"/>
-      <c r="E61" s="53"/>
-      <c r="G61" s="11"/>
-      <c r="H61" s="12"/>
-      <c r="I61" s="13"/>
-      <c r="K61" s="11"/>
-      <c r="L61" s="12"/>
-      <c r="M61" s="13"/>
-      <c r="O61" s="11"/>
-      <c r="P61" s="12"/>
-      <c r="Q61" s="13"/>
-      <c r="S61" s="11"/>
-      <c r="T61" s="12"/>
-      <c r="U61" s="13"/>
-      <c r="W61" s="11"/>
-      <c r="X61" s="12"/>
-      <c r="Y61" s="13"/>
-    </row>
-    <row r="62" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="E61" s="119"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="10"/>
+      <c r="K61" s="9"/>
+      <c r="L61" s="4"/>
+      <c r="M61" s="10"/>
+      <c r="O61" s="9"/>
+      <c r="P61" s="4"/>
+      <c r="Q61" s="10"/>
+      <c r="S61" s="84"/>
+      <c r="T61" s="4"/>
+      <c r="U61" s="85"/>
+      <c r="W61" s="84"/>
+      <c r="X61" s="4"/>
+      <c r="Y61" s="85"/>
+    </row>
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A62" s="116"/>
+      <c r="B62" s="160"/>
+      <c r="C62" s="161"/>
+      <c r="D62" s="162"/>
+      <c r="E62" s="119"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="10"/>
+      <c r="K62" s="9"/>
+      <c r="L62" s="4"/>
+      <c r="M62" s="10"/>
+      <c r="O62" s="9"/>
+      <c r="P62" s="4"/>
+      <c r="Q62" s="10"/>
+      <c r="S62" s="84"/>
+      <c r="T62" s="4"/>
+      <c r="U62" s="85"/>
+      <c r="W62" s="84"/>
+      <c r="X62" s="4"/>
+      <c r="Y62" s="85"/>
+    </row>
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A63" s="116"/>
+      <c r="B63" s="160"/>
+      <c r="C63" s="161"/>
+      <c r="D63" s="162"/>
+      <c r="E63" s="119"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="10"/>
+      <c r="K63" s="9"/>
+      <c r="L63" s="4"/>
+      <c r="M63" s="10"/>
+      <c r="O63" s="9"/>
+      <c r="P63" s="4"/>
+      <c r="Q63" s="10"/>
+      <c r="S63" s="84"/>
+      <c r="T63" s="4"/>
+      <c r="U63" s="85"/>
+      <c r="W63" s="84"/>
+      <c r="X63" s="4"/>
+      <c r="Y63" s="85"/>
+    </row>
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A64" s="116"/>
+      <c r="B64" s="160"/>
+      <c r="C64" s="161"/>
+      <c r="D64" s="162"/>
+      <c r="E64" s="119"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="4"/>
+      <c r="I64" s="10"/>
+      <c r="K64" s="9"/>
+      <c r="L64" s="4"/>
+      <c r="M64" s="10"/>
+      <c r="O64" s="9"/>
+      <c r="P64" s="4"/>
+      <c r="Q64" s="10"/>
+      <c r="S64" s="84"/>
+      <c r="T64" s="4"/>
+      <c r="U64" s="85"/>
+      <c r="W64" s="84"/>
+      <c r="X64" s="4"/>
+      <c r="Y64" s="85"/>
+    </row>
+    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A65" s="116"/>
+      <c r="B65" s="160"/>
+      <c r="C65" s="161"/>
+      <c r="D65" s="162"/>
+      <c r="E65" s="119"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="10"/>
+      <c r="K65" s="9"/>
+      <c r="L65" s="4"/>
+      <c r="M65" s="10"/>
+      <c r="O65" s="9"/>
+      <c r="P65" s="4"/>
+      <c r="Q65" s="10"/>
+      <c r="S65" s="84"/>
+      <c r="T65" s="4"/>
+      <c r="U65" s="85"/>
+      <c r="W65" s="84"/>
+      <c r="X65" s="4"/>
+      <c r="Y65" s="85"/>
+    </row>
+    <row r="66" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="117"/>
+      <c r="B66" s="151"/>
+      <c r="C66" s="152"/>
+      <c r="D66" s="153"/>
+      <c r="E66" s="120"/>
+      <c r="G66" s="11"/>
+      <c r="H66" s="12"/>
+      <c r="I66" s="13"/>
+      <c r="K66" s="11"/>
+      <c r="L66" s="12"/>
+      <c r="M66" s="13"/>
+      <c r="O66" s="11"/>
+      <c r="P66" s="12"/>
+      <c r="Q66" s="13"/>
+      <c r="S66" s="100"/>
+      <c r="T66" s="101"/>
+      <c r="U66" s="102"/>
+      <c r="W66" s="100"/>
+      <c r="X66" s="101"/>
+      <c r="Y66" s="102"/>
+    </row>
+    <row r="67" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection insertColumns="0" insertRows="0"/>
   <protectedRanges>
-    <protectedRange sqref="S4:Y61" name="customEntities"/>
+    <protectedRange sqref="A26:H26 A13:P25 Q13:X26 A12:X12 V11:X11 A11:T11 A9:X10 A8:Y8 A7:X7 J26:P26" name="Contact Fields"/>
+    <protectedRange sqref="I26" name="Questionnaire"/>
     <protectedRange sqref="A1" name="Titel"/>
-    <protectedRange sqref="A28:Y37 A39:Y48 A51:Y61" name="Questionnaire"/>
-    <protectedRange sqref="A7:X24" name="Contact Fields"/>
+    <protectedRange sqref="A56:Y66" name="Contact Fields_1_2"/>
+    <protectedRange sqref="S28:Y29 S42:Y42" name="customEntities_2"/>
+    <protectedRange sqref="N30:N41 J30:J41 R30:R41 A43:R53 A30:F41" name="Questionnaire_3"/>
   </protectedRanges>
   <mergeCells count="20">
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="O28:Q28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="W28:Y28"/>
+    <mergeCell ref="B56:D56"/>
     <mergeCell ref="B57:D57"/>
     <mergeCell ref="B58:D58"/>
     <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B55:D55"/>
     <mergeCell ref="S4:U4"/>
-    <mergeCell ref="S26:U26"/>
     <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="W26:Y26"/>
     <mergeCell ref="G4:I4"/>
-    <mergeCell ref="G26:I26"/>
     <mergeCell ref="K4:M4"/>
-    <mergeCell ref="K26:M26"/>
     <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="O26:Q26"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A24:AG27 A38:AG38 B28:AG37 B39:AG48 B8:AG23">
-    <cfRule type="expression" dxfId="17" priority="17">
+  <conditionalFormatting sqref="A27:AG27 A26:H26 B13:P25 B8:F8 J8 Q16:AG26 N8:R8 Q13:R15 V13:AG15 B9:AG12 U7:U8 V8 Z8:AG8 J26:P26">
+    <cfRule type="expression" dxfId="77" priority="101">
+      <formula>$C7="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="76" priority="102">
+      <formula>$D7="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8:A25">
+    <cfRule type="expression" dxfId="75" priority="89">
       <formula>$C8="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="18">
+    <cfRule type="expression" dxfId="74" priority="90">
       <formula>$D8="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W51:Y61">
-    <cfRule type="expression" dxfId="15" priority="15">
-      <formula>$C51="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="16">
-      <formula>$D51="x"</formula>
+  <conditionalFormatting sqref="I26">
+    <cfRule type="expression" dxfId="73" priority="83">
+      <formula>$C26="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="72" priority="84">
+      <formula>$D26="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S51:U61">
-    <cfRule type="expression" dxfId="13" priority="13">
-      <formula>$C51="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="14">
-      <formula>$D51="x"</formula>
+  <conditionalFormatting sqref="G7:I8">
+    <cfRule type="expression" dxfId="71" priority="81">
+      <formula>$C7="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="70" priority="82">
+      <formula>$D7="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O51:Q61">
-    <cfRule type="expression" dxfId="11" priority="11">
-      <formula>$C51="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="12">
-      <formula>$D51="x"</formula>
+  <conditionalFormatting sqref="G8:I8">
+    <cfRule type="expression" dxfId="69" priority="105">
+      <formula>$C13="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="68" priority="106">
+      <formula>$D13="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K51:M61">
-    <cfRule type="expression" dxfId="9" priority="9">
-      <formula>$C51="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="10">
-      <formula>$D51="x"</formula>
+  <conditionalFormatting sqref="S13:U13">
+    <cfRule type="expression" dxfId="67" priority="75">
+      <formula>$C13="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="66" priority="76">
+      <formula>$D13="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G51:I61">
-    <cfRule type="expression" dxfId="7" priority="7">
-      <formula>$C51="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="8">
-      <formula>$D51="x"</formula>
+  <conditionalFormatting sqref="S14:U15">
+    <cfRule type="expression" dxfId="65" priority="67">
+      <formula>$C14="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="64" priority="68">
+      <formula>$D14="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A8:A23">
-    <cfRule type="expression" dxfId="5" priority="5">
+  <conditionalFormatting sqref="S7:T8">
+    <cfRule type="expression" dxfId="63" priority="65">
+      <formula>$C7="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="62" priority="66">
+      <formula>$D7="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W8:Y8">
+    <cfRule type="expression" dxfId="61" priority="61">
       <formula>$C8="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="6">
+    <cfRule type="expression" dxfId="60" priority="62">
       <formula>$D8="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A28:A37">
-    <cfRule type="expression" dxfId="3" priority="3">
+  <conditionalFormatting sqref="K8:M8">
+    <cfRule type="expression" dxfId="59" priority="57">
+      <formula>$C8="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="58" priority="58">
+      <formula>$D8="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K8:M8">
+    <cfRule type="expression" dxfId="57" priority="59">
+      <formula>$C13="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="56" priority="60">
+      <formula>$D13="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K7:M7">
+    <cfRule type="expression" dxfId="55" priority="55">
+      <formula>$C7="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="54" priority="56">
+      <formula>$D7="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A54:AE54">
+    <cfRule type="expression" dxfId="53" priority="47">
+      <formula>$C54="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="52" priority="48">
+      <formula>$D54="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W56:Y66">
+    <cfRule type="expression" dxfId="51" priority="45">
+      <formula>$C56="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="50" priority="46">
+      <formula>$D56="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S56:U66">
+    <cfRule type="expression" dxfId="49" priority="43">
+      <formula>$C56="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="48" priority="44">
+      <formula>$D56="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O56:Q66">
+    <cfRule type="expression" dxfId="47" priority="41">
+      <formula>$C56="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="46" priority="42">
+      <formula>$D56="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K56:M66">
+    <cfRule type="expression" dxfId="45" priority="39">
+      <formula>$C56="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="44" priority="40">
+      <formula>$D56="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G56:I66">
+    <cfRule type="expression" dxfId="43" priority="37">
+      <formula>$C56="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="38">
+      <formula>$D56="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z30:AG35 A42:Y42 AA36:AG53 B35 A35:A37 C35:F37 A29:AG29 A28:F28 J28 N28 R28:AG28 A30:F34 A38:F41 N30:N41 J30:J41 R30:R41 A43:R53">
+    <cfRule type="expression" dxfId="41" priority="35">
       <formula>$C28="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="40" priority="36">
       <formula>$D28="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A39:A48">
-    <cfRule type="expression" dxfId="1" priority="1">
+  <conditionalFormatting sqref="B36:B37">
+    <cfRule type="expression" dxfId="39" priority="33">
+      <formula>$C35="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="38" priority="34">
+      <formula>$D35="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O30:O31">
+    <cfRule type="expression" dxfId="37" priority="31">
+      <formula>$C30="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="32">
+      <formula>$D30="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P30:Q31">
+    <cfRule type="expression" dxfId="35" priority="29">
+      <formula>$C30="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="30">
+      <formula>$D30="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O32:O41">
+    <cfRule type="expression" dxfId="33" priority="27">
+      <formula>$C32="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="28">
+      <formula>$D32="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P32:Q41">
+    <cfRule type="expression" dxfId="31" priority="25">
+      <formula>$C32="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="26">
+      <formula>$D32="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K30:K31">
+    <cfRule type="expression" dxfId="29" priority="23">
+      <formula>$C30="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="24">
+      <formula>$D30="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L30:M31">
+    <cfRule type="expression" dxfId="27" priority="21">
+      <formula>$C30="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="22">
+      <formula>$D30="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K32:K41">
+    <cfRule type="expression" dxfId="25" priority="19">
+      <formula>$C32="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="20">
+      <formula>$D32="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L32:M41">
+    <cfRule type="expression" dxfId="23" priority="17">
+      <formula>$C32="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="18">
+      <formula>$D32="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G30:G31">
+    <cfRule type="expression" dxfId="21" priority="15">
+      <formula>$C30="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="16">
+      <formula>$D30="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H30:I31">
+    <cfRule type="expression" dxfId="19" priority="13">
+      <formula>$C30="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="14">
+      <formula>$D30="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G32:G41">
+    <cfRule type="expression" dxfId="17" priority="11">
+      <formula>$C32="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="12">
+      <formula>$D32="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H32:I41">
+    <cfRule type="expression" dxfId="15" priority="9">
+      <formula>$C32="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="10">
+      <formula>$D32="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S30:Y40">
+    <cfRule type="expression" dxfId="13" priority="7">
+      <formula>$C30="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="8">
+      <formula>$D30="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S43:Y52">
+    <cfRule type="expression" dxfId="11" priority="5">
+      <formula>$C43="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="6">
+      <formula>$D43="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S53:Y53">
+    <cfRule type="expression" dxfId="9" priority="3">
+      <formula>$C53="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="4">
+      <formula>$D53="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S41:Y41">
+    <cfRule type="expression" dxfId="7" priority="1">
+      <formula>$C41="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="2">
+      <formula>$D41="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z50">
+    <cfRule type="expression" dxfId="5" priority="49">
+      <formula>$C54="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="50">
+      <formula>$D54="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z36 Z41:Z48">
+    <cfRule type="expression" dxfId="3" priority="51">
       <formula>$C39="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="2" priority="52">
       <formula>$D39="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C28:D37 C7:D24 C39:D48" xr:uid="{1C0B8259-3F2D-4AED-BC24-BB2C23413775}">
+  <conditionalFormatting sqref="Z49 Z37:Z40">
+    <cfRule type="expression" dxfId="1" priority="53">
+      <formula>$C41="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="54">
+      <formula>$D41="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8 C43:D53 C30:D41" xr:uid="{800895DA-5639-438C-B977-CBBACBEDFF96}">
       <formula1>"x"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I24 M7:M24 Q7:Q24 U7:U24 Y7:Y24 I28:I37 M28:M37 Q28:Q37 U28:U37 Y28:Y37 I39:I48 M39:M48 Q39:Q48 U39:U48 Y39:Y48 Y51:Y61 U51:U61 Q51:Q61 M51:M61 I51:I61" xr:uid="{80D0EC53-2850-4FBF-9411-197D19B571E7}">
-      <formula1>"text, number, picklist, mulitpicklist, date, lookup"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U7:U26 Q8:Q26 I7:I26 Y8:Y26 M7:M26 Y30:Y41 Y56:Y66 U56:U66 Q56:Q66 M56:M66 I56:I66 Q30:Q41 M30:M41 I30:I41 U30:U41 U43:U53 Y43:Y53" xr:uid="{3E3248DC-C601-4015-BAB0-1D9714E0A92A}">
+      <formula1>"text,picklist,multi-picklist,lookup,date,number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q43:Q53 I43:I53 M43:M53" xr:uid="{D9512E75-36AE-471C-B47E-8BB511426C67}">
+      <formula1>"text, boolean, number, picklist, multipicklist, lookup"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C26 D7 D9:D26 Q7" xr:uid="{25196C70-295C-43FF-A050-7D2EA327A7B4}">
+      <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -4675,15 +6144,15 @@
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDAAE1C4-DB1B-4159-B8B9-55C0242E8521}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="8f774076-1ef3-4740-8929-5969f04599b3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>

--- a/default-mappings-xlsx/visitreport/VisitReport_Mapping_Salesforce_DE.xlsx
+++ b/default-mappings-xlsx/visitreport/VisitReport_Mapping_Salesforce_DE.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\Neue Vorlagen\VisitReport\Salesforce\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\Neue Vorlagen\Export Ready\visitreport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7E467D3-8C05-4224-B3E3-94D60CF86C16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{513E4F19-7BD1-4B85-B896-B4FEB85CF917}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,6 +27,44 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Valentin Schönrock</author>
+  </authors>
+  <commentList>
+    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{51CD4BBC-D000-4171-8D0F-34C8D5E56682}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>"x" eingeben, wenn dieses Feld ausgefüllt sein muss</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D7" authorId="0" shapeId="0" xr:uid="{698D3902-48EC-4666-B26F-74ADFCE3EB4F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>"x" eingeben, wenn dieses Feld nicht benötigt wird</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="97">
   <si>
@@ -142,9 +180,6 @@
   </si>
   <si>
     <t>Default Value</t>
-  </si>
-  <si>
-    <t>SF: Custom Entity (optional)</t>
   </si>
   <si>
     <r>
@@ -273,9 +308,6 @@
     <t>Pflichtfeld</t>
   </si>
   <si>
-    <t>SF: Custom Entity</t>
-  </si>
-  <si>
     <t>nicht benötigt</t>
   </si>
   <si>
@@ -300,9 +332,6 @@
     <t>snapADDY - Vorlage MESSE Besuchbericht</t>
   </si>
   <si>
-    <t>Salesforce: Custom Entity</t>
-  </si>
-  <si>
     <t>multiselect</t>
   </si>
   <si>
@@ -349,13 +378,22 @@
   </si>
   <si>
     <t>Frage Typ</t>
+  </si>
+  <si>
+    <t>SF: Additional Entity (optional)</t>
+  </si>
+  <si>
+    <t>Salesforce: Additional Entity</t>
+  </si>
+  <si>
+    <t>SF: Additional Entity</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -443,6 +481,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1954,45 +1999,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2020,6 +2026,24 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2028,6 +2052,27 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3583,11 +3628,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5027446F-BBDF-4A57-AA45-BC7D0EB64201}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5027446F-BBDF-4A57-AA45-BC7D0EB64201}">
   <dimension ref="A1:Y67"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Q40" sqref="Q40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -3611,7 +3656,7 @@
   <sheetData>
     <row r="1" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="60" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" s="59"/>
       <c r="C1" s="59"/>
@@ -3641,38 +3686,38 @@
       </c>
       <c r="B4" s="23"/>
       <c r="C4" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="D4" s="32" t="s">
-        <v>72</v>
-      </c>
       <c r="E4" s="33"/>
-      <c r="G4" s="141" t="s">
+      <c r="G4" s="162" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="141"/>
-      <c r="I4" s="141"/>
+      <c r="H4" s="162"/>
+      <c r="I4" s="162"/>
       <c r="J4" s="6"/>
-      <c r="K4" s="141" t="s">
+      <c r="K4" s="162" t="s">
         <v>29</v>
       </c>
-      <c r="L4" s="141"/>
-      <c r="M4" s="141"/>
-      <c r="O4" s="141" t="s">
+      <c r="L4" s="162"/>
+      <c r="M4" s="162"/>
+      <c r="O4" s="162" t="s">
         <v>30</v>
       </c>
-      <c r="P4" s="141"/>
-      <c r="Q4" s="141"/>
-      <c r="S4" s="138" t="s">
-        <v>38</v>
-      </c>
-      <c r="T4" s="139"/>
-      <c r="U4" s="140"/>
-      <c r="W4" s="138" t="s">
-        <v>71</v>
-      </c>
-      <c r="X4" s="139"/>
-      <c r="Y4" s="140"/>
+      <c r="P4" s="162"/>
+      <c r="Q4" s="162"/>
+      <c r="S4" s="159" t="s">
+        <v>94</v>
+      </c>
+      <c r="T4" s="160"/>
+      <c r="U4" s="161"/>
+      <c r="W4" s="159" t="s">
+        <v>96</v>
+      </c>
+      <c r="X4" s="160"/>
+      <c r="Y4" s="161"/>
     </row>
     <row r="5" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3761,32 +3806,32 @@
     </row>
     <row r="8" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="61" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C8" s="53"/>
       <c r="D8" s="41"/>
       <c r="E8" s="42"/>
       <c r="G8" s="43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H8" s="44" t="s">
         <v>3</v>
       </c>
       <c r="I8" s="45" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J8" s="46"/>
       <c r="K8" s="43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L8" s="44" t="s">
         <v>3</v>
       </c>
       <c r="M8" s="45" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O8" s="47"/>
       <c r="P8" s="48"/>
@@ -3804,30 +3849,30 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="62" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B9" s="25"/>
       <c r="C9" s="54"/>
       <c r="D9" s="30"/>
       <c r="E9" s="35"/>
       <c r="G9" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>4</v>
       </c>
       <c r="I9" s="45" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L9" s="4" t="s">
         <v>4</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O9" s="9"/>
       <c r="P9" s="4"/>
@@ -3841,30 +3886,30 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="62" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B10" s="25"/>
       <c r="C10" s="54"/>
       <c r="D10" s="30"/>
       <c r="E10" s="35"/>
       <c r="G10" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>5</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L10" s="4" t="s">
         <v>5</v>
       </c>
       <c r="M10" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O10" s="9"/>
       <c r="P10" s="4"/>
@@ -3878,30 +3923,30 @@
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="62" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="54"/>
       <c r="D11" s="30"/>
       <c r="E11" s="35"/>
       <c r="G11" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>6</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L11" s="4" t="s">
         <v>6</v>
       </c>
       <c r="M11" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O11" s="9"/>
       <c r="P11" s="4"/>
@@ -3915,33 +3960,33 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="62" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="54"/>
       <c r="D12" s="30"/>
       <c r="E12" s="35"/>
       <c r="G12" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>7</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="9"/>
       <c r="L12" s="4"/>
       <c r="M12" s="10"/>
       <c r="O12" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P12" s="4" t="s">
         <v>21</v>
       </c>
       <c r="Q12" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="S12" s="84"/>
       <c r="T12" s="4"/>
@@ -3952,39 +3997,39 @@
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="63" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B13" s="26"/>
       <c r="C13" s="54"/>
       <c r="D13" s="30"/>
       <c r="E13" s="35"/>
       <c r="G13" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>8</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L13" s="5" t="s">
         <v>16</v>
       </c>
       <c r="M13" s="17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O13" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q13" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="S13" s="132"/>
       <c r="T13" s="48"/>
@@ -3995,39 +4040,39 @@
     </row>
     <row r="14" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="61" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B14" s="40"/>
       <c r="C14" s="53"/>
       <c r="D14" s="41"/>
       <c r="E14" s="42"/>
       <c r="G14" s="47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>9</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J14" s="46"/>
       <c r="K14" s="47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L14" s="48" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O14" s="47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P14" s="48" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q14" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="S14" s="129"/>
       <c r="T14" s="44"/>
@@ -4038,39 +4083,39 @@
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="64" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B15" s="27"/>
       <c r="C15" s="54"/>
       <c r="D15" s="30"/>
       <c r="E15" s="35"/>
       <c r="G15" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H15" s="15" t="s">
         <v>10</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L15" s="15" t="s">
         <v>18</v>
       </c>
       <c r="M15" s="17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O15" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P15" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q15" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="S15" s="130"/>
       <c r="T15" s="15"/>
@@ -4081,39 +4126,39 @@
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="62" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="54"/>
       <c r="D16" s="30"/>
       <c r="E16" s="35"/>
       <c r="G16" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L16" s="4" t="s">
         <v>19</v>
       </c>
       <c r="M16" s="17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O16" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P16" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q16" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="S16" s="84"/>
       <c r="T16" s="4"/>
@@ -4124,39 +4169,39 @@
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="62" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="54"/>
       <c r="D17" s="30"/>
       <c r="E17" s="35"/>
       <c r="G17" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L17" s="4" t="s">
         <v>20</v>
       </c>
       <c r="M17" s="17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O17" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P17" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q17" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="S17" s="84"/>
       <c r="T17" s="4"/>
@@ -4167,39 +4212,39 @@
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="62" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B18" s="25"/>
       <c r="C18" s="54"/>
       <c r="D18" s="30"/>
       <c r="E18" s="35"/>
       <c r="G18" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>13</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L18" s="4" t="s">
         <v>13</v>
       </c>
       <c r="M18" s="17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O18" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P18" s="4" t="s">
         <v>13</v>
       </c>
       <c r="Q18" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="S18" s="84"/>
       <c r="T18" s="4"/>
@@ -4210,30 +4255,30 @@
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="62" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B19" s="25"/>
       <c r="C19" s="54"/>
       <c r="D19" s="30"/>
       <c r="E19" s="35"/>
       <c r="G19" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L19" s="4" t="s">
         <v>14</v>
       </c>
       <c r="M19" s="17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O19" s="9"/>
       <c r="P19" s="4"/>
@@ -4260,7 +4305,7 @@
         <v>2</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J20" s="46"/>
       <c r="K20" s="47" t="s">
@@ -4270,7 +4315,7 @@
         <v>2</v>
       </c>
       <c r="M20" s="17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O20" s="47" t="s">
         <v>2</v>
@@ -4279,7 +4324,7 @@
         <v>2</v>
       </c>
       <c r="Q20" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="S20" s="132"/>
       <c r="T20" s="48"/>
@@ -4303,7 +4348,7 @@
         <v>15</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="9" t="s">
@@ -4313,7 +4358,7 @@
         <v>15</v>
       </c>
       <c r="M21" s="17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O21" s="9"/>
       <c r="P21" s="4"/>
@@ -4340,7 +4385,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="16"/>
@@ -4353,7 +4398,7 @@
         <v>0</v>
       </c>
       <c r="Q22" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="S22" s="95"/>
       <c r="T22" s="5"/>
@@ -4364,20 +4409,20 @@
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="63" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B23" s="25"/>
       <c r="C23" s="54"/>
       <c r="D23" s="30"/>
       <c r="E23" s="35"/>
       <c r="G23" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J23" s="1"/>
       <c r="K23" s="16"/>
@@ -4395,20 +4440,20 @@
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="63" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B24" s="26"/>
       <c r="C24" s="65"/>
       <c r="D24" s="66"/>
       <c r="E24" s="67"/>
       <c r="G24" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J24" s="1"/>
       <c r="K24" s="16"/>
@@ -4426,39 +4471,39 @@
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B25" s="26"/>
       <c r="C25" s="65"/>
       <c r="D25" s="66"/>
       <c r="E25" s="67"/>
       <c r="G25" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I25" s="17" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M25" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="O25" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="O25" s="16" t="s">
+      <c r="P25" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="P25" s="5" t="s">
-        <v>78</v>
-      </c>
       <c r="Q25" s="17" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="S25" s="95"/>
       <c r="T25" s="5"/>
@@ -4511,48 +4556,48 @@
     </row>
     <row r="28" spans="1:25" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="134" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B28" s="68"/>
       <c r="C28" s="68"/>
       <c r="D28" s="68"/>
       <c r="E28" s="68"/>
-      <c r="G28" s="154" t="s">
+      <c r="G28" s="141" t="s">
         <v>27</v>
       </c>
-      <c r="H28" s="155"/>
-      <c r="I28" s="156"/>
+      <c r="H28" s="142"/>
+      <c r="I28" s="143"/>
       <c r="J28" s="69"/>
-      <c r="K28" s="154" t="s">
+      <c r="K28" s="141" t="s">
         <v>29</v>
       </c>
-      <c r="L28" s="155"/>
-      <c r="M28" s="156"/>
+      <c r="L28" s="142"/>
+      <c r="M28" s="143"/>
       <c r="N28" s="69"/>
-      <c r="O28" s="157" t="s">
+      <c r="O28" s="144" t="s">
         <v>30</v>
       </c>
-      <c r="P28" s="158"/>
-      <c r="Q28" s="159"/>
+      <c r="P28" s="145"/>
+      <c r="Q28" s="146"/>
       <c r="R28" s="70"/>
-      <c r="S28" s="142" t="s">
-        <v>80</v>
-      </c>
-      <c r="T28" s="143"/>
-      <c r="U28" s="144"/>
+      <c r="S28" s="147" t="s">
+        <v>95</v>
+      </c>
+      <c r="T28" s="148"/>
+      <c r="U28" s="149"/>
       <c r="V28" s="70"/>
-      <c r="W28" s="142" t="s">
-        <v>80</v>
-      </c>
-      <c r="X28" s="143"/>
-      <c r="Y28" s="144"/>
+      <c r="W28" s="147" t="s">
+        <v>95</v>
+      </c>
+      <c r="X28" s="148"/>
+      <c r="Y28" s="149"/>
     </row>
     <row r="29" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="71" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B29" s="72" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C29" s="73"/>
       <c r="D29" s="73"/>
@@ -4607,15 +4652,15 @@
     </row>
     <row r="30" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A30" s="80" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B30" s="81" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C30" s="82"/>
       <c r="D30" s="81"/>
       <c r="E30" s="83" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G30" s="16"/>
       <c r="H30" s="5"/>
@@ -4635,7 +4680,7 @@
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="86" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B31" s="87"/>
       <c r="C31" s="88"/>
@@ -4659,7 +4704,7 @@
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B32" s="89"/>
       <c r="C32" s="90"/>
@@ -4683,7 +4728,7 @@
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B33" s="89"/>
       <c r="C33" s="90"/>
@@ -4707,7 +4752,7 @@
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B34" s="89"/>
       <c r="C34" s="90"/>
@@ -4731,7 +4776,7 @@
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B35" s="89"/>
       <c r="C35" s="90"/>
@@ -4755,7 +4800,7 @@
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B36" s="89"/>
       <c r="C36" s="90"/>
@@ -4779,7 +4824,7 @@
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B37" s="89"/>
       <c r="C37" s="90"/>
@@ -4803,7 +4848,7 @@
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B38" s="89"/>
       <c r="C38" s="90"/>
@@ -4827,7 +4872,7 @@
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B39" s="89"/>
       <c r="C39" s="90"/>
@@ -4851,7 +4896,7 @@
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B40" s="92"/>
       <c r="C40" s="93"/>
@@ -4897,10 +4942,10 @@
     </row>
     <row r="42" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="103" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B42" s="135" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C42" s="73"/>
       <c r="D42" s="73"/>
@@ -4955,7 +5000,7 @@
     </row>
     <row r="43" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A43" s="80" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B43" s="81"/>
       <c r="C43" s="82"/>
@@ -4979,7 +5024,7 @@
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B44" s="89"/>
       <c r="C44" s="90"/>
@@ -5003,7 +5048,7 @@
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B45" s="89"/>
       <c r="C45" s="90"/>
@@ -5027,7 +5072,7 @@
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B46" s="89"/>
       <c r="C46" s="90"/>
@@ -5051,7 +5096,7 @@
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B47" s="89"/>
       <c r="C47" s="90"/>
@@ -5075,7 +5120,7 @@
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B48" s="89"/>
       <c r="C48" s="90"/>
@@ -5099,7 +5144,7 @@
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B49" s="89"/>
       <c r="C49" s="90"/>
@@ -5123,7 +5168,7 @@
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B50" s="89"/>
       <c r="C50" s="90"/>
@@ -5147,7 +5192,7 @@
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B51" s="89"/>
       <c r="C51" s="90"/>
@@ -5171,7 +5216,7 @@
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B52" s="92"/>
       <c r="C52" s="93"/>
@@ -5287,13 +5332,13 @@
     </row>
     <row r="56" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A56" s="124" t="s">
+        <v>51</v>
+      </c>
+      <c r="B56" s="156" t="s">
         <v>52</v>
       </c>
-      <c r="B56" s="145" t="s">
-        <v>53</v>
-      </c>
-      <c r="C56" s="146"/>
-      <c r="D56" s="147"/>
+      <c r="C56" s="157"/>
+      <c r="D56" s="158"/>
       <c r="E56" s="118"/>
       <c r="G56" s="9"/>
       <c r="H56" s="4"/>
@@ -5313,13 +5358,13 @@
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" s="125" t="s">
+        <v>53</v>
+      </c>
+      <c r="B57" s="150" t="s">
         <v>54</v>
       </c>
-      <c r="B57" s="148" t="s">
-        <v>55</v>
-      </c>
-      <c r="C57" s="149"/>
-      <c r="D57" s="150"/>
+      <c r="C57" s="151"/>
+      <c r="D57" s="152"/>
       <c r="E57" s="119"/>
       <c r="G57" s="9"/>
       <c r="H57" s="4"/>
@@ -5339,13 +5384,13 @@
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58" s="125" t="s">
+        <v>55</v>
+      </c>
+      <c r="B58" s="150" t="s">
         <v>56</v>
       </c>
-      <c r="B58" s="148" t="s">
-        <v>57</v>
-      </c>
-      <c r="C58" s="149"/>
-      <c r="D58" s="150"/>
+      <c r="C58" s="151"/>
+      <c r="D58" s="152"/>
       <c r="E58" s="119"/>
       <c r="G58" s="9"/>
       <c r="H58" s="4"/>
@@ -5365,13 +5410,13 @@
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59" s="125" t="s">
+        <v>57</v>
+      </c>
+      <c r="B59" s="150" t="s">
         <v>58</v>
       </c>
-      <c r="B59" s="148" t="s">
-        <v>59</v>
-      </c>
-      <c r="C59" s="149"/>
-      <c r="D59" s="150"/>
+      <c r="C59" s="151"/>
+      <c r="D59" s="152"/>
       <c r="E59" s="119"/>
       <c r="G59" s="9"/>
       <c r="H59" s="4"/>
@@ -5391,9 +5436,9 @@
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60" s="125"/>
-      <c r="B60" s="148"/>
-      <c r="C60" s="149"/>
-      <c r="D60" s="150"/>
+      <c r="B60" s="150"/>
+      <c r="C60" s="151"/>
+      <c r="D60" s="152"/>
       <c r="E60" s="119"/>
       <c r="G60" s="9"/>
       <c r="H60" s="4"/>
@@ -5435,9 +5480,9 @@
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62" s="116"/>
-      <c r="B62" s="160"/>
-      <c r="C62" s="161"/>
-      <c r="D62" s="162"/>
+      <c r="B62" s="153"/>
+      <c r="C62" s="154"/>
+      <c r="D62" s="155"/>
       <c r="E62" s="119"/>
       <c r="G62" s="9"/>
       <c r="H62" s="4"/>
@@ -5457,9 +5502,9 @@
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63" s="116"/>
-      <c r="B63" s="160"/>
-      <c r="C63" s="161"/>
-      <c r="D63" s="162"/>
+      <c r="B63" s="153"/>
+      <c r="C63" s="154"/>
+      <c r="D63" s="155"/>
       <c r="E63" s="119"/>
       <c r="G63" s="9"/>
       <c r="H63" s="4"/>
@@ -5479,9 +5524,9 @@
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64" s="116"/>
-      <c r="B64" s="160"/>
-      <c r="C64" s="161"/>
-      <c r="D64" s="162"/>
+      <c r="B64" s="153"/>
+      <c r="C64" s="154"/>
+      <c r="D64" s="155"/>
       <c r="E64" s="119"/>
       <c r="G64" s="9"/>
       <c r="H64" s="4"/>
@@ -5501,9 +5546,9 @@
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65" s="116"/>
-      <c r="B65" s="160"/>
-      <c r="C65" s="161"/>
-      <c r="D65" s="162"/>
+      <c r="B65" s="153"/>
+      <c r="C65" s="154"/>
+      <c r="D65" s="155"/>
       <c r="E65" s="119"/>
       <c r="G65" s="9"/>
       <c r="H65" s="4"/>
@@ -5523,9 +5568,9 @@
     </row>
     <row r="66" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="117"/>
-      <c r="B66" s="151"/>
-      <c r="C66" s="152"/>
-      <c r="D66" s="153"/>
+      <c r="B66" s="138"/>
+      <c r="C66" s="139"/>
+      <c r="D66" s="140"/>
       <c r="E66" s="120"/>
       <c r="G66" s="11"/>
       <c r="H66" s="12"/>
@@ -5555,6 +5600,16 @@
     <protectedRange sqref="N30:N41 J30:J41 R30:R41 A43:R53 A30:F41" name="Questionnaire_3"/>
   </protectedRanges>
   <mergeCells count="20">
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="W28:Y28"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
     <mergeCell ref="B66:D66"/>
     <mergeCell ref="G28:I28"/>
     <mergeCell ref="K28:M28"/>
@@ -5565,16 +5620,6 @@
     <mergeCell ref="B63:D63"/>
     <mergeCell ref="B64:D64"/>
     <mergeCell ref="B65:D65"/>
-    <mergeCell ref="W28:Y28"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="O4:Q4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A27:AG27 A26:H26 B13:P25 B8:F8 J8 Q16:AG26 N8:R8 Q13:R15 V13:AG15 B9:AG12 U7:U8 V8 Z8:AG8 J26:P26">
@@ -5889,42 +5934,25 @@
       <formula>$D41="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="4">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8 C43:D53 C30:D41" xr:uid="{800895DA-5639-438C-B977-CBBACBEDFF96}">
       <formula1>"x"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U7:U26 Q8:Q26 I7:I26 Y8:Y26 M7:M26 Y30:Y41 Y56:Y66 U56:U66 Q56:Q66 M56:M66 I56:I66 Q30:Q41 M30:M41 I30:I41 U30:U41 U43:U53 Y43:Y53" xr:uid="{3E3248DC-C601-4015-BAB0-1D9714E0A92A}">
-      <formula1>"text,picklist,multi-picklist,lookup,date,number"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C26 D7 D9:D26" xr:uid="{25196C70-295C-43FF-A050-7D2EA327A7B4}">
+      <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q43:Q53 I43:I53 M43:M53" xr:uid="{D9512E75-36AE-471C-B47E-8BB511426C67}">
-      <formula1>"text, boolean, number, picklist, multipicklist, lookup"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C26 D7 D9:D26 Q7" xr:uid="{25196C70-295C-43FF-A050-7D2EA327A7B4}">
-      <formula1>#REF!</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I26 M7:M26 Q7:Q26 U7:U26 Y7:Y26 I30:I41 M30:M41 Q30:Q41 U30:U41 Y30:Y41 I43:I53 M43:M53 Q43:Q53 U43:U53 Y43:Y53 I56:I66 M56:M66 Q56:Q66 U56:U66 Y56:Y66" xr:uid="{CA7A4114-6CE6-4DC4-8C8A-BFF309F912EB}">
+      <formula1>"text,boolean,number,picklist,multipicklist,lookup,date"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010060A44420B6B801499790497461B7617A" ma:contentTypeVersion="11" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="fabbcee23a04d27af1ae9e54f4461bef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8f774076-1ef3-4740-8929-5969f04599b3" xmlns:ns4="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c03e0335abb4116b770311e5abaeb524" ns3:_="" ns4:_="">
     <xsd:import namespace="8f774076-1ef3-4740-8929-5969f04599b3"/>
@@ -6133,10 +6161,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4CDBC7-0A6E-420D-A4CD-91BDFDE80302}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8f774076-1ef3-4740-8929-5969f04599b3"/>
+    <ds:schemaRef ds:uri="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6159,20 +6213,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4CDBC7-0A6E-420D-A4CD-91BDFDE80302}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="8f774076-1ef3-4740-8929-5969f04599b3"/>
-    <ds:schemaRef ds:uri="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/default-mappings-xlsx/visitreport/VisitReport_Mapping_Salesforce_DE.xlsx
+++ b/default-mappings-xlsx/visitreport/VisitReport_Mapping_Salesforce_DE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\Neue Vorlagen\Export Ready\visitreport\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\visitreport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{513E4F19-7BD1-4B85-B896-B4FEB85CF917}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3113662F-64A4-46A3-BA90-18636A327C02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="150" yWindow="1740" windowWidth="18630" windowHeight="14340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Specifications" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>"x" eingeben, wenn dieses Feld ausgefüllt sein muss</t>
         </r>
@@ -55,7 +55,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>"x" eingeben, wenn dieses Feld nicht benötigt wird</t>
         </r>
@@ -487,7 +487,7 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Segoe UI"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1796,7 +1796,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="163">
+  <cellXfs count="159">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1831,12 +1831,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1881,12 +1875,6 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1896,12 +1884,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1999,6 +1981,45 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2026,24 +2047,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2053,32 +2056,215 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="83">
+  <dxfs count="101">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkUp">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkUp">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -3011,11 +3197,11 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="snapADDY" pivot="0" count="5" xr9:uid="{A8851A67-88BF-475D-B211-A3CFCBFE5DEE}">
-      <tableStyleElement type="wholeTable" dxfId="82"/>
-      <tableStyleElement type="headerRow" dxfId="81"/>
-      <tableStyleElement type="firstColumn" dxfId="80"/>
-      <tableStyleElement type="firstRowStripe" dxfId="79"/>
-      <tableStyleElement type="secondRowStripe" dxfId="78"/>
+      <tableStyleElement type="wholeTable" dxfId="100"/>
+      <tableStyleElement type="headerRow" dxfId="99"/>
+      <tableStyleElement type="firstColumn" dxfId="98"/>
+      <tableStyleElement type="firstRowStripe" dxfId="97"/>
+      <tableStyleElement type="secondRowStripe" dxfId="96"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -3631,8 +3817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5027446F-BBDF-4A57-AA45-BC7D0EB64201}">
   <dimension ref="A1:Y67"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Q40" sqref="Q40"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -3655,13 +3841,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
@@ -3677,57 +3863,57 @@
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:25" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G3" s="39"/>
-      <c r="K3" s="39"/>
+      <c r="G3" s="37"/>
+      <c r="K3" s="37"/>
     </row>
     <row r="4" spans="1:25" ht="80.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="23" t="s">
         <v>24</v>
       </c>
       <c r="B4" s="23"/>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="33"/>
-      <c r="G4" s="162" t="s">
+      <c r="E4" s="31"/>
+      <c r="G4" s="135" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="162"/>
-      <c r="I4" s="162"/>
+      <c r="H4" s="135"/>
+      <c r="I4" s="135"/>
       <c r="J4" s="6"/>
-      <c r="K4" s="162" t="s">
+      <c r="K4" s="135" t="s">
         <v>29</v>
       </c>
-      <c r="L4" s="162"/>
-      <c r="M4" s="162"/>
-      <c r="O4" s="162" t="s">
+      <c r="L4" s="135"/>
+      <c r="M4" s="135"/>
+      <c r="O4" s="135" t="s">
         <v>30</v>
       </c>
-      <c r="P4" s="162"/>
-      <c r="Q4" s="162"/>
-      <c r="S4" s="159" t="s">
+      <c r="P4" s="135"/>
+      <c r="Q4" s="135"/>
+      <c r="S4" s="132" t="s">
         <v>94</v>
       </c>
-      <c r="T4" s="160"/>
-      <c r="U4" s="161"/>
-      <c r="W4" s="159" t="s">
+      <c r="T4" s="133"/>
+      <c r="U4" s="134"/>
+      <c r="W4" s="132" t="s">
         <v>96</v>
       </c>
-      <c r="X4" s="160"/>
-      <c r="Y4" s="161"/>
+      <c r="X4" s="133"/>
+      <c r="Y4" s="134"/>
     </row>
     <row r="5" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="137" t="s">
+      <c r="A6" s="131" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="37" t="s">
+      <c r="B6" s="48"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="35" t="s">
         <v>37</v>
       </c>
       <c r="G6" s="18" t="s">
@@ -3758,31 +3944,31 @@
       <c r="Q6" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="S6" s="126" t="s">
+      <c r="S6" s="120" t="s">
         <v>22</v>
       </c>
-      <c r="T6" s="127" t="s">
+      <c r="T6" s="121" t="s">
         <v>25</v>
       </c>
-      <c r="U6" s="128" t="s">
+      <c r="U6" s="122" t="s">
         <v>23</v>
       </c>
-      <c r="W6" s="126" t="s">
+      <c r="W6" s="120" t="s">
         <v>22</v>
       </c>
-      <c r="X6" s="127" t="s">
+      <c r="X6" s="121" t="s">
         <v>25</v>
       </c>
-      <c r="Y6" s="128" t="s">
+      <c r="Y6" s="122" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="86"/>
+      <c r="A7" s="80"/>
       <c r="B7" s="24"/>
-      <c r="C7" s="52"/>
+      <c r="C7" s="50"/>
       <c r="D7" s="29"/>
-      <c r="E7" s="34"/>
+      <c r="E7" s="32"/>
       <c r="G7" s="9"/>
       <c r="H7" s="4"/>
       <c r="I7" s="10"/>
@@ -3793,75 +3979,75 @@
       <c r="O7" s="16"/>
       <c r="P7" s="5"/>
       <c r="Q7" s="17"/>
-      <c r="S7" s="129" t="s">
+      <c r="S7" s="123" t="s">
         <v>31</v>
       </c>
-      <c r="T7" s="44" t="s">
+      <c r="T7" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="U7" s="85"/>
-      <c r="W7" s="95"/>
+      <c r="U7" s="79"/>
+      <c r="W7" s="89"/>
       <c r="X7" s="5"/>
-      <c r="Y7" s="96"/>
+      <c r="Y7" s="90"/>
     </row>
-    <row r="8" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="61" t="s">
+    <row r="8" spans="1:25" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="53"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="42"/>
-      <c r="G8" s="43" t="s">
+      <c r="C8" s="51"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="40"/>
+      <c r="G8" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="H8" s="44" t="s">
+      <c r="H8" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="I8" s="45" t="s">
+      <c r="I8" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="J8" s="46"/>
-      <c r="K8" s="43" t="s">
+      <c r="J8" s="44"/>
+      <c r="K8" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="L8" s="44" t="s">
+      <c r="L8" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="M8" s="45" t="s">
+      <c r="M8" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="O8" s="47"/>
-      <c r="P8" s="48"/>
-      <c r="Q8" s="49"/>
-      <c r="S8" s="130" t="s">
+      <c r="O8" s="45"/>
+      <c r="P8" s="46"/>
+      <c r="Q8" s="47"/>
+      <c r="S8" s="124" t="s">
         <v>33</v>
       </c>
       <c r="T8" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="U8" s="85"/>
-      <c r="W8" s="84"/>
+      <c r="U8" s="79"/>
+      <c r="W8" s="78"/>
       <c r="X8" s="4"/>
-      <c r="Y8" s="85"/>
+      <c r="Y8" s="79"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" s="62" t="s">
+      <c r="A9" s="58" t="s">
         <v>40</v>
       </c>
       <c r="B9" s="25"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="35"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="33"/>
       <c r="G9" s="9" t="s">
         <v>40</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="45" t="s">
+      <c r="I9" s="43" t="s">
         <v>71</v>
       </c>
       <c r="J9" s="1"/>
@@ -3877,21 +4063,21 @@
       <c r="O9" s="9"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="10"/>
-      <c r="S9" s="84"/>
+      <c r="S9" s="78"/>
       <c r="T9" s="4"/>
-      <c r="U9" s="85"/>
-      <c r="W9" s="84"/>
+      <c r="U9" s="79"/>
+      <c r="W9" s="78"/>
       <c r="X9" s="4"/>
-      <c r="Y9" s="85"/>
+      <c r="Y9" s="79"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10" s="62" t="s">
+      <c r="A10" s="58" t="s">
         <v>41</v>
       </c>
       <c r="B10" s="25"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="35"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="33"/>
       <c r="G10" s="9" t="s">
         <v>41</v>
       </c>
@@ -3914,21 +4100,21 @@
       <c r="O10" s="9"/>
       <c r="P10" s="4"/>
       <c r="Q10" s="10"/>
-      <c r="S10" s="84"/>
+      <c r="S10" s="78"/>
       <c r="T10" s="4"/>
-      <c r="U10" s="85"/>
-      <c r="W10" s="84"/>
+      <c r="U10" s="79"/>
+      <c r="W10" s="78"/>
       <c r="X10" s="4"/>
-      <c r="Y10" s="85"/>
+      <c r="Y10" s="79"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A11" s="62" t="s">
+      <c r="A11" s="58" t="s">
         <v>42</v>
       </c>
       <c r="B11" s="25"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="35"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="33"/>
       <c r="G11" s="9" t="s">
         <v>42</v>
       </c>
@@ -3951,21 +4137,21 @@
       <c r="O11" s="9"/>
       <c r="P11" s="4"/>
       <c r="Q11" s="10"/>
-      <c r="S11" s="129"/>
-      <c r="T11" s="44"/>
-      <c r="U11" s="131"/>
-      <c r="W11" s="84"/>
+      <c r="S11" s="123"/>
+      <c r="T11" s="42"/>
+      <c r="U11" s="125"/>
+      <c r="W11" s="78"/>
       <c r="X11" s="4"/>
-      <c r="Y11" s="85"/>
+      <c r="Y11" s="79"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12" s="62" t="s">
+      <c r="A12" s="58" t="s">
         <v>43</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="35"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="33"/>
       <c r="G12" s="9" t="s">
         <v>43</v>
       </c>
@@ -3988,21 +4174,21 @@
       <c r="Q12" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="S12" s="84"/>
+      <c r="S12" s="78"/>
       <c r="T12" s="4"/>
-      <c r="U12" s="85"/>
-      <c r="W12" s="84"/>
+      <c r="U12" s="79"/>
+      <c r="W12" s="78"/>
       <c r="X12" s="4"/>
-      <c r="Y12" s="85"/>
+      <c r="Y12" s="79"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A13" s="63" t="s">
+      <c r="A13" s="59" t="s">
         <v>46</v>
       </c>
       <c r="B13" s="26"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="35"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="33"/>
       <c r="G13" s="16" t="s">
         <v>46</v>
       </c>
@@ -4031,22 +4217,22 @@
       <c r="Q13" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="S13" s="132"/>
-      <c r="T13" s="48"/>
-      <c r="U13" s="133"/>
-      <c r="W13" s="84"/>
+      <c r="S13" s="126"/>
+      <c r="T13" s="46"/>
+      <c r="U13" s="127"/>
+      <c r="W13" s="78"/>
       <c r="X13" s="4"/>
-      <c r="Y13" s="85"/>
+      <c r="Y13" s="79"/>
     </row>
-    <row r="14" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="61" t="s">
+    <row r="14" spans="1:25" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="40"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="42"/>
-      <c r="G14" s="47" t="s">
+      <c r="B14" s="38"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="40"/>
+      <c r="G14" s="45" t="s">
         <v>47</v>
       </c>
       <c r="H14" s="4" t="s">
@@ -4055,40 +4241,40 @@
       <c r="I14" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="J14" s="46"/>
-      <c r="K14" s="47" t="s">
+      <c r="J14" s="44"/>
+      <c r="K14" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="L14" s="48" t="s">
+      <c r="L14" s="46" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="O14" s="47" t="s">
+      <c r="O14" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="P14" s="48" t="s">
+      <c r="P14" s="46" t="s">
         <v>64</v>
       </c>
       <c r="Q14" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="S14" s="129"/>
-      <c r="T14" s="44"/>
-      <c r="U14" s="131"/>
-      <c r="W14" s="132"/>
-      <c r="X14" s="48"/>
-      <c r="Y14" s="133"/>
+      <c r="S14" s="123"/>
+      <c r="T14" s="42"/>
+      <c r="U14" s="125"/>
+      <c r="W14" s="126"/>
+      <c r="X14" s="46"/>
+      <c r="Y14" s="127"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A15" s="64" t="s">
+      <c r="A15" s="60" t="s">
         <v>50</v>
       </c>
       <c r="B15" s="27"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="35"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="33"/>
       <c r="G15" s="14" t="s">
         <v>50</v>
       </c>
@@ -4117,21 +4303,21 @@
       <c r="Q15" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="S15" s="130"/>
+      <c r="S15" s="124"/>
       <c r="T15" s="15"/>
-      <c r="U15" s="85"/>
-      <c r="W15" s="84"/>
+      <c r="U15" s="79"/>
+      <c r="W15" s="78"/>
       <c r="X15" s="4"/>
-      <c r="Y15" s="85"/>
+      <c r="Y15" s="79"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16" s="62" t="s">
+      <c r="A16" s="58" t="s">
         <v>48</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="35"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="33"/>
       <c r="G16" s="9" t="s">
         <v>48</v>
       </c>
@@ -4160,21 +4346,21 @@
       <c r="Q16" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="S16" s="84"/>
+      <c r="S16" s="78"/>
       <c r="T16" s="4"/>
-      <c r="U16" s="85"/>
-      <c r="W16" s="84"/>
+      <c r="U16" s="79"/>
+      <c r="W16" s="78"/>
       <c r="X16" s="4"/>
-      <c r="Y16" s="85"/>
+      <c r="Y16" s="79"/>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A17" s="62" t="s">
+      <c r="A17" s="58" t="s">
         <v>49</v>
       </c>
       <c r="B17" s="25"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="35"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="33"/>
       <c r="G17" s="9" t="s">
         <v>49</v>
       </c>
@@ -4203,21 +4389,21 @@
       <c r="Q17" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="S17" s="84"/>
+      <c r="S17" s="78"/>
       <c r="T17" s="4"/>
-      <c r="U17" s="85"/>
-      <c r="W17" s="84"/>
+      <c r="U17" s="79"/>
+      <c r="W17" s="78"/>
       <c r="X17" s="4"/>
-      <c r="Y17" s="85"/>
+      <c r="Y17" s="79"/>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A18" s="62" t="s">
+      <c r="A18" s="58" t="s">
         <v>44</v>
       </c>
       <c r="B18" s="25"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="35"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="33"/>
       <c r="G18" s="9" t="s">
         <v>44</v>
       </c>
@@ -4246,21 +4432,21 @@
       <c r="Q18" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="S18" s="84"/>
+      <c r="S18" s="78"/>
       <c r="T18" s="4"/>
-      <c r="U18" s="85"/>
-      <c r="W18" s="84"/>
+      <c r="U18" s="79"/>
+      <c r="W18" s="78"/>
       <c r="X18" s="4"/>
-      <c r="Y18" s="85"/>
+      <c r="Y18" s="79"/>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A19" s="62" t="s">
+      <c r="A19" s="58" t="s">
         <v>45</v>
       </c>
       <c r="B19" s="25"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="35"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="33"/>
       <c r="G19" s="9" t="s">
         <v>45</v>
       </c>
@@ -4283,22 +4469,22 @@
       <c r="O19" s="9"/>
       <c r="P19" s="4"/>
       <c r="Q19" s="10"/>
-      <c r="S19" s="84"/>
+      <c r="S19" s="78"/>
       <c r="T19" s="4"/>
-      <c r="U19" s="85"/>
-      <c r="W19" s="84"/>
+      <c r="U19" s="79"/>
+      <c r="W19" s="78"/>
       <c r="X19" s="4"/>
-      <c r="Y19" s="85"/>
+      <c r="Y19" s="79"/>
     </row>
-    <row r="20" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="61" t="s">
+    <row r="20" spans="1:25" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="40"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="42"/>
-      <c r="G20" s="47" t="s">
+      <c r="B20" s="38"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="40"/>
+      <c r="G20" s="45" t="s">
         <v>2</v>
       </c>
       <c r="H20" s="4" t="s">
@@ -4307,40 +4493,40 @@
       <c r="I20" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="J20" s="46"/>
-      <c r="K20" s="47" t="s">
+      <c r="J20" s="44"/>
+      <c r="K20" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="L20" s="48" t="s">
+      <c r="L20" s="46" t="s">
         <v>2</v>
       </c>
       <c r="M20" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="O20" s="47" t="s">
+      <c r="O20" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="P20" s="48" t="s">
+      <c r="P20" s="46" t="s">
         <v>2</v>
       </c>
       <c r="Q20" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="S20" s="132"/>
-      <c r="T20" s="48"/>
-      <c r="U20" s="133"/>
-      <c r="W20" s="132"/>
-      <c r="X20" s="48"/>
-      <c r="Y20" s="133"/>
+      <c r="S20" s="126"/>
+      <c r="T20" s="46"/>
+      <c r="U20" s="127"/>
+      <c r="W20" s="126"/>
+      <c r="X20" s="46"/>
+      <c r="Y20" s="127"/>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A21" s="62" t="s">
+      <c r="A21" s="58" t="s">
         <v>1</v>
       </c>
       <c r="B21" s="25"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="35"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="33"/>
       <c r="G21" s="9" t="s">
         <v>1</v>
       </c>
@@ -4363,21 +4549,21 @@
       <c r="O21" s="9"/>
       <c r="P21" s="4"/>
       <c r="Q21" s="10"/>
-      <c r="S21" s="84"/>
+      <c r="S21" s="78"/>
       <c r="T21" s="4"/>
-      <c r="U21" s="85"/>
-      <c r="W21" s="84"/>
+      <c r="U21" s="79"/>
+      <c r="W21" s="78"/>
       <c r="X21" s="4"/>
-      <c r="Y21" s="85"/>
+      <c r="Y21" s="79"/>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A22" s="63" t="s">
+      <c r="A22" s="59" t="s">
         <v>0</v>
       </c>
       <c r="B22" s="25"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="35"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="33"/>
       <c r="G22" s="16" t="s">
         <v>0</v>
       </c>
@@ -4400,21 +4586,21 @@
       <c r="Q22" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="S22" s="95"/>
+      <c r="S22" s="89"/>
       <c r="T22" s="5"/>
-      <c r="U22" s="96"/>
-      <c r="W22" s="95"/>
+      <c r="U22" s="90"/>
+      <c r="W22" s="89"/>
       <c r="X22" s="5"/>
-      <c r="Y22" s="96"/>
+      <c r="Y22" s="90"/>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A23" s="63" t="s">
+      <c r="A23" s="59" t="s">
         <v>59</v>
       </c>
       <c r="B23" s="25"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="35"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="33"/>
       <c r="G23" s="16" t="s">
         <v>59</v>
       </c>
@@ -4431,21 +4617,21 @@
       <c r="O23" s="16"/>
       <c r="P23" s="5"/>
       <c r="Q23" s="10"/>
-      <c r="S23" s="95"/>
+      <c r="S23" s="89"/>
       <c r="T23" s="5"/>
-      <c r="U23" s="96"/>
-      <c r="W23" s="95"/>
+      <c r="U23" s="90"/>
+      <c r="W23" s="89"/>
       <c r="X23" s="5"/>
-      <c r="Y23" s="96"/>
+      <c r="Y23" s="90"/>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A24" s="63" t="s">
+      <c r="A24" s="59" t="s">
         <v>60</v>
       </c>
       <c r="B24" s="26"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="66"/>
-      <c r="E24" s="67"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="61"/>
       <c r="G24" s="16" t="s">
         <v>60</v>
       </c>
@@ -4462,21 +4648,21 @@
       <c r="O24" s="16"/>
       <c r="P24" s="5"/>
       <c r="Q24" s="10"/>
-      <c r="S24" s="95"/>
+      <c r="S24" s="89"/>
       <c r="T24" s="5"/>
-      <c r="U24" s="96"/>
-      <c r="W24" s="95"/>
+      <c r="U24" s="90"/>
+      <c r="W24" s="89"/>
       <c r="X24" s="5"/>
-      <c r="Y24" s="96"/>
+      <c r="Y24" s="90"/>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A25" s="63" t="s">
+      <c r="A25" s="59" t="s">
         <v>61</v>
       </c>
       <c r="B25" s="26"/>
-      <c r="C25" s="65"/>
-      <c r="D25" s="66"/>
-      <c r="E25" s="67"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="61"/>
       <c r="G25" s="16" t="s">
         <v>61</v>
       </c>
@@ -4505,19 +4691,19 @@
       <c r="Q25" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="S25" s="95"/>
+      <c r="S25" s="89"/>
       <c r="T25" s="5"/>
-      <c r="U25" s="96"/>
-      <c r="W25" s="95"/>
+      <c r="U25" s="90"/>
+      <c r="W25" s="89"/>
       <c r="X25" s="5"/>
-      <c r="Y25" s="96"/>
+      <c r="Y25" s="90"/>
     </row>
     <row r="26" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="21"/>
       <c r="B26" s="28"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="36"/>
+      <c r="C26" s="158"/>
+      <c r="D26" s="157"/>
+      <c r="E26" s="34"/>
       <c r="G26" s="11"/>
       <c r="H26" s="12"/>
       <c r="I26" s="13"/>
@@ -4528,12 +4714,12 @@
       <c r="O26" s="11"/>
       <c r="P26" s="12"/>
       <c r="Q26" s="13"/>
-      <c r="S26" s="100"/>
-      <c r="T26" s="101"/>
-      <c r="U26" s="102"/>
-      <c r="W26" s="100"/>
-      <c r="X26" s="101"/>
-      <c r="Y26" s="102"/>
+      <c r="S26" s="94"/>
+      <c r="T26" s="95"/>
+      <c r="U26" s="96"/>
+      <c r="W26" s="94"/>
+      <c r="X26" s="95"/>
+      <c r="Y26" s="96"/>
     </row>
     <row r="27" spans="1:25" ht="7.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G27" s="7"/>
@@ -4546,80 +4732,80 @@
       <c r="O27" s="7"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="8"/>
-      <c r="S27" s="56"/>
+      <c r="S27" s="52"/>
       <c r="T27" s="2"/>
-      <c r="U27" s="57"/>
-      <c r="V27" s="58"/>
-      <c r="W27" s="56"/>
+      <c r="U27" s="53"/>
+      <c r="V27" s="54"/>
+      <c r="W27" s="52"/>
       <c r="X27" s="1"/>
       <c r="Y27" s="8"/>
     </row>
     <row r="28" spans="1:25" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="134" t="s">
+      <c r="A28" s="128" t="s">
         <v>77</v>
       </c>
-      <c r="B28" s="68"/>
-      <c r="C28" s="68"/>
-      <c r="D28" s="68"/>
-      <c r="E28" s="68"/>
-      <c r="G28" s="141" t="s">
+      <c r="B28" s="62"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="62"/>
+      <c r="E28" s="62"/>
+      <c r="G28" s="148" t="s">
         <v>27</v>
       </c>
-      <c r="H28" s="142"/>
-      <c r="I28" s="143"/>
-      <c r="J28" s="69"/>
-      <c r="K28" s="141" t="s">
+      <c r="H28" s="149"/>
+      <c r="I28" s="150"/>
+      <c r="J28" s="63"/>
+      <c r="K28" s="148" t="s">
         <v>29</v>
       </c>
-      <c r="L28" s="142"/>
-      <c r="M28" s="143"/>
-      <c r="N28" s="69"/>
-      <c r="O28" s="144" t="s">
+      <c r="L28" s="149"/>
+      <c r="M28" s="150"/>
+      <c r="N28" s="63"/>
+      <c r="O28" s="151" t="s">
         <v>30</v>
       </c>
-      <c r="P28" s="145"/>
-      <c r="Q28" s="146"/>
-      <c r="R28" s="70"/>
-      <c r="S28" s="147" t="s">
+      <c r="P28" s="152"/>
+      <c r="Q28" s="153"/>
+      <c r="R28" s="64"/>
+      <c r="S28" s="136" t="s">
         <v>95</v>
       </c>
-      <c r="T28" s="148"/>
-      <c r="U28" s="149"/>
-      <c r="V28" s="70"/>
-      <c r="W28" s="147" t="s">
+      <c r="T28" s="137"/>
+      <c r="U28" s="138"/>
+      <c r="V28" s="64"/>
+      <c r="W28" s="136" t="s">
         <v>95</v>
       </c>
-      <c r="X28" s="148"/>
-      <c r="Y28" s="149"/>
+      <c r="X28" s="137"/>
+      <c r="Y28" s="138"/>
     </row>
     <row r="29" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="71" t="s">
+      <c r="A29" s="65" t="s">
         <v>92</v>
       </c>
-      <c r="B29" s="72" t="s">
+      <c r="B29" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="C29" s="73"/>
-      <c r="D29" s="73"/>
-      <c r="E29" s="72" t="s">
+      <c r="C29" s="67"/>
+      <c r="D29" s="67"/>
+      <c r="E29" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="G29" s="74" t="s">
+      <c r="G29" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="H29" s="75" t="s">
+      <c r="H29" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="I29" s="76" t="s">
+      <c r="I29" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="K29" s="74" t="s">
+      <c r="K29" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="L29" s="75" t="s">
+      <c r="L29" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="M29" s="76" t="s">
+      <c r="M29" s="70" t="s">
         <v>23</v>
       </c>
       <c r="O29" s="18" t="s">
@@ -4631,35 +4817,35 @@
       <c r="Q29" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="S29" s="77" t="s">
+      <c r="S29" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="T29" s="78" t="s">
+      <c r="T29" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="U29" s="79" t="s">
+      <c r="U29" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="W29" s="77" t="s">
+      <c r="W29" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="X29" s="78" t="s">
+      <c r="X29" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="Y29" s="79" t="s">
+      <c r="Y29" s="73" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="80" t="s">
+      <c r="A30" s="74" t="s">
         <v>81</v>
       </c>
-      <c r="B30" s="81" t="s">
+      <c r="B30" s="75" t="s">
         <v>78</v>
       </c>
-      <c r="C30" s="82"/>
-      <c r="D30" s="81"/>
-      <c r="E30" s="83" t="s">
+      <c r="C30" s="76"/>
+      <c r="D30" s="75"/>
+      <c r="E30" s="77" t="s">
         <v>79</v>
       </c>
       <c r="G30" s="16"/>
@@ -4671,21 +4857,21 @@
       <c r="O30" s="16"/>
       <c r="P30" s="5"/>
       <c r="Q30" s="10"/>
-      <c r="S30" s="84"/>
+      <c r="S30" s="78"/>
       <c r="T30" s="4"/>
-      <c r="U30" s="85"/>
-      <c r="W30" s="84"/>
+      <c r="U30" s="79"/>
+      <c r="W30" s="78"/>
       <c r="X30" s="4"/>
-      <c r="Y30" s="85"/>
+      <c r="Y30" s="79"/>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A31" s="86" t="s">
+      <c r="A31" s="80" t="s">
         <v>82</v>
       </c>
-      <c r="B31" s="87"/>
-      <c r="C31" s="88"/>
-      <c r="D31" s="87"/>
-      <c r="E31" s="83"/>
+      <c r="B31" s="81"/>
+      <c r="C31" s="82"/>
+      <c r="D31" s="81"/>
+      <c r="E31" s="77"/>
       <c r="G31" s="16"/>
       <c r="H31" s="5"/>
       <c r="I31" s="10"/>
@@ -4695,21 +4881,21 @@
       <c r="O31" s="16"/>
       <c r="P31" s="5"/>
       <c r="Q31" s="10"/>
-      <c r="S31" s="84"/>
+      <c r="S31" s="78"/>
       <c r="T31" s="4"/>
-      <c r="U31" s="85"/>
-      <c r="W31" s="84"/>
+      <c r="U31" s="79"/>
+      <c r="W31" s="78"/>
       <c r="X31" s="4"/>
-      <c r="Y31" s="85"/>
+      <c r="Y31" s="79"/>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B32" s="89"/>
-      <c r="C32" s="90"/>
-      <c r="D32" s="89"/>
-      <c r="E32" s="91"/>
+      <c r="B32" s="83"/>
+      <c r="C32" s="84"/>
+      <c r="D32" s="83"/>
+      <c r="E32" s="85"/>
       <c r="G32" s="16"/>
       <c r="H32" s="5"/>
       <c r="I32" s="10"/>
@@ -4719,21 +4905,21 @@
       <c r="O32" s="16"/>
       <c r="P32" s="5"/>
       <c r="Q32" s="10"/>
-      <c r="S32" s="84"/>
+      <c r="S32" s="78"/>
       <c r="T32" s="4"/>
-      <c r="U32" s="85"/>
-      <c r="W32" s="84"/>
+      <c r="U32" s="79"/>
+      <c r="W32" s="78"/>
       <c r="X32" s="4"/>
-      <c r="Y32" s="85"/>
+      <c r="Y32" s="79"/>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B33" s="89"/>
-      <c r="C33" s="90"/>
-      <c r="D33" s="89"/>
-      <c r="E33" s="91"/>
+      <c r="B33" s="83"/>
+      <c r="C33" s="84"/>
+      <c r="D33" s="83"/>
+      <c r="E33" s="85"/>
       <c r="G33" s="16"/>
       <c r="H33" s="5"/>
       <c r="I33" s="10"/>
@@ -4743,21 +4929,21 @@
       <c r="O33" s="16"/>
       <c r="P33" s="5"/>
       <c r="Q33" s="10"/>
-      <c r="S33" s="84"/>
+      <c r="S33" s="78"/>
       <c r="T33" s="4"/>
-      <c r="U33" s="85"/>
-      <c r="W33" s="84"/>
+      <c r="U33" s="79"/>
+      <c r="W33" s="78"/>
       <c r="X33" s="4"/>
-      <c r="Y33" s="85"/>
+      <c r="Y33" s="79"/>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B34" s="89"/>
-      <c r="C34" s="90"/>
-      <c r="D34" s="89"/>
-      <c r="E34" s="91"/>
+      <c r="B34" s="83"/>
+      <c r="C34" s="84"/>
+      <c r="D34" s="83"/>
+      <c r="E34" s="85"/>
       <c r="G34" s="16"/>
       <c r="H34" s="5"/>
       <c r="I34" s="10"/>
@@ -4767,21 +4953,21 @@
       <c r="O34" s="16"/>
       <c r="P34" s="5"/>
       <c r="Q34" s="10"/>
-      <c r="S34" s="84"/>
+      <c r="S34" s="78"/>
       <c r="T34" s="4"/>
-      <c r="U34" s="85"/>
-      <c r="W34" s="84"/>
+      <c r="U34" s="79"/>
+      <c r="W34" s="78"/>
       <c r="X34" s="4"/>
-      <c r="Y34" s="85"/>
+      <c r="Y34" s="79"/>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B35" s="89"/>
-      <c r="C35" s="90"/>
-      <c r="D35" s="89"/>
-      <c r="E35" s="91"/>
+      <c r="B35" s="83"/>
+      <c r="C35" s="84"/>
+      <c r="D35" s="83"/>
+      <c r="E35" s="85"/>
       <c r="G35" s="16"/>
       <c r="H35" s="5"/>
       <c r="I35" s="10"/>
@@ -4791,21 +4977,21 @@
       <c r="O35" s="16"/>
       <c r="P35" s="5"/>
       <c r="Q35" s="10"/>
-      <c r="S35" s="84"/>
+      <c r="S35" s="78"/>
       <c r="T35" s="4"/>
-      <c r="U35" s="85"/>
-      <c r="W35" s="84"/>
+      <c r="U35" s="79"/>
+      <c r="W35" s="78"/>
       <c r="X35" s="4"/>
-      <c r="Y35" s="85"/>
+      <c r="Y35" s="79"/>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B36" s="89"/>
-      <c r="C36" s="90"/>
-      <c r="D36" s="89"/>
-      <c r="E36" s="91"/>
+      <c r="B36" s="86"/>
+      <c r="C36" s="84"/>
+      <c r="D36" s="83"/>
+      <c r="E36" s="85"/>
       <c r="G36" s="16"/>
       <c r="H36" s="5"/>
       <c r="I36" s="10"/>
@@ -4815,21 +5001,21 @@
       <c r="O36" s="16"/>
       <c r="P36" s="5"/>
       <c r="Q36" s="10"/>
-      <c r="S36" s="84"/>
+      <c r="S36" s="78"/>
       <c r="T36" s="4"/>
-      <c r="U36" s="85"/>
-      <c r="W36" s="84"/>
+      <c r="U36" s="79"/>
+      <c r="W36" s="78"/>
       <c r="X36" s="4"/>
-      <c r="Y36" s="85"/>
+      <c r="Y36" s="79"/>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B37" s="89"/>
-      <c r="C37" s="90"/>
-      <c r="D37" s="89"/>
-      <c r="E37" s="91"/>
+      <c r="B37" s="83"/>
+      <c r="C37" s="84"/>
+      <c r="D37" s="83"/>
+      <c r="E37" s="85"/>
       <c r="G37" s="16"/>
       <c r="H37" s="5"/>
       <c r="I37" s="10"/>
@@ -4839,21 +5025,21 @@
       <c r="O37" s="16"/>
       <c r="P37" s="5"/>
       <c r="Q37" s="10"/>
-      <c r="S37" s="84"/>
+      <c r="S37" s="78"/>
       <c r="T37" s="4"/>
-      <c r="U37" s="85"/>
-      <c r="W37" s="84"/>
+      <c r="U37" s="79"/>
+      <c r="W37" s="78"/>
       <c r="X37" s="4"/>
-      <c r="Y37" s="85"/>
+      <c r="Y37" s="79"/>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B38" s="89"/>
-      <c r="C38" s="90"/>
-      <c r="D38" s="89"/>
-      <c r="E38" s="91"/>
+      <c r="B38" s="83"/>
+      <c r="C38" s="84"/>
+      <c r="D38" s="83"/>
+      <c r="E38" s="85"/>
       <c r="G38" s="16"/>
       <c r="H38" s="5"/>
       <c r="I38" s="10"/>
@@ -4863,21 +5049,21 @@
       <c r="O38" s="16"/>
       <c r="P38" s="5"/>
       <c r="Q38" s="10"/>
-      <c r="S38" s="84"/>
+      <c r="S38" s="78"/>
       <c r="T38" s="4"/>
-      <c r="U38" s="85"/>
-      <c r="W38" s="84"/>
+      <c r="U38" s="79"/>
+      <c r="W38" s="78"/>
       <c r="X38" s="4"/>
-      <c r="Y38" s="85"/>
+      <c r="Y38" s="79"/>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B39" s="89"/>
-      <c r="C39" s="90"/>
-      <c r="D39" s="89"/>
-      <c r="E39" s="91"/>
+      <c r="B39" s="86"/>
+      <c r="C39" s="84"/>
+      <c r="D39" s="83"/>
+      <c r="E39" s="85"/>
       <c r="G39" s="16"/>
       <c r="H39" s="5"/>
       <c r="I39" s="10"/>
@@ -4887,21 +5073,21 @@
       <c r="O39" s="16"/>
       <c r="P39" s="5"/>
       <c r="Q39" s="10"/>
-      <c r="S39" s="84"/>
+      <c r="S39" s="78"/>
       <c r="T39" s="4"/>
-      <c r="U39" s="85"/>
-      <c r="W39" s="84"/>
+      <c r="U39" s="79"/>
+      <c r="W39" s="78"/>
       <c r="X39" s="4"/>
-      <c r="Y39" s="85"/>
+      <c r="Y39" s="79"/>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B40" s="92"/>
-      <c r="C40" s="93"/>
-      <c r="D40" s="92"/>
-      <c r="E40" s="94"/>
+      <c r="B40" s="86"/>
+      <c r="C40" s="87"/>
+      <c r="D40" s="86"/>
+      <c r="E40" s="88"/>
       <c r="G40" s="16"/>
       <c r="H40" s="5"/>
       <c r="I40" s="17"/>
@@ -4911,19 +5097,19 @@
       <c r="O40" s="16"/>
       <c r="P40" s="5"/>
       <c r="Q40" s="17"/>
-      <c r="S40" s="95"/>
+      <c r="S40" s="89"/>
       <c r="T40" s="5"/>
-      <c r="U40" s="96"/>
-      <c r="W40" s="95"/>
+      <c r="U40" s="90"/>
+      <c r="W40" s="89"/>
       <c r="X40" s="5"/>
-      <c r="Y40" s="96"/>
+      <c r="Y40" s="90"/>
     </row>
     <row r="41" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3"/>
-      <c r="B41" s="92"/>
-      <c r="C41" s="98"/>
-      <c r="D41" s="97"/>
-      <c r="E41" s="99"/>
+      <c r="B41" s="86"/>
+      <c r="C41" s="92"/>
+      <c r="D41" s="91"/>
+      <c r="E41" s="93"/>
       <c r="G41" s="16"/>
       <c r="H41" s="5"/>
       <c r="I41" s="17"/>
@@ -4933,23 +5119,23 @@
       <c r="O41" s="16"/>
       <c r="P41" s="5"/>
       <c r="Q41" s="17"/>
-      <c r="S41" s="100"/>
-      <c r="T41" s="101"/>
-      <c r="U41" s="102"/>
-      <c r="W41" s="100"/>
-      <c r="X41" s="101"/>
-      <c r="Y41" s="102"/>
+      <c r="S41" s="94"/>
+      <c r="T41" s="95"/>
+      <c r="U41" s="96"/>
+      <c r="W41" s="94"/>
+      <c r="X41" s="95"/>
+      <c r="Y41" s="96"/>
     </row>
     <row r="42" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="103" t="s">
+      <c r="A42" s="97" t="s">
         <v>80</v>
       </c>
-      <c r="B42" s="135" t="s">
+      <c r="B42" s="129" t="s">
         <v>93</v>
       </c>
-      <c r="C42" s="73"/>
-      <c r="D42" s="73"/>
-      <c r="E42" s="73" t="s">
+      <c r="C42" s="67"/>
+      <c r="D42" s="67"/>
+      <c r="E42" s="67" t="s">
         <v>37</v>
       </c>
       <c r="G42" s="18" t="s">
@@ -4970,42 +5156,42 @@
       <c r="M42" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="O42" s="104" t="s">
+      <c r="O42" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="P42" s="105" t="s">
+      <c r="P42" s="99" t="s">
         <v>25</v>
       </c>
-      <c r="Q42" s="106" t="s">
+      <c r="Q42" s="100" t="s">
         <v>23</v>
       </c>
-      <c r="S42" s="107" t="s">
+      <c r="S42" s="101" t="s">
         <v>22</v>
       </c>
-      <c r="T42" s="108" t="s">
+      <c r="T42" s="102" t="s">
         <v>25</v>
       </c>
-      <c r="U42" s="109" t="s">
+      <c r="U42" s="103" t="s">
         <v>23</v>
       </c>
-      <c r="W42" s="107" t="s">
+      <c r="W42" s="101" t="s">
         <v>22</v>
       </c>
-      <c r="X42" s="108" t="s">
+      <c r="X42" s="102" t="s">
         <v>25</v>
       </c>
-      <c r="Y42" s="109" t="s">
+      <c r="Y42" s="103" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="43" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="80" t="s">
+      <c r="A43" s="74" t="s">
         <v>82</v>
       </c>
-      <c r="B43" s="81"/>
-      <c r="C43" s="82"/>
-      <c r="D43" s="81"/>
-      <c r="E43" s="83"/>
+      <c r="B43" s="75"/>
+      <c r="C43" s="76"/>
+      <c r="D43" s="75"/>
+      <c r="E43" s="77"/>
       <c r="G43" s="9"/>
       <c r="H43" s="4"/>
       <c r="I43" s="10"/>
@@ -5014,22 +5200,22 @@
       <c r="M43" s="10"/>
       <c r="O43" s="14"/>
       <c r="P43" s="15"/>
-      <c r="Q43" s="110"/>
-      <c r="S43" s="111"/>
-      <c r="T43" s="112"/>
-      <c r="U43" s="113"/>
-      <c r="W43" s="111"/>
-      <c r="X43" s="112"/>
-      <c r="Y43" s="113"/>
+      <c r="Q43" s="104"/>
+      <c r="S43" s="105"/>
+      <c r="T43" s="106"/>
+      <c r="U43" s="107"/>
+      <c r="W43" s="105"/>
+      <c r="X43" s="106"/>
+      <c r="Y43" s="107"/>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B44" s="89"/>
-      <c r="C44" s="90"/>
-      <c r="D44" s="89"/>
-      <c r="E44" s="91"/>
+      <c r="B44" s="83"/>
+      <c r="C44" s="84"/>
+      <c r="D44" s="83"/>
+      <c r="E44" s="85"/>
       <c r="G44" s="9"/>
       <c r="H44" s="4"/>
       <c r="I44" s="10"/>
@@ -5039,21 +5225,21 @@
       <c r="O44" s="9"/>
       <c r="P44" s="4"/>
       <c r="Q44" s="10"/>
-      <c r="S44" s="84"/>
+      <c r="S44" s="78"/>
       <c r="T44" s="4"/>
-      <c r="U44" s="85"/>
-      <c r="W44" s="84"/>
+      <c r="U44" s="79"/>
+      <c r="W44" s="78"/>
       <c r="X44" s="4"/>
-      <c r="Y44" s="85"/>
+      <c r="Y44" s="79"/>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B45" s="89"/>
-      <c r="C45" s="90"/>
-      <c r="D45" s="89"/>
-      <c r="E45" s="91"/>
+      <c r="B45" s="83"/>
+      <c r="C45" s="84"/>
+      <c r="D45" s="83"/>
+      <c r="E45" s="85"/>
       <c r="G45" s="9"/>
       <c r="H45" s="4"/>
       <c r="I45" s="10"/>
@@ -5063,21 +5249,21 @@
       <c r="O45" s="9"/>
       <c r="P45" s="4"/>
       <c r="Q45" s="10"/>
-      <c r="S45" s="84"/>
+      <c r="S45" s="78"/>
       <c r="T45" s="4"/>
-      <c r="U45" s="85"/>
-      <c r="W45" s="84"/>
+      <c r="U45" s="79"/>
+      <c r="W45" s="78"/>
       <c r="X45" s="4"/>
-      <c r="Y45" s="85"/>
+      <c r="Y45" s="79"/>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B46" s="89"/>
-      <c r="C46" s="90"/>
-      <c r="D46" s="89"/>
-      <c r="E46" s="91"/>
+      <c r="B46" s="83"/>
+      <c r="C46" s="84"/>
+      <c r="D46" s="83"/>
+      <c r="E46" s="85"/>
       <c r="G46" s="9"/>
       <c r="H46" s="4"/>
       <c r="I46" s="10"/>
@@ -5087,21 +5273,21 @@
       <c r="O46" s="9"/>
       <c r="P46" s="4"/>
       <c r="Q46" s="10"/>
-      <c r="S46" s="84"/>
+      <c r="S46" s="78"/>
       <c r="T46" s="4"/>
-      <c r="U46" s="85"/>
-      <c r="W46" s="84"/>
+      <c r="U46" s="79"/>
+      <c r="W46" s="78"/>
       <c r="X46" s="4"/>
-      <c r="Y46" s="85"/>
+      <c r="Y46" s="79"/>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B47" s="89"/>
-      <c r="C47" s="90"/>
-      <c r="D47" s="89"/>
-      <c r="E47" s="91"/>
+      <c r="B47" s="83"/>
+      <c r="C47" s="84"/>
+      <c r="D47" s="83"/>
+      <c r="E47" s="85"/>
       <c r="G47" s="9"/>
       <c r="H47" s="4"/>
       <c r="I47" s="10"/>
@@ -5111,21 +5297,21 @@
       <c r="O47" s="9"/>
       <c r="P47" s="4"/>
       <c r="Q47" s="10"/>
-      <c r="S47" s="84"/>
+      <c r="S47" s="78"/>
       <c r="T47" s="4"/>
-      <c r="U47" s="85"/>
-      <c r="W47" s="84"/>
+      <c r="U47" s="79"/>
+      <c r="W47" s="78"/>
       <c r="X47" s="4"/>
-      <c r="Y47" s="85"/>
+      <c r="Y47" s="79"/>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B48" s="89"/>
-      <c r="C48" s="90"/>
-      <c r="D48" s="89"/>
-      <c r="E48" s="91"/>
+      <c r="B48" s="83"/>
+      <c r="C48" s="84"/>
+      <c r="D48" s="83"/>
+      <c r="E48" s="85"/>
       <c r="G48" s="9"/>
       <c r="H48" s="4"/>
       <c r="I48" s="10"/>
@@ -5135,21 +5321,21 @@
       <c r="O48" s="9"/>
       <c r="P48" s="4"/>
       <c r="Q48" s="10"/>
-      <c r="S48" s="84"/>
+      <c r="S48" s="78"/>
       <c r="T48" s="4"/>
-      <c r="U48" s="85"/>
-      <c r="W48" s="84"/>
+      <c r="U48" s="79"/>
+      <c r="W48" s="78"/>
       <c r="X48" s="4"/>
-      <c r="Y48" s="85"/>
+      <c r="Y48" s="79"/>
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B49" s="89"/>
-      <c r="C49" s="90"/>
-      <c r="D49" s="89"/>
-      <c r="E49" s="91"/>
+      <c r="B49" s="83"/>
+      <c r="C49" s="84"/>
+      <c r="D49" s="83"/>
+      <c r="E49" s="85"/>
       <c r="G49" s="9"/>
       <c r="H49" s="4"/>
       <c r="I49" s="10"/>
@@ -5159,21 +5345,21 @@
       <c r="O49" s="9"/>
       <c r="P49" s="4"/>
       <c r="Q49" s="10"/>
-      <c r="S49" s="84"/>
+      <c r="S49" s="78"/>
       <c r="T49" s="4"/>
-      <c r="U49" s="85"/>
-      <c r="W49" s="84"/>
+      <c r="U49" s="79"/>
+      <c r="W49" s="78"/>
       <c r="X49" s="4"/>
-      <c r="Y49" s="85"/>
+      <c r="Y49" s="79"/>
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B50" s="89"/>
-      <c r="C50" s="90"/>
-      <c r="D50" s="89"/>
-      <c r="E50" s="91"/>
+      <c r="B50" s="83"/>
+      <c r="C50" s="84"/>
+      <c r="D50" s="83"/>
+      <c r="E50" s="85"/>
       <c r="G50" s="9"/>
       <c r="H50" s="4"/>
       <c r="I50" s="10"/>
@@ -5183,21 +5369,21 @@
       <c r="O50" s="9"/>
       <c r="P50" s="4"/>
       <c r="Q50" s="10"/>
-      <c r="S50" s="84"/>
+      <c r="S50" s="78"/>
       <c r="T50" s="4"/>
-      <c r="U50" s="85"/>
-      <c r="W50" s="84"/>
+      <c r="U50" s="79"/>
+      <c r="W50" s="78"/>
       <c r="X50" s="4"/>
-      <c r="Y50" s="85"/>
+      <c r="Y50" s="79"/>
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B51" s="89"/>
-      <c r="C51" s="90"/>
-      <c r="D51" s="89"/>
-      <c r="E51" s="91"/>
+      <c r="B51" s="83"/>
+      <c r="C51" s="84"/>
+      <c r="D51" s="83"/>
+      <c r="E51" s="85"/>
       <c r="G51" s="9"/>
       <c r="H51" s="4"/>
       <c r="I51" s="10"/>
@@ -5207,21 +5393,21 @@
       <c r="O51" s="9"/>
       <c r="P51" s="4"/>
       <c r="Q51" s="10"/>
-      <c r="S51" s="84"/>
+      <c r="S51" s="78"/>
       <c r="T51" s="4"/>
-      <c r="U51" s="85"/>
-      <c r="W51" s="84"/>
+      <c r="U51" s="79"/>
+      <c r="W51" s="78"/>
       <c r="X51" s="4"/>
-      <c r="Y51" s="85"/>
+      <c r="Y51" s="79"/>
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B52" s="92"/>
-      <c r="C52" s="93"/>
-      <c r="D52" s="92"/>
-      <c r="E52" s="94"/>
+      <c r="B52" s="86"/>
+      <c r="C52" s="87"/>
+      <c r="D52" s="86"/>
+      <c r="E52" s="88"/>
       <c r="G52" s="16"/>
       <c r="H52" s="5"/>
       <c r="I52" s="17"/>
@@ -5231,19 +5417,19 @@
       <c r="O52" s="16"/>
       <c r="P52" s="5"/>
       <c r="Q52" s="17"/>
-      <c r="S52" s="95"/>
+      <c r="S52" s="89"/>
       <c r="T52" s="5"/>
-      <c r="U52" s="96"/>
-      <c r="W52" s="95"/>
+      <c r="U52" s="90"/>
+      <c r="W52" s="89"/>
       <c r="X52" s="5"/>
-      <c r="Y52" s="96"/>
+      <c r="Y52" s="90"/>
     </row>
     <row r="53" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="114"/>
-      <c r="B53" s="97"/>
-      <c r="C53" s="98"/>
-      <c r="D53" s="97"/>
-      <c r="E53" s="99"/>
+      <c r="A53" s="108"/>
+      <c r="B53" s="91"/>
+      <c r="C53" s="92"/>
+      <c r="D53" s="91"/>
+      <c r="E53" s="93"/>
       <c r="G53" s="11"/>
       <c r="H53" s="12"/>
       <c r="I53" s="13"/>
@@ -5253,12 +5439,12 @@
       <c r="O53" s="11"/>
       <c r="P53" s="12"/>
       <c r="Q53" s="13"/>
-      <c r="S53" s="100"/>
-      <c r="T53" s="101"/>
-      <c r="U53" s="102"/>
-      <c r="W53" s="100"/>
-      <c r="X53" s="101"/>
-      <c r="Y53" s="102"/>
+      <c r="S53" s="94"/>
+      <c r="T53" s="95"/>
+      <c r="U53" s="96"/>
+      <c r="W53" s="94"/>
+      <c r="X53" s="95"/>
+      <c r="Y53" s="96"/>
     </row>
     <row r="54" spans="1:25" ht="9.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G54" s="7"/>
@@ -5273,15 +5459,15 @@
       <c r="Y54" s="8"/>
     </row>
     <row r="55" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="136" t="s">
+      <c r="A55" s="130" t="s">
         <v>28</v>
       </c>
-      <c r="B55" s="115" t="s">
+      <c r="B55" s="109" t="s">
         <v>36</v>
       </c>
-      <c r="C55" s="115"/>
-      <c r="D55" s="115"/>
-      <c r="E55" s="115" t="s">
+      <c r="C55" s="109"/>
+      <c r="D55" s="109"/>
+      <c r="E55" s="109" t="s">
         <v>37</v>
       </c>
       <c r="G55" s="18" t="s">
@@ -5311,35 +5497,35 @@
       <c r="Q55" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="S55" s="126" t="s">
+      <c r="S55" s="120" t="s">
         <v>22</v>
       </c>
-      <c r="T55" s="127" t="s">
+      <c r="T55" s="121" t="s">
         <v>25</v>
       </c>
-      <c r="U55" s="128" t="s">
+      <c r="U55" s="122" t="s">
         <v>23</v>
       </c>
-      <c r="W55" s="126" t="s">
+      <c r="W55" s="120" t="s">
         <v>22</v>
       </c>
-      <c r="X55" s="127" t="s">
+      <c r="X55" s="121" t="s">
         <v>25</v>
       </c>
-      <c r="Y55" s="128" t="s">
+      <c r="Y55" s="122" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="56" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="124" t="s">
+      <c r="A56" s="118" t="s">
         <v>51</v>
       </c>
-      <c r="B56" s="156" t="s">
+      <c r="B56" s="139" t="s">
         <v>52</v>
       </c>
-      <c r="C56" s="157"/>
-      <c r="D56" s="158"/>
-      <c r="E56" s="118"/>
+      <c r="C56" s="140"/>
+      <c r="D56" s="141"/>
+      <c r="E56" s="112"/>
       <c r="G56" s="9"/>
       <c r="H56" s="4"/>
       <c r="I56" s="10"/>
@@ -5349,23 +5535,23 @@
       <c r="O56" s="9"/>
       <c r="P56" s="4"/>
       <c r="Q56" s="10"/>
-      <c r="S56" s="84"/>
+      <c r="S56" s="78"/>
       <c r="T56" s="4"/>
-      <c r="U56" s="85"/>
-      <c r="W56" s="84"/>
+      <c r="U56" s="79"/>
+      <c r="W56" s="78"/>
       <c r="X56" s="4"/>
-      <c r="Y56" s="85"/>
+      <c r="Y56" s="79"/>
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A57" s="125" t="s">
+      <c r="A57" s="119" t="s">
         <v>53</v>
       </c>
-      <c r="B57" s="150" t="s">
+      <c r="B57" s="142" t="s">
         <v>54</v>
       </c>
-      <c r="C57" s="151"/>
-      <c r="D57" s="152"/>
-      <c r="E57" s="119"/>
+      <c r="C57" s="143"/>
+      <c r="D57" s="144"/>
+      <c r="E57" s="113"/>
       <c r="G57" s="9"/>
       <c r="H57" s="4"/>
       <c r="I57" s="10"/>
@@ -5375,23 +5561,23 @@
       <c r="O57" s="9"/>
       <c r="P57" s="4"/>
       <c r="Q57" s="10"/>
-      <c r="S57" s="84"/>
+      <c r="S57" s="78"/>
       <c r="T57" s="4"/>
-      <c r="U57" s="85"/>
-      <c r="W57" s="84"/>
+      <c r="U57" s="79"/>
+      <c r="W57" s="78"/>
       <c r="X57" s="4"/>
-      <c r="Y57" s="85"/>
+      <c r="Y57" s="79"/>
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A58" s="125" t="s">
+      <c r="A58" s="119" t="s">
         <v>55</v>
       </c>
-      <c r="B58" s="150" t="s">
+      <c r="B58" s="142" t="s">
         <v>56</v>
       </c>
-      <c r="C58" s="151"/>
-      <c r="D58" s="152"/>
-      <c r="E58" s="119"/>
+      <c r="C58" s="143"/>
+      <c r="D58" s="144"/>
+      <c r="E58" s="113"/>
       <c r="G58" s="9"/>
       <c r="H58" s="4"/>
       <c r="I58" s="10"/>
@@ -5401,23 +5587,23 @@
       <c r="O58" s="9"/>
       <c r="P58" s="4"/>
       <c r="Q58" s="10"/>
-      <c r="S58" s="84"/>
+      <c r="S58" s="78"/>
       <c r="T58" s="4"/>
-      <c r="U58" s="85"/>
-      <c r="W58" s="84"/>
+      <c r="U58" s="79"/>
+      <c r="W58" s="78"/>
       <c r="X58" s="4"/>
-      <c r="Y58" s="85"/>
+      <c r="Y58" s="79"/>
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A59" s="125" t="s">
+      <c r="A59" s="119" t="s">
         <v>57</v>
       </c>
-      <c r="B59" s="150" t="s">
+      <c r="B59" s="142" t="s">
         <v>58</v>
       </c>
-      <c r="C59" s="151"/>
-      <c r="D59" s="152"/>
-      <c r="E59" s="119"/>
+      <c r="C59" s="143"/>
+      <c r="D59" s="144"/>
+      <c r="E59" s="113"/>
       <c r="G59" s="9"/>
       <c r="H59" s="4"/>
       <c r="I59" s="10"/>
@@ -5427,19 +5613,19 @@
       <c r="O59" s="9"/>
       <c r="P59" s="4"/>
       <c r="Q59" s="10"/>
-      <c r="S59" s="84"/>
+      <c r="S59" s="78"/>
       <c r="T59" s="4"/>
-      <c r="U59" s="85"/>
-      <c r="W59" s="84"/>
+      <c r="U59" s="79"/>
+      <c r="W59" s="78"/>
       <c r="X59" s="4"/>
-      <c r="Y59" s="85"/>
+      <c r="Y59" s="79"/>
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A60" s="125"/>
-      <c r="B60" s="150"/>
-      <c r="C60" s="151"/>
-      <c r="D60" s="152"/>
-      <c r="E60" s="119"/>
+      <c r="A60" s="119"/>
+      <c r="B60" s="142"/>
+      <c r="C60" s="143"/>
+      <c r="D60" s="144"/>
+      <c r="E60" s="113"/>
       <c r="G60" s="9"/>
       <c r="H60" s="4"/>
       <c r="I60" s="10"/>
@@ -5449,19 +5635,19 @@
       <c r="O60" s="9"/>
       <c r="P60" s="4"/>
       <c r="Q60" s="10"/>
-      <c r="S60" s="84"/>
+      <c r="S60" s="78"/>
       <c r="T60" s="4"/>
-      <c r="U60" s="85"/>
-      <c r="W60" s="84"/>
+      <c r="U60" s="79"/>
+      <c r="W60" s="78"/>
       <c r="X60" s="4"/>
-      <c r="Y60" s="85"/>
+      <c r="Y60" s="79"/>
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A61" s="116"/>
-      <c r="B61" s="121"/>
-      <c r="C61" s="122"/>
-      <c r="D61" s="123"/>
-      <c r="E61" s="119"/>
+      <c r="A61" s="110"/>
+      <c r="B61" s="115"/>
+      <c r="C61" s="116"/>
+      <c r="D61" s="117"/>
+      <c r="E61" s="113"/>
       <c r="G61" s="9"/>
       <c r="H61" s="4"/>
       <c r="I61" s="10"/>
@@ -5471,19 +5657,19 @@
       <c r="O61" s="9"/>
       <c r="P61" s="4"/>
       <c r="Q61" s="10"/>
-      <c r="S61" s="84"/>
+      <c r="S61" s="78"/>
       <c r="T61" s="4"/>
-      <c r="U61" s="85"/>
-      <c r="W61" s="84"/>
+      <c r="U61" s="79"/>
+      <c r="W61" s="78"/>
       <c r="X61" s="4"/>
-      <c r="Y61" s="85"/>
+      <c r="Y61" s="79"/>
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A62" s="116"/>
-      <c r="B62" s="153"/>
-      <c r="C62" s="154"/>
-      <c r="D62" s="155"/>
-      <c r="E62" s="119"/>
+      <c r="A62" s="110"/>
+      <c r="B62" s="154"/>
+      <c r="C62" s="155"/>
+      <c r="D62" s="156"/>
+      <c r="E62" s="113"/>
       <c r="G62" s="9"/>
       <c r="H62" s="4"/>
       <c r="I62" s="10"/>
@@ -5493,19 +5679,19 @@
       <c r="O62" s="9"/>
       <c r="P62" s="4"/>
       <c r="Q62" s="10"/>
-      <c r="S62" s="84"/>
+      <c r="S62" s="78"/>
       <c r="T62" s="4"/>
-      <c r="U62" s="85"/>
-      <c r="W62" s="84"/>
+      <c r="U62" s="79"/>
+      <c r="W62" s="78"/>
       <c r="X62" s="4"/>
-      <c r="Y62" s="85"/>
+      <c r="Y62" s="79"/>
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A63" s="116"/>
-      <c r="B63" s="153"/>
-      <c r="C63" s="154"/>
-      <c r="D63" s="155"/>
-      <c r="E63" s="119"/>
+      <c r="A63" s="110"/>
+      <c r="B63" s="154"/>
+      <c r="C63" s="155"/>
+      <c r="D63" s="156"/>
+      <c r="E63" s="113"/>
       <c r="G63" s="9"/>
       <c r="H63" s="4"/>
       <c r="I63" s="10"/>
@@ -5515,19 +5701,19 @@
       <c r="O63" s="9"/>
       <c r="P63" s="4"/>
       <c r="Q63" s="10"/>
-      <c r="S63" s="84"/>
+      <c r="S63" s="78"/>
       <c r="T63" s="4"/>
-      <c r="U63" s="85"/>
-      <c r="W63" s="84"/>
+      <c r="U63" s="79"/>
+      <c r="W63" s="78"/>
       <c r="X63" s="4"/>
-      <c r="Y63" s="85"/>
+      <c r="Y63" s="79"/>
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A64" s="116"/>
-      <c r="B64" s="153"/>
-      <c r="C64" s="154"/>
-      <c r="D64" s="155"/>
-      <c r="E64" s="119"/>
+      <c r="A64" s="110"/>
+      <c r="B64" s="154"/>
+      <c r="C64" s="155"/>
+      <c r="D64" s="156"/>
+      <c r="E64" s="113"/>
       <c r="G64" s="9"/>
       <c r="H64" s="4"/>
       <c r="I64" s="10"/>
@@ -5537,19 +5723,19 @@
       <c r="O64" s="9"/>
       <c r="P64" s="4"/>
       <c r="Q64" s="10"/>
-      <c r="S64" s="84"/>
+      <c r="S64" s="78"/>
       <c r="T64" s="4"/>
-      <c r="U64" s="85"/>
-      <c r="W64" s="84"/>
+      <c r="U64" s="79"/>
+      <c r="W64" s="78"/>
       <c r="X64" s="4"/>
-      <c r="Y64" s="85"/>
+      <c r="Y64" s="79"/>
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A65" s="116"/>
-      <c r="B65" s="153"/>
-      <c r="C65" s="154"/>
-      <c r="D65" s="155"/>
-      <c r="E65" s="119"/>
+      <c r="A65" s="110"/>
+      <c r="B65" s="154"/>
+      <c r="C65" s="155"/>
+      <c r="D65" s="156"/>
+      <c r="E65" s="113"/>
       <c r="G65" s="9"/>
       <c r="H65" s="4"/>
       <c r="I65" s="10"/>
@@ -5559,19 +5745,19 @@
       <c r="O65" s="9"/>
       <c r="P65" s="4"/>
       <c r="Q65" s="10"/>
-      <c r="S65" s="84"/>
+      <c r="S65" s="78"/>
       <c r="T65" s="4"/>
-      <c r="U65" s="85"/>
-      <c r="W65" s="84"/>
+      <c r="U65" s="79"/>
+      <c r="W65" s="78"/>
       <c r="X65" s="4"/>
-      <c r="Y65" s="85"/>
+      <c r="Y65" s="79"/>
     </row>
     <row r="66" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="117"/>
-      <c r="B66" s="138"/>
-      <c r="C66" s="139"/>
-      <c r="D66" s="140"/>
-      <c r="E66" s="120"/>
+      <c r="A66" s="111"/>
+      <c r="B66" s="145"/>
+      <c r="C66" s="146"/>
+      <c r="D66" s="147"/>
+      <c r="E66" s="114"/>
       <c r="G66" s="11"/>
       <c r="H66" s="12"/>
       <c r="I66" s="13"/>
@@ -5581,35 +5767,26 @@
       <c r="O66" s="11"/>
       <c r="P66" s="12"/>
       <c r="Q66" s="13"/>
-      <c r="S66" s="100"/>
-      <c r="T66" s="101"/>
-      <c r="U66" s="102"/>
-      <c r="W66" s="100"/>
-      <c r="X66" s="101"/>
-      <c r="Y66" s="102"/>
+      <c r="S66" s="94"/>
+      <c r="T66" s="95"/>
+      <c r="U66" s="96"/>
+      <c r="W66" s="94"/>
+      <c r="X66" s="95"/>
+      <c r="Y66" s="96"/>
     </row>
     <row r="67" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection insertColumns="0" insertRows="0"/>
   <protectedRanges>
-    <protectedRange sqref="A26:H26 A13:P25 Q13:X26 A12:X12 V11:X11 A11:T11 A9:X10 A8:Y8 A7:X7 J26:P26" name="Contact Fields"/>
+    <protectedRange sqref="Q13:X26 V11:X11 A7:X7 J26:P26 D8:Y8 A8:B26 D9:X9 E13:P25 E12:X12 E11:T11 D26:H26 E10:X10 D10:D25" name="Contact Fields"/>
     <protectedRange sqref="I26" name="Questionnaire"/>
     <protectedRange sqref="A1" name="Titel"/>
     <protectedRange sqref="A56:Y66" name="Contact Fields_1_2"/>
     <protectedRange sqref="S28:Y29 S42:Y42" name="customEntities_2"/>
     <protectedRange sqref="N30:N41 J30:J41 R30:R41 A43:R53 A30:F41" name="Questionnaire_3"/>
+    <protectedRange sqref="C8:C26" name="Contact Fields_1"/>
   </protectedRanges>
   <mergeCells count="20">
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="W28:Y28"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
     <mergeCell ref="B66:D66"/>
     <mergeCell ref="G28:I28"/>
     <mergeCell ref="K28:M28"/>
@@ -5620,325 +5797,391 @@
     <mergeCell ref="B63:D63"/>
     <mergeCell ref="B64:D64"/>
     <mergeCell ref="B65:D65"/>
+    <mergeCell ref="W28:Y28"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="O4:Q4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A27:AG27 A26:H26 B13:P25 B8:F8 J8 Q16:AG26 N8:R8 Q13:R15 V13:AG15 B9:AG12 U7:U8 V8 Z8:AG8 J26:P26">
-    <cfRule type="expression" dxfId="77" priority="101">
+  <conditionalFormatting sqref="A27:AG27 J8 Q16:AG26 N8:R8 Q13:R15 V13:AG15 U7:U8 V8 Z8:AG8 J26:P26 A26:B26 D8:F8 B8:B25 D9:AG9 E13:P25 D26:H26 E10:AG12">
+    <cfRule type="expression" dxfId="95" priority="117">
       <formula>$C7="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="102">
+    <cfRule type="expression" dxfId="94" priority="118">
       <formula>$D7="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:A25">
-    <cfRule type="expression" dxfId="75" priority="89">
+    <cfRule type="expression" dxfId="93" priority="105">
       <formula>$C8="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="90">
+    <cfRule type="expression" dxfId="92" priority="106">
       <formula>$D8="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26">
-    <cfRule type="expression" dxfId="73" priority="83">
+    <cfRule type="expression" dxfId="91" priority="99">
       <formula>$C26="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="84">
+    <cfRule type="expression" dxfId="90" priority="100">
       <formula>$D26="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7:I8">
-    <cfRule type="expression" dxfId="71" priority="81">
+    <cfRule type="expression" dxfId="89" priority="97">
       <formula>$C7="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="82">
+    <cfRule type="expression" dxfId="88" priority="98">
       <formula>$D7="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8:I8">
-    <cfRule type="expression" dxfId="69" priority="105">
+    <cfRule type="expression" dxfId="87" priority="121">
       <formula>$C13="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="106">
+    <cfRule type="expression" dxfId="86" priority="122">
       <formula>$D13="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S13:U13">
-    <cfRule type="expression" dxfId="67" priority="75">
+    <cfRule type="expression" dxfId="85" priority="91">
       <formula>$C13="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="76">
+    <cfRule type="expression" dxfId="84" priority="92">
       <formula>$D13="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S14:U15">
-    <cfRule type="expression" dxfId="65" priority="67">
+    <cfRule type="expression" dxfId="83" priority="83">
       <formula>$C14="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="68">
+    <cfRule type="expression" dxfId="82" priority="84">
       <formula>$D14="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S7:T8">
-    <cfRule type="expression" dxfId="63" priority="65">
+    <cfRule type="expression" dxfId="81" priority="81">
       <formula>$C7="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="66">
+    <cfRule type="expression" dxfId="80" priority="82">
       <formula>$D7="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W8:Y8">
-    <cfRule type="expression" dxfId="61" priority="61">
+    <cfRule type="expression" dxfId="79" priority="77">
       <formula>$C8="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="62">
+    <cfRule type="expression" dxfId="78" priority="78">
       <formula>$D8="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:M8">
-    <cfRule type="expression" dxfId="59" priority="57">
+    <cfRule type="expression" dxfId="77" priority="73">
       <formula>$C8="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="58">
+    <cfRule type="expression" dxfId="76" priority="74">
       <formula>$D8="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:M8">
-    <cfRule type="expression" dxfId="57" priority="59">
+    <cfRule type="expression" dxfId="75" priority="75">
       <formula>$C13="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="60">
+    <cfRule type="expression" dxfId="74" priority="76">
       <formula>$D13="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7:M7">
-    <cfRule type="expression" dxfId="55" priority="55">
+    <cfRule type="expression" dxfId="73" priority="71">
       <formula>$C7="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="56">
+    <cfRule type="expression" dxfId="72" priority="72">
       <formula>$D7="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54:AE54">
-    <cfRule type="expression" dxfId="53" priority="47">
+    <cfRule type="expression" dxfId="71" priority="63">
       <formula>$C54="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="48">
+    <cfRule type="expression" dxfId="70" priority="64">
       <formula>$D54="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W56:Y66">
-    <cfRule type="expression" dxfId="51" priority="45">
+    <cfRule type="expression" dxfId="69" priority="61">
       <formula>$C56="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="46">
+    <cfRule type="expression" dxfId="68" priority="62">
       <formula>$D56="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S56:U66">
-    <cfRule type="expression" dxfId="49" priority="43">
+    <cfRule type="expression" dxfId="67" priority="59">
       <formula>$C56="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="44">
+    <cfRule type="expression" dxfId="66" priority="60">
       <formula>$D56="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O56:Q66">
-    <cfRule type="expression" dxfId="47" priority="41">
+    <cfRule type="expression" dxfId="65" priority="57">
       <formula>$C56="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="42">
+    <cfRule type="expression" dxfId="64" priority="58">
       <formula>$D56="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K56:M66">
-    <cfRule type="expression" dxfId="45" priority="39">
+    <cfRule type="expression" dxfId="63" priority="55">
       <formula>$C56="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="40">
+    <cfRule type="expression" dxfId="62" priority="56">
       <formula>$D56="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G56:I66">
-    <cfRule type="expression" dxfId="43" priority="37">
+    <cfRule type="expression" dxfId="61" priority="53">
       <formula>$C56="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="38">
+    <cfRule type="expression" dxfId="60" priority="54">
       <formula>$D56="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z30:AG35 A42:Y42 AA36:AG53 B35 A35:A37 C35:F37 A29:AG29 A28:F28 J28 N28 R28:AG28 A30:F34 A38:F41 N30:N41 J30:J41 R30:R41 A43:R53">
-    <cfRule type="expression" dxfId="41" priority="35">
+  <conditionalFormatting sqref="Z30:AG35 A42:Y42 AA36:AG53 B35 A35:A37 C35:F37 A29:AG29 A28:F28 J28 N28 R28:AG28 A30:F34 N30:N41 J30:J41 R30:R41 A43:R53 A38:F41">
+    <cfRule type="expression" dxfId="59" priority="51">
       <formula>$C28="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="36">
+    <cfRule type="expression" dxfId="58" priority="52">
       <formula>$D28="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B36:B37">
-    <cfRule type="expression" dxfId="39" priority="33">
-      <formula>$C35="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="38" priority="34">
-      <formula>$D35="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O30:O31">
-    <cfRule type="expression" dxfId="37" priority="31">
+    <cfRule type="expression" dxfId="55" priority="47">
       <formula>$C30="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="32">
+    <cfRule type="expression" dxfId="54" priority="48">
       <formula>$D30="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P30:Q31">
-    <cfRule type="expression" dxfId="35" priority="29">
+    <cfRule type="expression" dxfId="53" priority="45">
       <formula>$C30="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="30">
+    <cfRule type="expression" dxfId="52" priority="46">
       <formula>$D30="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O32:O41">
-    <cfRule type="expression" dxfId="33" priority="27">
+    <cfRule type="expression" dxfId="51" priority="43">
       <formula>$C32="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="28">
+    <cfRule type="expression" dxfId="50" priority="44">
       <formula>$D32="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P32:Q41">
-    <cfRule type="expression" dxfId="31" priority="25">
+    <cfRule type="expression" dxfId="49" priority="41">
       <formula>$C32="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="26">
+    <cfRule type="expression" dxfId="48" priority="42">
       <formula>$D32="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K30:K31">
-    <cfRule type="expression" dxfId="29" priority="23">
+    <cfRule type="expression" dxfId="47" priority="39">
       <formula>$C30="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="24">
+    <cfRule type="expression" dxfId="46" priority="40">
       <formula>$D30="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L30:M31">
-    <cfRule type="expression" dxfId="27" priority="21">
+    <cfRule type="expression" dxfId="45" priority="37">
       <formula>$C30="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="22">
+    <cfRule type="expression" dxfId="44" priority="38">
       <formula>$D30="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K32:K41">
-    <cfRule type="expression" dxfId="25" priority="19">
+    <cfRule type="expression" dxfId="43" priority="35">
       <formula>$C32="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="20">
+    <cfRule type="expression" dxfId="42" priority="36">
       <formula>$D32="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L32:M41">
-    <cfRule type="expression" dxfId="23" priority="17">
+    <cfRule type="expression" dxfId="41" priority="33">
       <formula>$C32="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="18">
+    <cfRule type="expression" dxfId="40" priority="34">
       <formula>$D32="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30:G31">
-    <cfRule type="expression" dxfId="21" priority="15">
+    <cfRule type="expression" dxfId="39" priority="31">
       <formula>$C30="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="16">
+    <cfRule type="expression" dxfId="38" priority="32">
       <formula>$D30="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30:I31">
-    <cfRule type="expression" dxfId="19" priority="13">
+    <cfRule type="expression" dxfId="37" priority="29">
       <formula>$C30="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="14">
+    <cfRule type="expression" dxfId="36" priority="30">
       <formula>$D30="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32:G41">
-    <cfRule type="expression" dxfId="17" priority="11">
+    <cfRule type="expression" dxfId="35" priority="27">
       <formula>$C32="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="12">
+    <cfRule type="expression" dxfId="34" priority="28">
       <formula>$D32="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32:I41">
-    <cfRule type="expression" dxfId="15" priority="9">
+    <cfRule type="expression" dxfId="33" priority="25">
       <formula>$C32="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="10">
+    <cfRule type="expression" dxfId="32" priority="26">
       <formula>$D32="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S30:Y40">
-    <cfRule type="expression" dxfId="13" priority="7">
+    <cfRule type="expression" dxfId="31" priority="23">
       <formula>$C30="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="8">
+    <cfRule type="expression" dxfId="30" priority="24">
       <formula>$D30="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S43:Y52">
-    <cfRule type="expression" dxfId="11" priority="5">
+    <cfRule type="expression" dxfId="29" priority="21">
       <formula>$C43="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="6">
+    <cfRule type="expression" dxfId="28" priority="22">
       <formula>$D43="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S53:Y53">
-    <cfRule type="expression" dxfId="9" priority="3">
+    <cfRule type="expression" dxfId="27" priority="19">
       <formula>$C53="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="4">
+    <cfRule type="expression" dxfId="26" priority="20">
       <formula>$D53="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S41:Y41">
-    <cfRule type="expression" dxfId="7" priority="1">
+    <cfRule type="expression" dxfId="25" priority="17">
       <formula>$C41="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="2">
+    <cfRule type="expression" dxfId="24" priority="18">
       <formula>$D41="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z50">
-    <cfRule type="expression" dxfId="5" priority="49">
+    <cfRule type="expression" dxfId="23" priority="65">
       <formula>$C54="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="50">
+    <cfRule type="expression" dxfId="22" priority="66">
       <formula>$D54="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z36 Z41:Z48">
-    <cfRule type="expression" dxfId="3" priority="51">
+    <cfRule type="expression" dxfId="21" priority="67">
       <formula>$C39="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="52">
+    <cfRule type="expression" dxfId="20" priority="68">
       <formula>$D39="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z49 Z37:Z40">
-    <cfRule type="expression" dxfId="1" priority="53">
+    <cfRule type="expression" dxfId="19" priority="69">
       <formula>$C41="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="54">
+    <cfRule type="expression" dxfId="18" priority="70">
       <formula>$D41="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8">
+    <cfRule type="expression" dxfId="17" priority="15">
+      <formula>$C8="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="16">
+      <formula>$D8="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9">
+    <cfRule type="expression" dxfId="15" priority="13">
+      <formula>$C9="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="14">
+      <formula>$D9="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10">
+    <cfRule type="expression" dxfId="13" priority="11">
+      <formula>$C10="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="12">
+      <formula>$D10="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11:C25">
+    <cfRule type="expression" dxfId="9" priority="9">
+      <formula>$C11="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="10">
+      <formula>$D11="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26">
+    <cfRule type="expression" dxfId="7" priority="7">
+      <formula>$C26="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="8">
+      <formula>$D26="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10:D25">
+    <cfRule type="expression" dxfId="5" priority="5">
+      <formula>$C10="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="6">
+      <formula>$D10="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B36">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>$C36="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>$D36="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B37">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>$C37="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>$D37="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8 C43:D53 C30:D41" xr:uid="{800895DA-5639-438C-B977-CBBACBEDFF96}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C43:D53 C30:D41 C8:D26" xr:uid="{800895DA-5639-438C-B977-CBBACBEDFF96}">
       <formula1>"x"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C26 D7 D9:D26" xr:uid="{25196C70-295C-43FF-A050-7D2EA327A7B4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:D7" xr:uid="{25196C70-295C-43FF-A050-7D2EA327A7B4}">
       <formula1>#REF!</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I26 M7:M26 Q7:Q26 U7:U26 Y7:Y26 I30:I41 M30:M41 Q30:Q41 U30:U41 Y30:Y41 I43:I53 M43:M53 Q43:Q53 U43:U53 Y43:Y53 I56:I66 M56:M66 Q56:Q66 U56:U66 Y56:Y66" xr:uid="{CA7A4114-6CE6-4DC4-8C8A-BFF309F912EB}">
@@ -5953,6 +6196,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010060A44420B6B801499790497461B7617A" ma:contentTypeVersion="11" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="fabbcee23a04d27af1ae9e54f4461bef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8f774076-1ef3-4740-8929-5969f04599b3" xmlns:ns4="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c03e0335abb4116b770311e5abaeb524" ns3:_="" ns4:_="">
     <xsd:import namespace="8f774076-1ef3-4740-8929-5969f04599b3"/>
@@ -6161,12 +6410,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -6177,6 +6420,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDAAE1C4-DB1B-4159-B8B9-55C0242E8521}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="8f774076-1ef3-4740-8929-5969f04599b3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4CDBC7-0A6E-420D-A4CD-91BDFDE80302}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6195,23 +6455,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDAAE1C4-DB1B-4159-B8B9-55C0242E8521}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="8f774076-1ef3-4740-8929-5969f04599b3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
   <ds:schemaRefs>

--- a/default-mappings-xlsx/visitreport/VisitReport_Mapping_Salesforce_DE.xlsx
+++ b/default-mappings-xlsx/visitreport/VisitReport_Mapping_Salesforce_DE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\Neue Vorlagen\VisitReport\Salesforce\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\visitreport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7E467D3-8C05-4224-B3E3-94D60CF86C16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CE758CE-9872-447B-996D-57E5066CC2CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1954,45 +1954,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2020,6 +1981,24 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2028,6 +2007,27 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3586,8 +3586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5027446F-BBDF-4A57-AA45-BC7D0EB64201}">
   <dimension ref="A1:Y67"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="M43" sqref="M43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -3647,32 +3647,32 @@
         <v>72</v>
       </c>
       <c r="E4" s="33"/>
-      <c r="G4" s="141" t="s">
+      <c r="G4" s="162" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="141"/>
-      <c r="I4" s="141"/>
+      <c r="H4" s="162"/>
+      <c r="I4" s="162"/>
       <c r="J4" s="6"/>
-      <c r="K4" s="141" t="s">
+      <c r="K4" s="162" t="s">
         <v>29</v>
       </c>
-      <c r="L4" s="141"/>
-      <c r="M4" s="141"/>
-      <c r="O4" s="141" t="s">
+      <c r="L4" s="162"/>
+      <c r="M4" s="162"/>
+      <c r="O4" s="162" t="s">
         <v>30</v>
       </c>
-      <c r="P4" s="141"/>
-      <c r="Q4" s="141"/>
-      <c r="S4" s="138" t="s">
+      <c r="P4" s="162"/>
+      <c r="Q4" s="162"/>
+      <c r="S4" s="159" t="s">
         <v>38</v>
       </c>
-      <c r="T4" s="139"/>
-      <c r="U4" s="140"/>
-      <c r="W4" s="138" t="s">
+      <c r="T4" s="160"/>
+      <c r="U4" s="161"/>
+      <c r="W4" s="159" t="s">
         <v>71</v>
       </c>
-      <c r="X4" s="139"/>
-      <c r="Y4" s="140"/>
+      <c r="X4" s="160"/>
+      <c r="Y4" s="161"/>
     </row>
     <row r="5" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4517,35 +4517,35 @@
       <c r="C28" s="68"/>
       <c r="D28" s="68"/>
       <c r="E28" s="68"/>
-      <c r="G28" s="154" t="s">
+      <c r="G28" s="141" t="s">
         <v>27</v>
       </c>
-      <c r="H28" s="155"/>
-      <c r="I28" s="156"/>
+      <c r="H28" s="142"/>
+      <c r="I28" s="143"/>
       <c r="J28" s="69"/>
-      <c r="K28" s="154" t="s">
+      <c r="K28" s="141" t="s">
         <v>29</v>
       </c>
-      <c r="L28" s="155"/>
-      <c r="M28" s="156"/>
+      <c r="L28" s="142"/>
+      <c r="M28" s="143"/>
       <c r="N28" s="69"/>
-      <c r="O28" s="157" t="s">
+      <c r="O28" s="144" t="s">
         <v>30</v>
       </c>
-      <c r="P28" s="158"/>
-      <c r="Q28" s="159"/>
+      <c r="P28" s="145"/>
+      <c r="Q28" s="146"/>
       <c r="R28" s="70"/>
-      <c r="S28" s="142" t="s">
+      <c r="S28" s="147" t="s">
         <v>80</v>
       </c>
-      <c r="T28" s="143"/>
-      <c r="U28" s="144"/>
+      <c r="T28" s="148"/>
+      <c r="U28" s="149"/>
       <c r="V28" s="70"/>
-      <c r="W28" s="142" t="s">
+      <c r="W28" s="147" t="s">
         <v>80</v>
       </c>
-      <c r="X28" s="143"/>
-      <c r="Y28" s="144"/>
+      <c r="X28" s="148"/>
+      <c r="Y28" s="149"/>
     </row>
     <row r="29" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="71" t="s">
@@ -5289,11 +5289,11 @@
       <c r="A56" s="124" t="s">
         <v>52</v>
       </c>
-      <c r="B56" s="145" t="s">
+      <c r="B56" s="156" t="s">
         <v>53</v>
       </c>
-      <c r="C56" s="146"/>
-      <c r="D56" s="147"/>
+      <c r="C56" s="157"/>
+      <c r="D56" s="158"/>
       <c r="E56" s="118"/>
       <c r="G56" s="9"/>
       <c r="H56" s="4"/>
@@ -5315,11 +5315,11 @@
       <c r="A57" s="125" t="s">
         <v>54</v>
       </c>
-      <c r="B57" s="148" t="s">
+      <c r="B57" s="150" t="s">
         <v>55</v>
       </c>
-      <c r="C57" s="149"/>
-      <c r="D57" s="150"/>
+      <c r="C57" s="151"/>
+      <c r="D57" s="152"/>
       <c r="E57" s="119"/>
       <c r="G57" s="9"/>
       <c r="H57" s="4"/>
@@ -5341,11 +5341,11 @@
       <c r="A58" s="125" t="s">
         <v>56</v>
       </c>
-      <c r="B58" s="148" t="s">
+      <c r="B58" s="150" t="s">
         <v>57</v>
       </c>
-      <c r="C58" s="149"/>
-      <c r="D58" s="150"/>
+      <c r="C58" s="151"/>
+      <c r="D58" s="152"/>
       <c r="E58" s="119"/>
       <c r="G58" s="9"/>
       <c r="H58" s="4"/>
@@ -5367,11 +5367,11 @@
       <c r="A59" s="125" t="s">
         <v>58</v>
       </c>
-      <c r="B59" s="148" t="s">
+      <c r="B59" s="150" t="s">
         <v>59</v>
       </c>
-      <c r="C59" s="149"/>
-      <c r="D59" s="150"/>
+      <c r="C59" s="151"/>
+      <c r="D59" s="152"/>
       <c r="E59" s="119"/>
       <c r="G59" s="9"/>
       <c r="H59" s="4"/>
@@ -5391,9 +5391,9 @@
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60" s="125"/>
-      <c r="B60" s="148"/>
-      <c r="C60" s="149"/>
-      <c r="D60" s="150"/>
+      <c r="B60" s="150"/>
+      <c r="C60" s="151"/>
+      <c r="D60" s="152"/>
       <c r="E60" s="119"/>
       <c r="G60" s="9"/>
       <c r="H60" s="4"/>
@@ -5435,9 +5435,9 @@
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62" s="116"/>
-      <c r="B62" s="160"/>
-      <c r="C62" s="161"/>
-      <c r="D62" s="162"/>
+      <c r="B62" s="153"/>
+      <c r="C62" s="154"/>
+      <c r="D62" s="155"/>
       <c r="E62" s="119"/>
       <c r="G62" s="9"/>
       <c r="H62" s="4"/>
@@ -5457,9 +5457,9 @@
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63" s="116"/>
-      <c r="B63" s="160"/>
-      <c r="C63" s="161"/>
-      <c r="D63" s="162"/>
+      <c r="B63" s="153"/>
+      <c r="C63" s="154"/>
+      <c r="D63" s="155"/>
       <c r="E63" s="119"/>
       <c r="G63" s="9"/>
       <c r="H63" s="4"/>
@@ -5479,9 +5479,9 @@
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64" s="116"/>
-      <c r="B64" s="160"/>
-      <c r="C64" s="161"/>
-      <c r="D64" s="162"/>
+      <c r="B64" s="153"/>
+      <c r="C64" s="154"/>
+      <c r="D64" s="155"/>
       <c r="E64" s="119"/>
       <c r="G64" s="9"/>
       <c r="H64" s="4"/>
@@ -5501,9 +5501,9 @@
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65" s="116"/>
-      <c r="B65" s="160"/>
-      <c r="C65" s="161"/>
-      <c r="D65" s="162"/>
+      <c r="B65" s="153"/>
+      <c r="C65" s="154"/>
+      <c r="D65" s="155"/>
       <c r="E65" s="119"/>
       <c r="G65" s="9"/>
       <c r="H65" s="4"/>
@@ -5523,9 +5523,9 @@
     </row>
     <row r="66" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="117"/>
-      <c r="B66" s="151"/>
-      <c r="C66" s="152"/>
-      <c r="D66" s="153"/>
+      <c r="B66" s="138"/>
+      <c r="C66" s="139"/>
+      <c r="D66" s="140"/>
       <c r="E66" s="120"/>
       <c r="G66" s="11"/>
       <c r="H66" s="12"/>
@@ -5555,6 +5555,16 @@
     <protectedRange sqref="N30:N41 J30:J41 R30:R41 A43:R53 A30:F41" name="Questionnaire_3"/>
   </protectedRanges>
   <mergeCells count="20">
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="W28:Y28"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
     <mergeCell ref="B66:D66"/>
     <mergeCell ref="G28:I28"/>
     <mergeCell ref="K28:M28"/>
@@ -5565,16 +5575,6 @@
     <mergeCell ref="B63:D63"/>
     <mergeCell ref="B64:D64"/>
     <mergeCell ref="B65:D65"/>
-    <mergeCell ref="W28:Y28"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="O4:Q4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A27:AG27 A26:H26 B13:P25 B8:F8 J8 Q16:AG26 N8:R8 Q13:R15 V13:AG15 B9:AG12 U7:U8 V8 Z8:AG8 J26:P26">
@@ -5889,18 +5889,15 @@
       <formula>$D41="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="4">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8 C43:D53 C30:D41" xr:uid="{800895DA-5639-438C-B977-CBBACBEDFF96}">
       <formula1>"x"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U7:U26 Q8:Q26 I7:I26 Y8:Y26 M7:M26 Y30:Y41 Y56:Y66 U56:U66 Q56:Q66 M56:M66 I56:I66 Q30:Q41 M30:M41 I30:I41 U30:U41 U43:U53 Y43:Y53" xr:uid="{3E3248DC-C601-4015-BAB0-1D9714E0A92A}">
-      <formula1>"text,picklist,multi-picklist,lookup,date,number"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C26 D7 D9:D26" xr:uid="{25196C70-295C-43FF-A050-7D2EA327A7B4}">
+      <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q43:Q53 I43:I53 M43:M53" xr:uid="{D9512E75-36AE-471C-B47E-8BB511426C67}">
-      <formula1>"text, boolean, number, picklist, multipicklist, lookup"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C26 D7 D9:D26 Q7" xr:uid="{25196C70-295C-43FF-A050-7D2EA327A7B4}">
-      <formula1>#REF!</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I26 M7:M26 Q7:Q26 U7:U27 Y7:Y26 Y30:Y41 U30:U41 Q30:Q41 M30:M41 I30:I41 I43:I53 M43:M54 Q43:Q53 U43:U53 Y43:Y53 Y56:Y66 U56:U66 Q57:Q66 Q56 M56:M60 M62:M66 M61 I56:I66" xr:uid="{5905A3FA-A0A9-4ACB-AB03-F564AC49D5A8}">
+      <formula1>"text,boolean,number,picklist,multiplicklist,lookup,date"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -5910,18 +5907,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6134,14 +6131,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDAAE1C4-DB1B-4159-B8B9-55C0242E8521}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -6154,6 +6143,14 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="8f774076-1ef3-4740-8929-5969f04599b3"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/default-mappings-xlsx/visitreport/VisitReport_Mapping_Salesforce_DE.xlsx
+++ b/default-mappings-xlsx/visitreport/VisitReport_Mapping_Salesforce_DE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\visitreport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CE758CE-9872-447B-996D-57E5066CC2CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB7286F-EBB5-417E-A9BA-461962F9DFF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -267,9 +267,6 @@
     <t>BillingCountry</t>
   </si>
   <si>
-    <t>Das ist eine Notiz</t>
-  </si>
-  <si>
     <t>Pflichtfeld</t>
   </si>
   <si>
@@ -349,6 +346,9 @@
   </si>
   <si>
     <t>Frage Typ</t>
+  </si>
+  <si>
+    <t>Notizen</t>
   </si>
 </sst>
 </file>
@@ -1954,6 +1954,45 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1981,24 +2020,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2007,27 +2028,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3586,8 +3586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5027446F-BBDF-4A57-AA45-BC7D0EB64201}">
   <dimension ref="A1:Y67"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M43" sqref="M43"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -3641,45 +3641,47 @@
       </c>
       <c r="B4" s="23"/>
       <c r="C4" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="33"/>
+      <c r="G4" s="141" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="141"/>
+      <c r="I4" s="141"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="141" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="141"/>
+      <c r="M4" s="141"/>
+      <c r="O4" s="141" t="s">
+        <v>30</v>
+      </c>
+      <c r="P4" s="141"/>
+      <c r="Q4" s="141"/>
+      <c r="S4" s="138" t="s">
+        <v>38</v>
+      </c>
+      <c r="T4" s="139"/>
+      <c r="U4" s="140"/>
+      <c r="W4" s="138" t="s">
         <v>70</v>
       </c>
-      <c r="D4" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="E4" s="33"/>
-      <c r="G4" s="162" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="162"/>
-      <c r="I4" s="162"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="162" t="s">
-        <v>29</v>
-      </c>
-      <c r="L4" s="162"/>
-      <c r="M4" s="162"/>
-      <c r="O4" s="162" t="s">
-        <v>30</v>
-      </c>
-      <c r="P4" s="162"/>
-      <c r="Q4" s="162"/>
-      <c r="S4" s="159" t="s">
-        <v>38</v>
-      </c>
-      <c r="T4" s="160"/>
-      <c r="U4" s="161"/>
-      <c r="W4" s="159" t="s">
-        <v>71</v>
-      </c>
-      <c r="X4" s="160"/>
-      <c r="Y4" s="161"/>
+      <c r="X4" s="139"/>
+      <c r="Y4" s="140"/>
     </row>
     <row r="5" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="137" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="50"/>
+      <c r="B6" s="50" t="s">
+        <v>96</v>
+      </c>
       <c r="C6" s="51"/>
       <c r="D6" s="51"/>
       <c r="E6" s="37" t="s">
@@ -3763,9 +3765,7 @@
       <c r="A8" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="40" t="s">
-        <v>69</v>
-      </c>
+      <c r="B8" s="40"/>
       <c r="C8" s="53"/>
       <c r="D8" s="41"/>
       <c r="E8" s="42"/>
@@ -3776,7 +3776,7 @@
         <v>3</v>
       </c>
       <c r="I8" s="45" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J8" s="46"/>
       <c r="K8" s="43" t="s">
@@ -3786,7 +3786,7 @@
         <v>3</v>
       </c>
       <c r="M8" s="45" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O8" s="47"/>
       <c r="P8" s="48"/>
@@ -3817,7 +3817,7 @@
         <v>4</v>
       </c>
       <c r="I9" s="45" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="9" t="s">
@@ -3827,7 +3827,7 @@
         <v>4</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O9" s="9"/>
       <c r="P9" s="4"/>
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="9" t="s">
@@ -3864,7 +3864,7 @@
         <v>5</v>
       </c>
       <c r="M10" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O10" s="9"/>
       <c r="P10" s="4"/>
@@ -3891,7 +3891,7 @@
         <v>6</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="9" t="s">
@@ -3901,7 +3901,7 @@
         <v>6</v>
       </c>
       <c r="M11" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O11" s="9"/>
       <c r="P11" s="4"/>
@@ -3928,7 +3928,7 @@
         <v>7</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="9"/>
@@ -3941,7 +3941,7 @@
         <v>21</v>
       </c>
       <c r="Q12" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="S12" s="84"/>
       <c r="T12" s="4"/>
@@ -3965,7 +3965,7 @@
         <v>8</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="16" t="s">
@@ -3975,7 +3975,7 @@
         <v>16</v>
       </c>
       <c r="M13" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O13" s="16" t="s">
         <v>47</v>
@@ -3984,7 +3984,7 @@
         <v>64</v>
       </c>
       <c r="Q13" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="S13" s="132"/>
       <c r="T13" s="48"/>
@@ -4008,7 +4008,7 @@
         <v>9</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J14" s="46"/>
       <c r="K14" s="47" t="s">
@@ -4018,7 +4018,7 @@
         <v>17</v>
       </c>
       <c r="M14" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O14" s="47" t="s">
         <v>48</v>
@@ -4027,7 +4027,7 @@
         <v>65</v>
       </c>
       <c r="Q14" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="S14" s="129"/>
       <c r="T14" s="44"/>
@@ -4051,7 +4051,7 @@
         <v>10</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="14" t="s">
@@ -4061,7 +4061,7 @@
         <v>18</v>
       </c>
       <c r="M15" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O15" s="14" t="s">
         <v>51</v>
@@ -4070,7 +4070,7 @@
         <v>66</v>
       </c>
       <c r="Q15" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="S15" s="130"/>
       <c r="T15" s="15"/>
@@ -4094,7 +4094,7 @@
         <v>11</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="9" t="s">
@@ -4104,7 +4104,7 @@
         <v>19</v>
       </c>
       <c r="M16" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O16" s="9" t="s">
         <v>49</v>
@@ -4113,7 +4113,7 @@
         <v>67</v>
       </c>
       <c r="Q16" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="S16" s="84"/>
       <c r="T16" s="4"/>
@@ -4137,7 +4137,7 @@
         <v>12</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="9" t="s">
@@ -4147,7 +4147,7 @@
         <v>20</v>
       </c>
       <c r="M17" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O17" s="9" t="s">
         <v>50</v>
@@ -4156,7 +4156,7 @@
         <v>68</v>
       </c>
       <c r="Q17" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="S17" s="84"/>
       <c r="T17" s="4"/>
@@ -4180,7 +4180,7 @@
         <v>13</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="9" t="s">
@@ -4190,7 +4190,7 @@
         <v>13</v>
       </c>
       <c r="M18" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O18" s="9" t="s">
         <v>45</v>
@@ -4199,7 +4199,7 @@
         <v>13</v>
       </c>
       <c r="Q18" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="S18" s="84"/>
       <c r="T18" s="4"/>
@@ -4223,7 +4223,7 @@
         <v>14</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="9" t="s">
@@ -4233,7 +4233,7 @@
         <v>14</v>
       </c>
       <c r="M19" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O19" s="9"/>
       <c r="P19" s="4"/>
@@ -4260,7 +4260,7 @@
         <v>2</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J20" s="46"/>
       <c r="K20" s="47" t="s">
@@ -4270,7 +4270,7 @@
         <v>2</v>
       </c>
       <c r="M20" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O20" s="47" t="s">
         <v>2</v>
@@ -4279,7 +4279,7 @@
         <v>2</v>
       </c>
       <c r="Q20" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="S20" s="132"/>
       <c r="T20" s="48"/>
@@ -4303,7 +4303,7 @@
         <v>15</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="9" t="s">
@@ -4313,7 +4313,7 @@
         <v>15</v>
       </c>
       <c r="M21" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O21" s="9"/>
       <c r="P21" s="4"/>
@@ -4340,7 +4340,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="16"/>
@@ -4353,7 +4353,7 @@
         <v>0</v>
       </c>
       <c r="Q22" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="S22" s="95"/>
       <c r="T22" s="5"/>
@@ -4377,7 +4377,7 @@
         <v>60</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J23" s="1"/>
       <c r="K23" s="16"/>
@@ -4405,10 +4405,10 @@
         <v>61</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J24" s="1"/>
       <c r="K24" s="16"/>
@@ -4436,29 +4436,29 @@
         <v>62</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I25" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="16" t="s">
         <v>62</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M25" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O25" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P25" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q25" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S25" s="95"/>
       <c r="T25" s="5"/>
@@ -4511,48 +4511,48 @@
     </row>
     <row r="28" spans="1:25" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="134" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B28" s="68"/>
       <c r="C28" s="68"/>
       <c r="D28" s="68"/>
       <c r="E28" s="68"/>
-      <c r="G28" s="141" t="s">
+      <c r="G28" s="154" t="s">
         <v>27</v>
       </c>
-      <c r="H28" s="142"/>
-      <c r="I28" s="143"/>
+      <c r="H28" s="155"/>
+      <c r="I28" s="156"/>
       <c r="J28" s="69"/>
-      <c r="K28" s="141" t="s">
+      <c r="K28" s="154" t="s">
         <v>29</v>
       </c>
-      <c r="L28" s="142"/>
-      <c r="M28" s="143"/>
+      <c r="L28" s="155"/>
+      <c r="M28" s="156"/>
       <c r="N28" s="69"/>
-      <c r="O28" s="144" t="s">
+      <c r="O28" s="157" t="s">
         <v>30</v>
       </c>
-      <c r="P28" s="145"/>
-      <c r="Q28" s="146"/>
+      <c r="P28" s="158"/>
+      <c r="Q28" s="159"/>
       <c r="R28" s="70"/>
-      <c r="S28" s="147" t="s">
-        <v>80</v>
-      </c>
-      <c r="T28" s="148"/>
-      <c r="U28" s="149"/>
+      <c r="S28" s="142" t="s">
+        <v>79</v>
+      </c>
+      <c r="T28" s="143"/>
+      <c r="U28" s="144"/>
       <c r="V28" s="70"/>
-      <c r="W28" s="147" t="s">
-        <v>80</v>
-      </c>
-      <c r="X28" s="148"/>
-      <c r="Y28" s="149"/>
+      <c r="W28" s="142" t="s">
+        <v>79</v>
+      </c>
+      <c r="X28" s="143"/>
+      <c r="Y28" s="144"/>
     </row>
     <row r="29" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="71" t="s">
+        <v>94</v>
+      </c>
+      <c r="B29" s="72" t="s">
         <v>95</v>
-      </c>
-      <c r="B29" s="72" t="s">
-        <v>96</v>
       </c>
       <c r="C29" s="73"/>
       <c r="D29" s="73"/>
@@ -4607,15 +4607,15 @@
     </row>
     <row r="30" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A30" s="80" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B30" s="81" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C30" s="82"/>
       <c r="D30" s="81"/>
       <c r="E30" s="83" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G30" s="16"/>
       <c r="H30" s="5"/>
@@ -4635,7 +4635,7 @@
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="86" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B31" s="87"/>
       <c r="C31" s="88"/>
@@ -4659,7 +4659,7 @@
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B32" s="89"/>
       <c r="C32" s="90"/>
@@ -4683,7 +4683,7 @@
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B33" s="89"/>
       <c r="C33" s="90"/>
@@ -4707,7 +4707,7 @@
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B34" s="89"/>
       <c r="C34" s="90"/>
@@ -4731,7 +4731,7 @@
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B35" s="89"/>
       <c r="C35" s="90"/>
@@ -4755,7 +4755,7 @@
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B36" s="89"/>
       <c r="C36" s="90"/>
@@ -4779,7 +4779,7 @@
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B37" s="89"/>
       <c r="C37" s="90"/>
@@ -4803,7 +4803,7 @@
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B38" s="89"/>
       <c r="C38" s="90"/>
@@ -4827,7 +4827,7 @@
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B39" s="89"/>
       <c r="C39" s="90"/>
@@ -4851,7 +4851,7 @@
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B40" s="92"/>
       <c r="C40" s="93"/>
@@ -4897,10 +4897,10 @@
     </row>
     <row r="42" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="103" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B42" s="135" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C42" s="73"/>
       <c r="D42" s="73"/>
@@ -4955,7 +4955,7 @@
     </row>
     <row r="43" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A43" s="80" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B43" s="81"/>
       <c r="C43" s="82"/>
@@ -4979,7 +4979,7 @@
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B44" s="89"/>
       <c r="C44" s="90"/>
@@ -5003,7 +5003,7 @@
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B45" s="89"/>
       <c r="C45" s="90"/>
@@ -5027,7 +5027,7 @@
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B46" s="89"/>
       <c r="C46" s="90"/>
@@ -5051,7 +5051,7 @@
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B47" s="89"/>
       <c r="C47" s="90"/>
@@ -5075,7 +5075,7 @@
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B48" s="89"/>
       <c r="C48" s="90"/>
@@ -5099,7 +5099,7 @@
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B49" s="89"/>
       <c r="C49" s="90"/>
@@ -5123,7 +5123,7 @@
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B50" s="89"/>
       <c r="C50" s="90"/>
@@ -5147,7 +5147,7 @@
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B51" s="89"/>
       <c r="C51" s="90"/>
@@ -5171,7 +5171,7 @@
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B52" s="92"/>
       <c r="C52" s="93"/>
@@ -5289,11 +5289,11 @@
       <c r="A56" s="124" t="s">
         <v>52</v>
       </c>
-      <c r="B56" s="156" t="s">
+      <c r="B56" s="145" t="s">
         <v>53</v>
       </c>
-      <c r="C56" s="157"/>
-      <c r="D56" s="158"/>
+      <c r="C56" s="146"/>
+      <c r="D56" s="147"/>
       <c r="E56" s="118"/>
       <c r="G56" s="9"/>
       <c r="H56" s="4"/>
@@ -5315,11 +5315,11 @@
       <c r="A57" s="125" t="s">
         <v>54</v>
       </c>
-      <c r="B57" s="150" t="s">
+      <c r="B57" s="148" t="s">
         <v>55</v>
       </c>
-      <c r="C57" s="151"/>
-      <c r="D57" s="152"/>
+      <c r="C57" s="149"/>
+      <c r="D57" s="150"/>
       <c r="E57" s="119"/>
       <c r="G57" s="9"/>
       <c r="H57" s="4"/>
@@ -5341,11 +5341,11 @@
       <c r="A58" s="125" t="s">
         <v>56</v>
       </c>
-      <c r="B58" s="150" t="s">
+      <c r="B58" s="148" t="s">
         <v>57</v>
       </c>
-      <c r="C58" s="151"/>
-      <c r="D58" s="152"/>
+      <c r="C58" s="149"/>
+      <c r="D58" s="150"/>
       <c r="E58" s="119"/>
       <c r="G58" s="9"/>
       <c r="H58" s="4"/>
@@ -5367,11 +5367,11 @@
       <c r="A59" s="125" t="s">
         <v>58</v>
       </c>
-      <c r="B59" s="150" t="s">
+      <c r="B59" s="148" t="s">
         <v>59</v>
       </c>
-      <c r="C59" s="151"/>
-      <c r="D59" s="152"/>
+      <c r="C59" s="149"/>
+      <c r="D59" s="150"/>
       <c r="E59" s="119"/>
       <c r="G59" s="9"/>
       <c r="H59" s="4"/>
@@ -5391,9 +5391,9 @@
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60" s="125"/>
-      <c r="B60" s="150"/>
-      <c r="C60" s="151"/>
-      <c r="D60" s="152"/>
+      <c r="B60" s="148"/>
+      <c r="C60" s="149"/>
+      <c r="D60" s="150"/>
       <c r="E60" s="119"/>
       <c r="G60" s="9"/>
       <c r="H60" s="4"/>
@@ -5435,9 +5435,9 @@
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62" s="116"/>
-      <c r="B62" s="153"/>
-      <c r="C62" s="154"/>
-      <c r="D62" s="155"/>
+      <c r="B62" s="160"/>
+      <c r="C62" s="161"/>
+      <c r="D62" s="162"/>
       <c r="E62" s="119"/>
       <c r="G62" s="9"/>
       <c r="H62" s="4"/>
@@ -5457,9 +5457,9 @@
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63" s="116"/>
-      <c r="B63" s="153"/>
-      <c r="C63" s="154"/>
-      <c r="D63" s="155"/>
+      <c r="B63" s="160"/>
+      <c r="C63" s="161"/>
+      <c r="D63" s="162"/>
       <c r="E63" s="119"/>
       <c r="G63" s="9"/>
       <c r="H63" s="4"/>
@@ -5479,9 +5479,9 @@
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64" s="116"/>
-      <c r="B64" s="153"/>
-      <c r="C64" s="154"/>
-      <c r="D64" s="155"/>
+      <c r="B64" s="160"/>
+      <c r="C64" s="161"/>
+      <c r="D64" s="162"/>
       <c r="E64" s="119"/>
       <c r="G64" s="9"/>
       <c r="H64" s="4"/>
@@ -5501,9 +5501,9 @@
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65" s="116"/>
-      <c r="B65" s="153"/>
-      <c r="C65" s="154"/>
-      <c r="D65" s="155"/>
+      <c r="B65" s="160"/>
+      <c r="C65" s="161"/>
+      <c r="D65" s="162"/>
       <c r="E65" s="119"/>
       <c r="G65" s="9"/>
       <c r="H65" s="4"/>
@@ -5523,9 +5523,9 @@
     </row>
     <row r="66" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="117"/>
-      <c r="B66" s="138"/>
-      <c r="C66" s="139"/>
-      <c r="D66" s="140"/>
+      <c r="B66" s="151"/>
+      <c r="C66" s="152"/>
+      <c r="D66" s="153"/>
       <c r="E66" s="120"/>
       <c r="G66" s="11"/>
       <c r="H66" s="12"/>
@@ -5555,16 +5555,6 @@
     <protectedRange sqref="N30:N41 J30:J41 R30:R41 A43:R53 A30:F41" name="Questionnaire_3"/>
   </protectedRanges>
   <mergeCells count="20">
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="W28:Y28"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
     <mergeCell ref="B66:D66"/>
     <mergeCell ref="G28:I28"/>
     <mergeCell ref="K28:M28"/>
@@ -5575,6 +5565,16 @@
     <mergeCell ref="B63:D63"/>
     <mergeCell ref="B64:D64"/>
     <mergeCell ref="B65:D65"/>
+    <mergeCell ref="W28:Y28"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="O4:Q4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A27:AG27 A26:H26 B13:P25 B8:F8 J8 Q16:AG26 N8:R8 Q13:R15 V13:AG15 B9:AG12 U7:U8 V8 Z8:AG8 J26:P26">
@@ -5907,18 +5907,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6131,6 +6131,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDAAE1C4-DB1B-4159-B8B9-55C0242E8521}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -6143,14 +6151,6 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="8f774076-1ef3-4740-8929-5969f04599b3"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/default-mappings-xlsx/visitreport/VisitReport_Mapping_Salesforce_DE.xlsx
+++ b/default-mappings-xlsx/visitreport/VisitReport_Mapping_Salesforce_DE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\visitreport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB7286F-EBB5-417E-A9BA-461962F9DFF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0770390E-3A5D-4D02-B9A3-84904BBA1FF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32370" yWindow="3450" windowWidth="11370" windowHeight="12480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Specifications" sheetId="2" r:id="rId1"/>
@@ -1751,7 +1751,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="163">
+  <cellXfs count="161">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1833,9 +1833,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1851,9 +1848,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1954,45 +1948,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2020,6 +1975,24 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2029,11 +2002,692 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="83">
+  <dxfs count="143">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2966,11 +3620,11 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="snapADDY" pivot="0" count="5" xr9:uid="{A8851A67-88BF-475D-B211-A3CFCBFE5DEE}">
-      <tableStyleElement type="wholeTable" dxfId="82"/>
-      <tableStyleElement type="headerRow" dxfId="81"/>
-      <tableStyleElement type="firstColumn" dxfId="80"/>
-      <tableStyleElement type="firstRowStripe" dxfId="79"/>
-      <tableStyleElement type="secondRowStripe" dxfId="78"/>
+      <tableStyleElement type="wholeTable" dxfId="142"/>
+      <tableStyleElement type="headerRow" dxfId="141"/>
+      <tableStyleElement type="firstColumn" dxfId="140"/>
+      <tableStyleElement type="firstRowStripe" dxfId="139"/>
+      <tableStyleElement type="secondRowStripe" dxfId="138"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -3586,8 +4240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5027446F-BBDF-4A57-AA45-BC7D0EB64201}">
   <dimension ref="A1:Y67"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -3610,13 +4264,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
@@ -3647,36 +4301,36 @@
         <v>71</v>
       </c>
       <c r="E4" s="33"/>
-      <c r="G4" s="141" t="s">
+      <c r="G4" s="160" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="141"/>
-      <c r="I4" s="141"/>
+      <c r="H4" s="160"/>
+      <c r="I4" s="160"/>
       <c r="J4" s="6"/>
-      <c r="K4" s="141" t="s">
+      <c r="K4" s="160" t="s">
         <v>29</v>
       </c>
-      <c r="L4" s="141"/>
-      <c r="M4" s="141"/>
-      <c r="O4" s="141" t="s">
+      <c r="L4" s="160"/>
+      <c r="M4" s="160"/>
+      <c r="O4" s="160" t="s">
         <v>30</v>
       </c>
-      <c r="P4" s="141"/>
-      <c r="Q4" s="141"/>
-      <c r="S4" s="138" t="s">
+      <c r="P4" s="160"/>
+      <c r="Q4" s="160"/>
+      <c r="S4" s="157" t="s">
         <v>38</v>
       </c>
-      <c r="T4" s="139"/>
-      <c r="U4" s="140"/>
-      <c r="W4" s="138" t="s">
+      <c r="T4" s="158"/>
+      <c r="U4" s="159"/>
+      <c r="W4" s="157" t="s">
         <v>70</v>
       </c>
-      <c r="X4" s="139"/>
-      <c r="Y4" s="140"/>
+      <c r="X4" s="158"/>
+      <c r="Y4" s="159"/>
     </row>
     <row r="5" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="137" t="s">
+      <c r="A6" s="135" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="50" t="s">
@@ -3715,27 +4369,27 @@
       <c r="Q6" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="S6" s="126" t="s">
+      <c r="S6" s="124" t="s">
         <v>22</v>
       </c>
-      <c r="T6" s="127" t="s">
+      <c r="T6" s="125" t="s">
         <v>25</v>
       </c>
-      <c r="U6" s="128" t="s">
+      <c r="U6" s="126" t="s">
         <v>23</v>
       </c>
-      <c r="W6" s="126" t="s">
+      <c r="W6" s="124" t="s">
         <v>22</v>
       </c>
-      <c r="X6" s="127" t="s">
+      <c r="X6" s="125" t="s">
         <v>25</v>
       </c>
-      <c r="Y6" s="128" t="s">
+      <c r="Y6" s="126" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="86"/>
+      <c r="A7" s="84"/>
       <c r="B7" s="24"/>
       <c r="C7" s="52"/>
       <c r="D7" s="29"/>
@@ -3750,19 +4404,19 @@
       <c r="O7" s="16"/>
       <c r="P7" s="5"/>
       <c r="Q7" s="17"/>
-      <c r="S7" s="129" t="s">
+      <c r="S7" s="127" t="s">
         <v>31</v>
       </c>
       <c r="T7" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="U7" s="85"/>
-      <c r="W7" s="95"/>
+      <c r="U7" s="83"/>
+      <c r="W7" s="93"/>
       <c r="X7" s="5"/>
-      <c r="Y7" s="96"/>
+      <c r="Y7" s="94"/>
     </row>
     <row r="8" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="61" t="s">
+      <c r="A8" s="60" t="s">
         <v>40</v>
       </c>
       <c r="B8" s="40"/>
@@ -3791,23 +4445,23 @@
       <c r="O8" s="47"/>
       <c r="P8" s="48"/>
       <c r="Q8" s="49"/>
-      <c r="S8" s="130" t="s">
+      <c r="S8" s="128" t="s">
         <v>33</v>
       </c>
       <c r="T8" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="U8" s="85"/>
-      <c r="W8" s="84"/>
+      <c r="U8" s="83"/>
+      <c r="W8" s="82"/>
       <c r="X8" s="4"/>
-      <c r="Y8" s="85"/>
+      <c r="Y8" s="83"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" s="62" t="s">
+      <c r="A9" s="61" t="s">
         <v>41</v>
       </c>
       <c r="B9" s="25"/>
-      <c r="C9" s="54"/>
+      <c r="C9" s="53"/>
       <c r="D9" s="30"/>
       <c r="E9" s="35"/>
       <c r="G9" s="9" t="s">
@@ -3832,19 +4486,19 @@
       <c r="O9" s="9"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="10"/>
-      <c r="S9" s="84"/>
+      <c r="S9" s="82"/>
       <c r="T9" s="4"/>
-      <c r="U9" s="85"/>
-      <c r="W9" s="84"/>
+      <c r="U9" s="83"/>
+      <c r="W9" s="82"/>
       <c r="X9" s="4"/>
-      <c r="Y9" s="85"/>
+      <c r="Y9" s="83"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10" s="62" t="s">
+      <c r="A10" s="61" t="s">
         <v>42</v>
       </c>
       <c r="B10" s="25"/>
-      <c r="C10" s="54"/>
+      <c r="C10" s="53"/>
       <c r="D10" s="30"/>
       <c r="E10" s="35"/>
       <c r="G10" s="9" t="s">
@@ -3869,19 +4523,19 @@
       <c r="O10" s="9"/>
       <c r="P10" s="4"/>
       <c r="Q10" s="10"/>
-      <c r="S10" s="84"/>
+      <c r="S10" s="82"/>
       <c r="T10" s="4"/>
-      <c r="U10" s="85"/>
-      <c r="W10" s="84"/>
+      <c r="U10" s="83"/>
+      <c r="W10" s="82"/>
       <c r="X10" s="4"/>
-      <c r="Y10" s="85"/>
+      <c r="Y10" s="83"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A11" s="62" t="s">
+      <c r="A11" s="61" t="s">
         <v>43</v>
       </c>
       <c r="B11" s="25"/>
-      <c r="C11" s="54"/>
+      <c r="C11" s="53"/>
       <c r="D11" s="30"/>
       <c r="E11" s="35"/>
       <c r="G11" s="9" t="s">
@@ -3906,19 +4560,19 @@
       <c r="O11" s="9"/>
       <c r="P11" s="4"/>
       <c r="Q11" s="10"/>
-      <c r="S11" s="129"/>
+      <c r="S11" s="127"/>
       <c r="T11" s="44"/>
-      <c r="U11" s="131"/>
-      <c r="W11" s="84"/>
+      <c r="U11" s="129"/>
+      <c r="W11" s="82"/>
       <c r="X11" s="4"/>
-      <c r="Y11" s="85"/>
+      <c r="Y11" s="83"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12" s="62" t="s">
+      <c r="A12" s="61" t="s">
         <v>44</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="54"/>
+      <c r="C12" s="53"/>
       <c r="D12" s="30"/>
       <c r="E12" s="35"/>
       <c r="G12" s="9" t="s">
@@ -3943,19 +4597,19 @@
       <c r="Q12" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="S12" s="84"/>
+      <c r="S12" s="82"/>
       <c r="T12" s="4"/>
-      <c r="U12" s="85"/>
-      <c r="W12" s="84"/>
+      <c r="U12" s="83"/>
+      <c r="W12" s="82"/>
       <c r="X12" s="4"/>
-      <c r="Y12" s="85"/>
+      <c r="Y12" s="83"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A13" s="63" t="s">
+      <c r="A13" s="62" t="s">
         <v>47</v>
       </c>
       <c r="B13" s="26"/>
-      <c r="C13" s="54"/>
+      <c r="C13" s="53"/>
       <c r="D13" s="30"/>
       <c r="E13" s="35"/>
       <c r="G13" s="16" t="s">
@@ -3986,15 +4640,15 @@
       <c r="Q13" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="S13" s="132"/>
+      <c r="S13" s="130"/>
       <c r="T13" s="48"/>
-      <c r="U13" s="133"/>
-      <c r="W13" s="84"/>
+      <c r="U13" s="131"/>
+      <c r="W13" s="82"/>
       <c r="X13" s="4"/>
-      <c r="Y13" s="85"/>
+      <c r="Y13" s="83"/>
     </row>
     <row r="14" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="61" t="s">
+      <c r="A14" s="60" t="s">
         <v>48</v>
       </c>
       <c r="B14" s="40"/>
@@ -4029,19 +4683,19 @@
       <c r="Q14" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="S14" s="129"/>
+      <c r="S14" s="127"/>
       <c r="T14" s="44"/>
-      <c r="U14" s="131"/>
-      <c r="W14" s="132"/>
+      <c r="U14" s="129"/>
+      <c r="W14" s="130"/>
       <c r="X14" s="48"/>
-      <c r="Y14" s="133"/>
+      <c r="Y14" s="131"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A15" s="64" t="s">
+      <c r="A15" s="63" t="s">
         <v>51</v>
       </c>
       <c r="B15" s="27"/>
-      <c r="C15" s="54"/>
+      <c r="C15" s="53"/>
       <c r="D15" s="30"/>
       <c r="E15" s="35"/>
       <c r="G15" s="14" t="s">
@@ -4072,19 +4726,19 @@
       <c r="Q15" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="S15" s="130"/>
+      <c r="S15" s="128"/>
       <c r="T15" s="15"/>
-      <c r="U15" s="85"/>
-      <c r="W15" s="84"/>
+      <c r="U15" s="83"/>
+      <c r="W15" s="82"/>
       <c r="X15" s="4"/>
-      <c r="Y15" s="85"/>
+      <c r="Y15" s="83"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16" s="62" t="s">
+      <c r="A16" s="61" t="s">
         <v>49</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="54"/>
+      <c r="C16" s="53"/>
       <c r="D16" s="30"/>
       <c r="E16" s="35"/>
       <c r="G16" s="9" t="s">
@@ -4115,19 +4769,19 @@
       <c r="Q16" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="S16" s="84"/>
+      <c r="S16" s="82"/>
       <c r="T16" s="4"/>
-      <c r="U16" s="85"/>
-      <c r="W16" s="84"/>
+      <c r="U16" s="83"/>
+      <c r="W16" s="82"/>
       <c r="X16" s="4"/>
-      <c r="Y16" s="85"/>
+      <c r="Y16" s="83"/>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A17" s="62" t="s">
+      <c r="A17" s="61" t="s">
         <v>50</v>
       </c>
       <c r="B17" s="25"/>
-      <c r="C17" s="54"/>
+      <c r="C17" s="53"/>
       <c r="D17" s="30"/>
       <c r="E17" s="35"/>
       <c r="G17" s="9" t="s">
@@ -4158,19 +4812,19 @@
       <c r="Q17" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="S17" s="84"/>
+      <c r="S17" s="82"/>
       <c r="T17" s="4"/>
-      <c r="U17" s="85"/>
-      <c r="W17" s="84"/>
+      <c r="U17" s="83"/>
+      <c r="W17" s="82"/>
       <c r="X17" s="4"/>
-      <c r="Y17" s="85"/>
+      <c r="Y17" s="83"/>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A18" s="62" t="s">
+      <c r="A18" s="61" t="s">
         <v>45</v>
       </c>
       <c r="B18" s="25"/>
-      <c r="C18" s="54"/>
+      <c r="C18" s="53"/>
       <c r="D18" s="30"/>
       <c r="E18" s="35"/>
       <c r="G18" s="9" t="s">
@@ -4201,19 +4855,19 @@
       <c r="Q18" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="S18" s="84"/>
+      <c r="S18" s="82"/>
       <c r="T18" s="4"/>
-      <c r="U18" s="85"/>
-      <c r="W18" s="84"/>
+      <c r="U18" s="83"/>
+      <c r="W18" s="82"/>
       <c r="X18" s="4"/>
-      <c r="Y18" s="85"/>
+      <c r="Y18" s="83"/>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A19" s="62" t="s">
+      <c r="A19" s="61" t="s">
         <v>46</v>
       </c>
       <c r="B19" s="25"/>
-      <c r="C19" s="54"/>
+      <c r="C19" s="53"/>
       <c r="D19" s="30"/>
       <c r="E19" s="35"/>
       <c r="G19" s="9" t="s">
@@ -4238,15 +4892,15 @@
       <c r="O19" s="9"/>
       <c r="P19" s="4"/>
       <c r="Q19" s="10"/>
-      <c r="S19" s="84"/>
+      <c r="S19" s="82"/>
       <c r="T19" s="4"/>
-      <c r="U19" s="85"/>
-      <c r="W19" s="84"/>
+      <c r="U19" s="83"/>
+      <c r="W19" s="82"/>
       <c r="X19" s="4"/>
-      <c r="Y19" s="85"/>
+      <c r="Y19" s="83"/>
     </row>
     <row r="20" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="61" t="s">
+      <c r="A20" s="60" t="s">
         <v>2</v>
       </c>
       <c r="B20" s="40"/>
@@ -4281,19 +4935,19 @@
       <c r="Q20" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="S20" s="132"/>
+      <c r="S20" s="130"/>
       <c r="T20" s="48"/>
-      <c r="U20" s="133"/>
-      <c r="W20" s="132"/>
+      <c r="U20" s="131"/>
+      <c r="W20" s="130"/>
       <c r="X20" s="48"/>
-      <c r="Y20" s="133"/>
+      <c r="Y20" s="131"/>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A21" s="62" t="s">
+      <c r="A21" s="61" t="s">
         <v>1</v>
       </c>
       <c r="B21" s="25"/>
-      <c r="C21" s="54"/>
+      <c r="C21" s="53"/>
       <c r="D21" s="30"/>
       <c r="E21" s="35"/>
       <c r="G21" s="9" t="s">
@@ -4318,19 +4972,19 @@
       <c r="O21" s="9"/>
       <c r="P21" s="4"/>
       <c r="Q21" s="10"/>
-      <c r="S21" s="84"/>
+      <c r="S21" s="82"/>
       <c r="T21" s="4"/>
-      <c r="U21" s="85"/>
-      <c r="W21" s="84"/>
+      <c r="U21" s="83"/>
+      <c r="W21" s="82"/>
       <c r="X21" s="4"/>
-      <c r="Y21" s="85"/>
+      <c r="Y21" s="83"/>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A22" s="63" t="s">
+      <c r="A22" s="62" t="s">
         <v>0</v>
       </c>
       <c r="B22" s="25"/>
-      <c r="C22" s="54"/>
+      <c r="C22" s="53"/>
       <c r="D22" s="30"/>
       <c r="E22" s="35"/>
       <c r="G22" s="16" t="s">
@@ -4355,19 +5009,19 @@
       <c r="Q22" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="S22" s="95"/>
+      <c r="S22" s="93"/>
       <c r="T22" s="5"/>
-      <c r="U22" s="96"/>
-      <c r="W22" s="95"/>
+      <c r="U22" s="94"/>
+      <c r="W22" s="93"/>
       <c r="X22" s="5"/>
-      <c r="Y22" s="96"/>
+      <c r="Y22" s="94"/>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A23" s="63" t="s">
+      <c r="A23" s="62" t="s">
         <v>60</v>
       </c>
       <c r="B23" s="25"/>
-      <c r="C23" s="54"/>
+      <c r="C23" s="53"/>
       <c r="D23" s="30"/>
       <c r="E23" s="35"/>
       <c r="G23" s="16" t="s">
@@ -4386,21 +5040,21 @@
       <c r="O23" s="16"/>
       <c r="P23" s="5"/>
       <c r="Q23" s="10"/>
-      <c r="S23" s="95"/>
+      <c r="S23" s="93"/>
       <c r="T23" s="5"/>
-      <c r="U23" s="96"/>
-      <c r="W23" s="95"/>
+      <c r="U23" s="94"/>
+      <c r="W23" s="93"/>
       <c r="X23" s="5"/>
-      <c r="Y23" s="96"/>
+      <c r="Y23" s="94"/>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A24" s="63" t="s">
+      <c r="A24" s="62" t="s">
         <v>61</v>
       </c>
       <c r="B24" s="26"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="66"/>
-      <c r="E24" s="67"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="64"/>
+      <c r="E24" s="65"/>
       <c r="G24" s="16" t="s">
         <v>61</v>
       </c>
@@ -4417,21 +5071,21 @@
       <c r="O24" s="16"/>
       <c r="P24" s="5"/>
       <c r="Q24" s="10"/>
-      <c r="S24" s="95"/>
+      <c r="S24" s="93"/>
       <c r="T24" s="5"/>
-      <c r="U24" s="96"/>
-      <c r="W24" s="95"/>
+      <c r="U24" s="94"/>
+      <c r="W24" s="93"/>
       <c r="X24" s="5"/>
-      <c r="Y24" s="96"/>
+      <c r="Y24" s="94"/>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A25" s="63" t="s">
+      <c r="A25" s="62" t="s">
         <v>62</v>
       </c>
       <c r="B25" s="26"/>
-      <c r="C25" s="65"/>
-      <c r="D25" s="66"/>
-      <c r="E25" s="67"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="64"/>
+      <c r="E25" s="65"/>
       <c r="G25" s="16" t="s">
         <v>62</v>
       </c>
@@ -4460,17 +5114,17 @@
       <c r="Q25" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="S25" s="95"/>
+      <c r="S25" s="93"/>
       <c r="T25" s="5"/>
-      <c r="U25" s="96"/>
-      <c r="W25" s="95"/>
+      <c r="U25" s="94"/>
+      <c r="W25" s="93"/>
       <c r="X25" s="5"/>
-      <c r="Y25" s="96"/>
+      <c r="Y25" s="94"/>
     </row>
     <row r="26" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="21"/>
       <c r="B26" s="28"/>
-      <c r="C26" s="55"/>
+      <c r="C26" s="54"/>
       <c r="D26" s="31"/>
       <c r="E26" s="36"/>
       <c r="G26" s="11"/>
@@ -4483,12 +5137,12 @@
       <c r="O26" s="11"/>
       <c r="P26" s="12"/>
       <c r="Q26" s="13"/>
-      <c r="S26" s="100"/>
-      <c r="T26" s="101"/>
-      <c r="U26" s="102"/>
-      <c r="W26" s="100"/>
-      <c r="X26" s="101"/>
-      <c r="Y26" s="102"/>
+      <c r="S26" s="98"/>
+      <c r="T26" s="99"/>
+      <c r="U26" s="100"/>
+      <c r="W26" s="98"/>
+      <c r="X26" s="99"/>
+      <c r="Y26" s="100"/>
     </row>
     <row r="27" spans="1:25" ht="7.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G27" s="7"/>
@@ -4501,80 +5155,80 @@
       <c r="O27" s="7"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="8"/>
-      <c r="S27" s="56"/>
+      <c r="S27" s="55"/>
       <c r="T27" s="2"/>
-      <c r="U27" s="57"/>
-      <c r="V27" s="58"/>
-      <c r="W27" s="56"/>
+      <c r="U27" s="56"/>
+      <c r="V27" s="57"/>
+      <c r="W27" s="55"/>
       <c r="X27" s="1"/>
       <c r="Y27" s="8"/>
     </row>
     <row r="28" spans="1:25" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="134" t="s">
+      <c r="A28" s="132" t="s">
         <v>78</v>
       </c>
-      <c r="B28" s="68"/>
-      <c r="C28" s="68"/>
-      <c r="D28" s="68"/>
-      <c r="E28" s="68"/>
-      <c r="G28" s="154" t="s">
+      <c r="B28" s="66"/>
+      <c r="C28" s="66"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="66"/>
+      <c r="G28" s="139" t="s">
         <v>27</v>
       </c>
-      <c r="H28" s="155"/>
-      <c r="I28" s="156"/>
-      <c r="J28" s="69"/>
-      <c r="K28" s="154" t="s">
+      <c r="H28" s="140"/>
+      <c r="I28" s="141"/>
+      <c r="J28" s="67"/>
+      <c r="K28" s="139" t="s">
         <v>29</v>
       </c>
-      <c r="L28" s="155"/>
-      <c r="M28" s="156"/>
-      <c r="N28" s="69"/>
-      <c r="O28" s="157" t="s">
+      <c r="L28" s="140"/>
+      <c r="M28" s="141"/>
+      <c r="N28" s="67"/>
+      <c r="O28" s="142" t="s">
         <v>30</v>
       </c>
-      <c r="P28" s="158"/>
-      <c r="Q28" s="159"/>
-      <c r="R28" s="70"/>
-      <c r="S28" s="142" t="s">
+      <c r="P28" s="143"/>
+      <c r="Q28" s="144"/>
+      <c r="R28" s="68"/>
+      <c r="S28" s="145" t="s">
         <v>79</v>
       </c>
-      <c r="T28" s="143"/>
-      <c r="U28" s="144"/>
-      <c r="V28" s="70"/>
-      <c r="W28" s="142" t="s">
+      <c r="T28" s="146"/>
+      <c r="U28" s="147"/>
+      <c r="V28" s="68"/>
+      <c r="W28" s="145" t="s">
         <v>79</v>
       </c>
-      <c r="X28" s="143"/>
-      <c r="Y28" s="144"/>
+      <c r="X28" s="146"/>
+      <c r="Y28" s="147"/>
     </row>
     <row r="29" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="71" t="s">
+      <c r="A29" s="69" t="s">
         <v>94</v>
       </c>
-      <c r="B29" s="72" t="s">
+      <c r="B29" s="70" t="s">
         <v>95</v>
       </c>
-      <c r="C29" s="73"/>
-      <c r="D29" s="73"/>
-      <c r="E29" s="72" t="s">
+      <c r="C29" s="71"/>
+      <c r="D29" s="71"/>
+      <c r="E29" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="G29" s="74" t="s">
+      <c r="G29" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="H29" s="75" t="s">
+      <c r="H29" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="I29" s="76" t="s">
+      <c r="I29" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="K29" s="74" t="s">
+      <c r="K29" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="L29" s="75" t="s">
+      <c r="L29" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="M29" s="76" t="s">
+      <c r="M29" s="74" t="s">
         <v>23</v>
       </c>
       <c r="O29" s="18" t="s">
@@ -4586,35 +5240,35 @@
       <c r="Q29" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="S29" s="77" t="s">
+      <c r="S29" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="T29" s="78" t="s">
+      <c r="T29" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="U29" s="79" t="s">
+      <c r="U29" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="W29" s="77" t="s">
+      <c r="W29" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="X29" s="78" t="s">
+      <c r="X29" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="Y29" s="79" t="s">
+      <c r="Y29" s="77" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="80" t="s">
+      <c r="A30" s="78" t="s">
         <v>83</v>
       </c>
-      <c r="B30" s="81" t="s">
+      <c r="B30" s="79" t="s">
         <v>80</v>
       </c>
-      <c r="C30" s="82"/>
-      <c r="D30" s="81"/>
-      <c r="E30" s="83" t="s">
+      <c r="C30" s="80"/>
+      <c r="D30" s="79"/>
+      <c r="E30" s="81" t="s">
         <v>81</v>
       </c>
       <c r="G30" s="16"/>
@@ -4626,21 +5280,21 @@
       <c r="O30" s="16"/>
       <c r="P30" s="5"/>
       <c r="Q30" s="10"/>
-      <c r="S30" s="84"/>
+      <c r="S30" s="82"/>
       <c r="T30" s="4"/>
-      <c r="U30" s="85"/>
-      <c r="W30" s="84"/>
+      <c r="U30" s="83"/>
+      <c r="W30" s="82"/>
       <c r="X30" s="4"/>
-      <c r="Y30" s="85"/>
+      <c r="Y30" s="83"/>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A31" s="86" t="s">
+      <c r="A31" s="84" t="s">
         <v>84</v>
       </c>
-      <c r="B31" s="87"/>
-      <c r="C31" s="88"/>
-      <c r="D31" s="87"/>
-      <c r="E31" s="83"/>
+      <c r="B31" s="85"/>
+      <c r="C31" s="86"/>
+      <c r="D31" s="85"/>
+      <c r="E31" s="81"/>
       <c r="G31" s="16"/>
       <c r="H31" s="5"/>
       <c r="I31" s="10"/>
@@ -4650,21 +5304,21 @@
       <c r="O31" s="16"/>
       <c r="P31" s="5"/>
       <c r="Q31" s="10"/>
-      <c r="S31" s="84"/>
+      <c r="S31" s="82"/>
       <c r="T31" s="4"/>
-      <c r="U31" s="85"/>
-      <c r="W31" s="84"/>
+      <c r="U31" s="83"/>
+      <c r="W31" s="82"/>
       <c r="X31" s="4"/>
-      <c r="Y31" s="85"/>
+      <c r="Y31" s="83"/>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B32" s="89"/>
-      <c r="C32" s="90"/>
-      <c r="D32" s="89"/>
-      <c r="E32" s="91"/>
+      <c r="B32" s="87"/>
+      <c r="C32" s="88"/>
+      <c r="D32" s="87"/>
+      <c r="E32" s="89"/>
       <c r="G32" s="16"/>
       <c r="H32" s="5"/>
       <c r="I32" s="10"/>
@@ -4674,21 +5328,21 @@
       <c r="O32" s="16"/>
       <c r="P32" s="5"/>
       <c r="Q32" s="10"/>
-      <c r="S32" s="84"/>
+      <c r="S32" s="82"/>
       <c r="T32" s="4"/>
-      <c r="U32" s="85"/>
-      <c r="W32" s="84"/>
+      <c r="U32" s="83"/>
+      <c r="W32" s="82"/>
       <c r="X32" s="4"/>
-      <c r="Y32" s="85"/>
+      <c r="Y32" s="83"/>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B33" s="89"/>
-      <c r="C33" s="90"/>
-      <c r="D33" s="89"/>
-      <c r="E33" s="91"/>
+      <c r="B33" s="87"/>
+      <c r="C33" s="88"/>
+      <c r="D33" s="87"/>
+      <c r="E33" s="89"/>
       <c r="G33" s="16"/>
       <c r="H33" s="5"/>
       <c r="I33" s="10"/>
@@ -4698,21 +5352,21 @@
       <c r="O33" s="16"/>
       <c r="P33" s="5"/>
       <c r="Q33" s="10"/>
-      <c r="S33" s="84"/>
+      <c r="S33" s="82"/>
       <c r="T33" s="4"/>
-      <c r="U33" s="85"/>
-      <c r="W33" s="84"/>
+      <c r="U33" s="83"/>
+      <c r="W33" s="82"/>
       <c r="X33" s="4"/>
-      <c r="Y33" s="85"/>
+      <c r="Y33" s="83"/>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B34" s="89"/>
-      <c r="C34" s="90"/>
-      <c r="D34" s="89"/>
-      <c r="E34" s="91"/>
+      <c r="B34" s="87"/>
+      <c r="C34" s="88"/>
+      <c r="D34" s="87"/>
+      <c r="E34" s="89"/>
       <c r="G34" s="16"/>
       <c r="H34" s="5"/>
       <c r="I34" s="10"/>
@@ -4722,21 +5376,21 @@
       <c r="O34" s="16"/>
       <c r="P34" s="5"/>
       <c r="Q34" s="10"/>
-      <c r="S34" s="84"/>
+      <c r="S34" s="82"/>
       <c r="T34" s="4"/>
-      <c r="U34" s="85"/>
-      <c r="W34" s="84"/>
+      <c r="U34" s="83"/>
+      <c r="W34" s="82"/>
       <c r="X34" s="4"/>
-      <c r="Y34" s="85"/>
+      <c r="Y34" s="83"/>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B35" s="89"/>
-      <c r="C35" s="90"/>
-      <c r="D35" s="89"/>
-      <c r="E35" s="91"/>
+      <c r="B35" s="87"/>
+      <c r="C35" s="88"/>
+      <c r="D35" s="87"/>
+      <c r="E35" s="89"/>
       <c r="G35" s="16"/>
       <c r="H35" s="5"/>
       <c r="I35" s="10"/>
@@ -4746,21 +5400,21 @@
       <c r="O35" s="16"/>
       <c r="P35" s="5"/>
       <c r="Q35" s="10"/>
-      <c r="S35" s="84"/>
+      <c r="S35" s="82"/>
       <c r="T35" s="4"/>
-      <c r="U35" s="85"/>
-      <c r="W35" s="84"/>
+      <c r="U35" s="83"/>
+      <c r="W35" s="82"/>
       <c r="X35" s="4"/>
-      <c r="Y35" s="85"/>
+      <c r="Y35" s="83"/>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B36" s="89"/>
-      <c r="C36" s="90"/>
-      <c r="D36" s="89"/>
-      <c r="E36" s="91"/>
+      <c r="B36" s="87"/>
+      <c r="C36" s="88"/>
+      <c r="D36" s="87"/>
+      <c r="E36" s="89"/>
       <c r="G36" s="16"/>
       <c r="H36" s="5"/>
       <c r="I36" s="10"/>
@@ -4770,21 +5424,21 @@
       <c r="O36" s="16"/>
       <c r="P36" s="5"/>
       <c r="Q36" s="10"/>
-      <c r="S36" s="84"/>
+      <c r="S36" s="82"/>
       <c r="T36" s="4"/>
-      <c r="U36" s="85"/>
-      <c r="W36" s="84"/>
+      <c r="U36" s="83"/>
+      <c r="W36" s="82"/>
       <c r="X36" s="4"/>
-      <c r="Y36" s="85"/>
+      <c r="Y36" s="83"/>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B37" s="89"/>
-      <c r="C37" s="90"/>
-      <c r="D37" s="89"/>
-      <c r="E37" s="91"/>
+      <c r="B37" s="87"/>
+      <c r="C37" s="88"/>
+      <c r="D37" s="87"/>
+      <c r="E37" s="89"/>
       <c r="G37" s="16"/>
       <c r="H37" s="5"/>
       <c r="I37" s="10"/>
@@ -4794,21 +5448,21 @@
       <c r="O37" s="16"/>
       <c r="P37" s="5"/>
       <c r="Q37" s="10"/>
-      <c r="S37" s="84"/>
+      <c r="S37" s="82"/>
       <c r="T37" s="4"/>
-      <c r="U37" s="85"/>
-      <c r="W37" s="84"/>
+      <c r="U37" s="83"/>
+      <c r="W37" s="82"/>
       <c r="X37" s="4"/>
-      <c r="Y37" s="85"/>
+      <c r="Y37" s="83"/>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B38" s="89"/>
-      <c r="C38" s="90"/>
-      <c r="D38" s="89"/>
-      <c r="E38" s="91"/>
+      <c r="B38" s="87"/>
+      <c r="C38" s="88"/>
+      <c r="D38" s="87"/>
+      <c r="E38" s="89"/>
       <c r="G38" s="16"/>
       <c r="H38" s="5"/>
       <c r="I38" s="10"/>
@@ -4818,21 +5472,21 @@
       <c r="O38" s="16"/>
       <c r="P38" s="5"/>
       <c r="Q38" s="10"/>
-      <c r="S38" s="84"/>
+      <c r="S38" s="82"/>
       <c r="T38" s="4"/>
-      <c r="U38" s="85"/>
-      <c r="W38" s="84"/>
+      <c r="U38" s="83"/>
+      <c r="W38" s="82"/>
       <c r="X38" s="4"/>
-      <c r="Y38" s="85"/>
+      <c r="Y38" s="83"/>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B39" s="89"/>
-      <c r="C39" s="90"/>
-      <c r="D39" s="89"/>
-      <c r="E39" s="91"/>
+      <c r="B39" s="87"/>
+      <c r="C39" s="88"/>
+      <c r="D39" s="87"/>
+      <c r="E39" s="89"/>
       <c r="G39" s="16"/>
       <c r="H39" s="5"/>
       <c r="I39" s="10"/>
@@ -4842,21 +5496,21 @@
       <c r="O39" s="16"/>
       <c r="P39" s="5"/>
       <c r="Q39" s="10"/>
-      <c r="S39" s="84"/>
+      <c r="S39" s="82"/>
       <c r="T39" s="4"/>
-      <c r="U39" s="85"/>
-      <c r="W39" s="84"/>
+      <c r="U39" s="83"/>
+      <c r="W39" s="82"/>
       <c r="X39" s="4"/>
-      <c r="Y39" s="85"/>
+      <c r="Y39" s="83"/>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B40" s="92"/>
-      <c r="C40" s="93"/>
-      <c r="D40" s="92"/>
-      <c r="E40" s="94"/>
+      <c r="B40" s="90"/>
+      <c r="C40" s="91"/>
+      <c r="D40" s="90"/>
+      <c r="E40" s="92"/>
       <c r="G40" s="16"/>
       <c r="H40" s="5"/>
       <c r="I40" s="17"/>
@@ -4866,19 +5520,19 @@
       <c r="O40" s="16"/>
       <c r="P40" s="5"/>
       <c r="Q40" s="17"/>
-      <c r="S40" s="95"/>
+      <c r="S40" s="93"/>
       <c r="T40" s="5"/>
-      <c r="U40" s="96"/>
-      <c r="W40" s="95"/>
+      <c r="U40" s="94"/>
+      <c r="W40" s="93"/>
       <c r="X40" s="5"/>
-      <c r="Y40" s="96"/>
+      <c r="Y40" s="94"/>
     </row>
     <row r="41" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3"/>
-      <c r="B41" s="92"/>
-      <c r="C41" s="98"/>
-      <c r="D41" s="97"/>
-      <c r="E41" s="99"/>
+      <c r="B41" s="90"/>
+      <c r="C41" s="96"/>
+      <c r="D41" s="95"/>
+      <c r="E41" s="97"/>
       <c r="G41" s="16"/>
       <c r="H41" s="5"/>
       <c r="I41" s="17"/>
@@ -4888,23 +5542,23 @@
       <c r="O41" s="16"/>
       <c r="P41" s="5"/>
       <c r="Q41" s="17"/>
-      <c r="S41" s="100"/>
-      <c r="T41" s="101"/>
-      <c r="U41" s="102"/>
-      <c r="W41" s="100"/>
-      <c r="X41" s="101"/>
-      <c r="Y41" s="102"/>
+      <c r="S41" s="98"/>
+      <c r="T41" s="99"/>
+      <c r="U41" s="100"/>
+      <c r="W41" s="98"/>
+      <c r="X41" s="99"/>
+      <c r="Y41" s="100"/>
     </row>
     <row r="42" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="103" t="s">
+      <c r="A42" s="101" t="s">
         <v>82</v>
       </c>
-      <c r="B42" s="135" t="s">
+      <c r="B42" s="133" t="s">
         <v>95</v>
       </c>
-      <c r="C42" s="73"/>
-      <c r="D42" s="73"/>
-      <c r="E42" s="73" t="s">
+      <c r="C42" s="71"/>
+      <c r="D42" s="71"/>
+      <c r="E42" s="71" t="s">
         <v>37</v>
       </c>
       <c r="G42" s="18" t="s">
@@ -4925,42 +5579,42 @@
       <c r="M42" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="O42" s="104" t="s">
+      <c r="O42" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="P42" s="105" t="s">
+      <c r="P42" s="103" t="s">
         <v>25</v>
       </c>
-      <c r="Q42" s="106" t="s">
+      <c r="Q42" s="104" t="s">
         <v>23</v>
       </c>
-      <c r="S42" s="107" t="s">
+      <c r="S42" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="T42" s="108" t="s">
+      <c r="T42" s="106" t="s">
         <v>25</v>
       </c>
-      <c r="U42" s="109" t="s">
+      <c r="U42" s="107" t="s">
         <v>23</v>
       </c>
-      <c r="W42" s="107" t="s">
+      <c r="W42" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="X42" s="108" t="s">
+      <c r="X42" s="106" t="s">
         <v>25</v>
       </c>
-      <c r="Y42" s="109" t="s">
+      <c r="Y42" s="107" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="43" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="80" t="s">
+      <c r="A43" s="78" t="s">
         <v>84</v>
       </c>
-      <c r="B43" s="81"/>
-      <c r="C43" s="82"/>
-      <c r="D43" s="81"/>
-      <c r="E43" s="83"/>
+      <c r="B43" s="79"/>
+      <c r="C43" s="80"/>
+      <c r="D43" s="79"/>
+      <c r="E43" s="81"/>
       <c r="G43" s="9"/>
       <c r="H43" s="4"/>
       <c r="I43" s="10"/>
@@ -4969,22 +5623,22 @@
       <c r="M43" s="10"/>
       <c r="O43" s="14"/>
       <c r="P43" s="15"/>
-      <c r="Q43" s="110"/>
-      <c r="S43" s="111"/>
-      <c r="T43" s="112"/>
-      <c r="U43" s="113"/>
-      <c r="W43" s="111"/>
-      <c r="X43" s="112"/>
-      <c r="Y43" s="113"/>
+      <c r="Q43" s="108"/>
+      <c r="S43" s="109"/>
+      <c r="T43" s="110"/>
+      <c r="U43" s="111"/>
+      <c r="W43" s="109"/>
+      <c r="X43" s="110"/>
+      <c r="Y43" s="111"/>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B44" s="89"/>
-      <c r="C44" s="90"/>
-      <c r="D44" s="89"/>
-      <c r="E44" s="91"/>
+      <c r="B44" s="87"/>
+      <c r="C44" s="88"/>
+      <c r="D44" s="87"/>
+      <c r="E44" s="89"/>
       <c r="G44" s="9"/>
       <c r="H44" s="4"/>
       <c r="I44" s="10"/>
@@ -4994,21 +5648,21 @@
       <c r="O44" s="9"/>
       <c r="P44" s="4"/>
       <c r="Q44" s="10"/>
-      <c r="S44" s="84"/>
+      <c r="S44" s="82"/>
       <c r="T44" s="4"/>
-      <c r="U44" s="85"/>
-      <c r="W44" s="84"/>
+      <c r="U44" s="83"/>
+      <c r="W44" s="82"/>
       <c r="X44" s="4"/>
-      <c r="Y44" s="85"/>
+      <c r="Y44" s="83"/>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B45" s="89"/>
-      <c r="C45" s="90"/>
-      <c r="D45" s="89"/>
-      <c r="E45" s="91"/>
+      <c r="B45" s="87"/>
+      <c r="C45" s="88"/>
+      <c r="D45" s="87"/>
+      <c r="E45" s="89"/>
       <c r="G45" s="9"/>
       <c r="H45" s="4"/>
       <c r="I45" s="10"/>
@@ -5018,21 +5672,21 @@
       <c r="O45" s="9"/>
       <c r="P45" s="4"/>
       <c r="Q45" s="10"/>
-      <c r="S45" s="84"/>
+      <c r="S45" s="82"/>
       <c r="T45" s="4"/>
-      <c r="U45" s="85"/>
-      <c r="W45" s="84"/>
+      <c r="U45" s="83"/>
+      <c r="W45" s="82"/>
       <c r="X45" s="4"/>
-      <c r="Y45" s="85"/>
+      <c r="Y45" s="83"/>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B46" s="89"/>
-      <c r="C46" s="90"/>
-      <c r="D46" s="89"/>
-      <c r="E46" s="91"/>
+      <c r="B46" s="87"/>
+      <c r="C46" s="88"/>
+      <c r="D46" s="87"/>
+      <c r="E46" s="89"/>
       <c r="G46" s="9"/>
       <c r="H46" s="4"/>
       <c r="I46" s="10"/>
@@ -5042,21 +5696,21 @@
       <c r="O46" s="9"/>
       <c r="P46" s="4"/>
       <c r="Q46" s="10"/>
-      <c r="S46" s="84"/>
+      <c r="S46" s="82"/>
       <c r="T46" s="4"/>
-      <c r="U46" s="85"/>
-      <c r="W46" s="84"/>
+      <c r="U46" s="83"/>
+      <c r="W46" s="82"/>
       <c r="X46" s="4"/>
-      <c r="Y46" s="85"/>
+      <c r="Y46" s="83"/>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B47" s="89"/>
-      <c r="C47" s="90"/>
-      <c r="D47" s="89"/>
-      <c r="E47" s="91"/>
+      <c r="B47" s="87"/>
+      <c r="C47" s="88"/>
+      <c r="D47" s="87"/>
+      <c r="E47" s="89"/>
       <c r="G47" s="9"/>
       <c r="H47" s="4"/>
       <c r="I47" s="10"/>
@@ -5066,21 +5720,21 @@
       <c r="O47" s="9"/>
       <c r="P47" s="4"/>
       <c r="Q47" s="10"/>
-      <c r="S47" s="84"/>
+      <c r="S47" s="82"/>
       <c r="T47" s="4"/>
-      <c r="U47" s="85"/>
-      <c r="W47" s="84"/>
+      <c r="U47" s="83"/>
+      <c r="W47" s="82"/>
       <c r="X47" s="4"/>
-      <c r="Y47" s="85"/>
+      <c r="Y47" s="83"/>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B48" s="89"/>
-      <c r="C48" s="90"/>
-      <c r="D48" s="89"/>
-      <c r="E48" s="91"/>
+      <c r="B48" s="87"/>
+      <c r="C48" s="88"/>
+      <c r="D48" s="87"/>
+      <c r="E48" s="89"/>
       <c r="G48" s="9"/>
       <c r="H48" s="4"/>
       <c r="I48" s="10"/>
@@ -5090,21 +5744,21 @@
       <c r="O48" s="9"/>
       <c r="P48" s="4"/>
       <c r="Q48" s="10"/>
-      <c r="S48" s="84"/>
+      <c r="S48" s="82"/>
       <c r="T48" s="4"/>
-      <c r="U48" s="85"/>
-      <c r="W48" s="84"/>
+      <c r="U48" s="83"/>
+      <c r="W48" s="82"/>
       <c r="X48" s="4"/>
-      <c r="Y48" s="85"/>
+      <c r="Y48" s="83"/>
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B49" s="89"/>
-      <c r="C49" s="90"/>
-      <c r="D49" s="89"/>
-      <c r="E49" s="91"/>
+      <c r="B49" s="87"/>
+      <c r="C49" s="88"/>
+      <c r="D49" s="87"/>
+      <c r="E49" s="89"/>
       <c r="G49" s="9"/>
       <c r="H49" s="4"/>
       <c r="I49" s="10"/>
@@ -5114,21 +5768,21 @@
       <c r="O49" s="9"/>
       <c r="P49" s="4"/>
       <c r="Q49" s="10"/>
-      <c r="S49" s="84"/>
+      <c r="S49" s="82"/>
       <c r="T49" s="4"/>
-      <c r="U49" s="85"/>
-      <c r="W49" s="84"/>
+      <c r="U49" s="83"/>
+      <c r="W49" s="82"/>
       <c r="X49" s="4"/>
-      <c r="Y49" s="85"/>
+      <c r="Y49" s="83"/>
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B50" s="89"/>
-      <c r="C50" s="90"/>
-      <c r="D50" s="89"/>
-      <c r="E50" s="91"/>
+      <c r="B50" s="87"/>
+      <c r="C50" s="88"/>
+      <c r="D50" s="87"/>
+      <c r="E50" s="89"/>
       <c r="G50" s="9"/>
       <c r="H50" s="4"/>
       <c r="I50" s="10"/>
@@ -5138,21 +5792,21 @@
       <c r="O50" s="9"/>
       <c r="P50" s="4"/>
       <c r="Q50" s="10"/>
-      <c r="S50" s="84"/>
+      <c r="S50" s="82"/>
       <c r="T50" s="4"/>
-      <c r="U50" s="85"/>
-      <c r="W50" s="84"/>
+      <c r="U50" s="83"/>
+      <c r="W50" s="82"/>
       <c r="X50" s="4"/>
-      <c r="Y50" s="85"/>
+      <c r="Y50" s="83"/>
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B51" s="89"/>
-      <c r="C51" s="90"/>
-      <c r="D51" s="89"/>
-      <c r="E51" s="91"/>
+      <c r="B51" s="87"/>
+      <c r="C51" s="88"/>
+      <c r="D51" s="87"/>
+      <c r="E51" s="89"/>
       <c r="G51" s="9"/>
       <c r="H51" s="4"/>
       <c r="I51" s="10"/>
@@ -5162,21 +5816,21 @@
       <c r="O51" s="9"/>
       <c r="P51" s="4"/>
       <c r="Q51" s="10"/>
-      <c r="S51" s="84"/>
+      <c r="S51" s="82"/>
       <c r="T51" s="4"/>
-      <c r="U51" s="85"/>
-      <c r="W51" s="84"/>
+      <c r="U51" s="83"/>
+      <c r="W51" s="82"/>
       <c r="X51" s="4"/>
-      <c r="Y51" s="85"/>
+      <c r="Y51" s="83"/>
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B52" s="92"/>
-      <c r="C52" s="93"/>
-      <c r="D52" s="92"/>
-      <c r="E52" s="94"/>
+      <c r="B52" s="90"/>
+      <c r="C52" s="91"/>
+      <c r="D52" s="90"/>
+      <c r="E52" s="92"/>
       <c r="G52" s="16"/>
       <c r="H52" s="5"/>
       <c r="I52" s="17"/>
@@ -5186,19 +5840,19 @@
       <c r="O52" s="16"/>
       <c r="P52" s="5"/>
       <c r="Q52" s="17"/>
-      <c r="S52" s="95"/>
+      <c r="S52" s="93"/>
       <c r="T52" s="5"/>
-      <c r="U52" s="96"/>
-      <c r="W52" s="95"/>
+      <c r="U52" s="94"/>
+      <c r="W52" s="93"/>
       <c r="X52" s="5"/>
-      <c r="Y52" s="96"/>
+      <c r="Y52" s="94"/>
     </row>
     <row r="53" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="114"/>
-      <c r="B53" s="97"/>
-      <c r="C53" s="98"/>
-      <c r="D53" s="97"/>
-      <c r="E53" s="99"/>
+      <c r="A53" s="112"/>
+      <c r="B53" s="95"/>
+      <c r="C53" s="96"/>
+      <c r="D53" s="95"/>
+      <c r="E53" s="97"/>
       <c r="G53" s="11"/>
       <c r="H53" s="12"/>
       <c r="I53" s="13"/>
@@ -5208,12 +5862,12 @@
       <c r="O53" s="11"/>
       <c r="P53" s="12"/>
       <c r="Q53" s="13"/>
-      <c r="S53" s="100"/>
-      <c r="T53" s="101"/>
-      <c r="U53" s="102"/>
-      <c r="W53" s="100"/>
-      <c r="X53" s="101"/>
-      <c r="Y53" s="102"/>
+      <c r="S53" s="98"/>
+      <c r="T53" s="99"/>
+      <c r="U53" s="100"/>
+      <c r="W53" s="98"/>
+      <c r="X53" s="99"/>
+      <c r="Y53" s="100"/>
     </row>
     <row r="54" spans="1:25" ht="9.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G54" s="7"/>
@@ -5228,15 +5882,15 @@
       <c r="Y54" s="8"/>
     </row>
     <row r="55" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="136" t="s">
+      <c r="A55" s="134" t="s">
         <v>28</v>
       </c>
-      <c r="B55" s="115" t="s">
+      <c r="B55" s="113" t="s">
         <v>36</v>
       </c>
-      <c r="C55" s="115"/>
-      <c r="D55" s="115"/>
-      <c r="E55" s="115" t="s">
+      <c r="C55" s="113"/>
+      <c r="D55" s="113"/>
+      <c r="E55" s="113" t="s">
         <v>37</v>
       </c>
       <c r="G55" s="18" t="s">
@@ -5266,35 +5920,35 @@
       <c r="Q55" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="S55" s="126" t="s">
+      <c r="S55" s="124" t="s">
         <v>22</v>
       </c>
-      <c r="T55" s="127" t="s">
+      <c r="T55" s="125" t="s">
         <v>25</v>
       </c>
-      <c r="U55" s="128" t="s">
+      <c r="U55" s="126" t="s">
         <v>23</v>
       </c>
-      <c r="W55" s="126" t="s">
+      <c r="W55" s="124" t="s">
         <v>22</v>
       </c>
-      <c r="X55" s="127" t="s">
+      <c r="X55" s="125" t="s">
         <v>25</v>
       </c>
-      <c r="Y55" s="128" t="s">
+      <c r="Y55" s="126" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="56" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="124" t="s">
+      <c r="A56" s="122" t="s">
         <v>52</v>
       </c>
-      <c r="B56" s="145" t="s">
+      <c r="B56" s="154" t="s">
         <v>53</v>
       </c>
-      <c r="C56" s="146"/>
-      <c r="D56" s="147"/>
-      <c r="E56" s="118"/>
+      <c r="C56" s="155"/>
+      <c r="D56" s="156"/>
+      <c r="E56" s="116"/>
       <c r="G56" s="9"/>
       <c r="H56" s="4"/>
       <c r="I56" s="10"/>
@@ -5304,15 +5958,15 @@
       <c r="O56" s="9"/>
       <c r="P56" s="4"/>
       <c r="Q56" s="10"/>
-      <c r="S56" s="84"/>
+      <c r="S56" s="82"/>
       <c r="T56" s="4"/>
-      <c r="U56" s="85"/>
-      <c r="W56" s="84"/>
+      <c r="U56" s="83"/>
+      <c r="W56" s="82"/>
       <c r="X56" s="4"/>
-      <c r="Y56" s="85"/>
+      <c r="Y56" s="83"/>
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A57" s="125" t="s">
+      <c r="A57" s="123" t="s">
         <v>54</v>
       </c>
       <c r="B57" s="148" t="s">
@@ -5320,7 +5974,7 @@
       </c>
       <c r="C57" s="149"/>
       <c r="D57" s="150"/>
-      <c r="E57" s="119"/>
+      <c r="E57" s="117"/>
       <c r="G57" s="9"/>
       <c r="H57" s="4"/>
       <c r="I57" s="10"/>
@@ -5330,15 +5984,15 @@
       <c r="O57" s="9"/>
       <c r="P57" s="4"/>
       <c r="Q57" s="10"/>
-      <c r="S57" s="84"/>
+      <c r="S57" s="82"/>
       <c r="T57" s="4"/>
-      <c r="U57" s="85"/>
-      <c r="W57" s="84"/>
+      <c r="U57" s="83"/>
+      <c r="W57" s="82"/>
       <c r="X57" s="4"/>
-      <c r="Y57" s="85"/>
+      <c r="Y57" s="83"/>
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A58" s="125" t="s">
+      <c r="A58" s="123" t="s">
         <v>56</v>
       </c>
       <c r="B58" s="148" t="s">
@@ -5346,7 +6000,7 @@
       </c>
       <c r="C58" s="149"/>
       <c r="D58" s="150"/>
-      <c r="E58" s="119"/>
+      <c r="E58" s="117"/>
       <c r="G58" s="9"/>
       <c r="H58" s="4"/>
       <c r="I58" s="10"/>
@@ -5356,15 +6010,15 @@
       <c r="O58" s="9"/>
       <c r="P58" s="4"/>
       <c r="Q58" s="10"/>
-      <c r="S58" s="84"/>
+      <c r="S58" s="82"/>
       <c r="T58" s="4"/>
-      <c r="U58" s="85"/>
-      <c r="W58" s="84"/>
+      <c r="U58" s="83"/>
+      <c r="W58" s="82"/>
       <c r="X58" s="4"/>
-      <c r="Y58" s="85"/>
+      <c r="Y58" s="83"/>
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A59" s="125" t="s">
+      <c r="A59" s="123" t="s">
         <v>58</v>
       </c>
       <c r="B59" s="148" t="s">
@@ -5372,7 +6026,7 @@
       </c>
       <c r="C59" s="149"/>
       <c r="D59" s="150"/>
-      <c r="E59" s="119"/>
+      <c r="E59" s="117"/>
       <c r="G59" s="9"/>
       <c r="H59" s="4"/>
       <c r="I59" s="10"/>
@@ -5382,19 +6036,19 @@
       <c r="O59" s="9"/>
       <c r="P59" s="4"/>
       <c r="Q59" s="10"/>
-      <c r="S59" s="84"/>
+      <c r="S59" s="82"/>
       <c r="T59" s="4"/>
-      <c r="U59" s="85"/>
-      <c r="W59" s="84"/>
+      <c r="U59" s="83"/>
+      <c r="W59" s="82"/>
       <c r="X59" s="4"/>
-      <c r="Y59" s="85"/>
+      <c r="Y59" s="83"/>
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A60" s="125"/>
+      <c r="A60" s="123"/>
       <c r="B60" s="148"/>
       <c r="C60" s="149"/>
       <c r="D60" s="150"/>
-      <c r="E60" s="119"/>
+      <c r="E60" s="117"/>
       <c r="G60" s="9"/>
       <c r="H60" s="4"/>
       <c r="I60" s="10"/>
@@ -5404,19 +6058,19 @@
       <c r="O60" s="9"/>
       <c r="P60" s="4"/>
       <c r="Q60" s="10"/>
-      <c r="S60" s="84"/>
+      <c r="S60" s="82"/>
       <c r="T60" s="4"/>
-      <c r="U60" s="85"/>
-      <c r="W60" s="84"/>
+      <c r="U60" s="83"/>
+      <c r="W60" s="82"/>
       <c r="X60" s="4"/>
-      <c r="Y60" s="85"/>
+      <c r="Y60" s="83"/>
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A61" s="116"/>
-      <c r="B61" s="121"/>
-      <c r="C61" s="122"/>
-      <c r="D61" s="123"/>
-      <c r="E61" s="119"/>
+      <c r="A61" s="114"/>
+      <c r="B61" s="119"/>
+      <c r="C61" s="120"/>
+      <c r="D61" s="121"/>
+      <c r="E61" s="117"/>
       <c r="G61" s="9"/>
       <c r="H61" s="4"/>
       <c r="I61" s="10"/>
@@ -5426,19 +6080,19 @@
       <c r="O61" s="9"/>
       <c r="P61" s="4"/>
       <c r="Q61" s="10"/>
-      <c r="S61" s="84"/>
+      <c r="S61" s="82"/>
       <c r="T61" s="4"/>
-      <c r="U61" s="85"/>
-      <c r="W61" s="84"/>
+      <c r="U61" s="83"/>
+      <c r="W61" s="82"/>
       <c r="X61" s="4"/>
-      <c r="Y61" s="85"/>
+      <c r="Y61" s="83"/>
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A62" s="116"/>
-      <c r="B62" s="160"/>
-      <c r="C62" s="161"/>
-      <c r="D62" s="162"/>
-      <c r="E62" s="119"/>
+      <c r="A62" s="114"/>
+      <c r="B62" s="151"/>
+      <c r="C62" s="152"/>
+      <c r="D62" s="153"/>
+      <c r="E62" s="117"/>
       <c r="G62" s="9"/>
       <c r="H62" s="4"/>
       <c r="I62" s="10"/>
@@ -5448,19 +6102,19 @@
       <c r="O62" s="9"/>
       <c r="P62" s="4"/>
       <c r="Q62" s="10"/>
-      <c r="S62" s="84"/>
+      <c r="S62" s="82"/>
       <c r="T62" s="4"/>
-      <c r="U62" s="85"/>
-      <c r="W62" s="84"/>
+      <c r="U62" s="83"/>
+      <c r="W62" s="82"/>
       <c r="X62" s="4"/>
-      <c r="Y62" s="85"/>
+      <c r="Y62" s="83"/>
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A63" s="116"/>
-      <c r="B63" s="160"/>
-      <c r="C63" s="161"/>
-      <c r="D63" s="162"/>
-      <c r="E63" s="119"/>
+      <c r="A63" s="114"/>
+      <c r="B63" s="151"/>
+      <c r="C63" s="152"/>
+      <c r="D63" s="153"/>
+      <c r="E63" s="117"/>
       <c r="G63" s="9"/>
       <c r="H63" s="4"/>
       <c r="I63" s="10"/>
@@ -5470,19 +6124,19 @@
       <c r="O63" s="9"/>
       <c r="P63" s="4"/>
       <c r="Q63" s="10"/>
-      <c r="S63" s="84"/>
+      <c r="S63" s="82"/>
       <c r="T63" s="4"/>
-      <c r="U63" s="85"/>
-      <c r="W63" s="84"/>
+      <c r="U63" s="83"/>
+      <c r="W63" s="82"/>
       <c r="X63" s="4"/>
-      <c r="Y63" s="85"/>
+      <c r="Y63" s="83"/>
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A64" s="116"/>
-      <c r="B64" s="160"/>
-      <c r="C64" s="161"/>
-      <c r="D64" s="162"/>
-      <c r="E64" s="119"/>
+      <c r="A64" s="114"/>
+      <c r="B64" s="151"/>
+      <c r="C64" s="152"/>
+      <c r="D64" s="153"/>
+      <c r="E64" s="117"/>
       <c r="G64" s="9"/>
       <c r="H64" s="4"/>
       <c r="I64" s="10"/>
@@ -5492,19 +6146,19 @@
       <c r="O64" s="9"/>
       <c r="P64" s="4"/>
       <c r="Q64" s="10"/>
-      <c r="S64" s="84"/>
+      <c r="S64" s="82"/>
       <c r="T64" s="4"/>
-      <c r="U64" s="85"/>
-      <c r="W64" s="84"/>
+      <c r="U64" s="83"/>
+      <c r="W64" s="82"/>
       <c r="X64" s="4"/>
-      <c r="Y64" s="85"/>
+      <c r="Y64" s="83"/>
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A65" s="116"/>
-      <c r="B65" s="160"/>
-      <c r="C65" s="161"/>
-      <c r="D65" s="162"/>
-      <c r="E65" s="119"/>
+      <c r="A65" s="114"/>
+      <c r="B65" s="151"/>
+      <c r="C65" s="152"/>
+      <c r="D65" s="153"/>
+      <c r="E65" s="117"/>
       <c r="G65" s="9"/>
       <c r="H65" s="4"/>
       <c r="I65" s="10"/>
@@ -5514,19 +6168,19 @@
       <c r="O65" s="9"/>
       <c r="P65" s="4"/>
       <c r="Q65" s="10"/>
-      <c r="S65" s="84"/>
+      <c r="S65" s="82"/>
       <c r="T65" s="4"/>
-      <c r="U65" s="85"/>
-      <c r="W65" s="84"/>
+      <c r="U65" s="83"/>
+      <c r="W65" s="82"/>
       <c r="X65" s="4"/>
-      <c r="Y65" s="85"/>
+      <c r="Y65" s="83"/>
     </row>
     <row r="66" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="117"/>
-      <c r="B66" s="151"/>
-      <c r="C66" s="152"/>
-      <c r="D66" s="153"/>
-      <c r="E66" s="120"/>
+      <c r="A66" s="115"/>
+      <c r="B66" s="136"/>
+      <c r="C66" s="137"/>
+      <c r="D66" s="138"/>
+      <c r="E66" s="118"/>
       <c r="G66" s="11"/>
       <c r="H66" s="12"/>
       <c r="I66" s="13"/>
@@ -5536,18 +6190,18 @@
       <c r="O66" s="11"/>
       <c r="P66" s="12"/>
       <c r="Q66" s="13"/>
-      <c r="S66" s="100"/>
-      <c r="T66" s="101"/>
-      <c r="U66" s="102"/>
-      <c r="W66" s="100"/>
-      <c r="X66" s="101"/>
-      <c r="Y66" s="102"/>
+      <c r="S66" s="98"/>
+      <c r="T66" s="99"/>
+      <c r="U66" s="100"/>
+      <c r="W66" s="98"/>
+      <c r="X66" s="99"/>
+      <c r="Y66" s="100"/>
     </row>
     <row r="67" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection insertColumns="0" insertRows="0"/>
   <protectedRanges>
-    <protectedRange sqref="A26:H26 A13:P25 Q13:X26 A12:X12 V11:X11 A11:T11 A9:X10 A8:Y8 A7:X7 J26:P26" name="Contact Fields"/>
+    <protectedRange sqref="A26:H26 Q13:X26 V11:X11 A7:X7 J26:P26 D8:Y8 A22:B25 D22:P25 A21:P21 D12:X12 D11:T11 A8:B20 D9:X10 D13:P20" name="Contact Fields"/>
     <protectedRange sqref="I26" name="Questionnaire"/>
     <protectedRange sqref="A1" name="Titel"/>
     <protectedRange sqref="A56:Y66" name="Contact Fields_1_2"/>
@@ -5555,6 +6209,16 @@
     <protectedRange sqref="N30:N41 J30:J41 R30:R41 A43:R53 A30:F41" name="Questionnaire_3"/>
   </protectedRanges>
   <mergeCells count="20">
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="W28:Y28"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
     <mergeCell ref="B66:D66"/>
     <mergeCell ref="G28:I28"/>
     <mergeCell ref="K28:M28"/>
@@ -5565,338 +6229,464 @@
     <mergeCell ref="B63:D63"/>
     <mergeCell ref="B64:D64"/>
     <mergeCell ref="B65:D65"/>
-    <mergeCell ref="W28:Y28"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="O4:Q4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A27:AG27 A26:H26 B13:P25 B8:F8 J8 Q16:AG26 N8:R8 Q13:R15 V13:AG15 B9:AG12 U7:U8 V8 Z8:AG8 J26:P26">
-    <cfRule type="expression" dxfId="77" priority="101">
+  <conditionalFormatting sqref="A27:AG27 A26:H26 J8 Q16:AG26 N8:R8 V13:AG15 U7:U8 V8 Z8:AG8 J26:P26 D8:F8 B22:B25 D22:P25 B21:P21 D16:P20 B8:B20 D9:AG12 D13:R15">
+    <cfRule type="expression" dxfId="137" priority="161">
       <formula>$C7="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="102">
+    <cfRule type="expression" dxfId="136" priority="162">
       <formula>$D7="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:A25">
-    <cfRule type="expression" dxfId="75" priority="89">
+    <cfRule type="expression" dxfId="135" priority="149">
       <formula>$C8="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="90">
+    <cfRule type="expression" dxfId="134" priority="150">
       <formula>$D8="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26">
-    <cfRule type="expression" dxfId="73" priority="83">
+    <cfRule type="expression" dxfId="133" priority="143">
       <formula>$C26="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="84">
+    <cfRule type="expression" dxfId="132" priority="144">
       <formula>$D26="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7:I8">
-    <cfRule type="expression" dxfId="71" priority="81">
+    <cfRule type="expression" dxfId="131" priority="141">
       <formula>$C7="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="82">
+    <cfRule type="expression" dxfId="130" priority="142">
       <formula>$D7="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8:I8">
-    <cfRule type="expression" dxfId="69" priority="105">
+    <cfRule type="expression" dxfId="129" priority="165">
       <formula>$C13="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="106">
+    <cfRule type="expression" dxfId="128" priority="166">
       <formula>$D13="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S13:U13">
-    <cfRule type="expression" dxfId="67" priority="75">
+    <cfRule type="expression" dxfId="127" priority="135">
       <formula>$C13="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="76">
+    <cfRule type="expression" dxfId="126" priority="136">
       <formula>$D13="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S14:U15">
-    <cfRule type="expression" dxfId="65" priority="67">
+    <cfRule type="expression" dxfId="125" priority="127">
       <formula>$C14="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="68">
+    <cfRule type="expression" dxfId="124" priority="128">
       <formula>$D14="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S7:T8">
-    <cfRule type="expression" dxfId="63" priority="65">
+    <cfRule type="expression" dxfId="123" priority="125">
       <formula>$C7="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="66">
+    <cfRule type="expression" dxfId="122" priority="126">
       <formula>$D7="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W8:Y8">
-    <cfRule type="expression" dxfId="61" priority="61">
+    <cfRule type="expression" dxfId="121" priority="121">
       <formula>$C8="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="62">
+    <cfRule type="expression" dxfId="120" priority="122">
       <formula>$D8="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:M8">
-    <cfRule type="expression" dxfId="59" priority="57">
+    <cfRule type="expression" dxfId="119" priority="117">
       <formula>$C8="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="58">
+    <cfRule type="expression" dxfId="118" priority="118">
       <formula>$D8="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:M8">
-    <cfRule type="expression" dxfId="57" priority="59">
+    <cfRule type="expression" dxfId="117" priority="119">
       <formula>$C13="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="60">
+    <cfRule type="expression" dxfId="116" priority="120">
       <formula>$D13="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7:M7">
-    <cfRule type="expression" dxfId="55" priority="55">
+    <cfRule type="expression" dxfId="115" priority="115">
       <formula>$C7="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="56">
+    <cfRule type="expression" dxfId="114" priority="116">
       <formula>$D7="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54:AE54">
-    <cfRule type="expression" dxfId="53" priority="47">
+    <cfRule type="expression" dxfId="113" priority="107">
       <formula>$C54="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="48">
+    <cfRule type="expression" dxfId="112" priority="108">
       <formula>$D54="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W56:Y66">
-    <cfRule type="expression" dxfId="51" priority="45">
+    <cfRule type="expression" dxfId="111" priority="105">
       <formula>$C56="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="46">
+    <cfRule type="expression" dxfId="110" priority="106">
       <formula>$D56="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S56:U66">
-    <cfRule type="expression" dxfId="49" priority="43">
+    <cfRule type="expression" dxfId="109" priority="103">
       <formula>$C56="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="44">
+    <cfRule type="expression" dxfId="108" priority="104">
       <formula>$D56="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O56:Q66">
-    <cfRule type="expression" dxfId="47" priority="41">
+    <cfRule type="expression" dxfId="107" priority="101">
       <formula>$C56="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="42">
+    <cfRule type="expression" dxfId="106" priority="102">
       <formula>$D56="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K56:M66">
-    <cfRule type="expression" dxfId="45" priority="39">
+    <cfRule type="expression" dxfId="105" priority="99">
       <formula>$C56="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="40">
+    <cfRule type="expression" dxfId="104" priority="100">
       <formula>$D56="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G56:I66">
-    <cfRule type="expression" dxfId="43" priority="37">
+    <cfRule type="expression" dxfId="103" priority="97">
       <formula>$C56="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="38">
+    <cfRule type="expression" dxfId="102" priority="98">
       <formula>$D56="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z30:AG35 A42:Y42 AA36:AG53 B35 A35:A37 C35:F37 A29:AG29 A28:F28 J28 N28 R28:AG28 A30:F34 A38:F41 N30:N41 J30:J41 R30:R41 A43:R53">
-    <cfRule type="expression" dxfId="41" priority="35">
+    <cfRule type="expression" dxfId="101" priority="95">
       <formula>$C28="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="36">
+    <cfRule type="expression" dxfId="100" priority="96">
       <formula>$D28="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36:B37">
-    <cfRule type="expression" dxfId="39" priority="33">
+    <cfRule type="expression" dxfId="99" priority="93">
       <formula>$C35="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="34">
+    <cfRule type="expression" dxfId="98" priority="94">
       <formula>$D35="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O30:O31">
-    <cfRule type="expression" dxfId="37" priority="31">
+    <cfRule type="expression" dxfId="97" priority="91">
       <formula>$C30="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="32">
+    <cfRule type="expression" dxfId="96" priority="92">
       <formula>$D30="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P30:Q31">
-    <cfRule type="expression" dxfId="35" priority="29">
+    <cfRule type="expression" dxfId="95" priority="89">
       <formula>$C30="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="30">
+    <cfRule type="expression" dxfId="94" priority="90">
       <formula>$D30="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O32:O41">
-    <cfRule type="expression" dxfId="33" priority="27">
+    <cfRule type="expression" dxfId="93" priority="87">
       <formula>$C32="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="28">
+    <cfRule type="expression" dxfId="92" priority="88">
       <formula>$D32="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P32:Q41">
-    <cfRule type="expression" dxfId="31" priority="25">
+    <cfRule type="expression" dxfId="91" priority="85">
       <formula>$C32="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="26">
+    <cfRule type="expression" dxfId="90" priority="86">
       <formula>$D32="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K30:K31">
-    <cfRule type="expression" dxfId="29" priority="23">
+    <cfRule type="expression" dxfId="89" priority="83">
       <formula>$C30="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="24">
+    <cfRule type="expression" dxfId="88" priority="84">
       <formula>$D30="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L30:M31">
-    <cfRule type="expression" dxfId="27" priority="21">
+    <cfRule type="expression" dxfId="87" priority="81">
       <formula>$C30="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="22">
+    <cfRule type="expression" dxfId="86" priority="82">
       <formula>$D30="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K32:K41">
-    <cfRule type="expression" dxfId="25" priority="19">
+    <cfRule type="expression" dxfId="85" priority="79">
       <formula>$C32="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="20">
+    <cfRule type="expression" dxfId="84" priority="80">
       <formula>$D32="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L32:M41">
-    <cfRule type="expression" dxfId="23" priority="17">
+    <cfRule type="expression" dxfId="83" priority="77">
       <formula>$C32="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="18">
+    <cfRule type="expression" dxfId="82" priority="78">
       <formula>$D32="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30:G31">
-    <cfRule type="expression" dxfId="21" priority="15">
+    <cfRule type="expression" dxfId="81" priority="75">
       <formula>$C30="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="16">
+    <cfRule type="expression" dxfId="80" priority="76">
       <formula>$D30="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30:I31">
-    <cfRule type="expression" dxfId="19" priority="13">
+    <cfRule type="expression" dxfId="79" priority="73">
       <formula>$C30="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="14">
+    <cfRule type="expression" dxfId="78" priority="74">
       <formula>$D30="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32:G41">
-    <cfRule type="expression" dxfId="17" priority="11">
+    <cfRule type="expression" dxfId="77" priority="71">
       <formula>$C32="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="12">
+    <cfRule type="expression" dxfId="76" priority="72">
       <formula>$D32="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32:I41">
-    <cfRule type="expression" dxfId="15" priority="9">
+    <cfRule type="expression" dxfId="75" priority="69">
       <formula>$C32="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="10">
+    <cfRule type="expression" dxfId="74" priority="70">
       <formula>$D32="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S30:Y40">
-    <cfRule type="expression" dxfId="13" priority="7">
+    <cfRule type="expression" dxfId="73" priority="67">
       <formula>$C30="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="8">
+    <cfRule type="expression" dxfId="72" priority="68">
       <formula>$D30="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S43:Y52">
-    <cfRule type="expression" dxfId="11" priority="5">
+    <cfRule type="expression" dxfId="71" priority="65">
       <formula>$C43="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="6">
+    <cfRule type="expression" dxfId="70" priority="66">
       <formula>$D43="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S53:Y53">
-    <cfRule type="expression" dxfId="9" priority="3">
+    <cfRule type="expression" dxfId="69" priority="63">
       <formula>$C53="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="4">
+    <cfRule type="expression" dxfId="68" priority="64">
       <formula>$D53="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S41:Y41">
-    <cfRule type="expression" dxfId="7" priority="1">
+    <cfRule type="expression" dxfId="67" priority="61">
       <formula>$C41="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="2">
+    <cfRule type="expression" dxfId="66" priority="62">
       <formula>$D41="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z50">
-    <cfRule type="expression" dxfId="5" priority="49">
+    <cfRule type="expression" dxfId="65" priority="109">
       <formula>$C54="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="50">
+    <cfRule type="expression" dxfId="64" priority="110">
       <formula>$D54="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z36 Z41:Z48">
-    <cfRule type="expression" dxfId="3" priority="51">
+    <cfRule type="expression" dxfId="63" priority="111">
       <formula>$C39="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="52">
+    <cfRule type="expression" dxfId="62" priority="112">
       <formula>$D39="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z49 Z37:Z40">
-    <cfRule type="expression" dxfId="1" priority="53">
+    <cfRule type="expression" dxfId="61" priority="113">
       <formula>$C41="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="54">
+    <cfRule type="expression" dxfId="60" priority="114">
       <formula>$D41="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25">
+    <cfRule type="expression" dxfId="57" priority="57">
+      <formula>$C25="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="56" priority="58">
+      <formula>$D25="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24">
+    <cfRule type="expression" dxfId="55" priority="55">
+      <formula>$C24="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="54" priority="56">
+      <formula>$D24="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23">
+    <cfRule type="expression" dxfId="53" priority="53">
+      <formula>$C23="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="52" priority="54">
+      <formula>$D23="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20">
+    <cfRule type="expression" dxfId="49" priority="49">
+      <formula>$C20="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="48" priority="50">
+      <formula>$D20="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22">
+    <cfRule type="expression" dxfId="45" priority="45">
+      <formula>$C22="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="44" priority="46">
+      <formula>$D22="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19">
+    <cfRule type="expression" dxfId="43" priority="43">
+      <formula>$C19="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="44">
+      <formula>$D19="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18">
+    <cfRule type="expression" dxfId="41" priority="41">
+      <formula>$C18="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="42">
+      <formula>$D18="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8">
+    <cfRule type="expression" dxfId="19" priority="19">
+      <formula>$C8="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="20">
+      <formula>$D8="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17">
+    <cfRule type="expression" dxfId="17" priority="17">
+      <formula>$C17="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="18">
+      <formula>$D17="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16">
+    <cfRule type="expression" dxfId="15" priority="15">
+      <formula>$C16="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="16">
+      <formula>$D16="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="expression" dxfId="13" priority="13">
+      <formula>$C15="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="14">
+      <formula>$D15="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14">
+    <cfRule type="expression" dxfId="11" priority="11">
+      <formula>$C14="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="12">
+      <formula>$D14="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13">
+    <cfRule type="expression" dxfId="9" priority="9">
+      <formula>$C13="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="10">
+      <formula>$D13="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12">
+    <cfRule type="expression" dxfId="7" priority="7">
+      <formula>$C12="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="8">
+      <formula>$D12="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11">
+    <cfRule type="expression" dxfId="5" priority="5">
+      <formula>$C11="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="6">
+      <formula>$D11="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>$C10="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>$D10="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>$C9="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>$D9="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8 C43:D53 C30:D41" xr:uid="{800895DA-5639-438C-B977-CBBACBEDFF96}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C43:D53 C30:D41 C22:C25 D8 C8:C20" xr:uid="{800895DA-5639-438C-B977-CBBACBEDFF96}">
       <formula1>"x"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C26 D7 D9:D26" xr:uid="{25196C70-295C-43FF-A050-7D2EA327A7B4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:D7 D9:D26 C26 C21" xr:uid="{25196C70-295C-43FF-A050-7D2EA327A7B4}">
       <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I26 M7:M26 Q7:Q26 U7:U27 Y7:Y26 Y30:Y41 U30:U41 Q30:Q41 M30:M41 I30:I41 I43:I53 M43:M54 Q43:Q53 U43:U53 Y43:Y53 Y56:Y66 U56:U66 Q57:Q66 Q56 M56:M60 M62:M66 M61 I56:I66" xr:uid="{5905A3FA-A0A9-4ACB-AB03-F564AC49D5A8}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I26 M7:M26 Q7:Q26 U7:U27 Y7:Y26 Y30:Y41 U30:U41 Q30:Q41 M30:M41 I30:I41 I43:I53 M43:M54 Q43:Q53 U43:U53 Y43:Y53 Y56:Y66 U56:U66 Q56:Q66 M56:M66 I56:I66" xr:uid="{5905A3FA-A0A9-4ACB-AB03-F564AC49D5A8}">
       <formula1>"text,boolean,number,picklist,multiplicklist,lookup,date"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5907,18 +6697,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6131,14 +6921,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDAAE1C4-DB1B-4159-B8B9-55C0242E8521}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -6151,6 +6933,14 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="8f774076-1ef3-4740-8929-5969f04599b3"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/default-mappings-xlsx/visitreport/VisitReport_Mapping_Salesforce_DE.xlsx
+++ b/default-mappings-xlsx/visitreport/VisitReport_Mapping_Salesforce_DE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\visitreport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0770390E-3A5D-4D02-B9A3-84904BBA1FF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B70FD002-46F5-4AD3-A812-C577D40260A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32370" yWindow="3450" windowWidth="11370" windowHeight="12480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="660" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Specifications" sheetId="2" r:id="rId1"/>
@@ -1948,6 +1948,45 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1975,24 +2014,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2002,318 +2023,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="143">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
+  <dxfs count="117">
     <dxf>
       <font>
         <b val="0"/>
@@ -3620,11 +3334,11 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="snapADDY" pivot="0" count="5" xr9:uid="{A8851A67-88BF-475D-B211-A3CFCBFE5DEE}">
-      <tableStyleElement type="wholeTable" dxfId="142"/>
-      <tableStyleElement type="headerRow" dxfId="141"/>
-      <tableStyleElement type="firstColumn" dxfId="140"/>
-      <tableStyleElement type="firstRowStripe" dxfId="139"/>
-      <tableStyleElement type="secondRowStripe" dxfId="138"/>
+      <tableStyleElement type="wholeTable" dxfId="116"/>
+      <tableStyleElement type="headerRow" dxfId="115"/>
+      <tableStyleElement type="firstColumn" dxfId="114"/>
+      <tableStyleElement type="firstRowStripe" dxfId="113"/>
+      <tableStyleElement type="secondRowStripe" dxfId="112"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -4240,30 +3954,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5027446F-BBDF-4A57-AA45-BC7D0EB64201}">
   <dimension ref="A1:Y67"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.85546875" customWidth="1"/>
+    <col min="1" max="1" width="40.88671875" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="3.7109375" customWidth="1"/>
-    <col min="4" max="4" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="1.7109375" customWidth="1"/>
+    <col min="3" max="3" width="3.6640625" customWidth="1"/>
+    <col min="4" max="4" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="1.6640625" customWidth="1"/>
     <col min="7" max="9" width="15" customWidth="1"/>
-    <col min="10" max="10" width="1.7109375" customWidth="1"/>
+    <col min="10" max="10" width="1.6640625" customWidth="1"/>
     <col min="11" max="13" width="15" customWidth="1"/>
-    <col min="14" max="14" width="1.7109375" customWidth="1"/>
+    <col min="14" max="14" width="1.6640625" customWidth="1"/>
     <col min="15" max="17" width="15" customWidth="1"/>
-    <col min="18" max="18" width="1.7109375" customWidth="1"/>
+    <col min="18" max="18" width="1.6640625" customWidth="1"/>
     <col min="19" max="21" width="15" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="22" width="1.5703125" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="22" width="1.5546875" customWidth="1" outlineLevel="1"/>
     <col min="23" max="25" width="15" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="59" t="s">
         <v>39</v>
       </c>
@@ -4274,7 +3988,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:25" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:25" ht="21" x14ac:dyDescent="0.4">
       <c r="A2" s="22" t="s">
         <v>35</v>
       </c>
@@ -4285,11 +3999,11 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:25" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G3" s="39"/>
       <c r="K3" s="39"/>
     </row>
-    <row r="4" spans="1:25" ht="80.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" ht="77.400000000000006" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="23" t="s">
         <v>24</v>
       </c>
@@ -4301,35 +4015,35 @@
         <v>71</v>
       </c>
       <c r="E4" s="33"/>
-      <c r="G4" s="160" t="s">
+      <c r="G4" s="139" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="160"/>
-      <c r="I4" s="160"/>
+      <c r="H4" s="139"/>
+      <c r="I4" s="139"/>
       <c r="J4" s="6"/>
-      <c r="K4" s="160" t="s">
+      <c r="K4" s="139" t="s">
         <v>29</v>
       </c>
-      <c r="L4" s="160"/>
-      <c r="M4" s="160"/>
-      <c r="O4" s="160" t="s">
+      <c r="L4" s="139"/>
+      <c r="M4" s="139"/>
+      <c r="O4" s="139" t="s">
         <v>30</v>
       </c>
-      <c r="P4" s="160"/>
-      <c r="Q4" s="160"/>
-      <c r="S4" s="157" t="s">
+      <c r="P4" s="139"/>
+      <c r="Q4" s="139"/>
+      <c r="S4" s="136" t="s">
         <v>38</v>
       </c>
-      <c r="T4" s="158"/>
-      <c r="U4" s="159"/>
-      <c r="W4" s="157" t="s">
+      <c r="T4" s="137"/>
+      <c r="U4" s="138"/>
+      <c r="W4" s="136" t="s">
         <v>70</v>
       </c>
-      <c r="X4" s="158"/>
-      <c r="Y4" s="159"/>
+      <c r="X4" s="137"/>
+      <c r="Y4" s="138"/>
     </row>
-    <row r="5" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="1:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="135" t="s">
         <v>26</v>
       </c>
@@ -4388,7 +4102,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A7" s="84"/>
       <c r="B7" s="24"/>
       <c r="C7" s="52"/>
@@ -4415,7 +4129,7 @@
       <c r="X7" s="5"/>
       <c r="Y7" s="94"/>
     </row>
-    <row r="8" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="60" t="s">
         <v>40</v>
       </c>
@@ -4456,7 +4170,7 @@
       <c r="X8" s="4"/>
       <c r="Y8" s="83"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" s="61" t="s">
         <v>41</v>
       </c>
@@ -4493,7 +4207,7 @@
       <c r="X9" s="4"/>
       <c r="Y9" s="83"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" s="61" t="s">
         <v>42</v>
       </c>
@@ -4530,7 +4244,7 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="83"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" s="61" t="s">
         <v>43</v>
       </c>
@@ -4567,7 +4281,7 @@
       <c r="X11" s="4"/>
       <c r="Y11" s="83"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" s="61" t="s">
         <v>44</v>
       </c>
@@ -4604,7 +4318,7 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="83"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" s="62" t="s">
         <v>47</v>
       </c>
@@ -4647,7 +4361,7 @@
       <c r="X13" s="4"/>
       <c r="Y13" s="83"/>
     </row>
-    <row r="14" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="60" t="s">
         <v>48</v>
       </c>
@@ -4690,7 +4404,7 @@
       <c r="X14" s="48"/>
       <c r="Y14" s="131"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" s="63" t="s">
         <v>51</v>
       </c>
@@ -4733,7 +4447,7 @@
       <c r="X15" s="4"/>
       <c r="Y15" s="83"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" s="61" t="s">
         <v>49</v>
       </c>
@@ -4776,7 +4490,7 @@
       <c r="X16" s="4"/>
       <c r="Y16" s="83"/>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17" s="61" t="s">
         <v>50</v>
       </c>
@@ -4819,7 +4533,7 @@
       <c r="X17" s="4"/>
       <c r="Y17" s="83"/>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18" s="61" t="s">
         <v>45</v>
       </c>
@@ -4862,7 +4576,7 @@
       <c r="X18" s="4"/>
       <c r="Y18" s="83"/>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19" s="61" t="s">
         <v>46</v>
       </c>
@@ -4899,7 +4613,7 @@
       <c r="X19" s="4"/>
       <c r="Y19" s="83"/>
     </row>
-    <row r="20" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="60" t="s">
         <v>2</v>
       </c>
@@ -4942,7 +4656,7 @@
       <c r="X20" s="48"/>
       <c r="Y20" s="131"/>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21" s="61" t="s">
         <v>1</v>
       </c>
@@ -4979,7 +4693,7 @@
       <c r="X21" s="4"/>
       <c r="Y21" s="83"/>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22" s="62" t="s">
         <v>0</v>
       </c>
@@ -5016,7 +4730,7 @@
       <c r="X22" s="5"/>
       <c r="Y22" s="94"/>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A23" s="62" t="s">
         <v>60</v>
       </c>
@@ -5047,7 +4761,7 @@
       <c r="X23" s="5"/>
       <c r="Y23" s="94"/>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A24" s="62" t="s">
         <v>61</v>
       </c>
@@ -5078,7 +4792,7 @@
       <c r="X24" s="5"/>
       <c r="Y24" s="94"/>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A25" s="62" t="s">
         <v>62</v>
       </c>
@@ -5121,7 +4835,7 @@
       <c r="X25" s="5"/>
       <c r="Y25" s="94"/>
     </row>
-    <row r="26" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="21"/>
       <c r="B26" s="28"/>
       <c r="C26" s="54"/>
@@ -5144,7 +4858,7 @@
       <c r="X26" s="99"/>
       <c r="Y26" s="100"/>
     </row>
-    <row r="27" spans="1:25" ht="7.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:25" ht="7.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G27" s="7"/>
       <c r="H27" s="1"/>
       <c r="I27" s="8"/>
@@ -5163,7 +4877,7 @@
       <c r="X27" s="1"/>
       <c r="Y27" s="8"/>
     </row>
-    <row r="28" spans="1:25" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="132" t="s">
         <v>78</v>
       </c>
@@ -5171,37 +4885,37 @@
       <c r="C28" s="66"/>
       <c r="D28" s="66"/>
       <c r="E28" s="66"/>
-      <c r="G28" s="139" t="s">
+      <c r="G28" s="152" t="s">
         <v>27</v>
       </c>
-      <c r="H28" s="140"/>
-      <c r="I28" s="141"/>
+      <c r="H28" s="153"/>
+      <c r="I28" s="154"/>
       <c r="J28" s="67"/>
-      <c r="K28" s="139" t="s">
+      <c r="K28" s="152" t="s">
         <v>29</v>
       </c>
-      <c r="L28" s="140"/>
-      <c r="M28" s="141"/>
+      <c r="L28" s="153"/>
+      <c r="M28" s="154"/>
       <c r="N28" s="67"/>
-      <c r="O28" s="142" t="s">
+      <c r="O28" s="155" t="s">
         <v>30</v>
       </c>
-      <c r="P28" s="143"/>
-      <c r="Q28" s="144"/>
+      <c r="P28" s="156"/>
+      <c r="Q28" s="157"/>
       <c r="R28" s="68"/>
-      <c r="S28" s="145" t="s">
+      <c r="S28" s="140" t="s">
         <v>79</v>
       </c>
-      <c r="T28" s="146"/>
-      <c r="U28" s="147"/>
+      <c r="T28" s="141"/>
+      <c r="U28" s="142"/>
       <c r="V28" s="68"/>
-      <c r="W28" s="145" t="s">
+      <c r="W28" s="140" t="s">
         <v>79</v>
       </c>
-      <c r="X28" s="146"/>
-      <c r="Y28" s="147"/>
+      <c r="X28" s="141"/>
+      <c r="Y28" s="142"/>
     </row>
-    <row r="29" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="69" t="s">
         <v>94</v>
       </c>
@@ -5259,7 +4973,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A30" s="78" t="s">
         <v>83</v>
       </c>
@@ -5287,7 +5001,7 @@
       <c r="X30" s="4"/>
       <c r="Y30" s="83"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A31" s="84" t="s">
         <v>84</v>
       </c>
@@ -5311,7 +5025,7 @@
       <c r="X31" s="4"/>
       <c r="Y31" s="83"/>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>85</v>
       </c>
@@ -5335,7 +5049,7 @@
       <c r="X32" s="4"/>
       <c r="Y32" s="83"/>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>86</v>
       </c>
@@ -5359,7 +5073,7 @@
       <c r="X33" s="4"/>
       <c r="Y33" s="83"/>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>87</v>
       </c>
@@ -5383,7 +5097,7 @@
       <c r="X34" s="4"/>
       <c r="Y34" s="83"/>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>88</v>
       </c>
@@ -5407,7 +5121,7 @@
       <c r="X35" s="4"/>
       <c r="Y35" s="83"/>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>89</v>
       </c>
@@ -5431,7 +5145,7 @@
       <c r="X36" s="4"/>
       <c r="Y36" s="83"/>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>90</v>
       </c>
@@ -5455,7 +5169,7 @@
       <c r="X37" s="4"/>
       <c r="Y37" s="83"/>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>91</v>
       </c>
@@ -5479,7 +5193,7 @@
       <c r="X38" s="4"/>
       <c r="Y38" s="83"/>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>92</v>
       </c>
@@ -5503,7 +5217,7 @@
       <c r="X39" s="4"/>
       <c r="Y39" s="83"/>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>93</v>
       </c>
@@ -5527,7 +5241,7 @@
       <c r="X40" s="5"/>
       <c r="Y40" s="94"/>
     </row>
-    <row r="41" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="3"/>
       <c r="B41" s="90"/>
       <c r="C41" s="96"/>
@@ -5549,7 +5263,7 @@
       <c r="X41" s="99"/>
       <c r="Y41" s="100"/>
     </row>
-    <row r="42" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="101" t="s">
         <v>82</v>
       </c>
@@ -5607,7 +5321,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A43" s="78" t="s">
         <v>84</v>
       </c>
@@ -5631,7 +5345,7 @@
       <c r="X43" s="110"/>
       <c r="Y43" s="111"/>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>85</v>
       </c>
@@ -5655,7 +5369,7 @@
       <c r="X44" s="4"/>
       <c r="Y44" s="83"/>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>86</v>
       </c>
@@ -5679,7 +5393,7 @@
       <c r="X45" s="4"/>
       <c r="Y45" s="83"/>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>87</v>
       </c>
@@ -5703,7 +5417,7 @@
       <c r="X46" s="4"/>
       <c r="Y46" s="83"/>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>88</v>
       </c>
@@ -5727,7 +5441,7 @@
       <c r="X47" s="4"/>
       <c r="Y47" s="83"/>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>89</v>
       </c>
@@ -5751,7 +5465,7 @@
       <c r="X48" s="4"/>
       <c r="Y48" s="83"/>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>90</v>
       </c>
@@ -5775,7 +5489,7 @@
       <c r="X49" s="4"/>
       <c r="Y49" s="83"/>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>91</v>
       </c>
@@ -5799,7 +5513,7 @@
       <c r="X50" s="4"/>
       <c r="Y50" s="83"/>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>92</v>
       </c>
@@ -5823,7 +5537,7 @@
       <c r="X51" s="4"/>
       <c r="Y51" s="83"/>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>93</v>
       </c>
@@ -5847,7 +5561,7 @@
       <c r="X52" s="5"/>
       <c r="Y52" s="94"/>
     </row>
-    <row r="53" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="112"/>
       <c r="B53" s="95"/>
       <c r="C53" s="96"/>
@@ -5869,7 +5583,7 @@
       <c r="X53" s="99"/>
       <c r="Y53" s="100"/>
     </row>
-    <row r="54" spans="1:25" ht="9.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:25" ht="9.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G54" s="7"/>
       <c r="I54" s="8"/>
       <c r="K54" s="7"/>
@@ -5881,7 +5595,7 @@
       <c r="W54" s="7"/>
       <c r="Y54" s="8"/>
     </row>
-    <row r="55" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="134" t="s">
         <v>28</v>
       </c>
@@ -5939,15 +5653,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:25" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A56" s="122" t="s">
         <v>52</v>
       </c>
-      <c r="B56" s="154" t="s">
+      <c r="B56" s="143" t="s">
         <v>53</v>
       </c>
-      <c r="C56" s="155"/>
-      <c r="D56" s="156"/>
+      <c r="C56" s="144"/>
+      <c r="D56" s="145"/>
       <c r="E56" s="116"/>
       <c r="G56" s="9"/>
       <c r="H56" s="4"/>
@@ -5965,15 +5679,15 @@
       <c r="X56" s="4"/>
       <c r="Y56" s="83"/>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A57" s="123" t="s">
         <v>54</v>
       </c>
-      <c r="B57" s="148" t="s">
+      <c r="B57" s="146" t="s">
         <v>55</v>
       </c>
-      <c r="C57" s="149"/>
-      <c r="D57" s="150"/>
+      <c r="C57" s="147"/>
+      <c r="D57" s="148"/>
       <c r="E57" s="117"/>
       <c r="G57" s="9"/>
       <c r="H57" s="4"/>
@@ -5991,15 +5705,15 @@
       <c r="X57" s="4"/>
       <c r="Y57" s="83"/>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A58" s="123" t="s">
         <v>56</v>
       </c>
-      <c r="B58" s="148" t="s">
+      <c r="B58" s="146" t="s">
         <v>57</v>
       </c>
-      <c r="C58" s="149"/>
-      <c r="D58" s="150"/>
+      <c r="C58" s="147"/>
+      <c r="D58" s="148"/>
       <c r="E58" s="117"/>
       <c r="G58" s="9"/>
       <c r="H58" s="4"/>
@@ -6017,15 +5731,15 @@
       <c r="X58" s="4"/>
       <c r="Y58" s="83"/>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A59" s="123" t="s">
         <v>58</v>
       </c>
-      <c r="B59" s="148" t="s">
+      <c r="B59" s="146" t="s">
         <v>59</v>
       </c>
-      <c r="C59" s="149"/>
-      <c r="D59" s="150"/>
+      <c r="C59" s="147"/>
+      <c r="D59" s="148"/>
       <c r="E59" s="117"/>
       <c r="G59" s="9"/>
       <c r="H59" s="4"/>
@@ -6043,11 +5757,11 @@
       <c r="X59" s="4"/>
       <c r="Y59" s="83"/>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A60" s="123"/>
-      <c r="B60" s="148"/>
-      <c r="C60" s="149"/>
-      <c r="D60" s="150"/>
+      <c r="B60" s="146"/>
+      <c r="C60" s="147"/>
+      <c r="D60" s="148"/>
       <c r="E60" s="117"/>
       <c r="G60" s="9"/>
       <c r="H60" s="4"/>
@@ -6065,7 +5779,7 @@
       <c r="X60" s="4"/>
       <c r="Y60" s="83"/>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A61" s="114"/>
       <c r="B61" s="119"/>
       <c r="C61" s="120"/>
@@ -6087,11 +5801,11 @@
       <c r="X61" s="4"/>
       <c r="Y61" s="83"/>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A62" s="114"/>
-      <c r="B62" s="151"/>
-      <c r="C62" s="152"/>
-      <c r="D62" s="153"/>
+      <c r="B62" s="158"/>
+      <c r="C62" s="159"/>
+      <c r="D62" s="160"/>
       <c r="E62" s="117"/>
       <c r="G62" s="9"/>
       <c r="H62" s="4"/>
@@ -6109,11 +5823,11 @@
       <c r="X62" s="4"/>
       <c r="Y62" s="83"/>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A63" s="114"/>
-      <c r="B63" s="151"/>
-      <c r="C63" s="152"/>
-      <c r="D63" s="153"/>
+      <c r="B63" s="158"/>
+      <c r="C63" s="159"/>
+      <c r="D63" s="160"/>
       <c r="E63" s="117"/>
       <c r="G63" s="9"/>
       <c r="H63" s="4"/>
@@ -6131,11 +5845,11 @@
       <c r="X63" s="4"/>
       <c r="Y63" s="83"/>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A64" s="114"/>
-      <c r="B64" s="151"/>
-      <c r="C64" s="152"/>
-      <c r="D64" s="153"/>
+      <c r="B64" s="158"/>
+      <c r="C64" s="159"/>
+      <c r="D64" s="160"/>
       <c r="E64" s="117"/>
       <c r="G64" s="9"/>
       <c r="H64" s="4"/>
@@ -6153,11 +5867,11 @@
       <c r="X64" s="4"/>
       <c r="Y64" s="83"/>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A65" s="114"/>
-      <c r="B65" s="151"/>
-      <c r="C65" s="152"/>
-      <c r="D65" s="153"/>
+      <c r="B65" s="158"/>
+      <c r="C65" s="159"/>
+      <c r="D65" s="160"/>
       <c r="E65" s="117"/>
       <c r="G65" s="9"/>
       <c r="H65" s="4"/>
@@ -6175,11 +5889,11 @@
       <c r="X65" s="4"/>
       <c r="Y65" s="83"/>
     </row>
-    <row r="66" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="115"/>
-      <c r="B66" s="136"/>
-      <c r="C66" s="137"/>
-      <c r="D66" s="138"/>
+      <c r="B66" s="149"/>
+      <c r="C66" s="150"/>
+      <c r="D66" s="151"/>
       <c r="E66" s="118"/>
       <c r="G66" s="11"/>
       <c r="H66" s="12"/>
@@ -6197,7 +5911,7 @@
       <c r="X66" s="99"/>
       <c r="Y66" s="100"/>
     </row>
-    <row r="67" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="67" spans="1:25" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <sheetProtection insertColumns="0" insertRows="0"/>
   <protectedRanges>
@@ -6209,16 +5923,6 @@
     <protectedRange sqref="N30:N41 J30:J41 R30:R41 A43:R53 A30:F41" name="Questionnaire_3"/>
   </protectedRanges>
   <mergeCells count="20">
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="W28:Y28"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
     <mergeCell ref="B66:D66"/>
     <mergeCell ref="G28:I28"/>
     <mergeCell ref="K28:M28"/>
@@ -6229,373 +5933,383 @@
     <mergeCell ref="B63:D63"/>
     <mergeCell ref="B64:D64"/>
     <mergeCell ref="B65:D65"/>
+    <mergeCell ref="W28:Y28"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="O4:Q4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A27:AG27 A26:H26 J8 Q16:AG26 N8:R8 V13:AG15 U7:U8 V8 Z8:AG8 J26:P26 D8:F8 B22:B25 D22:P25 B21:P21 D16:P20 B8:B20 D9:AG12 D13:R15">
-    <cfRule type="expression" dxfId="137" priority="161">
+    <cfRule type="expression" dxfId="111" priority="161">
       <formula>$C7="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="136" priority="162">
+    <cfRule type="expression" dxfId="110" priority="162">
       <formula>$D7="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:A25">
-    <cfRule type="expression" dxfId="135" priority="149">
+    <cfRule type="expression" dxfId="109" priority="149">
       <formula>$C8="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="134" priority="150">
+    <cfRule type="expression" dxfId="108" priority="150">
       <formula>$D8="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26">
-    <cfRule type="expression" dxfId="133" priority="143">
+    <cfRule type="expression" dxfId="107" priority="143">
       <formula>$C26="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="132" priority="144">
+    <cfRule type="expression" dxfId="106" priority="144">
       <formula>$D26="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7:I8">
-    <cfRule type="expression" dxfId="131" priority="141">
+    <cfRule type="expression" dxfId="105" priority="141">
       <formula>$C7="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="130" priority="142">
+    <cfRule type="expression" dxfId="104" priority="142">
       <formula>$D7="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8:I8">
-    <cfRule type="expression" dxfId="129" priority="165">
+    <cfRule type="expression" dxfId="103" priority="165">
       <formula>$C13="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="128" priority="166">
+    <cfRule type="expression" dxfId="102" priority="166">
       <formula>$D13="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S13:U13">
-    <cfRule type="expression" dxfId="127" priority="135">
+    <cfRule type="expression" dxfId="101" priority="135">
       <formula>$C13="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="136">
+    <cfRule type="expression" dxfId="100" priority="136">
       <formula>$D13="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S14:U15">
-    <cfRule type="expression" dxfId="125" priority="127">
+    <cfRule type="expression" dxfId="99" priority="127">
       <formula>$C14="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="128">
+    <cfRule type="expression" dxfId="98" priority="128">
       <formula>$D14="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S7:T8">
-    <cfRule type="expression" dxfId="123" priority="125">
+    <cfRule type="expression" dxfId="97" priority="125">
       <formula>$C7="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="122" priority="126">
+    <cfRule type="expression" dxfId="96" priority="126">
       <formula>$D7="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W8:Y8">
-    <cfRule type="expression" dxfId="121" priority="121">
+    <cfRule type="expression" dxfId="95" priority="121">
       <formula>$C8="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="120" priority="122">
+    <cfRule type="expression" dxfId="94" priority="122">
       <formula>$D8="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:M8">
-    <cfRule type="expression" dxfId="119" priority="117">
+    <cfRule type="expression" dxfId="93" priority="117">
       <formula>$C8="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="118">
+    <cfRule type="expression" dxfId="92" priority="118">
       <formula>$D8="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:M8">
-    <cfRule type="expression" dxfId="117" priority="119">
+    <cfRule type="expression" dxfId="91" priority="119">
       <formula>$C13="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="116" priority="120">
+    <cfRule type="expression" dxfId="90" priority="120">
       <formula>$D13="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7:M7">
-    <cfRule type="expression" dxfId="115" priority="115">
+    <cfRule type="expression" dxfId="89" priority="115">
       <formula>$C7="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="116">
+    <cfRule type="expression" dxfId="88" priority="116">
       <formula>$D7="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54:AE54">
-    <cfRule type="expression" dxfId="113" priority="107">
+    <cfRule type="expression" dxfId="87" priority="107">
       <formula>$C54="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="108">
+    <cfRule type="expression" dxfId="86" priority="108">
       <formula>$D54="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W56:Y66">
-    <cfRule type="expression" dxfId="111" priority="105">
+    <cfRule type="expression" dxfId="85" priority="105">
       <formula>$C56="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="110" priority="106">
+    <cfRule type="expression" dxfId="84" priority="106">
       <formula>$D56="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S56:U66">
-    <cfRule type="expression" dxfId="109" priority="103">
+    <cfRule type="expression" dxfId="83" priority="103">
       <formula>$C56="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="104">
+    <cfRule type="expression" dxfId="82" priority="104">
       <formula>$D56="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O56:Q66">
-    <cfRule type="expression" dxfId="107" priority="101">
+    <cfRule type="expression" dxfId="81" priority="101">
       <formula>$C56="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="102">
+    <cfRule type="expression" dxfId="80" priority="102">
       <formula>$D56="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K56:M66">
-    <cfRule type="expression" dxfId="105" priority="99">
+    <cfRule type="expression" dxfId="79" priority="99">
       <formula>$C56="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="104" priority="100">
+    <cfRule type="expression" dxfId="78" priority="100">
       <formula>$D56="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G56:I66">
-    <cfRule type="expression" dxfId="103" priority="97">
+    <cfRule type="expression" dxfId="77" priority="97">
       <formula>$C56="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="98">
+    <cfRule type="expression" dxfId="76" priority="98">
       <formula>$D56="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z30:AG35 A42:Y42 AA36:AG53 B35 A35:A37 C35:F37 A29:AG29 A28:F28 J28 N28 R28:AG28 A30:F34 A38:F41 N30:N41 J30:J41 R30:R41 A43:R53">
-    <cfRule type="expression" dxfId="101" priority="95">
+    <cfRule type="expression" dxfId="75" priority="95">
       <formula>$C28="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="96">
+    <cfRule type="expression" dxfId="74" priority="96">
       <formula>$D28="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36:B37">
-    <cfRule type="expression" dxfId="99" priority="93">
+    <cfRule type="expression" dxfId="73" priority="93">
       <formula>$C35="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="98" priority="94">
+    <cfRule type="expression" dxfId="72" priority="94">
       <formula>$D35="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O30:O31">
-    <cfRule type="expression" dxfId="97" priority="91">
+    <cfRule type="expression" dxfId="71" priority="91">
       <formula>$C30="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="92">
+    <cfRule type="expression" dxfId="70" priority="92">
       <formula>$D30="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P30:Q31">
-    <cfRule type="expression" dxfId="95" priority="89">
+    <cfRule type="expression" dxfId="69" priority="89">
       <formula>$C30="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="90">
+    <cfRule type="expression" dxfId="68" priority="90">
       <formula>$D30="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O32:O41">
-    <cfRule type="expression" dxfId="93" priority="87">
+    <cfRule type="expression" dxfId="67" priority="87">
       <formula>$C32="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="88">
+    <cfRule type="expression" dxfId="66" priority="88">
       <formula>$D32="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P32:Q41">
-    <cfRule type="expression" dxfId="91" priority="85">
+    <cfRule type="expression" dxfId="65" priority="85">
       <formula>$C32="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="86">
+    <cfRule type="expression" dxfId="64" priority="86">
       <formula>$D32="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K30:K31">
-    <cfRule type="expression" dxfId="89" priority="83">
+    <cfRule type="expression" dxfId="63" priority="83">
       <formula>$C30="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="84">
+    <cfRule type="expression" dxfId="62" priority="84">
       <formula>$D30="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L30:M31">
-    <cfRule type="expression" dxfId="87" priority="81">
+    <cfRule type="expression" dxfId="61" priority="81">
       <formula>$C30="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="82">
+    <cfRule type="expression" dxfId="60" priority="82">
       <formula>$D30="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K32:K41">
-    <cfRule type="expression" dxfId="85" priority="79">
+    <cfRule type="expression" dxfId="59" priority="79">
       <formula>$C32="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="80">
+    <cfRule type="expression" dxfId="58" priority="80">
       <formula>$D32="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L32:M41">
-    <cfRule type="expression" dxfId="83" priority="77">
+    <cfRule type="expression" dxfId="57" priority="77">
       <formula>$C32="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="78">
+    <cfRule type="expression" dxfId="56" priority="78">
       <formula>$D32="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30:G31">
-    <cfRule type="expression" dxfId="81" priority="75">
+    <cfRule type="expression" dxfId="55" priority="75">
       <formula>$C30="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="76">
+    <cfRule type="expression" dxfId="54" priority="76">
       <formula>$D30="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30:I31">
-    <cfRule type="expression" dxfId="79" priority="73">
+    <cfRule type="expression" dxfId="53" priority="73">
       <formula>$C30="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="74">
+    <cfRule type="expression" dxfId="52" priority="74">
       <formula>$D30="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32:G41">
-    <cfRule type="expression" dxfId="77" priority="71">
+    <cfRule type="expression" dxfId="51" priority="71">
       <formula>$C32="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="72">
+    <cfRule type="expression" dxfId="50" priority="72">
       <formula>$D32="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32:I41">
-    <cfRule type="expression" dxfId="75" priority="69">
+    <cfRule type="expression" dxfId="49" priority="69">
       <formula>$C32="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="70">
+    <cfRule type="expression" dxfId="48" priority="70">
       <formula>$D32="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S30:Y40">
-    <cfRule type="expression" dxfId="73" priority="67">
+    <cfRule type="expression" dxfId="47" priority="67">
       <formula>$C30="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="68">
+    <cfRule type="expression" dxfId="46" priority="68">
       <formula>$D30="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S43:Y52">
-    <cfRule type="expression" dxfId="71" priority="65">
+    <cfRule type="expression" dxfId="45" priority="65">
       <formula>$C43="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="66">
+    <cfRule type="expression" dxfId="44" priority="66">
       <formula>$D43="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S53:Y53">
-    <cfRule type="expression" dxfId="69" priority="63">
+    <cfRule type="expression" dxfId="43" priority="63">
       <formula>$C53="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="64">
+    <cfRule type="expression" dxfId="42" priority="64">
       <formula>$D53="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S41:Y41">
-    <cfRule type="expression" dxfId="67" priority="61">
+    <cfRule type="expression" dxfId="41" priority="61">
       <formula>$C41="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="62">
+    <cfRule type="expression" dxfId="40" priority="62">
       <formula>$D41="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z50">
-    <cfRule type="expression" dxfId="65" priority="109">
+    <cfRule type="expression" dxfId="39" priority="109">
       <formula>$C54="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="110">
+    <cfRule type="expression" dxfId="38" priority="110">
       <formula>$D54="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z36 Z41:Z48">
-    <cfRule type="expression" dxfId="63" priority="111">
+    <cfRule type="expression" dxfId="37" priority="111">
       <formula>$C39="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="112">
+    <cfRule type="expression" dxfId="36" priority="112">
       <formula>$D39="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z49 Z37:Z40">
-    <cfRule type="expression" dxfId="61" priority="113">
+    <cfRule type="expression" dxfId="35" priority="113">
       <formula>$C41="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="114">
+    <cfRule type="expression" dxfId="34" priority="114">
       <formula>$D41="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="expression" dxfId="57" priority="57">
+    <cfRule type="expression" dxfId="33" priority="57">
       <formula>$C25="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="58">
+    <cfRule type="expression" dxfId="32" priority="58">
       <formula>$D25="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24">
-    <cfRule type="expression" dxfId="55" priority="55">
+    <cfRule type="expression" dxfId="31" priority="55">
       <formula>$C24="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="56">
+    <cfRule type="expression" dxfId="30" priority="56">
       <formula>$D24="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23">
-    <cfRule type="expression" dxfId="53" priority="53">
+    <cfRule type="expression" dxfId="29" priority="53">
       <formula>$C23="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="54">
+    <cfRule type="expression" dxfId="28" priority="54">
       <formula>$D23="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="expression" dxfId="49" priority="49">
+    <cfRule type="expression" dxfId="27" priority="49">
       <formula>$C20="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="50">
+    <cfRule type="expression" dxfId="26" priority="50">
       <formula>$D20="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22">
-    <cfRule type="expression" dxfId="45" priority="45">
+    <cfRule type="expression" dxfId="25" priority="45">
       <formula>$C22="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="46">
+    <cfRule type="expression" dxfId="24" priority="46">
       <formula>$D22="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19">
-    <cfRule type="expression" dxfId="43" priority="43">
+    <cfRule type="expression" dxfId="23" priority="43">
       <formula>$C19="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="44">
+    <cfRule type="expression" dxfId="22" priority="44">
       <formula>$D19="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18">
-    <cfRule type="expression" dxfId="41" priority="41">
+    <cfRule type="expression" dxfId="21" priority="41">
       <formula>$C18="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="42">
+    <cfRule type="expression" dxfId="20" priority="42">
       <formula>$D18="x"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6679,15 +6393,18 @@
       <formula>$D9="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
+  <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C43:D53 C30:D41 C22:C25 D8 C8:C20" xr:uid="{800895DA-5639-438C-B977-CBBACBEDFF96}">
       <formula1>"x"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:D7 D9:D26 C26 C21" xr:uid="{25196C70-295C-43FF-A050-7D2EA327A7B4}">
       <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I26 M7:M26 Q7:Q26 U7:U27 Y7:Y26 Y30:Y41 U30:U41 Q30:Q41 M30:M41 I30:I41 I43:I53 M43:M54 Q43:Q53 U43:U53 Y43:Y53 Y56:Y66 U56:U66 Q56:Q66 M56:M66 I56:I66" xr:uid="{5905A3FA-A0A9-4ACB-AB03-F564AC49D5A8}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M26 Q26 U26:U27 Y26 Y41 U41 Q41 M41 I41 I53 M53:M54 Q53 U53 Y53 Y66 U66 Q66 M66 I66 I26" xr:uid="{5905A3FA-A0A9-4ACB-AB03-F564AC49D5A8}">
       <formula1>"text,boolean,number,picklist,multiplicklist,lookup,date"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I25 M7:M25 Q7:Q25 U7:U25 Y7:Y25 Y30:Y40 U30:U40 Q30:Q40 M30:M40 I30:I40 I43:I52 M43:M52 Q43:Q52 U43:U52 Y43:Y52 Y56:Y65 U56:U64 U65 Q56:Q65 M56:M65 I56:I65" xr:uid="{9A7D82B0-A986-4BF2-896C-7E9AE4903B38}">
+      <formula1>"text,boolean,number,picklist,multiplcklist,lookup,date"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -6697,21 +6414,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010060A44420B6B801499790497461B7617A" ma:contentTypeVersion="11" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="fabbcee23a04d27af1ae9e54f4461bef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8f774076-1ef3-4740-8929-5969f04599b3" xmlns:ns4="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c03e0335abb4116b770311e5abaeb524" ns3:_="" ns4:_="">
     <xsd:import namespace="8f774076-1ef3-4740-8929-5969f04599b3"/>
@@ -6920,32 +6622,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDAAE1C4-DB1B-4159-B8B9-55C0242E8521}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="8f774076-1ef3-4740-8929-5969f04599b3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4CDBC7-0A6E-420D-A4CD-91BDFDE80302}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6962,4 +6654,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDAAE1C4-DB1B-4159-B8B9-55C0242E8521}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="8f774076-1ef3-4740-8929-5969f04599b3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/default-mappings-xlsx/visitreport/VisitReport_Mapping_Salesforce_DE.xlsx
+++ b/default-mappings-xlsx/visitreport/VisitReport_Mapping_Salesforce_DE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\visitreport\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitHub\snapaddy-faq-attachments\default-mappings-xlsx\visitreport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B70FD002-46F5-4AD3-A812-C577D40260A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3CEFE2-3602-4151-8E5C-F98BB05A0C09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="660" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Specifications" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="97">
   <si>
     <t>Website</t>
   </si>
@@ -355,7 +355,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -437,13 +437,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1751,7 +1744,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="161">
+  <cellXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1788,9 +1781,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1815,16 +1805,12 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1841,26 +1827,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -2027,7 +2003,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="117">
+  <dxfs count="113">
     <dxf>
       <font>
         <b val="0"/>
@@ -2389,50 +2365,6 @@
       </font>
       <fill>
         <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkUp">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkUp">
           <fgColor theme="0" tint="-0.14993743705557422"/>
           <bgColor auto="1"/>
         </patternFill>
@@ -3334,11 +3266,11 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="snapADDY" pivot="0" count="5" xr9:uid="{A8851A67-88BF-475D-B211-A3CFCBFE5DEE}">
-      <tableStyleElement type="wholeTable" dxfId="116"/>
-      <tableStyleElement type="headerRow" dxfId="115"/>
-      <tableStyleElement type="firstColumn" dxfId="114"/>
-      <tableStyleElement type="firstRowStripe" dxfId="113"/>
-      <tableStyleElement type="secondRowStripe" dxfId="112"/>
+      <tableStyleElement type="wholeTable" dxfId="112"/>
+      <tableStyleElement type="headerRow" dxfId="111"/>
+      <tableStyleElement type="firstColumn" dxfId="110"/>
+      <tableStyleElement type="firstRowStripe" dxfId="109"/>
+      <tableStyleElement type="secondRowStripe" dxfId="108"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -3952,43 +3884,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5027446F-BBDF-4A57-AA45-BC7D0EB64201}">
-  <dimension ref="A1:Y67"/>
+  <dimension ref="A1:AG67"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.88671875" customWidth="1"/>
+    <col min="1" max="1" width="40.85546875" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="3.6640625" customWidth="1"/>
-    <col min="4" max="4" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1"/>
-    <col min="6" max="6" width="1.6640625" customWidth="1"/>
+    <col min="3" max="3" width="3.7109375" customWidth="1"/>
+    <col min="4" max="4" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="1.7109375" customWidth="1"/>
     <col min="7" max="9" width="15" customWidth="1"/>
-    <col min="10" max="10" width="1.6640625" customWidth="1"/>
+    <col min="10" max="10" width="1.7109375" customWidth="1"/>
     <col min="11" max="13" width="15" customWidth="1"/>
-    <col min="14" max="14" width="1.6640625" customWidth="1"/>
+    <col min="14" max="14" width="1.7109375" customWidth="1"/>
     <col min="15" max="17" width="15" customWidth="1"/>
-    <col min="18" max="18" width="1.6640625" customWidth="1"/>
+    <col min="18" max="18" width="1.7109375" customWidth="1"/>
     <col min="19" max="21" width="15" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="22" width="1.5546875" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="22" width="1.5703125" customWidth="1" outlineLevel="1"/>
     <col min="23" max="25" width="15" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="59" t="s">
+    <row r="1" spans="1:33" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:25" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:33" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="22" t="s">
         <v>35</v>
       </c>
@@ -3999,60 +3931,60 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:25" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G3" s="39"/>
-      <c r="K3" s="39"/>
+    <row r="3" spans="1:33" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G3" s="38"/>
+      <c r="K3" s="38"/>
     </row>
-    <row r="4" spans="1:25" ht="77.400000000000006" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:33" ht="80.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="23" t="s">
         <v>24</v>
       </c>
       <c r="B4" s="23"/>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="E4" s="33"/>
-      <c r="G4" s="139" t="s">
+      <c r="E4" s="32"/>
+      <c r="G4" s="132" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="139"/>
-      <c r="I4" s="139"/>
+      <c r="H4" s="132"/>
+      <c r="I4" s="132"/>
       <c r="J4" s="6"/>
-      <c r="K4" s="139" t="s">
+      <c r="K4" s="132" t="s">
         <v>29</v>
       </c>
-      <c r="L4" s="139"/>
-      <c r="M4" s="139"/>
-      <c r="O4" s="139" t="s">
+      <c r="L4" s="132"/>
+      <c r="M4" s="132"/>
+      <c r="O4" s="132" t="s">
         <v>30</v>
       </c>
-      <c r="P4" s="139"/>
-      <c r="Q4" s="139"/>
-      <c r="S4" s="136" t="s">
+      <c r="P4" s="132"/>
+      <c r="Q4" s="132"/>
+      <c r="S4" s="129" t="s">
         <v>38</v>
       </c>
-      <c r="T4" s="137"/>
-      <c r="U4" s="138"/>
-      <c r="W4" s="136" t="s">
+      <c r="T4" s="130"/>
+      <c r="U4" s="131"/>
+      <c r="W4" s="129" t="s">
         <v>70</v>
       </c>
-      <c r="X4" s="137"/>
-      <c r="Y4" s="138"/>
+      <c r="X4" s="130"/>
+      <c r="Y4" s="131"/>
     </row>
-    <row r="5" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="1:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="135" t="s">
+    <row r="5" spans="1:33" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="128" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="37" t="s">
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="36" t="s">
         <v>37</v>
       </c>
       <c r="G6" s="18" t="s">
@@ -4083,31 +4015,31 @@
       <c r="Q6" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="S6" s="124" t="s">
+      <c r="S6" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="T6" s="125" t="s">
+      <c r="T6" s="118" t="s">
         <v>25</v>
       </c>
-      <c r="U6" s="126" t="s">
+      <c r="U6" s="119" t="s">
         <v>23</v>
       </c>
-      <c r="W6" s="124" t="s">
+      <c r="W6" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="X6" s="125" t="s">
+      <c r="X6" s="118" t="s">
         <v>25</v>
       </c>
-      <c r="Y6" s="126" t="s">
+      <c r="Y6" s="119" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="84"/>
+    <row r="7" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="77"/>
       <c r="B7" s="24"/>
-      <c r="C7" s="52"/>
+      <c r="C7" s="49"/>
       <c r="D7" s="29"/>
-      <c r="E7" s="34"/>
+      <c r="E7" s="33"/>
       <c r="G7" s="9"/>
       <c r="H7" s="4"/>
       <c r="I7" s="10"/>
@@ -4118,73 +4050,89 @@
       <c r="O7" s="16"/>
       <c r="P7" s="5"/>
       <c r="Q7" s="17"/>
-      <c r="S7" s="127" t="s">
+      <c r="S7" s="120" t="s">
         <v>31</v>
       </c>
-      <c r="T7" s="44" t="s">
+      <c r="T7" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="U7" s="83"/>
-      <c r="W7" s="93"/>
+      <c r="U7" s="76" t="s">
+        <v>72</v>
+      </c>
+      <c r="W7" s="86"/>
       <c r="X7" s="5"/>
-      <c r="Y7" s="94"/>
+      <c r="Y7" s="87"/>
     </row>
-    <row r="8" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="60" t="s">
+    <row r="8" spans="1:33" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="42"/>
-      <c r="G8" s="43" t="s">
+      <c r="B8" s="39"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="40"/>
+      <c r="F8"/>
+      <c r="G8" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="H8" s="44" t="s">
+      <c r="H8" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="I8" s="45" t="s">
+      <c r="I8" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="J8" s="46"/>
-      <c r="K8" s="43" t="s">
+      <c r="J8" s="1"/>
+      <c r="K8" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="L8" s="44" t="s">
+      <c r="L8" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="M8" s="45" t="s">
+      <c r="M8" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="O8" s="47"/>
-      <c r="P8" s="48"/>
-      <c r="Q8" s="49"/>
-      <c r="S8" s="128" t="s">
+      <c r="N8"/>
+      <c r="O8" s="44"/>
+      <c r="P8" s="45"/>
+      <c r="Q8" s="46"/>
+      <c r="R8"/>
+      <c r="S8" s="121" t="s">
         <v>33</v>
       </c>
       <c r="T8" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="U8" s="83"/>
-      <c r="W8" s="82"/>
+      <c r="U8" s="76" t="s">
+        <v>72</v>
+      </c>
+      <c r="V8"/>
+      <c r="W8" s="75"/>
       <c r="X8" s="4"/>
-      <c r="Y8" s="83"/>
+      <c r="Y8" s="76"/>
+      <c r="Z8"/>
+      <c r="AA8"/>
+      <c r="AB8"/>
+      <c r="AC8"/>
+      <c r="AD8"/>
+      <c r="AE8"/>
+      <c r="AF8"/>
+      <c r="AG8"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A9" s="61" t="s">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A9" s="57" t="s">
         <v>41</v>
       </c>
       <c r="B9" s="25"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="35"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="34"/>
       <c r="G9" s="9" t="s">
         <v>41</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="45" t="s">
+      <c r="I9" s="43" t="s">
         <v>72</v>
       </c>
       <c r="J9" s="1"/>
@@ -4200,21 +4148,21 @@
       <c r="O9" s="9"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="10"/>
-      <c r="S9" s="82"/>
+      <c r="S9" s="75"/>
       <c r="T9" s="4"/>
-      <c r="U9" s="83"/>
-      <c r="W9" s="82"/>
+      <c r="U9" s="76"/>
+      <c r="W9" s="75"/>
       <c r="X9" s="4"/>
-      <c r="Y9" s="83"/>
+      <c r="Y9" s="76"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A10" s="61" t="s">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A10" s="57" t="s">
         <v>42</v>
       </c>
       <c r="B10" s="25"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="35"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="34"/>
       <c r="G10" s="9" t="s">
         <v>42</v>
       </c>
@@ -4237,21 +4185,21 @@
       <c r="O10" s="9"/>
       <c r="P10" s="4"/>
       <c r="Q10" s="10"/>
-      <c r="S10" s="82"/>
+      <c r="S10" s="75"/>
       <c r="T10" s="4"/>
-      <c r="U10" s="83"/>
-      <c r="W10" s="82"/>
+      <c r="U10" s="76"/>
+      <c r="W10" s="75"/>
       <c r="X10" s="4"/>
-      <c r="Y10" s="83"/>
+      <c r="Y10" s="76"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A11" s="61" t="s">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A11" s="57" t="s">
         <v>43</v>
       </c>
       <c r="B11" s="25"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="35"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="34"/>
       <c r="G11" s="9" t="s">
         <v>43</v>
       </c>
@@ -4274,21 +4222,21 @@
       <c r="O11" s="9"/>
       <c r="P11" s="4"/>
       <c r="Q11" s="10"/>
-      <c r="S11" s="127"/>
-      <c r="T11" s="44"/>
-      <c r="U11" s="129"/>
-      <c r="W11" s="82"/>
+      <c r="S11" s="120"/>
+      <c r="T11" s="42"/>
+      <c r="U11" s="122"/>
+      <c r="W11" s="75"/>
       <c r="X11" s="4"/>
-      <c r="Y11" s="83"/>
+      <c r="Y11" s="76"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A12" s="61" t="s">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A12" s="57" t="s">
         <v>44</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="35"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="34"/>
       <c r="G12" s="9" t="s">
         <v>44</v>
       </c>
@@ -4311,21 +4259,21 @@
       <c r="Q12" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="S12" s="82"/>
+      <c r="S12" s="75"/>
       <c r="T12" s="4"/>
-      <c r="U12" s="83"/>
-      <c r="W12" s="82"/>
+      <c r="U12" s="76"/>
+      <c r="W12" s="75"/>
       <c r="X12" s="4"/>
-      <c r="Y12" s="83"/>
+      <c r="Y12" s="76"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A13" s="62" t="s">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A13" s="58" t="s">
         <v>47</v>
       </c>
       <c r="B13" s="26"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="35"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="34"/>
       <c r="G13" s="16" t="s">
         <v>47</v>
       </c>
@@ -4354,22 +4302,23 @@
       <c r="Q13" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="S13" s="130"/>
-      <c r="T13" s="48"/>
-      <c r="U13" s="131"/>
-      <c r="W13" s="82"/>
+      <c r="S13" s="123"/>
+      <c r="T13" s="45"/>
+      <c r="U13" s="124"/>
+      <c r="W13" s="75"/>
       <c r="X13" s="4"/>
-      <c r="Y13" s="83"/>
+      <c r="Y13" s="76"/>
     </row>
-    <row r="14" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="60" t="s">
+    <row r="14" spans="1:33" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="40"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="42"/>
-      <c r="G14" s="47" t="s">
+      <c r="B14" s="39"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="40"/>
+      <c r="F14"/>
+      <c r="G14" s="44" t="s">
         <v>48</v>
       </c>
       <c r="H14" s="4" t="s">
@@ -4378,40 +4327,51 @@
       <c r="I14" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="J14" s="46"/>
-      <c r="K14" s="47" t="s">
+      <c r="J14" s="1"/>
+      <c r="K14" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="L14" s="48" t="s">
+      <c r="L14" s="45" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="O14" s="47" t="s">
+      <c r="N14"/>
+      <c r="O14" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="P14" s="48" t="s">
+      <c r="P14" s="45" t="s">
         <v>65</v>
       </c>
       <c r="Q14" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="S14" s="127"/>
-      <c r="T14" s="44"/>
-      <c r="U14" s="129"/>
-      <c r="W14" s="130"/>
-      <c r="X14" s="48"/>
-      <c r="Y14" s="131"/>
+      <c r="R14"/>
+      <c r="S14" s="120"/>
+      <c r="T14" s="42"/>
+      <c r="U14" s="122"/>
+      <c r="V14"/>
+      <c r="W14" s="123"/>
+      <c r="X14" s="45"/>
+      <c r="Y14" s="124"/>
+      <c r="Z14"/>
+      <c r="AA14"/>
+      <c r="AB14"/>
+      <c r="AC14"/>
+      <c r="AD14"/>
+      <c r="AE14"/>
+      <c r="AF14"/>
+      <c r="AG14"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A15" s="63" t="s">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A15" s="59" t="s">
         <v>51</v>
       </c>
       <c r="B15" s="27"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="35"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="34"/>
       <c r="G15" s="14" t="s">
         <v>51</v>
       </c>
@@ -4440,21 +4400,21 @@
       <c r="Q15" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="S15" s="128"/>
+      <c r="S15" s="121"/>
       <c r="T15" s="15"/>
-      <c r="U15" s="83"/>
-      <c r="W15" s="82"/>
+      <c r="U15" s="76"/>
+      <c r="W15" s="75"/>
       <c r="X15" s="4"/>
-      <c r="Y15" s="83"/>
+      <c r="Y15" s="76"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A16" s="61" t="s">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A16" s="57" t="s">
         <v>49</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="35"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="34"/>
       <c r="G16" s="9" t="s">
         <v>49</v>
       </c>
@@ -4483,21 +4443,21 @@
       <c r="Q16" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="S16" s="82"/>
+      <c r="S16" s="75"/>
       <c r="T16" s="4"/>
-      <c r="U16" s="83"/>
-      <c r="W16" s="82"/>
+      <c r="U16" s="76"/>
+      <c r="W16" s="75"/>
       <c r="X16" s="4"/>
-      <c r="Y16" s="83"/>
+      <c r="Y16" s="76"/>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A17" s="61" t="s">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A17" s="57" t="s">
         <v>50</v>
       </c>
       <c r="B17" s="25"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="35"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="34"/>
       <c r="G17" s="9" t="s">
         <v>50</v>
       </c>
@@ -4526,21 +4486,21 @@
       <c r="Q17" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="S17" s="82"/>
+      <c r="S17" s="75"/>
       <c r="T17" s="4"/>
-      <c r="U17" s="83"/>
-      <c r="W17" s="82"/>
+      <c r="U17" s="76"/>
+      <c r="W17" s="75"/>
       <c r="X17" s="4"/>
-      <c r="Y17" s="83"/>
+      <c r="Y17" s="76"/>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A18" s="61" t="s">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A18" s="57" t="s">
         <v>45</v>
       </c>
       <c r="B18" s="25"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="35"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="34"/>
       <c r="G18" s="9" t="s">
         <v>45</v>
       </c>
@@ -4569,21 +4529,21 @@
       <c r="Q18" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="S18" s="82"/>
+      <c r="S18" s="75"/>
       <c r="T18" s="4"/>
-      <c r="U18" s="83"/>
-      <c r="W18" s="82"/>
+      <c r="U18" s="76"/>
+      <c r="W18" s="75"/>
       <c r="X18" s="4"/>
-      <c r="Y18" s="83"/>
+      <c r="Y18" s="76"/>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A19" s="61" t="s">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A19" s="57" t="s">
         <v>46</v>
       </c>
       <c r="B19" s="25"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="35"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="34"/>
       <c r="G19" s="9" t="s">
         <v>46</v>
       </c>
@@ -4606,22 +4566,23 @@
       <c r="O19" s="9"/>
       <c r="P19" s="4"/>
       <c r="Q19" s="10"/>
-      <c r="S19" s="82"/>
+      <c r="S19" s="75"/>
       <c r="T19" s="4"/>
-      <c r="U19" s="83"/>
-      <c r="W19" s="82"/>
+      <c r="U19" s="76"/>
+      <c r="W19" s="75"/>
       <c r="X19" s="4"/>
-      <c r="Y19" s="83"/>
+      <c r="Y19" s="76"/>
     </row>
-    <row r="20" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="60" t="s">
+    <row r="20" spans="1:33" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="40"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="42"/>
-      <c r="G20" s="47" t="s">
+      <c r="B20" s="39"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="40"/>
+      <c r="F20"/>
+      <c r="G20" s="44" t="s">
         <v>2</v>
       </c>
       <c r="H20" s="4" t="s">
@@ -4630,40 +4591,51 @@
       <c r="I20" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="J20" s="46"/>
-      <c r="K20" s="47" t="s">
+      <c r="J20" s="1"/>
+      <c r="K20" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="L20" s="48" t="s">
+      <c r="L20" s="45" t="s">
         <v>2</v>
       </c>
       <c r="M20" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="O20" s="47" t="s">
+      <c r="N20"/>
+      <c r="O20" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="P20" s="48" t="s">
+      <c r="P20" s="45" t="s">
         <v>2</v>
       </c>
       <c r="Q20" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="S20" s="130"/>
-      <c r="T20" s="48"/>
-      <c r="U20" s="131"/>
-      <c r="W20" s="130"/>
-      <c r="X20" s="48"/>
-      <c r="Y20" s="131"/>
+      <c r="R20"/>
+      <c r="S20" s="123"/>
+      <c r="T20" s="45"/>
+      <c r="U20" s="124"/>
+      <c r="V20"/>
+      <c r="W20" s="123"/>
+      <c r="X20" s="45"/>
+      <c r="Y20" s="124"/>
+      <c r="Z20"/>
+      <c r="AA20"/>
+      <c r="AB20"/>
+      <c r="AC20"/>
+      <c r="AD20"/>
+      <c r="AE20"/>
+      <c r="AF20"/>
+      <c r="AG20"/>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A21" s="61" t="s">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A21" s="57" t="s">
         <v>1</v>
       </c>
       <c r="B21" s="25"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="35"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="34"/>
       <c r="G21" s="9" t="s">
         <v>1</v>
       </c>
@@ -4686,21 +4658,21 @@
       <c r="O21" s="9"/>
       <c r="P21" s="4"/>
       <c r="Q21" s="10"/>
-      <c r="S21" s="82"/>
+      <c r="S21" s="75"/>
       <c r="T21" s="4"/>
-      <c r="U21" s="83"/>
-      <c r="W21" s="82"/>
+      <c r="U21" s="76"/>
+      <c r="W21" s="75"/>
       <c r="X21" s="4"/>
-      <c r="Y21" s="83"/>
+      <c r="Y21" s="76"/>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A22" s="62" t="s">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A22" s="58" t="s">
         <v>0</v>
       </c>
       <c r="B22" s="25"/>
-      <c r="C22" s="53"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="35"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="34"/>
       <c r="G22" s="16" t="s">
         <v>0</v>
       </c>
@@ -4723,21 +4695,21 @@
       <c r="Q22" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="S22" s="93"/>
+      <c r="S22" s="86"/>
       <c r="T22" s="5"/>
-      <c r="U22" s="94"/>
-      <c r="W22" s="93"/>
+      <c r="U22" s="87"/>
+      <c r="W22" s="86"/>
       <c r="X22" s="5"/>
-      <c r="Y22" s="94"/>
+      <c r="Y22" s="87"/>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A23" s="62" t="s">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A23" s="58" t="s">
         <v>60</v>
       </c>
       <c r="B23" s="25"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="35"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="34"/>
       <c r="G23" s="16" t="s">
         <v>60</v>
       </c>
@@ -4754,21 +4726,21 @@
       <c r="O23" s="16"/>
       <c r="P23" s="5"/>
       <c r="Q23" s="10"/>
-      <c r="S23" s="93"/>
+      <c r="S23" s="86"/>
       <c r="T23" s="5"/>
-      <c r="U23" s="94"/>
-      <c r="W23" s="93"/>
+      <c r="U23" s="87"/>
+      <c r="W23" s="86"/>
       <c r="X23" s="5"/>
-      <c r="Y23" s="94"/>
+      <c r="Y23" s="87"/>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A24" s="62" t="s">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A24" s="58" t="s">
         <v>61</v>
       </c>
       <c r="B24" s="26"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="64"/>
-      <c r="E24" s="65"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="60"/>
       <c r="G24" s="16" t="s">
         <v>61</v>
       </c>
@@ -4785,21 +4757,21 @@
       <c r="O24" s="16"/>
       <c r="P24" s="5"/>
       <c r="Q24" s="10"/>
-      <c r="S24" s="93"/>
+      <c r="S24" s="86"/>
       <c r="T24" s="5"/>
-      <c r="U24" s="94"/>
-      <c r="W24" s="93"/>
+      <c r="U24" s="87"/>
+      <c r="W24" s="86"/>
       <c r="X24" s="5"/>
-      <c r="Y24" s="94"/>
+      <c r="Y24" s="87"/>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A25" s="62" t="s">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A25" s="58" t="s">
         <v>62</v>
       </c>
       <c r="B25" s="26"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="64"/>
-      <c r="E25" s="65"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="60"/>
       <c r="G25" s="16" t="s">
         <v>62</v>
       </c>
@@ -4828,19 +4800,19 @@
       <c r="Q25" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="S25" s="93"/>
+      <c r="S25" s="86"/>
       <c r="T25" s="5"/>
-      <c r="U25" s="94"/>
-      <c r="W25" s="93"/>
+      <c r="U25" s="87"/>
+      <c r="W25" s="86"/>
       <c r="X25" s="5"/>
-      <c r="Y25" s="94"/>
+      <c r="Y25" s="87"/>
     </row>
-    <row r="26" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="21"/>
       <c r="B26" s="28"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="36"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="35"/>
       <c r="G26" s="11"/>
       <c r="H26" s="12"/>
       <c r="I26" s="13"/>
@@ -4851,14 +4823,14 @@
       <c r="O26" s="11"/>
       <c r="P26" s="12"/>
       <c r="Q26" s="13"/>
-      <c r="S26" s="98"/>
-      <c r="T26" s="99"/>
-      <c r="U26" s="100"/>
-      <c r="W26" s="98"/>
-      <c r="X26" s="99"/>
-      <c r="Y26" s="100"/>
+      <c r="S26" s="91"/>
+      <c r="T26" s="92"/>
+      <c r="U26" s="93"/>
+      <c r="W26" s="91"/>
+      <c r="X26" s="92"/>
+      <c r="Y26" s="93"/>
     </row>
-    <row r="27" spans="1:25" ht="7.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:33" ht="7.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G27" s="7"/>
       <c r="H27" s="1"/>
       <c r="I27" s="8"/>
@@ -4869,80 +4841,77 @@
       <c r="O27" s="7"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="8"/>
-      <c r="S27" s="55"/>
+      <c r="S27" s="52"/>
       <c r="T27" s="2"/>
-      <c r="U27" s="56"/>
-      <c r="V27" s="57"/>
-      <c r="W27" s="55"/>
+      <c r="U27" s="53"/>
+      <c r="W27" s="52"/>
       <c r="X27" s="1"/>
       <c r="Y27" s="8"/>
     </row>
-    <row r="28" spans="1:25" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="132" t="s">
+    <row r="28" spans="1:33" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="125" t="s">
         <v>78</v>
       </c>
-      <c r="B28" s="66"/>
-      <c r="C28" s="66"/>
-      <c r="D28" s="66"/>
-      <c r="E28" s="66"/>
-      <c r="G28" s="152" t="s">
+      <c r="B28" s="61"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="61"/>
+      <c r="G28" s="145" t="s">
         <v>27</v>
       </c>
-      <c r="H28" s="153"/>
-      <c r="I28" s="154"/>
-      <c r="J28" s="67"/>
-      <c r="K28" s="152" t="s">
+      <c r="H28" s="146"/>
+      <c r="I28" s="147"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="145" t="s">
         <v>29</v>
       </c>
-      <c r="L28" s="153"/>
-      <c r="M28" s="154"/>
-      <c r="N28" s="67"/>
-      <c r="O28" s="155" t="s">
+      <c r="L28" s="146"/>
+      <c r="M28" s="147"/>
+      <c r="O28" s="148" t="s">
         <v>30</v>
       </c>
-      <c r="P28" s="156"/>
-      <c r="Q28" s="157"/>
-      <c r="R28" s="68"/>
-      <c r="S28" s="140" t="s">
+      <c r="P28" s="149"/>
+      <c r="Q28" s="150"/>
+      <c r="S28" s="133" t="s">
         <v>79</v>
       </c>
-      <c r="T28" s="141"/>
-      <c r="U28" s="142"/>
-      <c r="V28" s="68"/>
-      <c r="W28" s="140" t="s">
+      <c r="T28" s="134"/>
+      <c r="U28" s="135"/>
+      <c r="W28" s="133" t="s">
         <v>79</v>
       </c>
-      <c r="X28" s="141"/>
-      <c r="Y28" s="142"/>
+      <c r="X28" s="134"/>
+      <c r="Y28" s="135"/>
     </row>
-    <row r="29" spans="1:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="69" t="s">
+    <row r="29" spans="1:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="B29" s="70" t="s">
+      <c r="B29" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="C29" s="71"/>
-      <c r="D29" s="71"/>
-      <c r="E29" s="70" t="s">
+      <c r="C29" s="64"/>
+      <c r="D29" s="64"/>
+      <c r="E29" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="G29" s="72" t="s">
+      <c r="G29" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="H29" s="73" t="s">
+      <c r="H29" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="I29" s="74" t="s">
+      <c r="I29" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="K29" s="72" t="s">
+      <c r="J29" s="1"/>
+      <c r="K29" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="L29" s="73" t="s">
+      <c r="L29" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="M29" s="74" t="s">
+      <c r="M29" s="67" t="s">
         <v>23</v>
       </c>
       <c r="O29" s="18" t="s">
@@ -4954,325 +4923,337 @@
       <c r="Q29" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="S29" s="75" t="s">
+      <c r="S29" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="T29" s="76" t="s">
+      <c r="T29" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="U29" s="77" t="s">
+      <c r="U29" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="W29" s="75" t="s">
+      <c r="W29" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="X29" s="76" t="s">
+      <c r="X29" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="Y29" s="77" t="s">
+      <c r="Y29" s="70" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:25" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="78" t="s">
+    <row r="30" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="B30" s="79" t="s">
+      <c r="B30" s="72" t="s">
         <v>80</v>
       </c>
-      <c r="C30" s="80"/>
-      <c r="D30" s="79"/>
-      <c r="E30" s="81" t="s">
+      <c r="C30" s="73"/>
+      <c r="D30" s="72"/>
+      <c r="E30" s="74" t="s">
         <v>81</v>
       </c>
       <c r="G30" s="16"/>
       <c r="H30" s="5"/>
       <c r="I30" s="10"/>
+      <c r="J30" s="1"/>
       <c r="K30" s="16"/>
       <c r="L30" s="5"/>
       <c r="M30" s="10"/>
       <c r="O30" s="16"/>
       <c r="P30" s="5"/>
       <c r="Q30" s="10"/>
-      <c r="S30" s="82"/>
+      <c r="S30" s="75"/>
       <c r="T30" s="4"/>
-      <c r="U30" s="83"/>
-      <c r="W30" s="82"/>
+      <c r="U30" s="76"/>
+      <c r="W30" s="75"/>
       <c r="X30" s="4"/>
-      <c r="Y30" s="83"/>
+      <c r="Y30" s="76"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A31" s="84" t="s">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A31" s="77" t="s">
         <v>84</v>
       </c>
-      <c r="B31" s="85"/>
-      <c r="C31" s="86"/>
-      <c r="D31" s="85"/>
-      <c r="E31" s="81"/>
+      <c r="B31" s="78"/>
+      <c r="C31" s="79"/>
+      <c r="D31" s="78"/>
+      <c r="E31" s="74"/>
       <c r="G31" s="16"/>
       <c r="H31" s="5"/>
       <c r="I31" s="10"/>
+      <c r="J31" s="1"/>
       <c r="K31" s="16"/>
       <c r="L31" s="5"/>
       <c r="M31" s="10"/>
       <c r="O31" s="16"/>
       <c r="P31" s="5"/>
       <c r="Q31" s="10"/>
-      <c r="S31" s="82"/>
+      <c r="S31" s="75"/>
       <c r="T31" s="4"/>
-      <c r="U31" s="83"/>
-      <c r="W31" s="82"/>
+      <c r="U31" s="76"/>
+      <c r="W31" s="75"/>
       <c r="X31" s="4"/>
-      <c r="Y31" s="83"/>
+      <c r="Y31" s="76"/>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B32" s="87"/>
-      <c r="C32" s="88"/>
-      <c r="D32" s="87"/>
-      <c r="E32" s="89"/>
+      <c r="B32" s="80"/>
+      <c r="C32" s="81"/>
+      <c r="D32" s="80"/>
+      <c r="E32" s="82"/>
       <c r="G32" s="16"/>
       <c r="H32" s="5"/>
       <c r="I32" s="10"/>
+      <c r="J32" s="1"/>
       <c r="K32" s="16"/>
       <c r="L32" s="5"/>
       <c r="M32" s="10"/>
       <c r="O32" s="16"/>
       <c r="P32" s="5"/>
       <c r="Q32" s="10"/>
-      <c r="S32" s="82"/>
+      <c r="S32" s="75"/>
       <c r="T32" s="4"/>
-      <c r="U32" s="83"/>
-      <c r="W32" s="82"/>
+      <c r="U32" s="76"/>
+      <c r="W32" s="75"/>
       <c r="X32" s="4"/>
-      <c r="Y32" s="83"/>
+      <c r="Y32" s="76"/>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B33" s="87"/>
-      <c r="C33" s="88"/>
-      <c r="D33" s="87"/>
-      <c r="E33" s="89"/>
+      <c r="B33" s="80"/>
+      <c r="C33" s="81"/>
+      <c r="D33" s="80"/>
+      <c r="E33" s="82"/>
       <c r="G33" s="16"/>
       <c r="H33" s="5"/>
       <c r="I33" s="10"/>
+      <c r="J33" s="1"/>
       <c r="K33" s="16"/>
       <c r="L33" s="5"/>
       <c r="M33" s="10"/>
       <c r="O33" s="16"/>
       <c r="P33" s="5"/>
       <c r="Q33" s="10"/>
-      <c r="S33" s="82"/>
+      <c r="S33" s="75"/>
       <c r="T33" s="4"/>
-      <c r="U33" s="83"/>
-      <c r="W33" s="82"/>
+      <c r="U33" s="76"/>
+      <c r="W33" s="75"/>
       <c r="X33" s="4"/>
-      <c r="Y33" s="83"/>
+      <c r="Y33" s="76"/>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B34" s="87"/>
-      <c r="C34" s="88"/>
-      <c r="D34" s="87"/>
-      <c r="E34" s="89"/>
+      <c r="B34" s="80"/>
+      <c r="C34" s="81"/>
+      <c r="D34" s="80"/>
+      <c r="E34" s="82"/>
       <c r="G34" s="16"/>
       <c r="H34" s="5"/>
       <c r="I34" s="10"/>
+      <c r="J34" s="1"/>
       <c r="K34" s="16"/>
       <c r="L34" s="5"/>
       <c r="M34" s="10"/>
       <c r="O34" s="16"/>
       <c r="P34" s="5"/>
       <c r="Q34" s="10"/>
-      <c r="S34" s="82"/>
+      <c r="S34" s="75"/>
       <c r="T34" s="4"/>
-      <c r="U34" s="83"/>
-      <c r="W34" s="82"/>
+      <c r="U34" s="76"/>
+      <c r="W34" s="75"/>
       <c r="X34" s="4"/>
-      <c r="Y34" s="83"/>
+      <c r="Y34" s="76"/>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B35" s="87"/>
-      <c r="C35" s="88"/>
-      <c r="D35" s="87"/>
-      <c r="E35" s="89"/>
+      <c r="B35" s="80"/>
+      <c r="C35" s="81"/>
+      <c r="D35" s="80"/>
+      <c r="E35" s="82"/>
       <c r="G35" s="16"/>
       <c r="H35" s="5"/>
       <c r="I35" s="10"/>
+      <c r="J35" s="1"/>
       <c r="K35" s="16"/>
       <c r="L35" s="5"/>
       <c r="M35" s="10"/>
       <c r="O35" s="16"/>
       <c r="P35" s="5"/>
       <c r="Q35" s="10"/>
-      <c r="S35" s="82"/>
+      <c r="S35" s="75"/>
       <c r="T35" s="4"/>
-      <c r="U35" s="83"/>
-      <c r="W35" s="82"/>
+      <c r="U35" s="76"/>
+      <c r="W35" s="75"/>
       <c r="X35" s="4"/>
-      <c r="Y35" s="83"/>
+      <c r="Y35" s="76"/>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B36" s="87"/>
-      <c r="C36" s="88"/>
-      <c r="D36" s="87"/>
-      <c r="E36" s="89"/>
+      <c r="B36" s="80"/>
+      <c r="C36" s="81"/>
+      <c r="D36" s="80"/>
+      <c r="E36" s="82"/>
       <c r="G36" s="16"/>
       <c r="H36" s="5"/>
       <c r="I36" s="10"/>
+      <c r="J36" s="1"/>
       <c r="K36" s="16"/>
       <c r="L36" s="5"/>
       <c r="M36" s="10"/>
       <c r="O36" s="16"/>
       <c r="P36" s="5"/>
       <c r="Q36" s="10"/>
-      <c r="S36" s="82"/>
+      <c r="S36" s="75"/>
       <c r="T36" s="4"/>
-      <c r="U36" s="83"/>
-      <c r="W36" s="82"/>
+      <c r="U36" s="76"/>
+      <c r="W36" s="75"/>
       <c r="X36" s="4"/>
-      <c r="Y36" s="83"/>
+      <c r="Y36" s="76"/>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B37" s="87"/>
-      <c r="C37" s="88"/>
-      <c r="D37" s="87"/>
-      <c r="E37" s="89"/>
+      <c r="B37" s="80"/>
+      <c r="C37" s="81"/>
+      <c r="D37" s="80"/>
+      <c r="E37" s="82"/>
       <c r="G37" s="16"/>
       <c r="H37" s="5"/>
       <c r="I37" s="10"/>
+      <c r="J37" s="1"/>
       <c r="K37" s="16"/>
       <c r="L37" s="5"/>
       <c r="M37" s="10"/>
       <c r="O37" s="16"/>
       <c r="P37" s="5"/>
       <c r="Q37" s="10"/>
-      <c r="S37" s="82"/>
+      <c r="S37" s="75"/>
       <c r="T37" s="4"/>
-      <c r="U37" s="83"/>
-      <c r="W37" s="82"/>
+      <c r="U37" s="76"/>
+      <c r="W37" s="75"/>
       <c r="X37" s="4"/>
-      <c r="Y37" s="83"/>
+      <c r="Y37" s="76"/>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B38" s="87"/>
-      <c r="C38" s="88"/>
-      <c r="D38" s="87"/>
-      <c r="E38" s="89"/>
+      <c r="B38" s="80"/>
+      <c r="C38" s="81"/>
+      <c r="D38" s="80"/>
+      <c r="E38" s="82"/>
       <c r="G38" s="16"/>
       <c r="H38" s="5"/>
       <c r="I38" s="10"/>
+      <c r="J38" s="1"/>
       <c r="K38" s="16"/>
       <c r="L38" s="5"/>
       <c r="M38" s="10"/>
       <c r="O38" s="16"/>
       <c r="P38" s="5"/>
       <c r="Q38" s="10"/>
-      <c r="S38" s="82"/>
+      <c r="S38" s="75"/>
       <c r="T38" s="4"/>
-      <c r="U38" s="83"/>
-      <c r="W38" s="82"/>
+      <c r="U38" s="76"/>
+      <c r="W38" s="75"/>
       <c r="X38" s="4"/>
-      <c r="Y38" s="83"/>
+      <c r="Y38" s="76"/>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B39" s="87"/>
-      <c r="C39" s="88"/>
-      <c r="D39" s="87"/>
-      <c r="E39" s="89"/>
+      <c r="B39" s="80"/>
+      <c r="C39" s="81"/>
+      <c r="D39" s="80"/>
+      <c r="E39" s="82"/>
       <c r="G39" s="16"/>
       <c r="H39" s="5"/>
       <c r="I39" s="10"/>
+      <c r="J39" s="1"/>
       <c r="K39" s="16"/>
       <c r="L39" s="5"/>
       <c r="M39" s="10"/>
       <c r="O39" s="16"/>
       <c r="P39" s="5"/>
       <c r="Q39" s="10"/>
-      <c r="S39" s="82"/>
+      <c r="S39" s="75"/>
       <c r="T39" s="4"/>
-      <c r="U39" s="83"/>
-      <c r="W39" s="82"/>
+      <c r="U39" s="76"/>
+      <c r="W39" s="75"/>
       <c r="X39" s="4"/>
-      <c r="Y39" s="83"/>
+      <c r="Y39" s="76"/>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B40" s="90"/>
-      <c r="C40" s="91"/>
-      <c r="D40" s="90"/>
-      <c r="E40" s="92"/>
+      <c r="B40" s="83"/>
+      <c r="C40" s="84"/>
+      <c r="D40" s="83"/>
+      <c r="E40" s="85"/>
       <c r="G40" s="16"/>
       <c r="H40" s="5"/>
       <c r="I40" s="17"/>
+      <c r="J40" s="1"/>
       <c r="K40" s="16"/>
       <c r="L40" s="5"/>
       <c r="M40" s="17"/>
       <c r="O40" s="16"/>
       <c r="P40" s="5"/>
       <c r="Q40" s="17"/>
-      <c r="S40" s="93"/>
+      <c r="S40" s="86"/>
       <c r="T40" s="5"/>
-      <c r="U40" s="94"/>
-      <c r="W40" s="93"/>
+      <c r="U40" s="87"/>
+      <c r="W40" s="86"/>
       <c r="X40" s="5"/>
-      <c r="Y40" s="94"/>
+      <c r="Y40" s="87"/>
     </row>
-    <row r="41" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3"/>
-      <c r="B41" s="90"/>
-      <c r="C41" s="96"/>
-      <c r="D41" s="95"/>
-      <c r="E41" s="97"/>
+      <c r="B41" s="83"/>
+      <c r="C41" s="89"/>
+      <c r="D41" s="88"/>
+      <c r="E41" s="90"/>
       <c r="G41" s="16"/>
       <c r="H41" s="5"/>
       <c r="I41" s="17"/>
+      <c r="J41" s="1"/>
       <c r="K41" s="16"/>
       <c r="L41" s="5"/>
       <c r="M41" s="17"/>
       <c r="O41" s="16"/>
       <c r="P41" s="5"/>
       <c r="Q41" s="17"/>
-      <c r="S41" s="98"/>
-      <c r="T41" s="99"/>
-      <c r="U41" s="100"/>
-      <c r="W41" s="98"/>
-      <c r="X41" s="99"/>
-      <c r="Y41" s="100"/>
+      <c r="S41" s="91"/>
+      <c r="T41" s="92"/>
+      <c r="U41" s="93"/>
+      <c r="W41" s="91"/>
+      <c r="X41" s="92"/>
+      <c r="Y41" s="93"/>
     </row>
-    <row r="42" spans="1:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="101" t="s">
+    <row r="42" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="94" t="s">
         <v>82</v>
       </c>
-      <c r="B42" s="133" t="s">
+      <c r="B42" s="126" t="s">
         <v>95</v>
       </c>
-      <c r="C42" s="71"/>
-      <c r="D42" s="71"/>
-      <c r="E42" s="71" t="s">
+      <c r="C42" s="64"/>
+      <c r="D42" s="64"/>
+      <c r="E42" s="64" t="s">
         <v>37</v>
       </c>
       <c r="G42" s="18" t="s">
@@ -5284,6 +5265,7 @@
       <c r="I42" s="20" t="s">
         <v>23</v>
       </c>
+      <c r="J42" s="1"/>
       <c r="K42" s="18" t="s">
         <v>22</v>
       </c>
@@ -5293,299 +5275,311 @@
       <c r="M42" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="O42" s="102" t="s">
+      <c r="O42" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="P42" s="103" t="s">
+      <c r="P42" s="96" t="s">
         <v>25</v>
       </c>
-      <c r="Q42" s="104" t="s">
+      <c r="Q42" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="S42" s="105" t="s">
+      <c r="S42" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="T42" s="106" t="s">
+      <c r="T42" s="99" t="s">
         <v>25</v>
       </c>
-      <c r="U42" s="107" t="s">
+      <c r="U42" s="100" t="s">
         <v>23</v>
       </c>
-      <c r="W42" s="105" t="s">
+      <c r="W42" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="X42" s="106" t="s">
+      <c r="X42" s="99" t="s">
         <v>25</v>
       </c>
-      <c r="Y42" s="107" t="s">
+      <c r="Y42" s="100" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:25" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="78" t="s">
+    <row r="43" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="71" t="s">
         <v>84</v>
       </c>
-      <c r="B43" s="79"/>
-      <c r="C43" s="80"/>
-      <c r="D43" s="79"/>
-      <c r="E43" s="81"/>
+      <c r="B43" s="72"/>
+      <c r="C43" s="73"/>
+      <c r="D43" s="72"/>
+      <c r="E43" s="74"/>
       <c r="G43" s="9"/>
       <c r="H43" s="4"/>
       <c r="I43" s="10"/>
+      <c r="J43" s="1"/>
       <c r="K43" s="9"/>
       <c r="L43" s="4"/>
       <c r="M43" s="10"/>
       <c r="O43" s="14"/>
       <c r="P43" s="15"/>
-      <c r="Q43" s="108"/>
-      <c r="S43" s="109"/>
-      <c r="T43" s="110"/>
-      <c r="U43" s="111"/>
-      <c r="W43" s="109"/>
-      <c r="X43" s="110"/>
-      <c r="Y43" s="111"/>
+      <c r="Q43" s="101"/>
+      <c r="S43" s="102"/>
+      <c r="T43" s="103"/>
+      <c r="U43" s="104"/>
+      <c r="W43" s="102"/>
+      <c r="X43" s="103"/>
+      <c r="Y43" s="104"/>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B44" s="87"/>
-      <c r="C44" s="88"/>
-      <c r="D44" s="87"/>
-      <c r="E44" s="89"/>
+      <c r="B44" s="80"/>
+      <c r="C44" s="81"/>
+      <c r="D44" s="80"/>
+      <c r="E44" s="82"/>
       <c r="G44" s="9"/>
       <c r="H44" s="4"/>
       <c r="I44" s="10"/>
+      <c r="J44" s="1"/>
       <c r="K44" s="9"/>
       <c r="L44" s="4"/>
       <c r="M44" s="10"/>
       <c r="O44" s="9"/>
       <c r="P44" s="4"/>
       <c r="Q44" s="10"/>
-      <c r="S44" s="82"/>
+      <c r="S44" s="75"/>
       <c r="T44" s="4"/>
-      <c r="U44" s="83"/>
-      <c r="W44" s="82"/>
+      <c r="U44" s="76"/>
+      <c r="W44" s="75"/>
       <c r="X44" s="4"/>
-      <c r="Y44" s="83"/>
+      <c r="Y44" s="76"/>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B45" s="87"/>
-      <c r="C45" s="88"/>
-      <c r="D45" s="87"/>
-      <c r="E45" s="89"/>
+      <c r="B45" s="80"/>
+      <c r="C45" s="81"/>
+      <c r="D45" s="80"/>
+      <c r="E45" s="82"/>
       <c r="G45" s="9"/>
       <c r="H45" s="4"/>
       <c r="I45" s="10"/>
+      <c r="J45" s="1"/>
       <c r="K45" s="9"/>
       <c r="L45" s="4"/>
       <c r="M45" s="10"/>
       <c r="O45" s="9"/>
       <c r="P45" s="4"/>
       <c r="Q45" s="10"/>
-      <c r="S45" s="82"/>
+      <c r="S45" s="75"/>
       <c r="T45" s="4"/>
-      <c r="U45" s="83"/>
-      <c r="W45" s="82"/>
+      <c r="U45" s="76"/>
+      <c r="W45" s="75"/>
       <c r="X45" s="4"/>
-      <c r="Y45" s="83"/>
+      <c r="Y45" s="76"/>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B46" s="87"/>
-      <c r="C46" s="88"/>
-      <c r="D46" s="87"/>
-      <c r="E46" s="89"/>
+      <c r="B46" s="80"/>
+      <c r="C46" s="81"/>
+      <c r="D46" s="80"/>
+      <c r="E46" s="82"/>
       <c r="G46" s="9"/>
       <c r="H46" s="4"/>
       <c r="I46" s="10"/>
+      <c r="J46" s="1"/>
       <c r="K46" s="9"/>
       <c r="L46" s="4"/>
       <c r="M46" s="10"/>
       <c r="O46" s="9"/>
       <c r="P46" s="4"/>
       <c r="Q46" s="10"/>
-      <c r="S46" s="82"/>
+      <c r="S46" s="75"/>
       <c r="T46" s="4"/>
-      <c r="U46" s="83"/>
-      <c r="W46" s="82"/>
+      <c r="U46" s="76"/>
+      <c r="W46" s="75"/>
       <c r="X46" s="4"/>
-      <c r="Y46" s="83"/>
+      <c r="Y46" s="76"/>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B47" s="87"/>
-      <c r="C47" s="88"/>
-      <c r="D47" s="87"/>
-      <c r="E47" s="89"/>
+      <c r="B47" s="80"/>
+      <c r="C47" s="81"/>
+      <c r="D47" s="80"/>
+      <c r="E47" s="82"/>
       <c r="G47" s="9"/>
       <c r="H47" s="4"/>
       <c r="I47" s="10"/>
+      <c r="J47" s="1"/>
       <c r="K47" s="9"/>
       <c r="L47" s="4"/>
       <c r="M47" s="10"/>
       <c r="O47" s="9"/>
       <c r="P47" s="4"/>
       <c r="Q47" s="10"/>
-      <c r="S47" s="82"/>
+      <c r="S47" s="75"/>
       <c r="T47" s="4"/>
-      <c r="U47" s="83"/>
-      <c r="W47" s="82"/>
+      <c r="U47" s="76"/>
+      <c r="W47" s="75"/>
       <c r="X47" s="4"/>
-      <c r="Y47" s="83"/>
+      <c r="Y47" s="76"/>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B48" s="87"/>
-      <c r="C48" s="88"/>
-      <c r="D48" s="87"/>
-      <c r="E48" s="89"/>
+      <c r="B48" s="80"/>
+      <c r="C48" s="81"/>
+      <c r="D48" s="80"/>
+      <c r="E48" s="82"/>
       <c r="G48" s="9"/>
       <c r="H48" s="4"/>
       <c r="I48" s="10"/>
+      <c r="J48" s="1"/>
       <c r="K48" s="9"/>
       <c r="L48" s="4"/>
       <c r="M48" s="10"/>
       <c r="O48" s="9"/>
       <c r="P48" s="4"/>
       <c r="Q48" s="10"/>
-      <c r="S48" s="82"/>
+      <c r="S48" s="75"/>
       <c r="T48" s="4"/>
-      <c r="U48" s="83"/>
-      <c r="W48" s="82"/>
+      <c r="U48" s="76"/>
+      <c r="W48" s="75"/>
       <c r="X48" s="4"/>
-      <c r="Y48" s="83"/>
+      <c r="Y48" s="76"/>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B49" s="87"/>
-      <c r="C49" s="88"/>
-      <c r="D49" s="87"/>
-      <c r="E49" s="89"/>
+      <c r="B49" s="80"/>
+      <c r="C49" s="81"/>
+      <c r="D49" s="80"/>
+      <c r="E49" s="82"/>
       <c r="G49" s="9"/>
       <c r="H49" s="4"/>
       <c r="I49" s="10"/>
+      <c r="J49" s="1"/>
       <c r="K49" s="9"/>
       <c r="L49" s="4"/>
       <c r="M49" s="10"/>
       <c r="O49" s="9"/>
       <c r="P49" s="4"/>
       <c r="Q49" s="10"/>
-      <c r="S49" s="82"/>
+      <c r="S49" s="75"/>
       <c r="T49" s="4"/>
-      <c r="U49" s="83"/>
-      <c r="W49" s="82"/>
+      <c r="U49" s="76"/>
+      <c r="W49" s="75"/>
       <c r="X49" s="4"/>
-      <c r="Y49" s="83"/>
+      <c r="Y49" s="76"/>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B50" s="87"/>
-      <c r="C50" s="88"/>
-      <c r="D50" s="87"/>
-      <c r="E50" s="89"/>
+      <c r="B50" s="80"/>
+      <c r="C50" s="81"/>
+      <c r="D50" s="80"/>
+      <c r="E50" s="82"/>
       <c r="G50" s="9"/>
       <c r="H50" s="4"/>
       <c r="I50" s="10"/>
+      <c r="J50" s="1"/>
       <c r="K50" s="9"/>
       <c r="L50" s="4"/>
       <c r="M50" s="10"/>
       <c r="O50" s="9"/>
       <c r="P50" s="4"/>
       <c r="Q50" s="10"/>
-      <c r="S50" s="82"/>
+      <c r="S50" s="75"/>
       <c r="T50" s="4"/>
-      <c r="U50" s="83"/>
-      <c r="W50" s="82"/>
+      <c r="U50" s="76"/>
+      <c r="W50" s="75"/>
       <c r="X50" s="4"/>
-      <c r="Y50" s="83"/>
+      <c r="Y50" s="76"/>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B51" s="87"/>
-      <c r="C51" s="88"/>
-      <c r="D51" s="87"/>
-      <c r="E51" s="89"/>
+      <c r="B51" s="80"/>
+      <c r="C51" s="81"/>
+      <c r="D51" s="80"/>
+      <c r="E51" s="82"/>
       <c r="G51" s="9"/>
       <c r="H51" s="4"/>
       <c r="I51" s="10"/>
+      <c r="J51" s="1"/>
       <c r="K51" s="9"/>
       <c r="L51" s="4"/>
       <c r="M51" s="10"/>
       <c r="O51" s="9"/>
       <c r="P51" s="4"/>
       <c r="Q51" s="10"/>
-      <c r="S51" s="82"/>
+      <c r="S51" s="75"/>
       <c r="T51" s="4"/>
-      <c r="U51" s="83"/>
-      <c r="W51" s="82"/>
+      <c r="U51" s="76"/>
+      <c r="W51" s="75"/>
       <c r="X51" s="4"/>
-      <c r="Y51" s="83"/>
+      <c r="Y51" s="76"/>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B52" s="90"/>
-      <c r="C52" s="91"/>
-      <c r="D52" s="90"/>
-      <c r="E52" s="92"/>
+      <c r="B52" s="83"/>
+      <c r="C52" s="84"/>
+      <c r="D52" s="83"/>
+      <c r="E52" s="85"/>
       <c r="G52" s="16"/>
       <c r="H52" s="5"/>
       <c r="I52" s="17"/>
+      <c r="J52" s="1"/>
       <c r="K52" s="16"/>
       <c r="L52" s="5"/>
       <c r="M52" s="17"/>
       <c r="O52" s="16"/>
       <c r="P52" s="5"/>
       <c r="Q52" s="17"/>
-      <c r="S52" s="93"/>
+      <c r="S52" s="86"/>
       <c r="T52" s="5"/>
-      <c r="U52" s="94"/>
-      <c r="W52" s="93"/>
+      <c r="U52" s="87"/>
+      <c r="W52" s="86"/>
       <c r="X52" s="5"/>
-      <c r="Y52" s="94"/>
+      <c r="Y52" s="87"/>
     </row>
-    <row r="53" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="112"/>
-      <c r="B53" s="95"/>
-      <c r="C53" s="96"/>
-      <c r="D53" s="95"/>
-      <c r="E53" s="97"/>
+    <row r="53" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="105"/>
+      <c r="B53" s="88"/>
+      <c r="C53" s="89"/>
+      <c r="D53" s="88"/>
+      <c r="E53" s="90"/>
       <c r="G53" s="11"/>
       <c r="H53" s="12"/>
       <c r="I53" s="13"/>
+      <c r="J53" s="1"/>
       <c r="K53" s="11"/>
       <c r="L53" s="12"/>
       <c r="M53" s="13"/>
       <c r="O53" s="11"/>
       <c r="P53" s="12"/>
       <c r="Q53" s="13"/>
-      <c r="S53" s="98"/>
-      <c r="T53" s="99"/>
-      <c r="U53" s="100"/>
-      <c r="W53" s="98"/>
-      <c r="X53" s="99"/>
-      <c r="Y53" s="100"/>
+      <c r="S53" s="91"/>
+      <c r="T53" s="92"/>
+      <c r="U53" s="93"/>
+      <c r="W53" s="91"/>
+      <c r="X53" s="92"/>
+      <c r="Y53" s="93"/>
     </row>
-    <row r="54" spans="1:25" ht="9.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:25" ht="9.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G54" s="7"/>
       <c r="I54" s="8"/>
+      <c r="J54" s="1"/>
       <c r="K54" s="7"/>
       <c r="M54" s="8"/>
       <c r="O54" s="7"/>
@@ -5595,16 +5589,16 @@
       <c r="W54" s="7"/>
       <c r="Y54" s="8"/>
     </row>
-    <row r="55" spans="1:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="134" t="s">
+    <row r="55" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="127" t="s">
         <v>28</v>
       </c>
-      <c r="B55" s="113" t="s">
+      <c r="B55" s="106" t="s">
         <v>36</v>
       </c>
-      <c r="C55" s="113"/>
-      <c r="D55" s="113"/>
-      <c r="E55" s="113" t="s">
+      <c r="C55" s="106"/>
+      <c r="D55" s="106"/>
+      <c r="E55" s="106" t="s">
         <v>37</v>
       </c>
       <c r="G55" s="18" t="s">
@@ -5616,6 +5610,7 @@
       <c r="I55" s="20" t="s">
         <v>23</v>
       </c>
+      <c r="J55" s="1"/>
       <c r="K55" s="18" t="s">
         <v>22</v>
       </c>
@@ -5634,293 +5629,304 @@
       <c r="Q55" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="S55" s="124" t="s">
+      <c r="S55" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="T55" s="125" t="s">
+      <c r="T55" s="118" t="s">
         <v>25</v>
       </c>
-      <c r="U55" s="126" t="s">
+      <c r="U55" s="119" t="s">
         <v>23</v>
       </c>
-      <c r="W55" s="124" t="s">
+      <c r="W55" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="X55" s="125" t="s">
+      <c r="X55" s="118" t="s">
         <v>25</v>
       </c>
-      <c r="Y55" s="126" t="s">
+      <c r="Y55" s="119" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="1:25" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="122" t="s">
+    <row r="56" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="115" t="s">
         <v>52</v>
       </c>
-      <c r="B56" s="143" t="s">
+      <c r="B56" s="136" t="s">
         <v>53</v>
       </c>
-      <c r="C56" s="144"/>
-      <c r="D56" s="145"/>
-      <c r="E56" s="116"/>
+      <c r="C56" s="137"/>
+      <c r="D56" s="138"/>
+      <c r="E56" s="109"/>
       <c r="G56" s="9"/>
       <c r="H56" s="4"/>
       <c r="I56" s="10"/>
+      <c r="J56" s="1"/>
       <c r="K56" s="9"/>
       <c r="L56" s="4"/>
       <c r="M56" s="10"/>
       <c r="O56" s="9"/>
       <c r="P56" s="4"/>
       <c r="Q56" s="10"/>
-      <c r="S56" s="82"/>
+      <c r="S56" s="75"/>
       <c r="T56" s="4"/>
-      <c r="U56" s="83"/>
-      <c r="W56" s="82"/>
+      <c r="U56" s="76"/>
+      <c r="W56" s="75"/>
       <c r="X56" s="4"/>
-      <c r="Y56" s="83"/>
+      <c r="Y56" s="76"/>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A57" s="123" t="s">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A57" s="116" t="s">
         <v>54</v>
       </c>
-      <c r="B57" s="146" t="s">
+      <c r="B57" s="139" t="s">
         <v>55</v>
       </c>
-      <c r="C57" s="147"/>
-      <c r="D57" s="148"/>
-      <c r="E57" s="117"/>
+      <c r="C57" s="140"/>
+      <c r="D57" s="141"/>
+      <c r="E57" s="110"/>
       <c r="G57" s="9"/>
       <c r="H57" s="4"/>
       <c r="I57" s="10"/>
+      <c r="J57" s="1"/>
       <c r="K57" s="9"/>
       <c r="L57" s="4"/>
       <c r="M57" s="10"/>
       <c r="O57" s="9"/>
       <c r="P57" s="4"/>
       <c r="Q57" s="10"/>
-      <c r="S57" s="82"/>
+      <c r="S57" s="75"/>
       <c r="T57" s="4"/>
-      <c r="U57" s="83"/>
-      <c r="W57" s="82"/>
+      <c r="U57" s="76"/>
+      <c r="W57" s="75"/>
       <c r="X57" s="4"/>
-      <c r="Y57" s="83"/>
+      <c r="Y57" s="76"/>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A58" s="123" t="s">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A58" s="116" t="s">
         <v>56</v>
       </c>
-      <c r="B58" s="146" t="s">
+      <c r="B58" s="139" t="s">
         <v>57</v>
       </c>
-      <c r="C58" s="147"/>
-      <c r="D58" s="148"/>
-      <c r="E58" s="117"/>
+      <c r="C58" s="140"/>
+      <c r="D58" s="141"/>
+      <c r="E58" s="110"/>
       <c r="G58" s="9"/>
       <c r="H58" s="4"/>
       <c r="I58" s="10"/>
+      <c r="J58" s="1"/>
       <c r="K58" s="9"/>
       <c r="L58" s="4"/>
       <c r="M58" s="10"/>
       <c r="O58" s="9"/>
       <c r="P58" s="4"/>
       <c r="Q58" s="10"/>
-      <c r="S58" s="82"/>
+      <c r="S58" s="75"/>
       <c r="T58" s="4"/>
-      <c r="U58" s="83"/>
-      <c r="W58" s="82"/>
+      <c r="U58" s="76"/>
+      <c r="W58" s="75"/>
       <c r="X58" s="4"/>
-      <c r="Y58" s="83"/>
+      <c r="Y58" s="76"/>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A59" s="123" t="s">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A59" s="116" t="s">
         <v>58</v>
       </c>
-      <c r="B59" s="146" t="s">
+      <c r="B59" s="139" t="s">
         <v>59</v>
       </c>
-      <c r="C59" s="147"/>
-      <c r="D59" s="148"/>
-      <c r="E59" s="117"/>
+      <c r="C59" s="140"/>
+      <c r="D59" s="141"/>
+      <c r="E59" s="110"/>
       <c r="G59" s="9"/>
       <c r="H59" s="4"/>
       <c r="I59" s="10"/>
+      <c r="J59" s="1"/>
       <c r="K59" s="9"/>
       <c r="L59" s="4"/>
       <c r="M59" s="10"/>
       <c r="O59" s="9"/>
       <c r="P59" s="4"/>
       <c r="Q59" s="10"/>
-      <c r="S59" s="82"/>
+      <c r="S59" s="75"/>
       <c r="T59" s="4"/>
-      <c r="U59" s="83"/>
-      <c r="W59" s="82"/>
+      <c r="U59" s="76"/>
+      <c r="W59" s="75"/>
       <c r="X59" s="4"/>
-      <c r="Y59" s="83"/>
+      <c r="Y59" s="76"/>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A60" s="123"/>
-      <c r="B60" s="146"/>
-      <c r="C60" s="147"/>
-      <c r="D60" s="148"/>
-      <c r="E60" s="117"/>
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A60" s="116"/>
+      <c r="B60" s="139"/>
+      <c r="C60" s="140"/>
+      <c r="D60" s="141"/>
+      <c r="E60" s="110"/>
       <c r="G60" s="9"/>
       <c r="H60" s="4"/>
       <c r="I60" s="10"/>
+      <c r="J60" s="1"/>
       <c r="K60" s="9"/>
       <c r="L60" s="4"/>
       <c r="M60" s="10"/>
       <c r="O60" s="9"/>
       <c r="P60" s="4"/>
       <c r="Q60" s="10"/>
-      <c r="S60" s="82"/>
+      <c r="S60" s="75"/>
       <c r="T60" s="4"/>
-      <c r="U60" s="83"/>
-      <c r="W60" s="82"/>
+      <c r="U60" s="76"/>
+      <c r="W60" s="75"/>
       <c r="X60" s="4"/>
-      <c r="Y60" s="83"/>
+      <c r="Y60" s="76"/>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A61" s="114"/>
-      <c r="B61" s="119"/>
-      <c r="C61" s="120"/>
-      <c r="D61" s="121"/>
-      <c r="E61" s="117"/>
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A61" s="107"/>
+      <c r="B61" s="112"/>
+      <c r="C61" s="113"/>
+      <c r="D61" s="114"/>
+      <c r="E61" s="110"/>
       <c r="G61" s="9"/>
       <c r="H61" s="4"/>
       <c r="I61" s="10"/>
+      <c r="J61" s="1"/>
       <c r="K61" s="9"/>
       <c r="L61" s="4"/>
       <c r="M61" s="10"/>
       <c r="O61" s="9"/>
       <c r="P61" s="4"/>
       <c r="Q61" s="10"/>
-      <c r="S61" s="82"/>
+      <c r="S61" s="75"/>
       <c r="T61" s="4"/>
-      <c r="U61" s="83"/>
-      <c r="W61" s="82"/>
+      <c r="U61" s="76"/>
+      <c r="W61" s="75"/>
       <c r="X61" s="4"/>
-      <c r="Y61" s="83"/>
+      <c r="Y61" s="76"/>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A62" s="114"/>
-      <c r="B62" s="158"/>
-      <c r="C62" s="159"/>
-      <c r="D62" s="160"/>
-      <c r="E62" s="117"/>
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A62" s="107"/>
+      <c r="B62" s="151"/>
+      <c r="C62" s="152"/>
+      <c r="D62" s="153"/>
+      <c r="E62" s="110"/>
       <c r="G62" s="9"/>
       <c r="H62" s="4"/>
       <c r="I62" s="10"/>
+      <c r="J62" s="1"/>
       <c r="K62" s="9"/>
       <c r="L62" s="4"/>
       <c r="M62" s="10"/>
       <c r="O62" s="9"/>
       <c r="P62" s="4"/>
       <c r="Q62" s="10"/>
-      <c r="S62" s="82"/>
+      <c r="S62" s="75"/>
       <c r="T62" s="4"/>
-      <c r="U62" s="83"/>
-      <c r="W62" s="82"/>
+      <c r="U62" s="76"/>
+      <c r="W62" s="75"/>
       <c r="X62" s="4"/>
-      <c r="Y62" s="83"/>
+      <c r="Y62" s="76"/>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A63" s="114"/>
-      <c r="B63" s="158"/>
-      <c r="C63" s="159"/>
-      <c r="D63" s="160"/>
-      <c r="E63" s="117"/>
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A63" s="107"/>
+      <c r="B63" s="151"/>
+      <c r="C63" s="152"/>
+      <c r="D63" s="153"/>
+      <c r="E63" s="110"/>
       <c r="G63" s="9"/>
       <c r="H63" s="4"/>
       <c r="I63" s="10"/>
+      <c r="J63" s="1"/>
       <c r="K63" s="9"/>
       <c r="L63" s="4"/>
       <c r="M63" s="10"/>
       <c r="O63" s="9"/>
       <c r="P63" s="4"/>
       <c r="Q63" s="10"/>
-      <c r="S63" s="82"/>
+      <c r="S63" s="75"/>
       <c r="T63" s="4"/>
-      <c r="U63" s="83"/>
-      <c r="W63" s="82"/>
+      <c r="U63" s="76"/>
+      <c r="W63" s="75"/>
       <c r="X63" s="4"/>
-      <c r="Y63" s="83"/>
+      <c r="Y63" s="76"/>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A64" s="114"/>
-      <c r="B64" s="158"/>
-      <c r="C64" s="159"/>
-      <c r="D64" s="160"/>
-      <c r="E64" s="117"/>
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A64" s="107"/>
+      <c r="B64" s="151"/>
+      <c r="C64" s="152"/>
+      <c r="D64" s="153"/>
+      <c r="E64" s="110"/>
       <c r="G64" s="9"/>
       <c r="H64" s="4"/>
       <c r="I64" s="10"/>
+      <c r="J64" s="1"/>
       <c r="K64" s="9"/>
       <c r="L64" s="4"/>
       <c r="M64" s="10"/>
       <c r="O64" s="9"/>
       <c r="P64" s="4"/>
       <c r="Q64" s="10"/>
-      <c r="S64" s="82"/>
+      <c r="S64" s="75"/>
       <c r="T64" s="4"/>
-      <c r="U64" s="83"/>
-      <c r="W64" s="82"/>
+      <c r="U64" s="76"/>
+      <c r="W64" s="75"/>
       <c r="X64" s="4"/>
-      <c r="Y64" s="83"/>
+      <c r="Y64" s="76"/>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A65" s="114"/>
-      <c r="B65" s="158"/>
-      <c r="C65" s="159"/>
-      <c r="D65" s="160"/>
-      <c r="E65" s="117"/>
+    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A65" s="107"/>
+      <c r="B65" s="151"/>
+      <c r="C65" s="152"/>
+      <c r="D65" s="153"/>
+      <c r="E65" s="110"/>
       <c r="G65" s="9"/>
       <c r="H65" s="4"/>
       <c r="I65" s="10"/>
+      <c r="J65" s="1"/>
       <c r="K65" s="9"/>
       <c r="L65" s="4"/>
       <c r="M65" s="10"/>
       <c r="O65" s="9"/>
       <c r="P65" s="4"/>
       <c r="Q65" s="10"/>
-      <c r="S65" s="82"/>
+      <c r="S65" s="75"/>
       <c r="T65" s="4"/>
-      <c r="U65" s="83"/>
-      <c r="W65" s="82"/>
+      <c r="U65" s="76"/>
+      <c r="W65" s="75"/>
       <c r="X65" s="4"/>
-      <c r="Y65" s="83"/>
+      <c r="Y65" s="76"/>
     </row>
-    <row r="66" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="115"/>
-      <c r="B66" s="149"/>
-      <c r="C66" s="150"/>
-      <c r="D66" s="151"/>
-      <c r="E66" s="118"/>
+    <row r="66" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="108"/>
+      <c r="B66" s="142"/>
+      <c r="C66" s="143"/>
+      <c r="D66" s="144"/>
+      <c r="E66" s="111"/>
       <c r="G66" s="11"/>
       <c r="H66" s="12"/>
       <c r="I66" s="13"/>
+      <c r="J66" s="1"/>
       <c r="K66" s="11"/>
       <c r="L66" s="12"/>
       <c r="M66" s="13"/>
       <c r="O66" s="11"/>
       <c r="P66" s="12"/>
       <c r="Q66" s="13"/>
-      <c r="S66" s="98"/>
-      <c r="T66" s="99"/>
-      <c r="U66" s="100"/>
-      <c r="W66" s="98"/>
-      <c r="X66" s="99"/>
-      <c r="Y66" s="100"/>
+      <c r="S66" s="91"/>
+      <c r="T66" s="92"/>
+      <c r="U66" s="93"/>
+      <c r="W66" s="91"/>
+      <c r="X66" s="92"/>
+      <c r="Y66" s="93"/>
     </row>
-    <row r="67" spans="1:25" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="67" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection insertColumns="0" insertRows="0"/>
   <protectedRanges>
-    <protectedRange sqref="A26:H26 Q13:X26 V11:X11 A7:X7 J26:P26 D8:Y8 A22:B25 D22:P25 A21:P21 D12:X12 D11:T11 A8:B20 D9:X10 D13:P20" name="Contact Fields"/>
+    <protectedRange sqref="A26:E26 A7:E7 A22:B25 A21:C21 A8:B20 E8:E25 G26:H26 G7:I25 K7:M26 O7:Q26 S11:T11 S7:U10 S12:U26 W7:X7 W8:Y8 W9:X26" name="Contact Fields"/>
     <protectedRange sqref="I26" name="Questionnaire"/>
     <protectedRange sqref="A1" name="Titel"/>
-    <protectedRange sqref="A56:Y66" name="Contact Fields_1_2"/>
-    <protectedRange sqref="S28:Y29 S42:Y42" name="customEntities_2"/>
-    <protectedRange sqref="N30:N41 J30:J41 R30:R41 A43:R53 A30:F41" name="Questionnaire_3"/>
+    <protectedRange sqref="A56:E66 W56:Y66 S56:U66 O56:Q66 K56:M66 G56:I66" name="Contact Fields_1_2"/>
+    <protectedRange sqref="S28:U29 S42:U42 W28:Y29 W42:Y42" name="customEntities_2"/>
+    <protectedRange sqref="A43:E53 A30:E41 O43:Q53 K43:M53 G43:I53" name="Questionnaire_3"/>
   </protectedRanges>
   <mergeCells count="20">
     <mergeCell ref="B66:D66"/>
@@ -5945,465 +5951,449 @@
     <mergeCell ref="O4:Q4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A27:AG27 A26:H26 J8 Q16:AG26 N8:R8 V13:AG15 U7:U8 V8 Z8:AG8 J26:P26 D8:F8 B22:B25 D22:P25 B21:P21 D16:P20 B8:B20 D9:AG12 D13:R15">
-    <cfRule type="expression" dxfId="111" priority="161">
+  <conditionalFormatting sqref="A26:E27 U7:U8 B22:B25 B21:C21 B8:B20 E8:E25 G9:I25 G26:H26 S9:U12 W9:Y27 S16:U27 O8:Q27 K9:M27 G27:I27">
+    <cfRule type="expression" dxfId="107" priority="163">
       <formula>$C7="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="110" priority="162">
+    <cfRule type="expression" dxfId="106" priority="164">
       <formula>$D7="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:A25">
-    <cfRule type="expression" dxfId="109" priority="149">
+    <cfRule type="expression" dxfId="105" priority="151">
       <formula>$C8="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="150">
+    <cfRule type="expression" dxfId="104" priority="152">
       <formula>$D8="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26">
-    <cfRule type="expression" dxfId="107" priority="143">
+    <cfRule type="expression" dxfId="103" priority="145">
       <formula>$C26="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="144">
+    <cfRule type="expression" dxfId="102" priority="146">
       <formula>$D26="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7:I8">
-    <cfRule type="expression" dxfId="105" priority="141">
+    <cfRule type="expression" dxfId="101" priority="143">
       <formula>$C7="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="104" priority="142">
+    <cfRule type="expression" dxfId="100" priority="144">
       <formula>$D7="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8:I8">
-    <cfRule type="expression" dxfId="103" priority="165">
+    <cfRule type="expression" dxfId="99" priority="167">
       <formula>$C13="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="166">
+    <cfRule type="expression" dxfId="98" priority="168">
       <formula>$D13="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S13:U13">
-    <cfRule type="expression" dxfId="101" priority="135">
+    <cfRule type="expression" dxfId="97" priority="137">
       <formula>$C13="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="136">
+    <cfRule type="expression" dxfId="96" priority="138">
       <formula>$D13="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S14:U15">
-    <cfRule type="expression" dxfId="99" priority="127">
+    <cfRule type="expression" dxfId="95" priority="129">
       <formula>$C14="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="98" priority="128">
+    <cfRule type="expression" dxfId="94" priority="130">
       <formula>$D14="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S7:T8">
-    <cfRule type="expression" dxfId="97" priority="125">
+    <cfRule type="expression" dxfId="93" priority="127">
       <formula>$C7="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="126">
+    <cfRule type="expression" dxfId="92" priority="128">
       <formula>$D7="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W8:Y8">
-    <cfRule type="expression" dxfId="95" priority="121">
+    <cfRule type="expression" dxfId="91" priority="123">
       <formula>$C8="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="122">
+    <cfRule type="expression" dxfId="90" priority="124">
       <formula>$D8="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:M8">
-    <cfRule type="expression" dxfId="93" priority="117">
+    <cfRule type="expression" dxfId="89" priority="119">
       <formula>$C8="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="118">
+    <cfRule type="expression" dxfId="88" priority="120">
       <formula>$D8="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:M8">
-    <cfRule type="expression" dxfId="91" priority="119">
+    <cfRule type="expression" dxfId="87" priority="121">
       <formula>$C13="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="120">
+    <cfRule type="expression" dxfId="86" priority="122">
       <formula>$D13="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7:M7">
-    <cfRule type="expression" dxfId="89" priority="115">
+    <cfRule type="expression" dxfId="85" priority="117">
       <formula>$C7="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="116">
+    <cfRule type="expression" dxfId="84" priority="118">
       <formula>$D7="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A54:AE54">
-    <cfRule type="expression" dxfId="87" priority="107">
+  <conditionalFormatting sqref="A54:E54 W54:Y54 S54:U54 O54:Q54 K54:M54 G54:I54">
+    <cfRule type="expression" dxfId="83" priority="109">
       <formula>$C54="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="108">
+    <cfRule type="expression" dxfId="82" priority="110">
       <formula>$D54="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W56:Y66">
-    <cfRule type="expression" dxfId="85" priority="105">
+    <cfRule type="expression" dxfId="81" priority="107">
       <formula>$C56="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="106">
+    <cfRule type="expression" dxfId="80" priority="108">
       <formula>$D56="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S56:U66">
-    <cfRule type="expression" dxfId="83" priority="103">
+    <cfRule type="expression" dxfId="79" priority="105">
       <formula>$C56="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="104">
+    <cfRule type="expression" dxfId="78" priority="106">
       <formula>$D56="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O56:Q66">
-    <cfRule type="expression" dxfId="81" priority="101">
+    <cfRule type="expression" dxfId="77" priority="103">
       <formula>$C56="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="102">
+    <cfRule type="expression" dxfId="76" priority="104">
       <formula>$D56="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K56:M66">
-    <cfRule type="expression" dxfId="79" priority="99">
+    <cfRule type="expression" dxfId="75" priority="101">
       <formula>$C56="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="100">
+    <cfRule type="expression" dxfId="74" priority="102">
       <formula>$D56="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G56:I66">
-    <cfRule type="expression" dxfId="77" priority="97">
+    <cfRule type="expression" dxfId="73" priority="99">
       <formula>$C56="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="98">
+    <cfRule type="expression" dxfId="72" priority="100">
       <formula>$D56="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z30:AG35 A42:Y42 AA36:AG53 B35 A35:A37 C35:F37 A29:AG29 A28:F28 J28 N28 R28:AG28 A30:F34 A38:F41 N30:N41 J30:J41 R30:R41 A43:R53">
-    <cfRule type="expression" dxfId="75" priority="95">
+  <conditionalFormatting sqref="B35 A35:A37 C35:E37 A28:E34 A38:E53 W28:Y29 W42:Y42 S28:U29 S42:U42 O42:Q53 O29:Q29 K42:M53 K29:M29 G42:I53 G29:I29">
+    <cfRule type="expression" dxfId="71" priority="97">
       <formula>$C28="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="96">
+    <cfRule type="expression" dxfId="70" priority="98">
       <formula>$D28="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36:B37">
-    <cfRule type="expression" dxfId="73" priority="93">
+    <cfRule type="expression" dxfId="69" priority="95">
       <formula>$C35="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="94">
+    <cfRule type="expression" dxfId="68" priority="96">
       <formula>$D35="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O30:O31">
-    <cfRule type="expression" dxfId="71" priority="91">
+    <cfRule type="expression" dxfId="67" priority="93">
       <formula>$C30="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="92">
+    <cfRule type="expression" dxfId="66" priority="94">
       <formula>$D30="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P30:Q31">
-    <cfRule type="expression" dxfId="69" priority="89">
+    <cfRule type="expression" dxfId="65" priority="91">
       <formula>$C30="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="90">
+    <cfRule type="expression" dxfId="64" priority="92">
       <formula>$D30="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O32:O41">
-    <cfRule type="expression" dxfId="67" priority="87">
+    <cfRule type="expression" dxfId="63" priority="89">
       <formula>$C32="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="88">
+    <cfRule type="expression" dxfId="62" priority="90">
       <formula>$D32="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P32:Q41">
-    <cfRule type="expression" dxfId="65" priority="85">
+    <cfRule type="expression" dxfId="61" priority="87">
       <formula>$C32="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="86">
+    <cfRule type="expression" dxfId="60" priority="88">
       <formula>$D32="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K30:K31">
-    <cfRule type="expression" dxfId="63" priority="83">
+    <cfRule type="expression" dxfId="59" priority="85">
       <formula>$C30="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="84">
+    <cfRule type="expression" dxfId="58" priority="86">
       <formula>$D30="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L30:M31">
-    <cfRule type="expression" dxfId="61" priority="81">
+    <cfRule type="expression" dxfId="57" priority="83">
       <formula>$C30="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="82">
+    <cfRule type="expression" dxfId="56" priority="84">
       <formula>$D30="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K32:K41">
-    <cfRule type="expression" dxfId="59" priority="79">
+    <cfRule type="expression" dxfId="55" priority="81">
       <formula>$C32="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="80">
+    <cfRule type="expression" dxfId="54" priority="82">
       <formula>$D32="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L32:M41">
-    <cfRule type="expression" dxfId="57" priority="77">
+    <cfRule type="expression" dxfId="53" priority="79">
       <formula>$C32="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="78">
+    <cfRule type="expression" dxfId="52" priority="80">
       <formula>$D32="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30:G31">
-    <cfRule type="expression" dxfId="55" priority="75">
+    <cfRule type="expression" dxfId="51" priority="77">
       <formula>$C30="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="76">
+    <cfRule type="expression" dxfId="50" priority="78">
       <formula>$D30="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30:I31">
-    <cfRule type="expression" dxfId="53" priority="73">
+    <cfRule type="expression" dxfId="49" priority="75">
       <formula>$C30="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="74">
+    <cfRule type="expression" dxfId="48" priority="76">
       <formula>$D30="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32:G41">
-    <cfRule type="expression" dxfId="51" priority="71">
+    <cfRule type="expression" dxfId="47" priority="73">
       <formula>$C32="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="72">
+    <cfRule type="expression" dxfId="46" priority="74">
       <formula>$D32="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32:I41">
-    <cfRule type="expression" dxfId="49" priority="69">
+    <cfRule type="expression" dxfId="45" priority="71">
       <formula>$C32="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="70">
+    <cfRule type="expression" dxfId="44" priority="72">
       <formula>$D32="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S30:Y40">
-    <cfRule type="expression" dxfId="47" priority="67">
+  <conditionalFormatting sqref="S30:U40 W30:Y40">
+    <cfRule type="expression" dxfId="43" priority="69">
       <formula>$C30="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="68">
+    <cfRule type="expression" dxfId="42" priority="70">
       <formula>$D30="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S43:Y52">
-    <cfRule type="expression" dxfId="45" priority="65">
+  <conditionalFormatting sqref="S43:U52 W43:Y52">
+    <cfRule type="expression" dxfId="41" priority="67">
       <formula>$C43="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="66">
+    <cfRule type="expression" dxfId="40" priority="68">
       <formula>$D43="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S53:Y53">
-    <cfRule type="expression" dxfId="43" priority="63">
+  <conditionalFormatting sqref="S53:U53 W53:Y53">
+    <cfRule type="expression" dxfId="39" priority="65">
       <formula>$C53="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="64">
+    <cfRule type="expression" dxfId="38" priority="66">
       <formula>$D53="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S41:Y41">
-    <cfRule type="expression" dxfId="41" priority="61">
+  <conditionalFormatting sqref="S41:U41 W41:Y41">
+    <cfRule type="expression" dxfId="37" priority="63">
       <formula>$C41="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="62">
-      <formula>$D41="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z50">
-    <cfRule type="expression" dxfId="39" priority="109">
-      <formula>$C54="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="38" priority="110">
-      <formula>$D54="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z36 Z41:Z48">
-    <cfRule type="expression" dxfId="37" priority="111">
-      <formula>$C39="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="36" priority="112">
-      <formula>$D39="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z49 Z37:Z40">
-    <cfRule type="expression" dxfId="35" priority="113">
-      <formula>$C41="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="34" priority="114">
+    <cfRule type="expression" dxfId="36" priority="64">
       <formula>$D41="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="expression" dxfId="33" priority="57">
+    <cfRule type="expression" dxfId="35" priority="59">
       <formula>$C25="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="58">
+    <cfRule type="expression" dxfId="34" priority="60">
       <formula>$D25="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24">
-    <cfRule type="expression" dxfId="31" priority="55">
+    <cfRule type="expression" dxfId="33" priority="57">
       <formula>$C24="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="56">
+    <cfRule type="expression" dxfId="32" priority="58">
       <formula>$D24="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23">
-    <cfRule type="expression" dxfId="29" priority="53">
+    <cfRule type="expression" dxfId="31" priority="55">
       <formula>$C23="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="54">
+    <cfRule type="expression" dxfId="30" priority="56">
       <formula>$D23="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="expression" dxfId="27" priority="49">
+    <cfRule type="expression" dxfId="29" priority="51">
       <formula>$C20="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="50">
+    <cfRule type="expression" dxfId="28" priority="52">
       <formula>$D20="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22">
-    <cfRule type="expression" dxfId="25" priority="45">
+    <cfRule type="expression" dxfId="27" priority="47">
       <formula>$C22="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="46">
+    <cfRule type="expression" dxfId="26" priority="48">
       <formula>$D22="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19">
-    <cfRule type="expression" dxfId="23" priority="43">
+    <cfRule type="expression" dxfId="25" priority="45">
       <formula>$C19="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="44">
+    <cfRule type="expression" dxfId="24" priority="46">
       <formula>$D19="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18">
-    <cfRule type="expression" dxfId="21" priority="41">
+    <cfRule type="expression" dxfId="23" priority="43">
       <formula>$C18="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="42">
+    <cfRule type="expression" dxfId="22" priority="44">
       <formula>$D18="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="expression" dxfId="19" priority="19">
+    <cfRule type="expression" dxfId="21" priority="21">
       <formula>$C8="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="20">
+    <cfRule type="expression" dxfId="20" priority="22">
       <formula>$D8="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="expression" dxfId="17" priority="17">
+    <cfRule type="expression" dxfId="19" priority="19">
       <formula>$C17="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="18">
+    <cfRule type="expression" dxfId="18" priority="20">
       <formula>$D17="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="15" priority="15">
+    <cfRule type="expression" dxfId="17" priority="17">
       <formula>$C16="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="16">
+    <cfRule type="expression" dxfId="16" priority="18">
       <formula>$D16="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="expression" dxfId="13" priority="13">
+    <cfRule type="expression" dxfId="15" priority="15">
       <formula>$C15="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="14">
+    <cfRule type="expression" dxfId="14" priority="16">
       <formula>$D15="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="11" priority="11">
+    <cfRule type="expression" dxfId="13" priority="13">
       <formula>$C14="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="12">
+    <cfRule type="expression" dxfId="12" priority="14">
       <formula>$D14="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="expression" dxfId="9" priority="9">
+    <cfRule type="expression" dxfId="11" priority="11">
       <formula>$C13="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="10">
+    <cfRule type="expression" dxfId="10" priority="12">
       <formula>$D13="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="7" priority="7">
+    <cfRule type="expression" dxfId="9" priority="9">
       <formula>$C12="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="8">
+    <cfRule type="expression" dxfId="8" priority="10">
       <formula>$D12="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="5" priority="5">
+    <cfRule type="expression" dxfId="7" priority="7">
       <formula>$C11="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="6">
+    <cfRule type="expression" dxfId="6" priority="8">
       <formula>$D11="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="5" priority="5">
       <formula>$C10="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="4" priority="6">
       <formula>$D10="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>$C9="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>$D9="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8:D25">
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>$C9="x"</formula>
+      <formula>$C8="x"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="2">
-      <formula>$D9="x"</formula>
+      <formula>$D8="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C43:D53 C30:D41 C22:C25 D8 C8:C20" xr:uid="{800895DA-5639-438C-B977-CBBACBEDFF96}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C43:D53 C30:D41 C22:C25 C8:C20 D8:D25" xr:uid="{800895DA-5639-438C-B977-CBBACBEDFF96}">
       <formula1>"x"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:D7 D9:D26 C26 C21" xr:uid="{25196C70-295C-43FF-A050-7D2EA327A7B4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:D7 C21 C26:D26" xr:uid="{25196C70-295C-43FF-A050-7D2EA327A7B4}">
       <formula1>#REF!</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M26 Q26 U26:U27 Y26 Y41 U41 Q41 M41 I41 I53 M53:M54 Q53 U53 Y53 Y66 U66 Q66 M66 I66 I26" xr:uid="{5905A3FA-A0A9-4ACB-AB03-F564AC49D5A8}">
       <formula1>"text,boolean,number,picklist,multiplicklist,lookup,date"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I25 M7:M25 Q7:Q25 U7:U25 Y7:Y25 Y30:Y40 U30:U40 Q30:Q40 M30:M40 I30:I40 I43:I52 M43:M52 Q43:Q52 U43:U52 Y43:Y52 Y56:Y65 U56:U64 U65 Q56:Q65 M56:M65 I56:I65" xr:uid="{9A7D82B0-A986-4BF2-896C-7E9AE4903B38}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I25 M7:M25 Q7:Q25 U7:U25 Y7:Y25 Y30:Y40 U30:U40 Q30:Q40 M30:M40 I30:I40 I43:I52 M43:M52 Q43:Q52 U43:U52 Y43:Y52 Y56:Y65 U56:U65 Q56:Q65 M56:M65 I56:I65" xr:uid="{9A7D82B0-A986-4BF2-896C-7E9AE4903B38}">
       <formula1>"text,boolean,number,picklist,multiplcklist,lookup,date"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6414,6 +6404,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010060A44420B6B801499790497461B7617A" ma:contentTypeVersion="11" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="fabbcee23a04d27af1ae9e54f4461bef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8f774076-1ef3-4740-8929-5969f04599b3" xmlns:ns4="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c03e0335abb4116b770311e5abaeb524" ns3:_="" ns4:_="">
     <xsd:import namespace="8f774076-1ef3-4740-8929-5969f04599b3"/>
@@ -6622,7 +6618,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -6631,13 +6627,24 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDAAE1C4-DB1B-4159-B8B9-55C0242E8521}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="8f774076-1ef3-4740-8929-5969f04599b3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4CDBC7-0A6E-420D-A4CD-91BDFDE80302}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6656,27 +6663,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDAAE1C4-DB1B-4159-B8B9-55C0242E8521}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="8f774076-1ef3-4740-8929-5969f04599b3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/default-mappings-xlsx/visitreport/VisitReport_Mapping_Salesforce_DE.xlsx
+++ b/default-mappings-xlsx/visitreport/VisitReport_Mapping_Salesforce_DE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitHub\snapaddy-faq-attachments\default-mappings-xlsx\visitreport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3CEFE2-3602-4151-8E5C-F98BB05A0C09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{159638C9-ABB0-4BB1-BF25-BF7974EE2824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1924,45 +1924,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1990,6 +1951,24 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1998,6 +1977,27 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3886,8 +3886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5027446F-BBDF-4A57-AA45-BC7D0EB64201}">
   <dimension ref="A1:AG67"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U9" sqref="U9"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -3947,32 +3947,32 @@
         <v>71</v>
       </c>
       <c r="E4" s="32"/>
-      <c r="G4" s="132" t="s">
+      <c r="G4" s="153" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="132"/>
-      <c r="I4" s="132"/>
+      <c r="H4" s="153"/>
+      <c r="I4" s="153"/>
       <c r="J4" s="6"/>
-      <c r="K4" s="132" t="s">
+      <c r="K4" s="153" t="s">
         <v>29</v>
       </c>
-      <c r="L4" s="132"/>
-      <c r="M4" s="132"/>
-      <c r="O4" s="132" t="s">
+      <c r="L4" s="153"/>
+      <c r="M4" s="153"/>
+      <c r="O4" s="153" t="s">
         <v>30</v>
       </c>
-      <c r="P4" s="132"/>
-      <c r="Q4" s="132"/>
-      <c r="S4" s="129" t="s">
+      <c r="P4" s="153"/>
+      <c r="Q4" s="153"/>
+      <c r="S4" s="150" t="s">
         <v>38</v>
       </c>
-      <c r="T4" s="130"/>
-      <c r="U4" s="131"/>
-      <c r="W4" s="129" t="s">
+      <c r="T4" s="151"/>
+      <c r="U4" s="152"/>
+      <c r="W4" s="150" t="s">
         <v>70</v>
       </c>
-      <c r="X4" s="130"/>
-      <c r="Y4" s="131"/>
+      <c r="X4" s="151"/>
+      <c r="Y4" s="152"/>
     </row>
     <row r="5" spans="1:33" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4856,32 +4856,32 @@
       <c r="C28" s="61"/>
       <c r="D28" s="61"/>
       <c r="E28" s="61"/>
-      <c r="G28" s="145" t="s">
+      <c r="G28" s="132" t="s">
         <v>27</v>
       </c>
-      <c r="H28" s="146"/>
-      <c r="I28" s="147"/>
+      <c r="H28" s="133"/>
+      <c r="I28" s="134"/>
       <c r="J28" s="1"/>
-      <c r="K28" s="145" t="s">
+      <c r="K28" s="132" t="s">
         <v>29</v>
       </c>
-      <c r="L28" s="146"/>
-      <c r="M28" s="147"/>
-      <c r="O28" s="148" t="s">
+      <c r="L28" s="133"/>
+      <c r="M28" s="134"/>
+      <c r="O28" s="135" t="s">
         <v>30</v>
       </c>
-      <c r="P28" s="149"/>
-      <c r="Q28" s="150"/>
-      <c r="S28" s="133" t="s">
+      <c r="P28" s="136"/>
+      <c r="Q28" s="137"/>
+      <c r="S28" s="138" t="s">
         <v>79</v>
       </c>
-      <c r="T28" s="134"/>
-      <c r="U28" s="135"/>
-      <c r="W28" s="133" t="s">
+      <c r="T28" s="139"/>
+      <c r="U28" s="140"/>
+      <c r="W28" s="138" t="s">
         <v>79</v>
       </c>
-      <c r="X28" s="134"/>
-      <c r="Y28" s="135"/>
+      <c r="X28" s="139"/>
+      <c r="Y28" s="140"/>
     </row>
     <row r="29" spans="1:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="62" t="s">
@@ -5652,11 +5652,11 @@
       <c r="A56" s="115" t="s">
         <v>52</v>
       </c>
-      <c r="B56" s="136" t="s">
+      <c r="B56" s="147" t="s">
         <v>53</v>
       </c>
-      <c r="C56" s="137"/>
-      <c r="D56" s="138"/>
+      <c r="C56" s="148"/>
+      <c r="D56" s="149"/>
       <c r="E56" s="109"/>
       <c r="G56" s="9"/>
       <c r="H56" s="4"/>
@@ -5679,11 +5679,11 @@
       <c r="A57" s="116" t="s">
         <v>54</v>
       </c>
-      <c r="B57" s="139" t="s">
+      <c r="B57" s="141" t="s">
         <v>55</v>
       </c>
-      <c r="C57" s="140"/>
-      <c r="D57" s="141"/>
+      <c r="C57" s="142"/>
+      <c r="D57" s="143"/>
       <c r="E57" s="110"/>
       <c r="G57" s="9"/>
       <c r="H57" s="4"/>
@@ -5706,11 +5706,11 @@
       <c r="A58" s="116" t="s">
         <v>56</v>
       </c>
-      <c r="B58" s="139" t="s">
+      <c r="B58" s="141" t="s">
         <v>57</v>
       </c>
-      <c r="C58" s="140"/>
-      <c r="D58" s="141"/>
+      <c r="C58" s="142"/>
+      <c r="D58" s="143"/>
       <c r="E58" s="110"/>
       <c r="G58" s="9"/>
       <c r="H58" s="4"/>
@@ -5733,11 +5733,11 @@
       <c r="A59" s="116" t="s">
         <v>58</v>
       </c>
-      <c r="B59" s="139" t="s">
+      <c r="B59" s="141" t="s">
         <v>59</v>
       </c>
-      <c r="C59" s="140"/>
-      <c r="D59" s="141"/>
+      <c r="C59" s="142"/>
+      <c r="D59" s="143"/>
       <c r="E59" s="110"/>
       <c r="G59" s="9"/>
       <c r="H59" s="4"/>
@@ -5758,9 +5758,9 @@
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60" s="116"/>
-      <c r="B60" s="139"/>
-      <c r="C60" s="140"/>
-      <c r="D60" s="141"/>
+      <c r="B60" s="141"/>
+      <c r="C60" s="142"/>
+      <c r="D60" s="143"/>
       <c r="E60" s="110"/>
       <c r="G60" s="9"/>
       <c r="H60" s="4"/>
@@ -5804,9 +5804,9 @@
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62" s="107"/>
-      <c r="B62" s="151"/>
-      <c r="C62" s="152"/>
-      <c r="D62" s="153"/>
+      <c r="B62" s="144"/>
+      <c r="C62" s="145"/>
+      <c r="D62" s="146"/>
       <c r="E62" s="110"/>
       <c r="G62" s="9"/>
       <c r="H62" s="4"/>
@@ -5827,9 +5827,9 @@
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63" s="107"/>
-      <c r="B63" s="151"/>
-      <c r="C63" s="152"/>
-      <c r="D63" s="153"/>
+      <c r="B63" s="144"/>
+      <c r="C63" s="145"/>
+      <c r="D63" s="146"/>
       <c r="E63" s="110"/>
       <c r="G63" s="9"/>
       <c r="H63" s="4"/>
@@ -5850,9 +5850,9 @@
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64" s="107"/>
-      <c r="B64" s="151"/>
-      <c r="C64" s="152"/>
-      <c r="D64" s="153"/>
+      <c r="B64" s="144"/>
+      <c r="C64" s="145"/>
+      <c r="D64" s="146"/>
       <c r="E64" s="110"/>
       <c r="G64" s="9"/>
       <c r="H64" s="4"/>
@@ -5873,9 +5873,9 @@
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65" s="107"/>
-      <c r="B65" s="151"/>
-      <c r="C65" s="152"/>
-      <c r="D65" s="153"/>
+      <c r="B65" s="144"/>
+      <c r="C65" s="145"/>
+      <c r="D65" s="146"/>
       <c r="E65" s="110"/>
       <c r="G65" s="9"/>
       <c r="H65" s="4"/>
@@ -5896,9 +5896,9 @@
     </row>
     <row r="66" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="108"/>
-      <c r="B66" s="142"/>
-      <c r="C66" s="143"/>
-      <c r="D66" s="144"/>
+      <c r="B66" s="129"/>
+      <c r="C66" s="130"/>
+      <c r="D66" s="131"/>
       <c r="E66" s="111"/>
       <c r="G66" s="11"/>
       <c r="H66" s="12"/>
@@ -5929,6 +5929,16 @@
     <protectedRange sqref="A43:E53 A30:E41 O43:Q53 K43:M53 G43:I53" name="Questionnaire_3"/>
   </protectedRanges>
   <mergeCells count="20">
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="W28:Y28"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
     <mergeCell ref="B66:D66"/>
     <mergeCell ref="G28:I28"/>
     <mergeCell ref="K28:M28"/>
@@ -5939,16 +5949,6 @@
     <mergeCell ref="B63:D63"/>
     <mergeCell ref="B64:D64"/>
     <mergeCell ref="B65:D65"/>
-    <mergeCell ref="W28:Y28"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="O4:Q4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A26:E27 U7:U8 B22:B25 B21:C21 B8:B20 E8:E25 G9:I25 G26:H26 S9:U12 W9:Y27 S16:U27 O8:Q27 K9:M27 G27:I27">
@@ -6390,11 +6390,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:D7 C21 C26:D26" xr:uid="{25196C70-295C-43FF-A050-7D2EA327A7B4}">
       <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M26 Q26 U26:U27 Y26 Y41 U41 Q41 M41 I41 I53 M53:M54 Q53 U53 Y53 Y66 U66 Q66 M66 I66 I26" xr:uid="{5905A3FA-A0A9-4ACB-AB03-F564AC49D5A8}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M54 U27" xr:uid="{5905A3FA-A0A9-4ACB-AB03-F564AC49D5A8}">
       <formula1>"text,boolean,number,picklist,multiplicklist,lookup,date"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I25 M7:M25 Q7:Q25 U7:U25 Y7:Y25 Y30:Y40 U30:U40 Q30:Q40 M30:M40 I30:I40 I43:I52 M43:M52 Q43:Q52 U43:U52 Y43:Y52 Y56:Y65 U56:U65 Q56:Q65 M56:M65 I56:I65" xr:uid="{9A7D82B0-A986-4BF2-896C-7E9AE4903B38}">
-      <formula1>"text,boolean,number,picklist,multiplcklist,lookup,date"</formula1>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I26 M7:M26 Q7:Q26 U7:U26 Y7:Y26 I30:I40 I41 M30:M41 Q30:Q41 U30:U41 Y30:Y41 I43:I53 M43:M53 Q43:Q53 U43:U53 Y43:Y53 I56:I66 M56:M66 Q56:Q66 U56:U66 Y56:Y66" xr:uid="{13F886EE-2049-4872-8000-2EDC346D8041}">
+      <formula1>"text;boolean;number;picklist;multipicklist;lookup;date"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -6404,12 +6404,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010060A44420B6B801499790497461B7617A" ma:contentTypeVersion="11" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="fabbcee23a04d27af1ae9e54f4461bef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8f774076-1ef3-4740-8929-5969f04599b3" xmlns:ns4="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c03e0335abb4116b770311e5abaeb524" ns3:_="" ns4:_="">
     <xsd:import namespace="8f774076-1ef3-4740-8929-5969f04599b3"/>
@@ -6618,6 +6612,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -6628,23 +6628,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDAAE1C4-DB1B-4159-B8B9-55C0242E8521}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="8f774076-1ef3-4740-8929-5969f04599b3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4CDBC7-0A6E-420D-A4CD-91BDFDE80302}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6663,6 +6646,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDAAE1C4-DB1B-4159-B8B9-55C0242E8521}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="8f774076-1ef3-4740-8929-5969f04599b3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
   <ds:schemaRefs>
